--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mateus.cruz\Documents\GitHub\OrchestratorManager\Workbooks\JA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{355A9D7D-DDB4-41E6-A81F-A421600ADE17}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6EF8F-EAB5-4759-9998-2D1D80FCD64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -35,96 +35,219 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>フォルダー ID</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>フォルダー名</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>トリガー ID</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>トリガー名</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>有効</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>プロセス名</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>入力パラメーター</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダー使用</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>開始方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始 cron 式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>開始 cron 式の詳細</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>停止方法</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>停止日付</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>停止 cron 式</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>タイムゾーン</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外部ジョブ キー</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブの優先度</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>トリガーするアイテムの最小数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定数のアイテムが追加されるごとに新しいジョブがトリガーされる</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>保留中および実行中のジョブの最大数</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>キュー名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>カレンダー名</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ジョブの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>フォルダー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>トリガー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有効</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>プロセス名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>入力パラメーター</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>カレンダー使用</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>開始方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>開始 cron 式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>開始 cron 式の詳細</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停止方法</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停止日付</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>停止 cron 式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>タイムゾーン</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>外部ジョブ キー</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ジョブの優先度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>トリガーするアイテムの最小数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>指定数のアイテムが追加されるごとに新しいジョブがトリガーされる</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>保留中および実行中のジョブの最大数</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>キュー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>カレンダー名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>ジョブの種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>指定数のアイテムが追加されるごとに新しいジョブがトリガーされる</t>
+    <t>トリガー ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>結果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>結果</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="8"/>
-      <name val="Calibri"/>
+      <name val="游ゴシック"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="6"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2116,27 +2239,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="4" width="25.7265625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="15.7265625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="25.7265625" customWidth="1"/>
-    <col min="7" max="7" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.7265625" customWidth="1"/>
-    <col min="10" max="16" width="25.7265625" customWidth="1"/>
-    <col min="17" max="17" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="69.1796875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="25.7265625" customWidth="1"/>
+    <col min="1" max="4" width="25.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="15.75" style="19" customWidth="1"/>
+    <col min="6" max="6" width="25.75" customWidth="1"/>
+    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="15.75" customWidth="1"/>
+    <col min="10" max="16" width="25.75" customWidth="1"/>
+    <col min="17" max="17" width="15.75" customWidth="1"/>
+    <col min="18" max="18" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="21" max="23" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2159,10 +2281,10 @@
         <v>6</v>
       </c>
       <c r="H1" s="21" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="I1" s="21" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="J1" s="21" t="s">
         <v>9</v>
@@ -2192,22 +2314,22 @@
         <v>17</v>
       </c>
       <c r="S1" s="21" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="T1" s="21" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="21" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2232,7 +2354,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2257,7 +2379,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2282,7 +2404,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2307,7 +2429,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2332,7 +2454,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2357,7 +2479,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2382,7 +2504,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2407,7 +2529,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2432,7 +2554,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2457,7 +2579,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2482,7 +2604,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2507,7 +2629,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2532,7 +2654,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2557,7 +2679,7 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2582,7 +2704,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2607,7 +2729,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2632,7 +2754,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2657,7 +2779,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2682,7 +2804,7 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2707,7 +2829,7 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2732,7 +2854,7 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2757,7 +2879,7 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2782,7 +2904,7 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2807,7 +2929,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2832,7 +2954,7 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2857,7 +2979,7 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2882,7 +3004,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2907,7 +3029,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2932,7 +3054,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -2957,7 +3079,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -2982,7 +3104,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3007,7 +3129,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3032,7 +3154,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3057,7 +3179,7 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3082,7 +3204,7 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3107,7 +3229,7 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3132,7 +3254,7 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3157,7 +3279,7 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3182,7 +3304,7 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3207,7 +3329,7 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3232,7 +3354,7 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3257,7 +3379,7 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3282,7 +3404,7 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3307,7 +3429,7 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3332,7 +3454,7 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3357,7 +3479,7 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3382,7 +3504,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3407,7 +3529,7 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3432,7 +3554,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3457,7 +3579,7 @@
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3482,7 +3604,7 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3507,7 +3629,7 @@
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3532,7 +3654,7 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3557,7 +3679,7 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3582,7 +3704,7 @@
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3607,7 +3729,7 @@
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3632,7 +3754,7 @@
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3657,7 +3779,7 @@
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3682,7 +3804,7 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3707,7 +3829,7 @@
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3732,7 +3854,7 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3757,7 +3879,7 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3782,7 +3904,7 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3807,7 +3929,7 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3832,7 +3954,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3857,7 +3979,7 @@
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3882,7 +4004,7 @@
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3907,7 +4029,7 @@
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3932,7 +4054,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3957,7 +4079,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3982,7 +4104,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4007,7 +4129,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4032,7 +4154,7 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4057,7 +4179,7 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4082,7 +4204,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4107,7 +4229,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4132,7 +4254,7 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4157,7 +4279,7 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4182,7 +4304,7 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4207,7 +4329,7 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4232,7 +4354,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4257,7 +4379,7 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4282,7 +4404,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4307,7 +4429,7 @@
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4332,7 +4454,7 @@
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4357,7 +4479,7 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4382,7 +4504,7 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4407,7 +4529,7 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4432,7 +4554,7 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4457,7 +4579,7 @@
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4482,7 +4604,7 @@
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4507,7 +4629,7 @@
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4532,7 +4654,7 @@
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4557,7 +4679,7 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4582,7 +4704,7 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4607,7 +4729,7 @@
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4632,7 +4754,7 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4657,7 +4779,7 @@
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4682,7 +4804,7 @@
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4707,7 +4829,7 @@
       <c r="V101" s="22"/>
       <c r="W101" s="22"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4732,7 +4854,7 @@
       <c r="V102" s="22"/>
       <c r="W102" s="22"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -4757,7 +4879,7 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4782,7 +4904,7 @@
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4807,7 +4929,7 @@
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -4832,7 +4954,7 @@
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -4857,7 +4979,7 @@
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4882,7 +5004,7 @@
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4907,7 +5029,7 @@
       <c r="V109" s="22"/>
       <c r="W109" s="22"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -4932,7 +5054,7 @@
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4957,7 +5079,7 @@
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -4982,7 +5104,7 @@
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -5007,7 +5129,7 @@
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -5032,7 +5154,7 @@
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5057,7 +5179,7 @@
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5082,7 +5204,7 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5107,7 +5229,7 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5132,7 +5254,7 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5157,7 +5279,7 @@
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5182,7 +5304,7 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5207,7 +5329,7 @@
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -5232,7 +5354,7 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5257,7 +5379,7 @@
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -5282,7 +5404,7 @@
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -5307,7 +5429,7 @@
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -5332,7 +5454,7 @@
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5357,7 +5479,7 @@
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5382,7 +5504,7 @@
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5407,7 +5529,7 @@
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -5432,7 +5554,7 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5457,7 +5579,7 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5482,7 +5604,7 @@
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -5507,7 +5629,7 @@
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5532,7 +5654,7 @@
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -5557,7 +5679,7 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5582,7 +5704,7 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5607,7 +5729,7 @@
       <c r="V137" s="6"/>
       <c r="W137" s="6"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -5632,7 +5754,7 @@
       <c r="V138" s="6"/>
       <c r="W138" s="6"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5657,7 +5779,7 @@
       <c r="V139" s="6"/>
       <c r="W139" s="6"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5682,7 +5804,7 @@
       <c r="V140" s="6"/>
       <c r="W140" s="6"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -5707,7 +5829,7 @@
       <c r="V141" s="6"/>
       <c r="W141" s="6"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -5732,7 +5854,7 @@
       <c r="V142" s="6"/>
       <c r="W142" s="6"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -5757,7 +5879,7 @@
       <c r="V143" s="6"/>
       <c r="W143" s="6"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -5782,7 +5904,7 @@
       <c r="V144" s="6"/>
       <c r="W144" s="6"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -5807,7 +5929,7 @@
       <c r="V145" s="6"/>
       <c r="W145" s="6"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -5832,7 +5954,7 @@
       <c r="V146" s="6"/>
       <c r="W146" s="6"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -5857,7 +5979,7 @@
       <c r="V147" s="6"/>
       <c r="W147" s="6"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -5882,7 +6004,7 @@
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -5907,7 +6029,7 @@
       <c r="V149" s="6"/>
       <c r="W149" s="6"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -5932,7 +6054,7 @@
       <c r="V150" s="6"/>
       <c r="W150" s="6"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -5957,7 +6079,7 @@
       <c r="V151" s="6"/>
       <c r="W151" s="6"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -5982,7 +6104,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -6007,7 +6129,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -6032,7 +6154,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -6057,7 +6179,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -6082,7 +6204,7 @@
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -6107,7 +6229,7 @@
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -6132,7 +6254,7 @@
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -6157,7 +6279,7 @@
       <c r="V159" s="6"/>
       <c r="W159" s="6"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -6182,7 +6304,7 @@
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -6207,7 +6329,7 @@
       <c r="V161" s="6"/>
       <c r="W161" s="6"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -6232,7 +6354,7 @@
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -6257,7 +6379,7 @@
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -6282,7 +6404,7 @@
       <c r="V164" s="6"/>
       <c r="W164" s="6"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -6307,7 +6429,7 @@
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -6332,7 +6454,7 @@
       <c r="V166" s="6"/>
       <c r="W166" s="6"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -6357,7 +6479,7 @@
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -6382,7 +6504,7 @@
       <c r="V168" s="6"/>
       <c r="W168" s="6"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -6407,7 +6529,7 @@
       <c r="V169" s="6"/>
       <c r="W169" s="6"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -6432,7 +6554,7 @@
       <c r="V170" s="6"/>
       <c r="W170" s="6"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -6457,7 +6579,7 @@
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -6482,7 +6604,7 @@
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -6507,7 +6629,7 @@
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -6532,7 +6654,7 @@
       <c r="V174" s="6"/>
       <c r="W174" s="6"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -6557,7 +6679,7 @@
       <c r="V175" s="6"/>
       <c r="W175" s="6"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -6582,7 +6704,7 @@
       <c r="V176" s="6"/>
       <c r="W176" s="6"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -6607,7 +6729,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -6632,7 +6754,7 @@
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -6657,7 +6779,7 @@
       <c r="V179" s="6"/>
       <c r="W179" s="6"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -6682,7 +6804,7 @@
       <c r="V180" s="6"/>
       <c r="W180" s="6"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -6707,7 +6829,7 @@
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -6732,7 +6854,7 @@
       <c r="V182" s="6"/>
       <c r="W182" s="6"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -6757,7 +6879,7 @@
       <c r="V183" s="6"/>
       <c r="W183" s="6"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -6782,7 +6904,7 @@
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -6807,7 +6929,7 @@
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -6832,7 +6954,7 @@
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -6857,7 +6979,7 @@
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -6882,7 +7004,7 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -6907,7 +7029,7 @@
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -6932,7 +7054,7 @@
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -6957,7 +7079,7 @@
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -6982,7 +7104,7 @@
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -7007,7 +7129,7 @@
       <c r="V193" s="6"/>
       <c r="W193" s="6"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -7032,7 +7154,7 @@
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -7057,7 +7179,7 @@
       <c r="V195" s="6"/>
       <c r="W195" s="6"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -7082,7 +7204,7 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -7107,7 +7229,7 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -7132,7 +7254,7 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -7157,7 +7279,7 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -7182,7 +7304,7 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -7208,14 +7330,18 @@
       <c r="W201" s="22"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="8">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なフォルダー ID" error="フォルダー ID は 0 より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{4697A7F3-EE98-42A5-B360-4F5DD4EC3444}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{4697A7F3-EE98-42A5-B360-4F5DD4EC3444}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な有効の値" error="サポートされている有効の値を選択してください。" sqref="E2:E1048576" xr:uid="{B350A249-7205-4F2E-B81A-36468D317633}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{E482C9A5-DAF0-4A53-ADC7-9AA1DC33EB48}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Enabled Option" error="Please select a supported Enabled option." sqref="E2:E1048576" xr:uid="{B350A249-7205-4F2E-B81A-36468D317633}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なカレンダー使用の値" error="サポートされているカレンダー使用を選択してください。" sqref="H2:H1048576" xr:uid="{109E8B57-70CD-4437-AA66-8AD40CC7D0CE}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Use Calendar Option" error="Please select a supported Use Calendar option." sqref="H2:H1048576" xr:uid="{109E8B57-70CD-4437-AA66-8AD40CC7D0CE}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Items Activ. Threshold" error="Items Activation Threshold must be an integer greater than 0." sqref="R2:R1048576" xr:uid="{03704348-D630-4E40-89A6-78090B5D5EFC}">
@@ -7229,9 +7355,6 @@
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Runtime Type" error="Please select a supported Runtime Type." sqref="W2:W1048576" xr:uid="{BA3C1366-D2FC-46F2-A910-7055F34C9AC8}">
       <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
-    </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なトリガー ID" error="トリガー ID は 0 より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{6247609C-C150-4D92-A7DD-25D5FB07CCFA}">
-      <formula1>0</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -7250,98 +7373,96 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="2" width="25.7265625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="15.54296875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.54296875" style="20" customWidth="1"/>
-    <col min="5" max="5" width="28.1796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.54296875" customWidth="1"/>
-    <col min="8" max="8" width="25.54296875" customWidth="1"/>
-    <col min="9" max="9" width="26.1796875" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="25.54296875" customWidth="1"/>
-    <col min="15" max="15" width="17.81640625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="32.81640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="69.1796875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="39.1796875" bestFit="1" customWidth="1"/>
-    <col min="19" max="21" width="25.54296875" customWidth="1"/>
-    <col min="22" max="22" width="15.54296875" customWidth="1"/>
-    <col min="23" max="23" width="45.54296875" customWidth="1"/>
+    <col min="1" max="2" width="25.75" style="1" customWidth="1"/>
+    <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.5" style="20" customWidth="1"/>
+    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="8" max="8" width="25.5" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="25.5" customWidth="1"/>
+    <col min="15" max="15" width="15.5" customWidth="1"/>
+    <col min="16" max="16" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>7</v>
+        <v>29</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="U1" s="13" t="s">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>2</v>
+        <v>44</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7366,7 +7487,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7391,7 +7512,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7416,7 +7537,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7441,7 +7562,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7466,7 +7587,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7491,7 +7612,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7516,7 +7637,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7541,7 +7662,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7566,7 +7687,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7591,7 +7712,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7616,7 +7737,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7641,7 +7762,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7666,7 +7787,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -7691,7 +7812,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7716,7 +7837,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7741,7 +7862,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -7766,7 +7887,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7791,7 +7912,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7816,7 +7937,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7841,7 +7962,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7866,7 +7987,7 @@
       <c r="V22" s="8"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7891,7 +8012,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7916,7 +8037,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7941,7 +8062,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7966,7 +8087,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7991,7 +8112,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -8016,7 +8137,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -8041,7 +8162,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -8066,7 +8187,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -8091,7 +8212,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -8116,7 +8237,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -8141,7 +8262,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -8166,7 +8287,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -8191,7 +8312,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -8216,7 +8337,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -8241,7 +8362,7 @@
       <c r="V37" s="8"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -8266,7 +8387,7 @@
       <c r="V38" s="8"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -8291,7 +8412,7 @@
       <c r="V39" s="8"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -8316,7 +8437,7 @@
       <c r="V40" s="8"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -8341,7 +8462,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -8366,7 +8487,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -8391,7 +8512,7 @@
       <c r="V43" s="8"/>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -8416,7 +8537,7 @@
       <c r="V44" s="8"/>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -8441,7 +8562,7 @@
       <c r="V45" s="8"/>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -8466,7 +8587,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -8491,7 +8612,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -8516,7 +8637,7 @@
       <c r="V48" s="8"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -8541,7 +8662,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -8566,7 +8687,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="5"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -8591,7 +8712,7 @@
       <c r="V51" s="8"/>
       <c r="W51" s="5"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -8616,7 +8737,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="5"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -8641,7 +8762,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="5"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -8666,7 +8787,7 @@
       <c r="V54" s="8"/>
       <c r="W54" s="5"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -8691,7 +8812,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="5"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -8716,7 +8837,7 @@
       <c r="V56" s="8"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -8741,7 +8862,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -8766,7 +8887,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="5"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -8791,7 +8912,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -8816,7 +8937,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="5"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -8841,7 +8962,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="5"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -8866,7 +8987,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="5"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -8891,7 +9012,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="5"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -8916,7 +9037,7 @@
       <c r="V64" s="8"/>
       <c r="W64" s="5"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -8941,7 +9062,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="5"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -8966,7 +9087,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -8991,7 +9112,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="5"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -9016,7 +9137,7 @@
       <c r="V68" s="8"/>
       <c r="W68" s="5"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -9041,7 +9162,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="5"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -9066,7 +9187,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="5"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -9091,7 +9212,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="5"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -9116,7 +9237,7 @@
       <c r="V72" s="8"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -9141,7 +9262,7 @@
       <c r="V73" s="8"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -9166,7 +9287,7 @@
       <c r="V74" s="8"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -9191,7 +9312,7 @@
       <c r="V75" s="8"/>
       <c r="W75" s="5"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -9216,7 +9337,7 @@
       <c r="V76" s="8"/>
       <c r="W76" s="5"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -9241,7 +9362,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="5"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -9266,7 +9387,7 @@
       <c r="V78" s="8"/>
       <c r="W78" s="5"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -9291,7 +9412,7 @@
       <c r="V79" s="8"/>
       <c r="W79" s="5"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -9316,7 +9437,7 @@
       <c r="V80" s="8"/>
       <c r="W80" s="5"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -9341,7 +9462,7 @@
       <c r="V81" s="8"/>
       <c r="W81" s="5"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -9366,7 +9487,7 @@
       <c r="V82" s="8"/>
       <c r="W82" s="5"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -9391,7 +9512,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="5"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -9416,7 +9537,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="5"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -9441,7 +9562,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="5"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -9466,7 +9587,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="5"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -9491,7 +9612,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="5"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -9516,7 +9637,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="5"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -9541,7 +9662,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="5"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -9566,7 +9687,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="5"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -9591,7 +9712,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="5"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -9616,7 +9737,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="5"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -9641,7 +9762,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="5"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -9666,7 +9787,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="5"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -9691,7 +9812,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="5"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -9716,7 +9837,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="5"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -9741,7 +9862,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="5"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -9766,7 +9887,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="5"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -9791,7 +9912,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="5"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -9816,7 +9937,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="5"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -9841,7 +9962,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="5"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -9866,7 +9987,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="5"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="11"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -9891,7 +10012,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="5"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="11"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -9916,7 +10037,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="5"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="11"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -9941,7 +10062,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="5"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="11"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -9966,7 +10087,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="5"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="11"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -9991,7 +10112,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="5"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="11"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -10016,7 +10137,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="5"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="11"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -10041,7 +10162,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="5"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="11"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -10066,7 +10187,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="5"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="11"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -10091,7 +10212,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="5"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="11"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -10116,7 +10237,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="5"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="11"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -10141,7 +10262,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="5"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="11"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -10166,7 +10287,7 @@
       <c r="V114" s="8"/>
       <c r="W114" s="5"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="11"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -10191,7 +10312,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="5"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="11"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -10216,7 +10337,7 @@
       <c r="V116" s="8"/>
       <c r="W116" s="5"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="11"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -10241,7 +10362,7 @@
       <c r="V117" s="8"/>
       <c r="W117" s="5"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="11"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -10266,7 +10387,7 @@
       <c r="V118" s="8"/>
       <c r="W118" s="5"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -10291,7 +10412,7 @@
       <c r="V119" s="8"/>
       <c r="W119" s="5"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="11"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -10316,7 +10437,7 @@
       <c r="V120" s="8"/>
       <c r="W120" s="5"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="11"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -10341,7 +10462,7 @@
       <c r="V121" s="8"/>
       <c r="W121" s="5"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="11"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -10366,7 +10487,7 @@
       <c r="V122" s="8"/>
       <c r="W122" s="5"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -10391,7 +10512,7 @@
       <c r="V123" s="8"/>
       <c r="W123" s="5"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="11"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -10416,7 +10537,7 @@
       <c r="V124" s="8"/>
       <c r="W124" s="5"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="11"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -10441,7 +10562,7 @@
       <c r="V125" s="8"/>
       <c r="W125" s="5"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="11"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -10466,7 +10587,7 @@
       <c r="V126" s="8"/>
       <c r="W126" s="5"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="11"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -10491,7 +10612,7 @@
       <c r="V127" s="8"/>
       <c r="W127" s="5"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="11"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -10516,7 +10637,7 @@
       <c r="V128" s="8"/>
       <c r="W128" s="5"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="11"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -10541,7 +10662,7 @@
       <c r="V129" s="8"/>
       <c r="W129" s="5"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="11"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -10566,7 +10687,7 @@
       <c r="V130" s="8"/>
       <c r="W130" s="5"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="11"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -10591,7 +10712,7 @@
       <c r="V131" s="8"/>
       <c r="W131" s="5"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="11"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -10616,7 +10737,7 @@
       <c r="V132" s="8"/>
       <c r="W132" s="5"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="11"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -10641,7 +10762,7 @@
       <c r="V133" s="8"/>
       <c r="W133" s="5"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="11"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -10666,7 +10787,7 @@
       <c r="V134" s="8"/>
       <c r="W134" s="5"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="11"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -10691,7 +10812,7 @@
       <c r="V135" s="8"/>
       <c r="W135" s="5"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="11"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -10716,7 +10837,7 @@
       <c r="V136" s="8"/>
       <c r="W136" s="5"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="11"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -10741,7 +10862,7 @@
       <c r="V137" s="8"/>
       <c r="W137" s="5"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="11"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -10766,7 +10887,7 @@
       <c r="V138" s="8"/>
       <c r="W138" s="5"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="11"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -10791,7 +10912,7 @@
       <c r="V139" s="8"/>
       <c r="W139" s="5"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="11"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -10816,7 +10937,7 @@
       <c r="V140" s="8"/>
       <c r="W140" s="5"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="11"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -10841,7 +10962,7 @@
       <c r="V141" s="8"/>
       <c r="W141" s="5"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="11"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -10866,7 +10987,7 @@
       <c r="V142" s="8"/>
       <c r="W142" s="5"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="11"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -10891,7 +11012,7 @@
       <c r="V143" s="8"/>
       <c r="W143" s="5"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="11"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -10916,7 +11037,7 @@
       <c r="V144" s="8"/>
       <c r="W144" s="5"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="11"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -10941,7 +11062,7 @@
       <c r="V145" s="8"/>
       <c r="W145" s="5"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="11"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -10966,7 +11087,7 @@
       <c r="V146" s="8"/>
       <c r="W146" s="5"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -10991,7 +11112,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="5"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="11"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -11016,7 +11137,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="5"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="11"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -11041,7 +11162,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="5"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="11"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -11066,7 +11187,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="5"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="11"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -11091,7 +11212,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="5"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="11"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -11116,7 +11237,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="5"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="11"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -11141,7 +11262,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="5"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="11"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -11166,7 +11287,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="5"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="11"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -11191,7 +11312,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="5"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="11"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -11216,7 +11337,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="5"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="11"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -11241,7 +11362,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="5"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="11"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -11266,7 +11387,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="5"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="11"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -11291,7 +11412,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="5"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="11"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -11316,7 +11437,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="5"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="11"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -11341,7 +11462,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="5"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="11"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -11366,7 +11487,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="5"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="11"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -11391,7 +11512,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="5"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="11"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -11416,7 +11537,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="5"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="11"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -11441,7 +11562,7 @@
       <c r="V165" s="8"/>
       <c r="W165" s="5"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="11"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -11466,7 +11587,7 @@
       <c r="V166" s="8"/>
       <c r="W166" s="5"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="11"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -11491,7 +11612,7 @@
       <c r="V167" s="8"/>
       <c r="W167" s="5"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="11"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -11516,7 +11637,7 @@
       <c r="V168" s="8"/>
       <c r="W168" s="5"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="11"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -11541,7 +11662,7 @@
       <c r="V169" s="8"/>
       <c r="W169" s="5"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="11"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -11566,7 +11687,7 @@
       <c r="V170" s="8"/>
       <c r="W170" s="5"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -11591,7 +11712,7 @@
       <c r="V171" s="8"/>
       <c r="W171" s="5"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="11"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -11616,7 +11737,7 @@
       <c r="V172" s="8"/>
       <c r="W172" s="5"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="11"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -11641,7 +11762,7 @@
       <c r="V173" s="8"/>
       <c r="W173" s="5"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="11"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -11666,7 +11787,7 @@
       <c r="V174" s="8"/>
       <c r="W174" s="5"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="11"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -11691,7 +11812,7 @@
       <c r="V175" s="8"/>
       <c r="W175" s="5"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="11"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -11716,7 +11837,7 @@
       <c r="V176" s="8"/>
       <c r="W176" s="5"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="11"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -11741,7 +11862,7 @@
       <c r="V177" s="8"/>
       <c r="W177" s="5"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="11"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -11766,7 +11887,7 @@
       <c r="V178" s="8"/>
       <c r="W178" s="5"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="11"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -11791,7 +11912,7 @@
       <c r="V179" s="8"/>
       <c r="W179" s="5"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="11"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -11816,7 +11937,7 @@
       <c r="V180" s="8"/>
       <c r="W180" s="5"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="11"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -11841,7 +11962,7 @@
       <c r="V181" s="8"/>
       <c r="W181" s="5"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="11"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -11866,7 +11987,7 @@
       <c r="V182" s="8"/>
       <c r="W182" s="5"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="11"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -11891,7 +12012,7 @@
       <c r="V183" s="8"/>
       <c r="W183" s="5"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="11"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -11916,7 +12037,7 @@
       <c r="V184" s="8"/>
       <c r="W184" s="5"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="11"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -11941,7 +12062,7 @@
       <c r="V185" s="8"/>
       <c r="W185" s="5"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="11"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -11966,7 +12087,7 @@
       <c r="V186" s="8"/>
       <c r="W186" s="5"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -11991,7 +12112,7 @@
       <c r="V187" s="8"/>
       <c r="W187" s="5"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="11"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -12016,7 +12137,7 @@
       <c r="V188" s="8"/>
       <c r="W188" s="5"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="11"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -12041,7 +12162,7 @@
       <c r="V189" s="8"/>
       <c r="W189" s="5"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="11"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -12066,7 +12187,7 @@
       <c r="V190" s="8"/>
       <c r="W190" s="5"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="11"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -12091,7 +12212,7 @@
       <c r="V191" s="8"/>
       <c r="W191" s="5"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="11"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -12116,7 +12237,7 @@
       <c r="V192" s="8"/>
       <c r="W192" s="5"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="11"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -12141,7 +12262,7 @@
       <c r="V193" s="8"/>
       <c r="W193" s="5"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="11"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -12166,7 +12287,7 @@
       <c r="V194" s="8"/>
       <c r="W194" s="5"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -12191,7 +12312,7 @@
       <c r="V195" s="8"/>
       <c r="W195" s="5"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="11"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -12216,7 +12337,7 @@
       <c r="V196" s="8"/>
       <c r="W196" s="5"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="11"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -12241,7 +12362,7 @@
       <c r="V197" s="8"/>
       <c r="W197" s="5"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="11"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -12266,7 +12387,7 @@
       <c r="V198" s="8"/>
       <c r="W198" s="5"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="11"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -12291,7 +12412,7 @@
       <c r="V199" s="8"/>
       <c r="W199" s="5"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="11"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -12316,7 +12437,7 @@
       <c r="V200" s="8"/>
       <c r="W200" s="5"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="12"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -12347,10 +12468,10 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="V2:V1048576" xr:uid="{833FFF82-EF89-473C-B621-746362CC677C}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効な有効の値" error="サポートされている有効の値を選択してください。" sqref="C2:C1048576" xr:uid="{FD0F90A3-EA67-4EF1-8FA8-3E985A5E4965}">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Enabled Option" error="Please select a supported Enabled option." sqref="C2:C1048576" xr:uid="{FD0F90A3-EA67-4EF1-8FA8-3E985A5E4965}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なカレンダー使用の値" error="サポートされているカレンダー使用を選択してください。" sqref="F2:F1048576" xr:uid="{1A4B488C-8D81-46DF-ABD6-6443F334943F}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Use Calendar Option" error="Please select a supported Use Calendar option." sqref="F2:F1048576" xr:uid="{1A4B488C-8D81-46DF-ABD6-6443F334943F}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
   </dataValidations>
@@ -12366,18 +12487,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="3" width="25.7265625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="25.7265625" customWidth="1"/>
-    <col min="5" max="5" width="45.7265625" style="20" customWidth="1"/>
+    <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="4" width="25.75" customWidth="1"/>
+    <col min="5" max="5" width="45.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -12391,1403 +12512,1403 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="13"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="13"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="13"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="13"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="13"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="13"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="13"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="13"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="13"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="13"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="13"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="13"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="13"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="13"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="13"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="13"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="13"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="13"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="13"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="13"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="13"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="13"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="13"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="13"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="13"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="13"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="13"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="13"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="13"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="13"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="13"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="13"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="13"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="13"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="13"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="13"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="13"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="13"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="13"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="13"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="13"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="13"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="13"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="13"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="13"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="13"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="13"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="13"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="13"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="13"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="13"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="13"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="13"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="13"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="13"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="13"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="13"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="13"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="13"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="13"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="13"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="13"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="13"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="13"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="13"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="13"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="13"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="13"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="13"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="13"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="13"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="13"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="13"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="13"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="13"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="13"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="13"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="13"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="13"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="13"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="13"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="13"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="13"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="13"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="13"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="13"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="13"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="13"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="13"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="13"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="13"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="13"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="13"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="13"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="13"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="13"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="13"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="13"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="13"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="13"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="13"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="13"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="13"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="13"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="13"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="13"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="13"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="13"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="13"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="13"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="13"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="13"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="13"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="13"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="13"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="13"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="13"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="13"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="13"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="13"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="13"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="13"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="13"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="13"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="13"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="13"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="13"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="13"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="13"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="13"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="13"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="13"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="13"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="13"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="13"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="13"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="13"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="13"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="13"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="13"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="13"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="13"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="13"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="13"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="13"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="13"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="13"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="13"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="13"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="13"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="13"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="13"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="13"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="13"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="13"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="13"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="13"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="13"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="13"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="13"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="13"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="13"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="13"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="13"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="13"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="13"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="13"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="13"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="13"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="13"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="13"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="13"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="13"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="13"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="13"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="13"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="13"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="13"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="13"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="13"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="13"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="13"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="13"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="13"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -13795,11 +13916,12 @@
       <c r="E201" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="2"/>
   <dataValidations count="2">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なフォルダー ID" error="フォルダー ID は 0 より大きい整数である必要があります。" sqref="A2:A1048576" xr:uid="{FD422441-B078-4B2C-A0B9-34649C5CD378}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{FD422441-B078-4B2C-A0B9-34649C5CD378}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="無効なトリガー ID" error="トリガー ID は 0 より大きい整数である必要があります。" sqref="C2:C1048576" xr:uid="{29F6E9DF-D3FC-4B08-B6C9-D8C81589D199}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{29F6E9DF-D3FC-4B08-B6C9-D8C81589D199}">
       <formula1>0</formula1>
     </dataValidation>
   </dataValidations>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EA6EF8F-EAB5-4759-9998-2D1D80FCD64B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F142D4-5F2C-4BFE-B6F3-3FA1DC0B0793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6390" yWindow="1880" windowWidth="29640" windowHeight="15630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84F142D4-5F2C-4BFE-B6F3-3FA1DC0B0793}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7AAA84-432B-41D1-B893-1168716BFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="63030" yWindow="690" windowWidth="28800" windowHeight="11265" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -2237,6 +2237,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
+  <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -7367,6 +7368,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -12485,6 +12487,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2A7D921-E601-49D8-BBF5-CB56640085F5}">
+  <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C7AAA84-432B-41D1-B893-1168716BFD05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8664E75-B54F-4A3F-8738-26B931CD8749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4940" yWindow="4940" windowWidth="28800" windowHeight="15460" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8664E75-B54F-4A3F-8738-26B931CD8749}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAE3DF-5900-45C0-92C9-F3044FDDE711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BAE3DF-5900-45C0-92C9-F3044FDDE711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C108D4-9531-4BA3-B96C-478DE5A0F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="61575" yWindow="1260" windowWidth="23640" windowHeight="12630" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t>フォルダー ID</t>
     <phoneticPr fontId="2"/>
@@ -94,10 +94,6 @@
   </si>
   <si>
     <t>タイムゾーン</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>外部ジョブ キー</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -178,10 +174,6 @@
   </si>
   <si>
     <t>タイムゾーン</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>外部ジョブ キー</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -488,7 +480,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="54">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -690,31 +682,6 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
       </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="5"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="5"/>
-        </top>
-        <bottom style="thin">
-          <color theme="5"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1676,31 +1643,6 @@
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-      <protection locked="1" hidden="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.34998626667073579"/>
-        </left>
         <right style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </right>
@@ -1897,55 +1839,53 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:W201" headerRowDxfId="55" dataDxfId="53" totalsRowDxfId="51" headerRowBorderDxfId="54" tableBorderDxfId="52">
-  <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="23">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="49"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="36"/>
-    <tableColumn id="19" xr3:uid="{80551940-9B63-483E-9981-E883CC24FF89}" name="外部ジョブ キー" dataDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="31"/>
-    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="30"/>
-    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:V201" headerRowDxfId="53" dataDxfId="51" totalsRowDxfId="49" headerRowBorderDxfId="52" tableBorderDxfId="50">
+  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="22">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="45"/>
+    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="44"/>
+    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="43"/>
+    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="42"/>
+    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="41"/>
+    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法" dataDxfId="40"/>
+    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="39"/>
+    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="38"/>
+    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="37"/>
+    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="36"/>
+    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="35"/>
+    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="34"/>
+    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="33"/>
+    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="32"/>
+    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="31"/>
+    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="30"/>
+    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="29"/>
+    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="28"/>
+    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="27"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W201" totalsRowShown="0">
-  <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="23">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{3F114B58-2997-4D73-A80A-40D21B742757}" name="トリガー名" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{45B7C249-3DF1-450D-AA47-E72B0FE30A90}" name="有効" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{FD574CB7-FA08-4654-9CD7-86D60F34DB32}" name="プロセス名" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{7446F334-E6E0-4A0E-8EB5-68FB9D43F164}" name="入力パラメーター" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9112BA16-F1A6-4B5B-9292-E1F862C46582}" name="カレンダー使用" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{EDBD2CF6-8937-4430-880E-CBC035D999B9}" name="開始方法" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{17E46FA8-B1FA-4C01-B909-101B4EBE2771}" name="開始 cron 式" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{C32A3E10-03CD-4CDE-862C-B8BCCE543C7C}" name="開始 cron 式の詳細" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{DF244F76-D9C5-4B2A-A7FF-45B1E3C0C680}" name="停止方法" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{F8BF873D-C98E-4452-A769-1730BAA59018}" name="停止日付" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{F1B1C282-F479-4190-ADF0-BBDE31D5EFDB}" name="停止 cron 式" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{670C436B-1C2B-4D6A-86BB-6E37C846E72C}" name="タイムゾーン" dataDxfId="15"/>
-    <tableColumn id="10" xr3:uid="{B8992145-0FB7-4078-B009-35477279BC3A}" name="外部ジョブ キー" dataDxfId="14"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V201" totalsRowShown="0">
+  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="22">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="26"/>
+    <tableColumn id="9" xr3:uid="{3F114B58-2997-4D73-A80A-40D21B742757}" name="トリガー名" dataDxfId="25"/>
+    <tableColumn id="8" xr3:uid="{45B7C249-3DF1-450D-AA47-E72B0FE30A90}" name="有効" dataDxfId="24"/>
+    <tableColumn id="7" xr3:uid="{FD574CB7-FA08-4654-9CD7-86D60F34DB32}" name="プロセス名" dataDxfId="23"/>
+    <tableColumn id="6" xr3:uid="{7446F334-E6E0-4A0E-8EB5-68FB9D43F164}" name="入力パラメーター" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{9112BA16-F1A6-4B5B-9292-E1F862C46582}" name="カレンダー使用" dataDxfId="21"/>
+    <tableColumn id="17" xr3:uid="{EDBD2CF6-8937-4430-880E-CBC035D999B9}" name="開始方法" dataDxfId="20"/>
+    <tableColumn id="16" xr3:uid="{17E46FA8-B1FA-4C01-B909-101B4EBE2771}" name="開始 cron 式" dataDxfId="19"/>
+    <tableColumn id="15" xr3:uid="{C32A3E10-03CD-4CDE-862C-B8BCCE543C7C}" name="開始 cron 式の詳細" dataDxfId="18"/>
+    <tableColumn id="14" xr3:uid="{DF244F76-D9C5-4B2A-A7FF-45B1E3C0C680}" name="停止方法" dataDxfId="17"/>
+    <tableColumn id="13" xr3:uid="{F8BF873D-C98E-4452-A769-1730BAA59018}" name="停止日付" dataDxfId="16"/>
+    <tableColumn id="12" xr3:uid="{F1B1C282-F479-4190-ADF0-BBDE31D5EFDB}" name="停止 cron 式" dataDxfId="15"/>
+    <tableColumn id="11" xr3:uid="{670C436B-1C2B-4D6A-86BB-6E37C846E72C}" name="タイムゾーン" dataDxfId="14"/>
     <tableColumn id="21" xr3:uid="{95C00957-7AEE-4E5A-8494-3D628AFB4D6C}" name="ジョブの優先度" dataDxfId="13"/>
     <tableColumn id="20" xr3:uid="{CDA69AC6-5479-479E-B18C-36DFF3254945}" name="トリガーするアイテムの最小数" dataDxfId="12"/>
     <tableColumn id="19" xr3:uid="{8E859498-36EB-4FDD-AAD6-41CC93FE4779}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="11"/>
@@ -2238,7 +2178,7 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -2251,15 +2191,15 @@
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="15.75" customWidth="1"/>
-    <col min="10" max="16" width="25.75" customWidth="1"/>
-    <col min="17" max="17" width="15.75" customWidth="1"/>
-    <col min="18" max="18" width="27.4140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="25" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="21" max="23" width="25.75" customWidth="1"/>
+    <col min="10" max="15" width="25.75" customWidth="1"/>
+    <col min="16" max="16" width="15.75" customWidth="1"/>
+    <col min="17" max="17" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="24.5" bestFit="1" customWidth="1"/>
+    <col min="20" max="22" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2326,11 +2266,8 @@
       <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2353,9 +2290,8 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2378,9 +2314,8 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2403,9 +2338,8 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-      <c r="W4" s="18"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2428,9 +2362,8 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
-      <c r="W5" s="18"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2453,9 +2386,8 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
-      <c r="W6" s="18"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2478,9 +2410,8 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
-      <c r="W7" s="18"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2503,9 +2434,8 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
-      <c r="W8" s="18"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2528,9 +2458,8 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
-      <c r="W9" s="18"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2553,9 +2482,8 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
-      <c r="W10" s="18"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2578,9 +2506,8 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-      <c r="W11" s="6"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2603,9 +2530,8 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-      <c r="W12" s="6"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2628,9 +2554,8 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2653,9 +2578,8 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-      <c r="W14" s="6"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2678,9 +2602,8 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-      <c r="W15" s="6"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2703,9 +2626,8 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-      <c r="W16" s="6"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2728,9 +2650,8 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-      <c r="W17" s="6"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2753,9 +2674,8 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-      <c r="W18" s="6"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2778,9 +2698,8 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-      <c r="W19" s="6"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2803,9 +2722,8 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-      <c r="W20" s="6"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2828,9 +2746,8 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-      <c r="W21" s="6"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2853,9 +2770,8 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-      <c r="W22" s="6"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2878,9 +2794,8 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-      <c r="W23" s="6"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2903,9 +2818,8 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2928,9 +2842,8 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-      <c r="W25" s="6"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2953,9 +2866,8 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-      <c r="W26" s="6"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2978,9 +2890,8 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-      <c r="W27" s="6"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3003,9 +2914,8 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-      <c r="W28" s="6"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3028,9 +2938,8 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-      <c r="W29" s="6"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3053,9 +2962,8 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-      <c r="W30" s="6"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3078,9 +2986,8 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-      <c r="W31" s="6"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3103,9 +3010,8 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-      <c r="W32" s="6"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3128,9 +3034,8 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-      <c r="W33" s="6"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3153,9 +3058,8 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-      <c r="W34" s="6"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3178,9 +3082,8 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-      <c r="W35" s="6"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3203,9 +3106,8 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-      <c r="W36" s="6"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3228,9 +3130,8 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-      <c r="W37" s="6"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3253,9 +3154,8 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-      <c r="W38" s="6"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3278,9 +3178,8 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-      <c r="W39" s="6"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3303,9 +3202,8 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-      <c r="W40" s="6"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3328,9 +3226,8 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-      <c r="W41" s="6"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3353,9 +3250,8 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-      <c r="W42" s="6"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3378,9 +3274,8 @@
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-      <c r="W43" s="6"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3403,9 +3298,8 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-      <c r="W44" s="6"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3428,9 +3322,8 @@
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-      <c r="W45" s="6"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3453,9 +3346,8 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-      <c r="W46" s="6"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3478,9 +3370,8 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
-      <c r="W47" s="6"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3503,9 +3394,8 @@
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
-      <c r="W48" s="6"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3528,9 +3418,8 @@
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
-      <c r="W49" s="6"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3553,9 +3442,8 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
-      <c r="W50" s="6"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3578,9 +3466,8 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
-      <c r="W51" s="6"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3603,9 +3490,8 @@
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
-      <c r="W52" s="6"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3628,9 +3514,8 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-      <c r="W53" s="6"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3653,9 +3538,8 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
-      <c r="W54" s="6"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3678,9 +3562,8 @@
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
-      <c r="W55" s="6"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3703,9 +3586,8 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-      <c r="W56" s="6"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3728,9 +3610,8 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-      <c r="W57" s="6"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3753,9 +3634,8 @@
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-      <c r="W58" s="6"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3778,9 +3658,8 @@
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-      <c r="W59" s="6"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3803,9 +3682,8 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-      <c r="W60" s="6"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3828,9 +3706,8 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
-      <c r="W61" s="6"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3853,9 +3730,8 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-      <c r="W62" s="6"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3878,9 +3754,8 @@
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-      <c r="W63" s="6"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3903,9 +3778,8 @@
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
-      <c r="W64" s="6"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3928,9 +3802,8 @@
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
-      <c r="W65" s="6"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3953,9 +3826,8 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
-      <c r="W66" s="6"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3978,9 +3850,8 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
-      <c r="W67" s="6"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4003,9 +3874,8 @@
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
-      <c r="W68" s="6"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4028,9 +3898,8 @@
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
-      <c r="W69" s="6"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4053,9 +3922,8 @@
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
-      <c r="W70" s="6"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4078,9 +3946,8 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
-      <c r="W71" s="6"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4103,9 +3970,8 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
-      <c r="W72" s="6"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4128,9 +3994,8 @@
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
-      <c r="W73" s="6"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4153,9 +4018,8 @@
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
-      <c r="W74" s="6"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4178,9 +4042,8 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
-      <c r="W75" s="6"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4203,9 +4066,8 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
-      <c r="W76" s="6"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4228,9 +4090,8 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
-      <c r="W77" s="6"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4253,9 +4114,8 @@
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
-      <c r="W78" s="6"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4278,9 +4138,8 @@
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
-      <c r="W79" s="6"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4303,9 +4162,8 @@
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
-      <c r="W80" s="6"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4328,9 +4186,8 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
-      <c r="W81" s="6"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4353,9 +4210,8 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
-      <c r="W82" s="6"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4378,9 +4234,8 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
-      <c r="W83" s="6"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4403,9 +4258,8 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
-      <c r="W84" s="6"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4428,9 +4282,8 @@
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-      <c r="W85" s="6"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4453,9 +4306,8 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-      <c r="W86" s="6"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4478,9 +4330,8 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-      <c r="W87" s="6"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4503,9 +4354,8 @@
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-      <c r="W88" s="6"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4528,9 +4378,8 @@
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
-      <c r="W89" s="6"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4553,9 +4402,8 @@
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
-      <c r="W90" s="6"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4578,9 +4426,8 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
-      <c r="W91" s="6"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4603,9 +4450,8 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
-      <c r="W92" s="6"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4628,9 +4474,8 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
-      <c r="W93" s="6"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4653,9 +4498,8 @@
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
-      <c r="W94" s="6"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4678,9 +4522,8 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
-      <c r="W95" s="6"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4703,9 +4546,8 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-      <c r="W96" s="6"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4728,9 +4570,8 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
-      <c r="W97" s="6"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4753,9 +4594,8 @@
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
-      <c r="W98" s="6"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4778,9 +4618,8 @@
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
-      <c r="W99" s="6"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4803,9 +4642,8 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
-      <c r="W100" s="6"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4828,9 +4666,8 @@
       <c r="T101" s="22"/>
       <c r="U101" s="22"/>
       <c r="V101" s="22"/>
-      <c r="W101" s="22"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4853,9 +4690,8 @@
       <c r="T102" s="22"/>
       <c r="U102" s="22"/>
       <c r="V102" s="22"/>
-      <c r="W102" s="22"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -4878,9 +4714,8 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
-      <c r="W103" s="6"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4903,9 +4738,8 @@
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
-      <c r="W104" s="6"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4928,9 +4762,8 @@
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
-      <c r="W105" s="6"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -4953,9 +4786,8 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
-      <c r="W106" s="6"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -4978,9 +4810,8 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
-      <c r="W107" s="6"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -5003,9 +4834,8 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
-      <c r="W108" s="6"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5028,9 +4858,8 @@
       <c r="T109" s="22"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22"/>
-      <c r="W109" s="22"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -5053,9 +4882,8 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
-      <c r="W110" s="6"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -5078,9 +4906,8 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
-      <c r="W111" s="6"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -5103,9 +4930,8 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
-      <c r="W112" s="6"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -5128,9 +4954,8 @@
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
-      <c r="W113" s="6"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -5153,9 +4978,8 @@
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
-      <c r="W114" s="6"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5178,9 +5002,8 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
-      <c r="W115" s="6"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5203,9 +5026,8 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
-      <c r="W116" s="6"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5228,9 +5050,8 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
-      <c r="W117" s="6"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5253,9 +5074,8 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
-      <c r="W118" s="6"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5278,9 +5098,8 @@
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
-      <c r="W119" s="6"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5303,9 +5122,8 @@
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
-      <c r="W120" s="6"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5328,9 +5146,8 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
-      <c r="W121" s="6"/>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -5353,9 +5170,8 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
-      <c r="W122" s="6"/>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5378,9 +5194,8 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
-      <c r="W123" s="6"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -5403,9 +5218,8 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
-      <c r="W124" s="6"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -5428,9 +5242,8 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
-      <c r="W125" s="6"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -5453,9 +5266,8 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
-      <c r="W126" s="6"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5478,9 +5290,8 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
-      <c r="W127" s="6"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5503,9 +5314,8 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
-      <c r="W128" s="6"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5528,9 +5338,8 @@
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
-      <c r="W129" s="6"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -5553,9 +5362,8 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
-      <c r="W130" s="6"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5578,9 +5386,8 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
-      <c r="W131" s="6"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5603,9 +5410,8 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
-      <c r="W132" s="6"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -5628,9 +5434,8 @@
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
-      <c r="W133" s="6"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5653,9 +5458,8 @@
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
-      <c r="W134" s="6"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -5678,9 +5482,8 @@
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
-      <c r="W135" s="6"/>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5703,9 +5506,8 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
-      <c r="W136" s="6"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5728,9 +5530,8 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
-      <c r="W137" s="6"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -5753,9 +5554,8 @@
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
-      <c r="W138" s="6"/>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5778,9 +5578,8 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
-      <c r="W139" s="6"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5803,9 +5602,8 @@
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
-      <c r="W140" s="6"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -5828,9 +5626,8 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
-      <c r="W141" s="6"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -5853,9 +5650,8 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
-      <c r="W142" s="6"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -5878,9 +5674,8 @@
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
-      <c r="W143" s="6"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -5903,9 +5698,8 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
-      <c r="W144" s="6"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -5928,9 +5722,8 @@
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
-      <c r="W145" s="6"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -5953,9 +5746,8 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
-      <c r="W146" s="6"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -5978,9 +5770,8 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
-      <c r="W147" s="6"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -6003,9 +5794,8 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
-      <c r="W148" s="6"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -6028,9 +5818,8 @@
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
-      <c r="W149" s="6"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -6053,9 +5842,8 @@
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
-      <c r="W150" s="6"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -6078,9 +5866,8 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
-      <c r="W151" s="6"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -6103,9 +5890,8 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
-      <c r="W152" s="6"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -6128,9 +5914,8 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
-      <c r="W153" s="6"/>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -6153,9 +5938,8 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
-      <c r="W154" s="6"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -6178,9 +5962,8 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
-      <c r="W155" s="6"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -6203,9 +5986,8 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
-      <c r="W156" s="6"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -6228,9 +6010,8 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
-      <c r="W157" s="6"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -6253,9 +6034,8 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
-      <c r="W158" s="6"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -6278,9 +6058,8 @@
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
-      <c r="W159" s="6"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -6303,9 +6082,8 @@
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
-      <c r="W160" s="6"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -6328,9 +6106,8 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
-      <c r="W161" s="6"/>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -6353,9 +6130,8 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
-      <c r="W162" s="6"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -6378,9 +6154,8 @@
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
-      <c r="W163" s="6"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -6403,9 +6178,8 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
-      <c r="W164" s="6"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -6428,9 +6202,8 @@
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
-      <c r="W165" s="6"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -6453,9 +6226,8 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
-      <c r="W166" s="6"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -6478,9 +6250,8 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
-      <c r="W167" s="6"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -6503,9 +6274,8 @@
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
-      <c r="W168" s="6"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -6528,9 +6298,8 @@
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
-      <c r="W169" s="6"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -6553,9 +6322,8 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
-      <c r="W170" s="6"/>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -6578,9 +6346,8 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
-      <c r="W171" s="6"/>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -6603,9 +6370,8 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
-      <c r="W172" s="6"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -6628,9 +6394,8 @@
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
-      <c r="W173" s="6"/>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -6653,9 +6418,8 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
-      <c r="W174" s="6"/>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -6678,9 +6442,8 @@
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
-      <c r="W175" s="6"/>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -6703,9 +6466,8 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
-      <c r="W176" s="6"/>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -6728,9 +6490,8 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
-      <c r="W177" s="6"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -6753,9 +6514,8 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
-      <c r="W178" s="6"/>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -6778,9 +6538,8 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
-      <c r="W179" s="6"/>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -6803,9 +6562,8 @@
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
-      <c r="W180" s="6"/>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -6828,9 +6586,8 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
-      <c r="W181" s="6"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -6853,9 +6610,8 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
-      <c r="W182" s="6"/>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -6878,9 +6634,8 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
-      <c r="W183" s="6"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -6903,9 +6658,8 @@
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
-      <c r="W184" s="6"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -6928,9 +6682,8 @@
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
-      <c r="W185" s="6"/>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -6953,9 +6706,8 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
-      <c r="W186" s="6"/>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -6978,9 +6730,8 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
-      <c r="W187" s="6"/>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -7003,9 +6754,8 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
-      <c r="W188" s="6"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -7028,9 +6778,8 @@
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
-      <c r="W189" s="6"/>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -7053,9 +6802,8 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
-      <c r="W190" s="6"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -7078,9 +6826,8 @@
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
-      <c r="W191" s="6"/>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -7103,9 +6850,8 @@
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
-      <c r="W192" s="6"/>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -7128,9 +6874,8 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
-      <c r="W193" s="6"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -7153,9 +6898,8 @@
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
-      <c r="W194" s="6"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -7178,9 +6922,8 @@
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
-      <c r="W195" s="6"/>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -7203,9 +6946,8 @@
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
-      <c r="W196" s="6"/>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -7228,9 +6970,8 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
-      <c r="W197" s="6"/>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -7253,9 +6994,8 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
-      <c r="W198" s="6"/>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -7278,9 +7018,8 @@
       <c r="T199" s="6"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
-      <c r="W199" s="6"/>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -7303,9 +7042,8 @@
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
-      <c r="W200" s="6"/>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -7328,7 +7066,6 @@
       <c r="T201" s="22"/>
       <c r="U201" s="22"/>
       <c r="V201" s="22"/>
-      <c r="W201" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7345,16 +7082,16 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Use Calendar Option" error="Please select a supported Use Calendar option." sqref="H2:H1048576" xr:uid="{109E8B57-70CD-4437-AA66-8AD40CC7D0CE}">
       <formula1>"TRUE,FALSE"</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Items Activ. Threshold" error="Items Activation Threshold must be an integer greater than 0." sqref="R2:R1048576" xr:uid="{03704348-D630-4E40-89A6-78090B5D5EFC}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Items Activ. Threshold" error="Items Activation Threshold must be an integer greater than 0." sqref="Q2:Q1048576" xr:uid="{03704348-D630-4E40-89A6-78090B5D5EFC}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Items Per Job Activation" error="Items Per Job Activation must be an integer greater than 0." sqref="S2:S1048576" xr:uid="{7550F5B3-65FE-4CB2-A05C-D8DAB7BE3A60}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Items Per Job Activation" error="Items Per Job Activation must be an integer greater than 0." sqref="R2:R1048576" xr:uid="{7550F5B3-65FE-4CB2-A05C-D8DAB7BE3A60}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Max Jobs For Activation" error="Max Jobs For Activation must be an integer greater than 0." sqref="T2:T1048576" xr:uid="{0CEF292A-4807-4771-9136-4A38E9AB306A}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Max Jobs For Activation" error="Max Jobs For Activation must be an integer greater than 0." sqref="S2:S1048576" xr:uid="{0CEF292A-4807-4771-9136-4A38E9AB306A}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Runtime Type" error="Please select a supported Runtime Type." sqref="W2:W1048576" xr:uid="{BA3C1366-D2FC-46F2-A910-7055F34C9AC8}">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Runtime Type" error="Please select a supported Runtime Type." sqref="V2:V1048576" xr:uid="{BA3C1366-D2FC-46F2-A910-7055F34C9AC8}">
       <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7369,7 +7106,7 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:V201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
@@ -7384,87 +7121,84 @@
     <col min="6" max="7" width="15.5" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="25.5" customWidth="1"/>
-    <col min="15" max="15" width="15.5" customWidth="1"/>
-    <col min="16" max="16" width="27.4140625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="18" max="21" width="25.5" customWidth="1"/>
-    <col min="22" max="22" width="15.5" customWidth="1"/>
-    <col min="23" max="23" width="45.5" customWidth="1"/>
+    <col min="10" max="13" width="25.5" customWidth="1"/>
+    <col min="14" max="14" width="15.5" customWidth="1"/>
+    <col min="15" max="15" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="25.5" customWidth="1"/>
+    <col min="21" max="21" width="15.5" customWidth="1"/>
+    <col min="22" max="22" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="C1" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="D1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="E1" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="F1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="G1" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="H1" s="13" t="s">
         <v>29</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="I1" s="13" t="s">
         <v>30</v>
       </c>
-      <c r="I1" s="13" t="s">
+      <c r="J1" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="K1" s="13" t="s">
         <v>32</v>
       </c>
-      <c r="K1" s="13" t="s">
+      <c r="L1" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="L1" s="13" t="s">
+      <c r="M1" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="M1" s="13" t="s">
+      <c r="N1" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="N1" s="13" t="s">
+      <c r="O1" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="O1" s="13" t="s">
+      <c r="P1" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="P1" s="13" t="s">
+      <c r="Q1" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="Q1" s="13" t="s">
+      <c r="R1" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="R1" s="13" t="s">
+      <c r="S1" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="S1" s="13" t="s">
+      <c r="T1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="T1" s="13" t="s">
+      <c r="U1" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="U1" s="13" t="s">
+      <c r="V1" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="V1" s="15" t="s">
-        <v>44</v>
-      </c>
-      <c r="W1" s="15" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7485,11 +7219,10 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
-      <c r="U2" s="13"/>
-      <c r="V2" s="8"/>
-      <c r="W2" s="5"/>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2" s="8"/>
+      <c r="V2" s="5"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7510,11 +7243,10 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="13"/>
-      <c r="V3" s="8"/>
-      <c r="W3" s="5"/>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3" s="8"/>
+      <c r="V3" s="5"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7535,11 +7267,10 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="13"/>
+      <c r="U4" s="5"/>
       <c r="V4" s="5"/>
-      <c r="W4" s="5"/>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7560,11 +7291,10 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="13"/>
+      <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7585,11 +7315,10 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="13"/>
-      <c r="V6" s="8"/>
-      <c r="W6" s="5"/>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U6" s="8"/>
+      <c r="V6" s="5"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7610,11 +7339,10 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="13"/>
-      <c r="V7" s="8"/>
-      <c r="W7" s="5"/>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7" s="8"/>
+      <c r="V7" s="5"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7635,11 +7363,10 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="13"/>
-      <c r="V8" s="8"/>
-      <c r="W8" s="5"/>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U8" s="8"/>
+      <c r="V8" s="5"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7660,11 +7387,10 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="13"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="5"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U9" s="8"/>
+      <c r="V9" s="5"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7685,11 +7411,10 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="13"/>
-      <c r="V10" s="8"/>
-      <c r="W10" s="5"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U10" s="8"/>
+      <c r="V10" s="5"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7710,11 +7435,10 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="13"/>
-      <c r="V11" s="8"/>
-      <c r="W11" s="5"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U11" s="8"/>
+      <c r="V11" s="5"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7735,11 +7459,10 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="13"/>
-      <c r="V12" s="8"/>
-      <c r="W12" s="5"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U12" s="8"/>
+      <c r="V12" s="5"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7760,11 +7483,10 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="13"/>
-      <c r="V13" s="8"/>
-      <c r="W13" s="5"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U13" s="8"/>
+      <c r="V13" s="5"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7785,11 +7507,10 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="13"/>
-      <c r="V14" s="8"/>
-      <c r="W14" s="5"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U14" s="8"/>
+      <c r="V14" s="5"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -7810,11 +7531,10 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="13"/>
-      <c r="V15" s="8"/>
-      <c r="W15" s="5"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U15" s="8"/>
+      <c r="V15" s="5"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7835,11 +7555,10 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="13"/>
-      <c r="V16" s="8"/>
-      <c r="W16" s="5"/>
-    </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U16" s="8"/>
+      <c r="V16" s="5"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7860,11 +7579,10 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="13"/>
-      <c r="V17" s="8"/>
-      <c r="W17" s="5"/>
-    </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U17" s="8"/>
+      <c r="V17" s="5"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -7885,11 +7603,10 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="13"/>
-      <c r="V18" s="8"/>
-      <c r="W18" s="5"/>
-    </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U18" s="8"/>
+      <c r="V18" s="5"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7910,11 +7627,10 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="13"/>
-      <c r="V19" s="8"/>
-      <c r="W19" s="5"/>
-    </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U19" s="8"/>
+      <c r="V19" s="5"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7935,11 +7651,10 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="13"/>
-      <c r="V20" s="8"/>
-      <c r="W20" s="5"/>
-    </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U20" s="8"/>
+      <c r="V20" s="5"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7960,11 +7675,10 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="13"/>
-      <c r="V21" s="8"/>
-      <c r="W21" s="5"/>
-    </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U21" s="8"/>
+      <c r="V21" s="5"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7985,11 +7699,10 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="13"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="5"/>
-    </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U22" s="8"/>
+      <c r="V22" s="5"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -8010,11 +7723,10 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="13"/>
-      <c r="V23" s="8"/>
-      <c r="W23" s="5"/>
-    </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U23" s="8"/>
+      <c r="V23" s="5"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -8035,11 +7747,10 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="13"/>
-      <c r="V24" s="8"/>
-      <c r="W24" s="5"/>
-    </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U24" s="8"/>
+      <c r="V24" s="5"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -8060,11 +7771,10 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="13"/>
-      <c r="V25" s="8"/>
-      <c r="W25" s="5"/>
-    </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U25" s="8"/>
+      <c r="V25" s="5"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -8085,11 +7795,10 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="13"/>
-      <c r="V26" s="8"/>
-      <c r="W26" s="5"/>
-    </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U26" s="8"/>
+      <c r="V26" s="5"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -8110,11 +7819,10 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="13"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="5"/>
-    </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U27" s="8"/>
+      <c r="V27" s="5"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -8135,11 +7843,10 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="13"/>
-      <c r="V28" s="8"/>
-      <c r="W28" s="5"/>
-    </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U28" s="8"/>
+      <c r="V28" s="5"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -8160,11 +7867,10 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="13"/>
-      <c r="V29" s="8"/>
-      <c r="W29" s="5"/>
-    </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U29" s="8"/>
+      <c r="V29" s="5"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -8185,11 +7891,10 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="13"/>
-      <c r="V30" s="8"/>
-      <c r="W30" s="5"/>
-    </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U30" s="8"/>
+      <c r="V30" s="5"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -8210,11 +7915,10 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="13"/>
-      <c r="V31" s="8"/>
-      <c r="W31" s="5"/>
-    </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U31" s="8"/>
+      <c r="V31" s="5"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -8235,11 +7939,10 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="13"/>
-      <c r="V32" s="8"/>
-      <c r="W32" s="5"/>
-    </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U32" s="8"/>
+      <c r="V32" s="5"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -8260,11 +7963,10 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="13"/>
-      <c r="V33" s="8"/>
-      <c r="W33" s="5"/>
-    </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U33" s="8"/>
+      <c r="V33" s="5"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -8285,11 +7987,10 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="13"/>
-      <c r="V34" s="8"/>
-      <c r="W34" s="5"/>
-    </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U34" s="8"/>
+      <c r="V34" s="5"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -8310,11 +8011,10 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="13"/>
-      <c r="V35" s="8"/>
-      <c r="W35" s="5"/>
-    </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U35" s="8"/>
+      <c r="V35" s="5"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -8335,11 +8035,10 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="13"/>
-      <c r="V36" s="8"/>
-      <c r="W36" s="5"/>
-    </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U36" s="8"/>
+      <c r="V36" s="5"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -8360,11 +8059,10 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="13"/>
-      <c r="V37" s="8"/>
-      <c r="W37" s="5"/>
-    </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U37" s="8"/>
+      <c r="V37" s="5"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -8385,11 +8083,10 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="13"/>
-      <c r="V38" s="8"/>
-      <c r="W38" s="5"/>
-    </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U38" s="8"/>
+      <c r="V38" s="5"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -8410,11 +8107,10 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="13"/>
-      <c r="V39" s="8"/>
-      <c r="W39" s="5"/>
-    </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U39" s="8"/>
+      <c r="V39" s="5"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -8435,11 +8131,10 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="13"/>
-      <c r="V40" s="8"/>
-      <c r="W40" s="5"/>
-    </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U40" s="8"/>
+      <c r="V40" s="5"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -8460,11 +8155,10 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="13"/>
-      <c r="V41" s="8"/>
-      <c r="W41" s="5"/>
-    </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U41" s="8"/>
+      <c r="V41" s="5"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -8485,11 +8179,10 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="13"/>
-      <c r="V42" s="8"/>
-      <c r="W42" s="5"/>
-    </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U42" s="8"/>
+      <c r="V42" s="5"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -8510,11 +8203,10 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="13"/>
-      <c r="V43" s="8"/>
-      <c r="W43" s="5"/>
-    </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U43" s="8"/>
+      <c r="V43" s="5"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -8535,11 +8227,10 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="13"/>
-      <c r="V44" s="8"/>
-      <c r="W44" s="5"/>
-    </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U44" s="8"/>
+      <c r="V44" s="5"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -8560,11 +8251,10 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="13"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="5"/>
-    </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U45" s="8"/>
+      <c r="V45" s="5"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -8585,11 +8275,10 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="13"/>
-      <c r="V46" s="8"/>
-      <c r="W46" s="5"/>
-    </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U46" s="8"/>
+      <c r="V46" s="5"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -8610,11 +8299,10 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="13"/>
-      <c r="V47" s="8"/>
-      <c r="W47" s="5"/>
-    </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U47" s="8"/>
+      <c r="V47" s="5"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -8635,11 +8323,10 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="13"/>
-      <c r="V48" s="8"/>
-      <c r="W48" s="5"/>
-    </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U48" s="8"/>
+      <c r="V48" s="5"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -8660,11 +8347,10 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="13"/>
-      <c r="V49" s="8"/>
-      <c r="W49" s="5"/>
-    </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U49" s="8"/>
+      <c r="V49" s="5"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -8685,11 +8371,10 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="13"/>
-      <c r="V50" s="8"/>
-      <c r="W50" s="5"/>
-    </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U50" s="8"/>
+      <c r="V50" s="5"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -8710,11 +8395,10 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="13"/>
-      <c r="V51" s="8"/>
-      <c r="W51" s="5"/>
-    </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U51" s="8"/>
+      <c r="V51" s="5"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -8735,11 +8419,10 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="13"/>
-      <c r="V52" s="8"/>
-      <c r="W52" s="5"/>
-    </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U52" s="8"/>
+      <c r="V52" s="5"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -8760,11 +8443,10 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="13"/>
-      <c r="V53" s="8"/>
-      <c r="W53" s="5"/>
-    </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U53" s="8"/>
+      <c r="V53" s="5"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -8785,11 +8467,10 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="13"/>
-      <c r="V54" s="8"/>
-      <c r="W54" s="5"/>
-    </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U54" s="8"/>
+      <c r="V54" s="5"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -8810,11 +8491,10 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="13"/>
-      <c r="V55" s="8"/>
-      <c r="W55" s="5"/>
-    </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U55" s="8"/>
+      <c r="V55" s="5"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -8835,11 +8515,10 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="13"/>
-      <c r="V56" s="8"/>
-      <c r="W56" s="5"/>
-    </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U56" s="8"/>
+      <c r="V56" s="5"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -8860,11 +8539,10 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="13"/>
-      <c r="V57" s="8"/>
-      <c r="W57" s="5"/>
-    </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U57" s="8"/>
+      <c r="V57" s="5"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -8885,11 +8563,10 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="13"/>
-      <c r="V58" s="8"/>
-      <c r="W58" s="5"/>
-    </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U58" s="8"/>
+      <c r="V58" s="5"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -8910,11 +8587,10 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="13"/>
-      <c r="V59" s="8"/>
-      <c r="W59" s="5"/>
-    </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U59" s="8"/>
+      <c r="V59" s="5"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -8935,11 +8611,10 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="13"/>
-      <c r="V60" s="8"/>
-      <c r="W60" s="5"/>
-    </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U60" s="8"/>
+      <c r="V60" s="5"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -8960,11 +8635,10 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="13"/>
-      <c r="V61" s="8"/>
-      <c r="W61" s="5"/>
-    </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U61" s="8"/>
+      <c r="V61" s="5"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -8985,11 +8659,10 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="13"/>
-      <c r="V62" s="8"/>
-      <c r="W62" s="5"/>
-    </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U62" s="8"/>
+      <c r="V62" s="5"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -9010,11 +8683,10 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
-      <c r="U63" s="13"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="5"/>
-    </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U63" s="8"/>
+      <c r="V63" s="5"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -9035,11 +8707,10 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
-      <c r="U64" s="13"/>
-      <c r="V64" s="8"/>
-      <c r="W64" s="5"/>
-    </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U64" s="8"/>
+      <c r="V64" s="5"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -9060,11 +8731,10 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="13"/>
-      <c r="V65" s="8"/>
-      <c r="W65" s="5"/>
-    </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U65" s="8"/>
+      <c r="V65" s="5"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -9085,11 +8755,10 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="13"/>
-      <c r="V66" s="8"/>
-      <c r="W66" s="5"/>
-    </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U66" s="8"/>
+      <c r="V66" s="5"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -9110,11 +8779,10 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
-      <c r="U67" s="13"/>
-      <c r="V67" s="8"/>
-      <c r="W67" s="5"/>
-    </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U67" s="8"/>
+      <c r="V67" s="5"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -9135,11 +8803,10 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
-      <c r="U68" s="13"/>
-      <c r="V68" s="8"/>
-      <c r="W68" s="5"/>
-    </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U68" s="8"/>
+      <c r="V68" s="5"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -9160,11 +8827,10 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
-      <c r="U69" s="13"/>
-      <c r="V69" s="8"/>
-      <c r="W69" s="5"/>
-    </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U69" s="8"/>
+      <c r="V69" s="5"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -9185,11 +8851,10 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
-      <c r="U70" s="13"/>
-      <c r="V70" s="8"/>
-      <c r="W70" s="5"/>
-    </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U70" s="8"/>
+      <c r="V70" s="5"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -9210,11 +8875,10 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
-      <c r="U71" s="13"/>
-      <c r="V71" s="8"/>
-      <c r="W71" s="5"/>
-    </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U71" s="8"/>
+      <c r="V71" s="5"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -9235,11 +8899,10 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
-      <c r="U72" s="13"/>
-      <c r="V72" s="8"/>
-      <c r="W72" s="5"/>
-    </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U72" s="8"/>
+      <c r="V72" s="5"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -9260,11 +8923,10 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
-      <c r="U73" s="13"/>
-      <c r="V73" s="8"/>
-      <c r="W73" s="5"/>
-    </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U73" s="8"/>
+      <c r="V73" s="5"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -9285,11 +8947,10 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
-      <c r="U74" s="13"/>
-      <c r="V74" s="8"/>
-      <c r="W74" s="5"/>
-    </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U74" s="8"/>
+      <c r="V74" s="5"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -9310,11 +8971,10 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
-      <c r="U75" s="13"/>
-      <c r="V75" s="8"/>
-      <c r="W75" s="5"/>
-    </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U75" s="8"/>
+      <c r="V75" s="5"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -9335,11 +8995,10 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
-      <c r="U76" s="13"/>
-      <c r="V76" s="8"/>
-      <c r="W76" s="5"/>
-    </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U76" s="8"/>
+      <c r="V76" s="5"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -9360,11 +9019,10 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
-      <c r="U77" s="13"/>
-      <c r="V77" s="8"/>
-      <c r="W77" s="5"/>
-    </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U77" s="8"/>
+      <c r="V77" s="5"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -9385,11 +9043,10 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
-      <c r="U78" s="13"/>
-      <c r="V78" s="8"/>
-      <c r="W78" s="5"/>
-    </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U78" s="8"/>
+      <c r="V78" s="5"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -9410,11 +9067,10 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
-      <c r="U79" s="13"/>
-      <c r="V79" s="8"/>
-      <c r="W79" s="5"/>
-    </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U79" s="8"/>
+      <c r="V79" s="5"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -9435,11 +9091,10 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
-      <c r="U80" s="13"/>
-      <c r="V80" s="8"/>
-      <c r="W80" s="5"/>
-    </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U80" s="8"/>
+      <c r="V80" s="5"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -9460,11 +9115,10 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
       <c r="T81" s="13"/>
-      <c r="U81" s="13"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="5"/>
-    </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U81" s="8"/>
+      <c r="V81" s="5"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -9485,11 +9139,10 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
-      <c r="U82" s="13"/>
-      <c r="V82" s="8"/>
-      <c r="W82" s="5"/>
-    </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U82" s="8"/>
+      <c r="V82" s="5"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -9510,11 +9163,10 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
-      <c r="U83" s="13"/>
-      <c r="V83" s="8"/>
-      <c r="W83" s="5"/>
-    </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U83" s="8"/>
+      <c r="V83" s="5"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -9535,11 +9187,10 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
-      <c r="U84" s="13"/>
-      <c r="V84" s="8"/>
-      <c r="W84" s="5"/>
-    </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U84" s="8"/>
+      <c r="V84" s="5"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -9560,11 +9211,10 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
-      <c r="U85" s="13"/>
-      <c r="V85" s="8"/>
-      <c r="W85" s="5"/>
-    </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U85" s="8"/>
+      <c r="V85" s="5"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -9585,11 +9235,10 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
       <c r="T86" s="13"/>
-      <c r="U86" s="13"/>
-      <c r="V86" s="8"/>
-      <c r="W86" s="5"/>
-    </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U86" s="8"/>
+      <c r="V86" s="5"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -9610,11 +9259,10 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
       <c r="T87" s="13"/>
-      <c r="U87" s="13"/>
-      <c r="V87" s="8"/>
-      <c r="W87" s="5"/>
-    </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U87" s="8"/>
+      <c r="V87" s="5"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -9635,11 +9283,10 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
       <c r="T88" s="13"/>
-      <c r="U88" s="13"/>
-      <c r="V88" s="8"/>
-      <c r="W88" s="5"/>
-    </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U88" s="8"/>
+      <c r="V88" s="5"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -9660,11 +9307,10 @@
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
-      <c r="U89" s="13"/>
-      <c r="V89" s="8"/>
-      <c r="W89" s="5"/>
-    </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U89" s="8"/>
+      <c r="V89" s="5"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -9685,11 +9331,10 @@
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
       <c r="T90" s="13"/>
-      <c r="U90" s="13"/>
-      <c r="V90" s="8"/>
-      <c r="W90" s="5"/>
-    </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U90" s="8"/>
+      <c r="V90" s="5"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -9710,11 +9355,10 @@
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
       <c r="T91" s="13"/>
-      <c r="U91" s="13"/>
-      <c r="V91" s="8"/>
-      <c r="W91" s="5"/>
-    </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U91" s="8"/>
+      <c r="V91" s="5"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -9735,11 +9379,10 @@
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
       <c r="T92" s="13"/>
-      <c r="U92" s="13"/>
-      <c r="V92" s="8"/>
-      <c r="W92" s="5"/>
-    </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U92" s="8"/>
+      <c r="V92" s="5"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -9760,11 +9403,10 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
       <c r="T93" s="13"/>
-      <c r="U93" s="13"/>
-      <c r="V93" s="8"/>
-      <c r="W93" s="5"/>
-    </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U93" s="8"/>
+      <c r="V93" s="5"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -9785,11 +9427,10 @@
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
-      <c r="U94" s="13"/>
-      <c r="V94" s="8"/>
-      <c r="W94" s="5"/>
-    </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U94" s="8"/>
+      <c r="V94" s="5"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -9810,11 +9451,10 @@
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
       <c r="T95" s="13"/>
-      <c r="U95" s="13"/>
-      <c r="V95" s="8"/>
-      <c r="W95" s="5"/>
-    </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U95" s="8"/>
+      <c r="V95" s="5"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -9835,11 +9475,10 @@
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
       <c r="T96" s="13"/>
-      <c r="U96" s="13"/>
-      <c r="V96" s="8"/>
-      <c r="W96" s="5"/>
-    </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U96" s="8"/>
+      <c r="V96" s="5"/>
+    </row>
+    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -9860,11 +9499,10 @@
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
-      <c r="U97" s="13"/>
-      <c r="V97" s="8"/>
-      <c r="W97" s="5"/>
-    </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U97" s="8"/>
+      <c r="V97" s="5"/>
+    </row>
+    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -9885,11 +9523,10 @@
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
-      <c r="U98" s="13"/>
-      <c r="V98" s="8"/>
-      <c r="W98" s="5"/>
-    </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U98" s="8"/>
+      <c r="V98" s="5"/>
+    </row>
+    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -9910,11 +9547,10 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
       <c r="T99" s="13"/>
-      <c r="U99" s="13"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="5"/>
-    </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U99" s="8"/>
+      <c r="V99" s="5"/>
+    </row>
+    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -9935,11 +9571,10 @@
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
       <c r="T100" s="13"/>
-      <c r="U100" s="13"/>
-      <c r="V100" s="8"/>
-      <c r="W100" s="5"/>
-    </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U100" s="8"/>
+      <c r="V100" s="5"/>
+    </row>
+    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -9960,11 +9595,10 @@
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
       <c r="T101" s="13"/>
-      <c r="U101" s="13"/>
-      <c r="V101" s="8"/>
-      <c r="W101" s="5"/>
-    </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U101" s="8"/>
+      <c r="V101" s="5"/>
+    </row>
+    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -9985,11 +9619,10 @@
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
       <c r="T102" s="13"/>
-      <c r="U102" s="13"/>
-      <c r="V102" s="8"/>
-      <c r="W102" s="5"/>
-    </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U102" s="8"/>
+      <c r="V102" s="5"/>
+    </row>
+    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="11"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -10010,11 +9643,10 @@
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
       <c r="T103" s="13"/>
-      <c r="U103" s="13"/>
-      <c r="V103" s="8"/>
-      <c r="W103" s="5"/>
-    </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U103" s="8"/>
+      <c r="V103" s="5"/>
+    </row>
+    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="11"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -10035,11 +9667,10 @@
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
       <c r="T104" s="13"/>
-      <c r="U104" s="13"/>
-      <c r="V104" s="8"/>
-      <c r="W104" s="5"/>
-    </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U104" s="8"/>
+      <c r="V104" s="5"/>
+    </row>
+    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="11"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -10060,11 +9691,10 @@
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
       <c r="T105" s="13"/>
-      <c r="U105" s="13"/>
-      <c r="V105" s="8"/>
-      <c r="W105" s="5"/>
-    </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U105" s="8"/>
+      <c r="V105" s="5"/>
+    </row>
+    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="11"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -10085,11 +9715,10 @@
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
       <c r="T106" s="13"/>
-      <c r="U106" s="13"/>
-      <c r="V106" s="8"/>
-      <c r="W106" s="5"/>
-    </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U106" s="8"/>
+      <c r="V106" s="5"/>
+    </row>
+    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="11"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -10110,11 +9739,10 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
-      <c r="U107" s="13"/>
-      <c r="V107" s="8"/>
-      <c r="W107" s="5"/>
-    </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U107" s="8"/>
+      <c r="V107" s="5"/>
+    </row>
+    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="11"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -10135,11 +9763,10 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
       <c r="T108" s="13"/>
-      <c r="U108" s="13"/>
-      <c r="V108" s="8"/>
-      <c r="W108" s="5"/>
-    </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U108" s="8"/>
+      <c r="V108" s="5"/>
+    </row>
+    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="11"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -10160,11 +9787,10 @@
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
       <c r="T109" s="13"/>
-      <c r="U109" s="13"/>
-      <c r="V109" s="8"/>
-      <c r="W109" s="5"/>
-    </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U109" s="8"/>
+      <c r="V109" s="5"/>
+    </row>
+    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="11"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -10185,11 +9811,10 @@
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
       <c r="T110" s="13"/>
-      <c r="U110" s="13"/>
-      <c r="V110" s="8"/>
-      <c r="W110" s="5"/>
-    </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U110" s="8"/>
+      <c r="V110" s="5"/>
+    </row>
+    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="11"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -10210,11 +9835,10 @@
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
       <c r="T111" s="13"/>
-      <c r="U111" s="13"/>
-      <c r="V111" s="8"/>
-      <c r="W111" s="5"/>
-    </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U111" s="8"/>
+      <c r="V111" s="5"/>
+    </row>
+    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="11"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -10235,11 +9859,10 @@
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
       <c r="T112" s="13"/>
-      <c r="U112" s="13"/>
-      <c r="V112" s="8"/>
-      <c r="W112" s="5"/>
-    </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U112" s="8"/>
+      <c r="V112" s="5"/>
+    </row>
+    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="11"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -10260,11 +9883,10 @@
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
       <c r="T113" s="13"/>
-      <c r="U113" s="13"/>
-      <c r="V113" s="8"/>
-      <c r="W113" s="5"/>
-    </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U113" s="8"/>
+      <c r="V113" s="5"/>
+    </row>
+    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="11"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -10285,11 +9907,10 @@
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
       <c r="T114" s="13"/>
-      <c r="U114" s="13"/>
-      <c r="V114" s="8"/>
-      <c r="W114" s="5"/>
-    </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U114" s="8"/>
+      <c r="V114" s="5"/>
+    </row>
+    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="11"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -10310,11 +9931,10 @@
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
       <c r="T115" s="13"/>
-      <c r="U115" s="13"/>
-      <c r="V115" s="8"/>
-      <c r="W115" s="5"/>
-    </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U115" s="8"/>
+      <c r="V115" s="5"/>
+    </row>
+    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="11"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -10335,11 +9955,10 @@
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
       <c r="T116" s="13"/>
-      <c r="U116" s="13"/>
-      <c r="V116" s="8"/>
-      <c r="W116" s="5"/>
-    </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U116" s="8"/>
+      <c r="V116" s="5"/>
+    </row>
+    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="11"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -10360,11 +9979,10 @@
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
       <c r="T117" s="13"/>
-      <c r="U117" s="13"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="5"/>
-    </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U117" s="8"/>
+      <c r="V117" s="5"/>
+    </row>
+    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="11"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -10385,11 +10003,10 @@
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
       <c r="T118" s="13"/>
-      <c r="U118" s="13"/>
-      <c r="V118" s="8"/>
-      <c r="W118" s="5"/>
-    </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U118" s="8"/>
+      <c r="V118" s="5"/>
+    </row>
+    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -10410,11 +10027,10 @@
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
       <c r="T119" s="13"/>
-      <c r="U119" s="13"/>
-      <c r="V119" s="8"/>
-      <c r="W119" s="5"/>
-    </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U119" s="8"/>
+      <c r="V119" s="5"/>
+    </row>
+    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="11"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -10435,11 +10051,10 @@
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
       <c r="T120" s="13"/>
-      <c r="U120" s="13"/>
-      <c r="V120" s="8"/>
-      <c r="W120" s="5"/>
-    </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U120" s="8"/>
+      <c r="V120" s="5"/>
+    </row>
+    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="11"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -10460,11 +10075,10 @@
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
       <c r="T121" s="13"/>
-      <c r="U121" s="13"/>
-      <c r="V121" s="8"/>
-      <c r="W121" s="5"/>
-    </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U121" s="8"/>
+      <c r="V121" s="5"/>
+    </row>
+    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="11"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -10485,11 +10099,10 @@
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
       <c r="T122" s="13"/>
-      <c r="U122" s="13"/>
-      <c r="V122" s="8"/>
-      <c r="W122" s="5"/>
-    </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U122" s="8"/>
+      <c r="V122" s="5"/>
+    </row>
+    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -10510,11 +10123,10 @@
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
       <c r="T123" s="13"/>
-      <c r="U123" s="13"/>
-      <c r="V123" s="8"/>
-      <c r="W123" s="5"/>
-    </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U123" s="8"/>
+      <c r="V123" s="5"/>
+    </row>
+    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="11"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -10535,11 +10147,10 @@
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
       <c r="T124" s="13"/>
-      <c r="U124" s="13"/>
-      <c r="V124" s="8"/>
-      <c r="W124" s="5"/>
-    </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U124" s="8"/>
+      <c r="V124" s="5"/>
+    </row>
+    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="11"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -10560,11 +10171,10 @@
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
       <c r="T125" s="13"/>
-      <c r="U125" s="13"/>
-      <c r="V125" s="8"/>
-      <c r="W125" s="5"/>
-    </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U125" s="8"/>
+      <c r="V125" s="5"/>
+    </row>
+    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="11"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -10585,11 +10195,10 @@
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
       <c r="T126" s="13"/>
-      <c r="U126" s="13"/>
-      <c r="V126" s="8"/>
-      <c r="W126" s="5"/>
-    </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U126" s="8"/>
+      <c r="V126" s="5"/>
+    </row>
+    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="11"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -10610,11 +10219,10 @@
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
       <c r="T127" s="13"/>
-      <c r="U127" s="13"/>
-      <c r="V127" s="8"/>
-      <c r="W127" s="5"/>
-    </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U127" s="8"/>
+      <c r="V127" s="5"/>
+    </row>
+    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="11"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -10635,11 +10243,10 @@
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
       <c r="T128" s="13"/>
-      <c r="U128" s="13"/>
-      <c r="V128" s="8"/>
-      <c r="W128" s="5"/>
-    </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U128" s="8"/>
+      <c r="V128" s="5"/>
+    </row>
+    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="11"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -10660,11 +10267,10 @@
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
       <c r="T129" s="13"/>
-      <c r="U129" s="13"/>
-      <c r="V129" s="8"/>
-      <c r="W129" s="5"/>
-    </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U129" s="8"/>
+      <c r="V129" s="5"/>
+    </row>
+    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="11"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -10685,11 +10291,10 @@
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
       <c r="T130" s="13"/>
-      <c r="U130" s="13"/>
-      <c r="V130" s="8"/>
-      <c r="W130" s="5"/>
-    </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U130" s="8"/>
+      <c r="V130" s="5"/>
+    </row>
+    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="11"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -10710,11 +10315,10 @@
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
       <c r="T131" s="13"/>
-      <c r="U131" s="13"/>
-      <c r="V131" s="8"/>
-      <c r="W131" s="5"/>
-    </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U131" s="8"/>
+      <c r="V131" s="5"/>
+    </row>
+    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="11"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -10735,11 +10339,10 @@
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
       <c r="T132" s="13"/>
-      <c r="U132" s="13"/>
-      <c r="V132" s="8"/>
-      <c r="W132" s="5"/>
-    </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U132" s="8"/>
+      <c r="V132" s="5"/>
+    </row>
+    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="11"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -10760,11 +10363,10 @@
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
       <c r="T133" s="13"/>
-      <c r="U133" s="13"/>
-      <c r="V133" s="8"/>
-      <c r="W133" s="5"/>
-    </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U133" s="8"/>
+      <c r="V133" s="5"/>
+    </row>
+    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="11"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -10785,11 +10387,10 @@
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
       <c r="T134" s="13"/>
-      <c r="U134" s="13"/>
-      <c r="V134" s="8"/>
-      <c r="W134" s="5"/>
-    </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U134" s="8"/>
+      <c r="V134" s="5"/>
+    </row>
+    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="11"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -10810,11 +10411,10 @@
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
       <c r="T135" s="13"/>
-      <c r="U135" s="13"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="5"/>
-    </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U135" s="8"/>
+      <c r="V135" s="5"/>
+    </row>
+    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="11"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -10835,11 +10435,10 @@
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
       <c r="T136" s="13"/>
-      <c r="U136" s="13"/>
-      <c r="V136" s="8"/>
-      <c r="W136" s="5"/>
-    </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U136" s="8"/>
+      <c r="V136" s="5"/>
+    </row>
+    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="11"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -10860,11 +10459,10 @@
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
       <c r="T137" s="13"/>
-      <c r="U137" s="13"/>
-      <c r="V137" s="8"/>
-      <c r="W137" s="5"/>
-    </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U137" s="8"/>
+      <c r="V137" s="5"/>
+    </row>
+    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="11"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -10885,11 +10483,10 @@
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
       <c r="T138" s="13"/>
-      <c r="U138" s="13"/>
-      <c r="V138" s="8"/>
-      <c r="W138" s="5"/>
-    </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U138" s="8"/>
+      <c r="V138" s="5"/>
+    </row>
+    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="11"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -10910,11 +10507,10 @@
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
       <c r="T139" s="13"/>
-      <c r="U139" s="13"/>
-      <c r="V139" s="8"/>
-      <c r="W139" s="5"/>
-    </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U139" s="8"/>
+      <c r="V139" s="5"/>
+    </row>
+    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="11"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -10935,11 +10531,10 @@
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
       <c r="T140" s="13"/>
-      <c r="U140" s="13"/>
-      <c r="V140" s="8"/>
-      <c r="W140" s="5"/>
-    </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U140" s="8"/>
+      <c r="V140" s="5"/>
+    </row>
+    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="11"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -10960,11 +10555,10 @@
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
       <c r="T141" s="13"/>
-      <c r="U141" s="13"/>
-      <c r="V141" s="8"/>
-      <c r="W141" s="5"/>
-    </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U141" s="8"/>
+      <c r="V141" s="5"/>
+    </row>
+    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="11"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -10985,11 +10579,10 @@
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
       <c r="T142" s="13"/>
-      <c r="U142" s="13"/>
-      <c r="V142" s="8"/>
-      <c r="W142" s="5"/>
-    </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U142" s="8"/>
+      <c r="V142" s="5"/>
+    </row>
+    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="11"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -11010,11 +10603,10 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
       <c r="T143" s="13"/>
-      <c r="U143" s="13"/>
-      <c r="V143" s="8"/>
-      <c r="W143" s="5"/>
-    </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U143" s="8"/>
+      <c r="V143" s="5"/>
+    </row>
+    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="11"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -11035,11 +10627,10 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
-      <c r="U144" s="13"/>
-      <c r="V144" s="8"/>
-      <c r="W144" s="5"/>
-    </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U144" s="8"/>
+      <c r="V144" s="5"/>
+    </row>
+    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="11"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -11060,11 +10651,10 @@
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
       <c r="T145" s="13"/>
-      <c r="U145" s="13"/>
-      <c r="V145" s="8"/>
-      <c r="W145" s="5"/>
-    </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U145" s="8"/>
+      <c r="V145" s="5"/>
+    </row>
+    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="11"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -11085,11 +10675,10 @@
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
       <c r="T146" s="13"/>
-      <c r="U146" s="13"/>
-      <c r="V146" s="8"/>
-      <c r="W146" s="5"/>
-    </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U146" s="8"/>
+      <c r="V146" s="5"/>
+    </row>
+    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -11110,11 +10699,10 @@
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
       <c r="T147" s="13"/>
-      <c r="U147" s="13"/>
-      <c r="V147" s="8"/>
-      <c r="W147" s="5"/>
-    </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U147" s="8"/>
+      <c r="V147" s="5"/>
+    </row>
+    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="11"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -11135,11 +10723,10 @@
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
       <c r="T148" s="13"/>
-      <c r="U148" s="13"/>
-      <c r="V148" s="8"/>
-      <c r="W148" s="5"/>
-    </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U148" s="8"/>
+      <c r="V148" s="5"/>
+    </row>
+    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="11"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -11160,11 +10747,10 @@
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
       <c r="T149" s="13"/>
-      <c r="U149" s="13"/>
-      <c r="V149" s="8"/>
-      <c r="W149" s="5"/>
-    </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U149" s="8"/>
+      <c r="V149" s="5"/>
+    </row>
+    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="11"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -11185,11 +10771,10 @@
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
       <c r="T150" s="13"/>
-      <c r="U150" s="13"/>
-      <c r="V150" s="8"/>
-      <c r="W150" s="5"/>
-    </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U150" s="8"/>
+      <c r="V150" s="5"/>
+    </row>
+    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="11"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -11210,11 +10795,10 @@
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
       <c r="T151" s="13"/>
-      <c r="U151" s="13"/>
-      <c r="V151" s="8"/>
-      <c r="W151" s="5"/>
-    </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U151" s="8"/>
+      <c r="V151" s="5"/>
+    </row>
+    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="11"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -11235,11 +10819,10 @@
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
       <c r="T152" s="13"/>
-      <c r="U152" s="13"/>
-      <c r="V152" s="8"/>
-      <c r="W152" s="5"/>
-    </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U152" s="8"/>
+      <c r="V152" s="5"/>
+    </row>
+    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="11"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -11260,11 +10843,10 @@
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
       <c r="T153" s="13"/>
-      <c r="U153" s="13"/>
-      <c r="V153" s="8"/>
-      <c r="W153" s="5"/>
-    </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U153" s="8"/>
+      <c r="V153" s="5"/>
+    </row>
+    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="11"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -11285,11 +10867,10 @@
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
       <c r="T154" s="13"/>
-      <c r="U154" s="13"/>
-      <c r="V154" s="8"/>
-      <c r="W154" s="5"/>
-    </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U154" s="8"/>
+      <c r="V154" s="5"/>
+    </row>
+    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="11"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -11310,11 +10891,10 @@
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
       <c r="T155" s="13"/>
-      <c r="U155" s="13"/>
-      <c r="V155" s="8"/>
-      <c r="W155" s="5"/>
-    </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U155" s="8"/>
+      <c r="V155" s="5"/>
+    </row>
+    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="11"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -11335,11 +10915,10 @@
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
       <c r="T156" s="13"/>
-      <c r="U156" s="13"/>
-      <c r="V156" s="8"/>
-      <c r="W156" s="5"/>
-    </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U156" s="8"/>
+      <c r="V156" s="5"/>
+    </row>
+    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="11"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -11360,11 +10939,10 @@
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
       <c r="T157" s="13"/>
-      <c r="U157" s="13"/>
-      <c r="V157" s="8"/>
-      <c r="W157" s="5"/>
-    </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U157" s="8"/>
+      <c r="V157" s="5"/>
+    </row>
+    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="11"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -11385,11 +10963,10 @@
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
       <c r="T158" s="13"/>
-      <c r="U158" s="13"/>
-      <c r="V158" s="8"/>
-      <c r="W158" s="5"/>
-    </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U158" s="8"/>
+      <c r="V158" s="5"/>
+    </row>
+    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="11"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -11410,11 +10987,10 @@
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
       <c r="T159" s="13"/>
-      <c r="U159" s="13"/>
-      <c r="V159" s="8"/>
-      <c r="W159" s="5"/>
-    </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U159" s="8"/>
+      <c r="V159" s="5"/>
+    </row>
+    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="11"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -11435,11 +11011,10 @@
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
       <c r="T160" s="13"/>
-      <c r="U160" s="13"/>
-      <c r="V160" s="8"/>
-      <c r="W160" s="5"/>
-    </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U160" s="8"/>
+      <c r="V160" s="5"/>
+    </row>
+    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="11"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -11460,11 +11035,10 @@
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
       <c r="T161" s="13"/>
-      <c r="U161" s="13"/>
-      <c r="V161" s="8"/>
-      <c r="W161" s="5"/>
-    </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U161" s="8"/>
+      <c r="V161" s="5"/>
+    </row>
+    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="11"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -11485,11 +11059,10 @@
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
       <c r="T162" s="13"/>
-      <c r="U162" s="13"/>
-      <c r="V162" s="8"/>
-      <c r="W162" s="5"/>
-    </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U162" s="8"/>
+      <c r="V162" s="5"/>
+    </row>
+    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="11"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -11510,11 +11083,10 @@
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
       <c r="T163" s="13"/>
-      <c r="U163" s="13"/>
-      <c r="V163" s="8"/>
-      <c r="W163" s="5"/>
-    </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U163" s="8"/>
+      <c r="V163" s="5"/>
+    </row>
+    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="11"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -11535,11 +11107,10 @@
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
       <c r="T164" s="13"/>
-      <c r="U164" s="13"/>
-      <c r="V164" s="8"/>
-      <c r="W164" s="5"/>
-    </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U164" s="8"/>
+      <c r="V164" s="5"/>
+    </row>
+    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="11"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -11560,11 +11131,10 @@
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
-      <c r="U165" s="13"/>
-      <c r="V165" s="8"/>
-      <c r="W165" s="5"/>
-    </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U165" s="8"/>
+      <c r="V165" s="5"/>
+    </row>
+    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="11"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -11585,11 +11155,10 @@
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
       <c r="T166" s="13"/>
-      <c r="U166" s="13"/>
-      <c r="V166" s="8"/>
-      <c r="W166" s="5"/>
-    </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U166" s="8"/>
+      <c r="V166" s="5"/>
+    </row>
+    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="11"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -11610,11 +11179,10 @@
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
-      <c r="U167" s="13"/>
-      <c r="V167" s="8"/>
-      <c r="W167" s="5"/>
-    </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U167" s="8"/>
+      <c r="V167" s="5"/>
+    </row>
+    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="11"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -11635,11 +11203,10 @@
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
-      <c r="U168" s="13"/>
-      <c r="V168" s="8"/>
-      <c r="W168" s="5"/>
-    </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U168" s="8"/>
+      <c r="V168" s="5"/>
+    </row>
+    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="11"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -11660,11 +11227,10 @@
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
       <c r="T169" s="13"/>
-      <c r="U169" s="13"/>
-      <c r="V169" s="8"/>
-      <c r="W169" s="5"/>
-    </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U169" s="8"/>
+      <c r="V169" s="5"/>
+    </row>
+    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="11"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -11685,11 +11251,10 @@
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
       <c r="T170" s="13"/>
-      <c r="U170" s="13"/>
-      <c r="V170" s="8"/>
-      <c r="W170" s="5"/>
-    </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U170" s="8"/>
+      <c r="V170" s="5"/>
+    </row>
+    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -11710,11 +11275,10 @@
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
       <c r="T171" s="13"/>
-      <c r="U171" s="13"/>
-      <c r="V171" s="8"/>
-      <c r="W171" s="5"/>
-    </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U171" s="8"/>
+      <c r="V171" s="5"/>
+    </row>
+    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="11"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -11735,11 +11299,10 @@
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
       <c r="T172" s="13"/>
-      <c r="U172" s="13"/>
-      <c r="V172" s="8"/>
-      <c r="W172" s="5"/>
-    </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U172" s="8"/>
+      <c r="V172" s="5"/>
+    </row>
+    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="11"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -11760,11 +11323,10 @@
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
       <c r="T173" s="13"/>
-      <c r="U173" s="13"/>
-      <c r="V173" s="8"/>
-      <c r="W173" s="5"/>
-    </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U173" s="8"/>
+      <c r="V173" s="5"/>
+    </row>
+    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="11"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -11785,11 +11347,10 @@
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
       <c r="T174" s="13"/>
-      <c r="U174" s="13"/>
-      <c r="V174" s="8"/>
-      <c r="W174" s="5"/>
-    </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U174" s="8"/>
+      <c r="V174" s="5"/>
+    </row>
+    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="11"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -11810,11 +11371,10 @@
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
       <c r="T175" s="13"/>
-      <c r="U175" s="13"/>
-      <c r="V175" s="8"/>
-      <c r="W175" s="5"/>
-    </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U175" s="8"/>
+      <c r="V175" s="5"/>
+    </row>
+    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="11"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -11835,11 +11395,10 @@
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
       <c r="T176" s="13"/>
-      <c r="U176" s="13"/>
-      <c r="V176" s="8"/>
-      <c r="W176" s="5"/>
-    </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U176" s="8"/>
+      <c r="V176" s="5"/>
+    </row>
+    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="11"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -11860,11 +11419,10 @@
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
       <c r="T177" s="13"/>
-      <c r="U177" s="13"/>
-      <c r="V177" s="8"/>
-      <c r="W177" s="5"/>
-    </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U177" s="8"/>
+      <c r="V177" s="5"/>
+    </row>
+    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="11"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -11885,11 +11443,10 @@
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
-      <c r="U178" s="13"/>
-      <c r="V178" s="8"/>
-      <c r="W178" s="5"/>
-    </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U178" s="8"/>
+      <c r="V178" s="5"/>
+    </row>
+    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="11"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -11910,11 +11467,10 @@
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
       <c r="T179" s="13"/>
-      <c r="U179" s="13"/>
-      <c r="V179" s="8"/>
-      <c r="W179" s="5"/>
-    </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U179" s="8"/>
+      <c r="V179" s="5"/>
+    </row>
+    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="11"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -11935,11 +11491,10 @@
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
       <c r="T180" s="13"/>
-      <c r="U180" s="13"/>
-      <c r="V180" s="8"/>
-      <c r="W180" s="5"/>
-    </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U180" s="8"/>
+      <c r="V180" s="5"/>
+    </row>
+    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="11"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -11960,11 +11515,10 @@
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
       <c r="T181" s="13"/>
-      <c r="U181" s="13"/>
-      <c r="V181" s="8"/>
-      <c r="W181" s="5"/>
-    </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U181" s="8"/>
+      <c r="V181" s="5"/>
+    </row>
+    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="11"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -11985,11 +11539,10 @@
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
       <c r="T182" s="13"/>
-      <c r="U182" s="13"/>
-      <c r="V182" s="8"/>
-      <c r="W182" s="5"/>
-    </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U182" s="8"/>
+      <c r="V182" s="5"/>
+    </row>
+    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="11"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -12010,11 +11563,10 @@
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
       <c r="T183" s="13"/>
-      <c r="U183" s="13"/>
-      <c r="V183" s="8"/>
-      <c r="W183" s="5"/>
-    </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U183" s="8"/>
+      <c r="V183" s="5"/>
+    </row>
+    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="11"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -12035,11 +11587,10 @@
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
       <c r="T184" s="13"/>
-      <c r="U184" s="13"/>
-      <c r="V184" s="8"/>
-      <c r="W184" s="5"/>
-    </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U184" s="8"/>
+      <c r="V184" s="5"/>
+    </row>
+    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="11"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -12060,11 +11611,10 @@
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
       <c r="T185" s="13"/>
-      <c r="U185" s="13"/>
-      <c r="V185" s="8"/>
-      <c r="W185" s="5"/>
-    </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U185" s="8"/>
+      <c r="V185" s="5"/>
+    </row>
+    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="11"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -12085,11 +11635,10 @@
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
       <c r="T186" s="13"/>
-      <c r="U186" s="13"/>
-      <c r="V186" s="8"/>
-      <c r="W186" s="5"/>
-    </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U186" s="8"/>
+      <c r="V186" s="5"/>
+    </row>
+    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -12110,11 +11659,10 @@
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
       <c r="T187" s="13"/>
-      <c r="U187" s="13"/>
-      <c r="V187" s="8"/>
-      <c r="W187" s="5"/>
-    </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U187" s="8"/>
+      <c r="V187" s="5"/>
+    </row>
+    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="11"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -12135,11 +11683,10 @@
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
       <c r="T188" s="13"/>
-      <c r="U188" s="13"/>
-      <c r="V188" s="8"/>
-      <c r="W188" s="5"/>
-    </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U188" s="8"/>
+      <c r="V188" s="5"/>
+    </row>
+    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="11"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -12160,11 +11707,10 @@
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
       <c r="T189" s="13"/>
-      <c r="U189" s="13"/>
-      <c r="V189" s="8"/>
-      <c r="W189" s="5"/>
-    </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U189" s="8"/>
+      <c r="V189" s="5"/>
+    </row>
+    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="11"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -12185,11 +11731,10 @@
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
       <c r="T190" s="13"/>
-      <c r="U190" s="13"/>
-      <c r="V190" s="8"/>
-      <c r="W190" s="5"/>
-    </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U190" s="8"/>
+      <c r="V190" s="5"/>
+    </row>
+    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="11"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -12210,11 +11755,10 @@
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
       <c r="T191" s="13"/>
-      <c r="U191" s="13"/>
-      <c r="V191" s="8"/>
-      <c r="W191" s="5"/>
-    </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U191" s="8"/>
+      <c r="V191" s="5"/>
+    </row>
+    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="11"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -12235,11 +11779,10 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
       <c r="T192" s="13"/>
-      <c r="U192" s="13"/>
-      <c r="V192" s="8"/>
-      <c r="W192" s="5"/>
-    </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U192" s="8"/>
+      <c r="V192" s="5"/>
+    </row>
+    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="11"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -12260,11 +11803,10 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
       <c r="T193" s="13"/>
-      <c r="U193" s="13"/>
-      <c r="V193" s="8"/>
-      <c r="W193" s="5"/>
-    </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U193" s="8"/>
+      <c r="V193" s="5"/>
+    </row>
+    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="11"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -12285,11 +11827,10 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
       <c r="T194" s="13"/>
-      <c r="U194" s="13"/>
-      <c r="V194" s="8"/>
-      <c r="W194" s="5"/>
-    </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U194" s="8"/>
+      <c r="V194" s="5"/>
+    </row>
+    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -12310,11 +11851,10 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
       <c r="T195" s="13"/>
-      <c r="U195" s="13"/>
-      <c r="V195" s="8"/>
-      <c r="W195" s="5"/>
-    </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U195" s="8"/>
+      <c r="V195" s="5"/>
+    </row>
+    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="11"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -12335,11 +11875,10 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
       <c r="T196" s="13"/>
-      <c r="U196" s="13"/>
-      <c r="V196" s="8"/>
-      <c r="W196" s="5"/>
-    </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U196" s="8"/>
+      <c r="V196" s="5"/>
+    </row>
+    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="11"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -12360,11 +11899,10 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
       <c r="T197" s="13"/>
-      <c r="U197" s="13"/>
-      <c r="V197" s="8"/>
-      <c r="W197" s="5"/>
-    </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U197" s="8"/>
+      <c r="V197" s="5"/>
+    </row>
+    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="11"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -12385,11 +11923,10 @@
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
       <c r="T198" s="13"/>
-      <c r="U198" s="13"/>
-      <c r="V198" s="8"/>
-      <c r="W198" s="5"/>
-    </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U198" s="8"/>
+      <c r="V198" s="5"/>
+    </row>
+    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="11"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -12410,11 +11947,10 @@
       <c r="R199" s="13"/>
       <c r="S199" s="13"/>
       <c r="T199" s="13"/>
-      <c r="U199" s="13"/>
-      <c r="V199" s="8"/>
-      <c r="W199" s="5"/>
-    </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U199" s="8"/>
+      <c r="V199" s="5"/>
+    </row>
+    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="11"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -12435,11 +11971,10 @@
       <c r="R200" s="13"/>
       <c r="S200" s="13"/>
       <c r="T200" s="13"/>
-      <c r="U200" s="13"/>
-      <c r="V200" s="8"/>
-      <c r="W200" s="5"/>
-    </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+      <c r="U200" s="8"/>
+      <c r="V200" s="5"/>
+    </row>
+    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="12"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -12460,14 +11995,13 @@
       <c r="R201" s="14"/>
       <c r="S201" s="14"/>
       <c r="T201" s="14"/>
-      <c r="U201" s="14"/>
-      <c r="V201" s="8"/>
-      <c r="W201" s="5"/>
+      <c r="U201" s="8"/>
+      <c r="V201" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="V2:V1048576" xr:uid="{833FFF82-EF89-473C-B621-746362CC677C}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="U2:U1048576" xr:uid="{833FFF82-EF89-473C-B621-746362CC677C}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Enabled Option" error="Please select a supported Enabled option." sqref="C2:C1048576" xr:uid="{FD0F90A3-EA67-4EF1-8FA8-3E985A5E4965}">
@@ -12515,7 +12049,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34C108D4-9531-4BA3-B96C-478DE5A0F94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC92F570-83BD-4269-898F-500439A2578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
   <si>
     <t>フォルダー ID</t>
     <phoneticPr fontId="2"/>
@@ -149,7 +149,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>開始方法</t>
+    <t>開始方法（プロセスの実行回数）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -202,6 +202,10 @@
   </si>
   <si>
     <t>ジョブの種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ユーザー名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -438,7 +442,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -476,11 +480,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="54">
+  <dxfs count="55">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -682,6 +687,17 @@
           <color theme="0" tint="-0.34998626667073579"/>
         </horizontal>
       </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -1839,60 +1855,61 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:V201" headerRowDxfId="53" dataDxfId="51" totalsRowDxfId="49" headerRowBorderDxfId="52" tableBorderDxfId="50">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:V201" headerRowDxfId="54" dataDxfId="52" totalsRowDxfId="50" headerRowBorderDxfId="53" tableBorderDxfId="51">
   <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="22">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="47"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="45"/>
-    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="44"/>
-    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="43"/>
-    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="42"/>
-    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="41"/>
-    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法" dataDxfId="40"/>
-    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="39"/>
-    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="38"/>
-    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="37"/>
-    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="36"/>
-    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="35"/>
-    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="34"/>
-    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="33"/>
-    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="32"/>
-    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="31"/>
-    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="30"/>
-    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="29"/>
-    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="28"/>
-    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="27"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="49"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="48"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="47"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="46"/>
+    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="45"/>
+    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="44"/>
+    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="43"/>
+    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="42"/>
+    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法" dataDxfId="41"/>
+    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="39"/>
+    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="38"/>
+    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="37"/>
+    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="36"/>
+    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="35"/>
+    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="34"/>
+    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="33"/>
+    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="32"/>
+    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="31"/>
+    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="30"/>
+    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="29"/>
+    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:V201" totalsRowShown="0">
-  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="22">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="26"/>
-    <tableColumn id="9" xr3:uid="{3F114B58-2997-4D73-A80A-40D21B742757}" name="トリガー名" dataDxfId="25"/>
-    <tableColumn id="8" xr3:uid="{45B7C249-3DF1-450D-AA47-E72B0FE30A90}" name="有効" dataDxfId="24"/>
-    <tableColumn id="7" xr3:uid="{FD574CB7-FA08-4654-9CD7-86D60F34DB32}" name="プロセス名" dataDxfId="23"/>
-    <tableColumn id="6" xr3:uid="{7446F334-E6E0-4A0E-8EB5-68FB9D43F164}" name="入力パラメーター" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{9112BA16-F1A6-4B5B-9292-E1F862C46582}" name="カレンダー使用" dataDxfId="21"/>
-    <tableColumn id="17" xr3:uid="{EDBD2CF6-8937-4430-880E-CBC035D999B9}" name="開始方法" dataDxfId="20"/>
-    <tableColumn id="16" xr3:uid="{17E46FA8-B1FA-4C01-B909-101B4EBE2771}" name="開始 cron 式" dataDxfId="19"/>
-    <tableColumn id="15" xr3:uid="{C32A3E10-03CD-4CDE-862C-B8BCCE543C7C}" name="開始 cron 式の詳細" dataDxfId="18"/>
-    <tableColumn id="14" xr3:uid="{DF244F76-D9C5-4B2A-A7FF-45B1E3C0C680}" name="停止方法" dataDxfId="17"/>
-    <tableColumn id="13" xr3:uid="{F8BF873D-C98E-4452-A769-1730BAA59018}" name="停止日付" dataDxfId="16"/>
-    <tableColumn id="12" xr3:uid="{F1B1C282-F479-4190-ADF0-BBDE31D5EFDB}" name="停止 cron 式" dataDxfId="15"/>
-    <tableColumn id="11" xr3:uid="{670C436B-1C2B-4D6A-86BB-6E37C846E72C}" name="タイムゾーン" dataDxfId="14"/>
-    <tableColumn id="21" xr3:uid="{95C00957-7AEE-4E5A-8494-3D628AFB4D6C}" name="ジョブの優先度" dataDxfId="13"/>
-    <tableColumn id="20" xr3:uid="{CDA69AC6-5479-479E-B18C-36DFF3254945}" name="トリガーするアイテムの最小数" dataDxfId="12"/>
-    <tableColumn id="19" xr3:uid="{8E859498-36EB-4FDD-AAD6-41CC93FE4779}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="11"/>
-    <tableColumn id="18" xr3:uid="{08F82746-079C-4356-9DB9-1968920B347F}" name="保留中および実行中のジョブの最大数" dataDxfId="10"/>
-    <tableColumn id="25" xr3:uid="{3EFAE5F4-8E3E-477D-95CB-475B3BAF404F}" name="キュー名" dataDxfId="9"/>
-    <tableColumn id="24" xr3:uid="{FE42FDBB-617A-49AC-9EEA-7F486125AE50}" name="カレンダー名" dataDxfId="8"/>
-    <tableColumn id="23" xr3:uid="{FF130F51-8B1A-4457-8500-568BE985E460}" name="ジョブの種類" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W201" totalsRowShown="0">
+  <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="23">
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="27"/>
+    <tableColumn id="9" xr3:uid="{3F114B58-2997-4D73-A80A-40D21B742757}" name="トリガー名" dataDxfId="26"/>
+    <tableColumn id="8" xr3:uid="{45B7C249-3DF1-450D-AA47-E72B0FE30A90}" name="有効" dataDxfId="25"/>
+    <tableColumn id="7" xr3:uid="{FD574CB7-FA08-4654-9CD7-86D60F34DB32}" name="プロセス名" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{7446F334-E6E0-4A0E-8EB5-68FB9D43F164}" name="入力パラメーター" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{9112BA16-F1A6-4B5B-9292-E1F862C46582}" name="カレンダー使用" dataDxfId="22"/>
+    <tableColumn id="17" xr3:uid="{EDBD2CF6-8937-4430-880E-CBC035D999B9}" name="開始方法（プロセスの実行回数）" dataDxfId="21"/>
+    <tableColumn id="16" xr3:uid="{17E46FA8-B1FA-4C01-B909-101B4EBE2771}" name="開始 cron 式" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{C32A3E10-03CD-4CDE-862C-B8BCCE543C7C}" name="開始 cron 式の詳細" dataDxfId="19"/>
+    <tableColumn id="14" xr3:uid="{DF244F76-D9C5-4B2A-A7FF-45B1E3C0C680}" name="停止方法" dataDxfId="18"/>
+    <tableColumn id="13" xr3:uid="{F8BF873D-C98E-4452-A769-1730BAA59018}" name="停止日付" dataDxfId="17"/>
+    <tableColumn id="12" xr3:uid="{F1B1C282-F479-4190-ADF0-BBDE31D5EFDB}" name="停止 cron 式" dataDxfId="16"/>
+    <tableColumn id="11" xr3:uid="{670C436B-1C2B-4D6A-86BB-6E37C846E72C}" name="タイムゾーン" dataDxfId="15"/>
+    <tableColumn id="21" xr3:uid="{95C00957-7AEE-4E5A-8494-3D628AFB4D6C}" name="ジョブの優先度" dataDxfId="14"/>
+    <tableColumn id="20" xr3:uid="{CDA69AC6-5479-479E-B18C-36DFF3254945}" name="トリガーするアイテムの最小数" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{8E859498-36EB-4FDD-AAD6-41CC93FE4779}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="12"/>
+    <tableColumn id="18" xr3:uid="{08F82746-079C-4356-9DB9-1968920B347F}" name="保留中および実行中のジョブの最大数" dataDxfId="11"/>
+    <tableColumn id="25" xr3:uid="{3EFAE5F4-8E3E-477D-95CB-475B3BAF404F}" name="キュー名" dataDxfId="10"/>
+    <tableColumn id="24" xr3:uid="{FE42FDBB-617A-49AC-9EEA-7F486125AE50}" name="カレンダー名" dataDxfId="9"/>
+    <tableColumn id="23" xr3:uid="{FF130F51-8B1A-4457-8500-568BE985E460}" name="ジョブの種類" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{4F583ADB-8987-4584-9B76-C3EFCC339400}" name="ユーザー名" dataDxfId="7"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="トリガー ID" dataDxfId="6"/>
     <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
   </tableColumns>
@@ -2180,7 +2197,7 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:V201"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="K1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -7106,10 +7123,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7118,19 +7135,20 @@
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="20" customWidth="1"/>
     <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="15.5" customWidth="1"/>
+    <col min="6" max="6" width="15.5" customWidth="1"/>
+    <col min="7" max="7" width="36.25" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
     <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="25.5" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
     <col min="15" max="15" width="27.4140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="31.1640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="20" width="25.5" customWidth="1"/>
-    <col min="21" max="21" width="15.5" customWidth="1"/>
-    <col min="22" max="22" width="45.5" customWidth="1"/>
+    <col min="17" max="21" width="25.5" customWidth="1"/>
+    <col min="22" max="22" width="15.5" customWidth="1"/>
+    <col min="23" max="23" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
         <v>22</v>
       </c>
@@ -7191,14 +7209,17 @@
       <c r="T1" s="13" t="s">
         <v>41</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="U1" s="23" t="s">
         <v>42</v>
       </c>
       <c r="V1" s="15" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W1" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="11"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7219,10 +7240,11 @@
       <c r="R2" s="13"/>
       <c r="S2" s="13"/>
       <c r="T2" s="13"/>
-      <c r="U2" s="8"/>
-      <c r="V2" s="5"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U2" s="23"/>
+      <c r="V2" s="8"/>
+      <c r="W2" s="5"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="11"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7243,10 +7265,11 @@
       <c r="R3" s="13"/>
       <c r="S3" s="13"/>
       <c r="T3" s="13"/>
-      <c r="U3" s="8"/>
-      <c r="V3" s="5"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U3" s="23"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="5"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7267,10 +7290,11 @@
       <c r="R4" s="13"/>
       <c r="S4" s="13"/>
       <c r="T4" s="13"/>
-      <c r="U4" s="5"/>
+      <c r="U4" s="23"/>
       <c r="V4" s="5"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W4" s="5"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7291,10 +7315,11 @@
       <c r="R5" s="13"/>
       <c r="S5" s="13"/>
       <c r="T5" s="13"/>
-      <c r="U5" s="5"/>
+      <c r="U5" s="23"/>
       <c r="V5" s="5"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W5" s="5"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7315,10 +7340,11 @@
       <c r="R6" s="13"/>
       <c r="S6" s="13"/>
       <c r="T6" s="13"/>
-      <c r="U6" s="8"/>
-      <c r="V6" s="5"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U6" s="23"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="5"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7339,10 +7365,11 @@
       <c r="R7" s="13"/>
       <c r="S7" s="13"/>
       <c r="T7" s="13"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="5"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U7" s="23"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="5"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7363,10 +7390,11 @@
       <c r="R8" s="13"/>
       <c r="S8" s="13"/>
       <c r="T8" s="13"/>
-      <c r="U8" s="8"/>
-      <c r="V8" s="5"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U8" s="23"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="5"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7387,10 +7415,11 @@
       <c r="R9" s="13"/>
       <c r="S9" s="13"/>
       <c r="T9" s="13"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="5"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U9" s="23"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="5"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7411,10 +7440,11 @@
       <c r="R10" s="13"/>
       <c r="S10" s="13"/>
       <c r="T10" s="13"/>
-      <c r="U10" s="8"/>
-      <c r="V10" s="5"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U10" s="23"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="5"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7435,10 +7465,11 @@
       <c r="R11" s="13"/>
       <c r="S11" s="13"/>
       <c r="T11" s="13"/>
-      <c r="U11" s="8"/>
-      <c r="V11" s="5"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U11" s="23"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="5"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7459,10 +7490,11 @@
       <c r="R12" s="13"/>
       <c r="S12" s="13"/>
       <c r="T12" s="13"/>
-      <c r="U12" s="8"/>
-      <c r="V12" s="5"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U12" s="23"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="5"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7483,10 +7515,11 @@
       <c r="R13" s="13"/>
       <c r="S13" s="13"/>
       <c r="T13" s="13"/>
-      <c r="U13" s="8"/>
-      <c r="V13" s="5"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U13" s="23"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="5"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7507,10 +7540,11 @@
       <c r="R14" s="13"/>
       <c r="S14" s="13"/>
       <c r="T14" s="13"/>
-      <c r="U14" s="8"/>
-      <c r="V14" s="5"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U14" s="23"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="5"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -7531,10 +7565,11 @@
       <c r="R15" s="13"/>
       <c r="S15" s="13"/>
       <c r="T15" s="13"/>
-      <c r="U15" s="8"/>
-      <c r="V15" s="5"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U15" s="23"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="5"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="11"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -7555,10 +7590,11 @@
       <c r="R16" s="13"/>
       <c r="S16" s="13"/>
       <c r="T16" s="13"/>
-      <c r="U16" s="8"/>
-      <c r="V16" s="5"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U16" s="23"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="5"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -7579,10 +7615,11 @@
       <c r="R17" s="13"/>
       <c r="S17" s="13"/>
       <c r="T17" s="13"/>
-      <c r="U17" s="8"/>
-      <c r="V17" s="5"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U17" s="23"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="5"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -7603,10 +7640,11 @@
       <c r="R18" s="13"/>
       <c r="S18" s="13"/>
       <c r="T18" s="13"/>
-      <c r="U18" s="8"/>
-      <c r="V18" s="5"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U18" s="23"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="5"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -7627,10 +7665,11 @@
       <c r="R19" s="13"/>
       <c r="S19" s="13"/>
       <c r="T19" s="13"/>
-      <c r="U19" s="8"/>
-      <c r="V19" s="5"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U19" s="23"/>
+      <c r="V19" s="8"/>
+      <c r="W19" s="5"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -7651,10 +7690,11 @@
       <c r="R20" s="13"/>
       <c r="S20" s="13"/>
       <c r="T20" s="13"/>
-      <c r="U20" s="8"/>
-      <c r="V20" s="5"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U20" s="23"/>
+      <c r="V20" s="8"/>
+      <c r="W20" s="5"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -7675,10 +7715,11 @@
       <c r="R21" s="13"/>
       <c r="S21" s="13"/>
       <c r="T21" s="13"/>
-      <c r="U21" s="8"/>
-      <c r="V21" s="5"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U21" s="23"/>
+      <c r="V21" s="8"/>
+      <c r="W21" s="5"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -7699,10 +7740,11 @@
       <c r="R22" s="13"/>
       <c r="S22" s="13"/>
       <c r="T22" s="13"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="5"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U22" s="23"/>
+      <c r="V22" s="8"/>
+      <c r="W22" s="5"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -7723,10 +7765,11 @@
       <c r="R23" s="13"/>
       <c r="S23" s="13"/>
       <c r="T23" s="13"/>
-      <c r="U23" s="8"/>
-      <c r="V23" s="5"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U23" s="23"/>
+      <c r="V23" s="8"/>
+      <c r="W23" s="5"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -7747,10 +7790,11 @@
       <c r="R24" s="13"/>
       <c r="S24" s="13"/>
       <c r="T24" s="13"/>
-      <c r="U24" s="8"/>
-      <c r="V24" s="5"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U24" s="23"/>
+      <c r="V24" s="8"/>
+      <c r="W24" s="5"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -7771,10 +7815,11 @@
       <c r="R25" s="13"/>
       <c r="S25" s="13"/>
       <c r="T25" s="13"/>
-      <c r="U25" s="8"/>
-      <c r="V25" s="5"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U25" s="23"/>
+      <c r="V25" s="8"/>
+      <c r="W25" s="5"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -7795,10 +7840,11 @@
       <c r="R26" s="13"/>
       <c r="S26" s="13"/>
       <c r="T26" s="13"/>
-      <c r="U26" s="8"/>
-      <c r="V26" s="5"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U26" s="23"/>
+      <c r="V26" s="8"/>
+      <c r="W26" s="5"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -7819,10 +7865,11 @@
       <c r="R27" s="13"/>
       <c r="S27" s="13"/>
       <c r="T27" s="13"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="5"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U27" s="23"/>
+      <c r="V27" s="8"/>
+      <c r="W27" s="5"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -7843,10 +7890,11 @@
       <c r="R28" s="13"/>
       <c r="S28" s="13"/>
       <c r="T28" s="13"/>
-      <c r="U28" s="8"/>
-      <c r="V28" s="5"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U28" s="23"/>
+      <c r="V28" s="8"/>
+      <c r="W28" s="5"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -7867,10 +7915,11 @@
       <c r="R29" s="13"/>
       <c r="S29" s="13"/>
       <c r="T29" s="13"/>
-      <c r="U29" s="8"/>
-      <c r="V29" s="5"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U29" s="23"/>
+      <c r="V29" s="8"/>
+      <c r="W29" s="5"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="11"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -7891,10 +7940,11 @@
       <c r="R30" s="13"/>
       <c r="S30" s="13"/>
       <c r="T30" s="13"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="5"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U30" s="23"/>
+      <c r="V30" s="8"/>
+      <c r="W30" s="5"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -7915,10 +7965,11 @@
       <c r="R31" s="13"/>
       <c r="S31" s="13"/>
       <c r="T31" s="13"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="5"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U31" s="23"/>
+      <c r="V31" s="8"/>
+      <c r="W31" s="5"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="11"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -7939,10 +7990,11 @@
       <c r="R32" s="13"/>
       <c r="S32" s="13"/>
       <c r="T32" s="13"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="5"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U32" s="23"/>
+      <c r="V32" s="8"/>
+      <c r="W32" s="5"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -7963,10 +8015,11 @@
       <c r="R33" s="13"/>
       <c r="S33" s="13"/>
       <c r="T33" s="13"/>
-      <c r="U33" s="8"/>
-      <c r="V33" s="5"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U33" s="23"/>
+      <c r="V33" s="8"/>
+      <c r="W33" s="5"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="11"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -7987,10 +8040,11 @@
       <c r="R34" s="13"/>
       <c r="S34" s="13"/>
       <c r="T34" s="13"/>
-      <c r="U34" s="8"/>
-      <c r="V34" s="5"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U34" s="23"/>
+      <c r="V34" s="8"/>
+      <c r="W34" s="5"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -8011,10 +8065,11 @@
       <c r="R35" s="13"/>
       <c r="S35" s="13"/>
       <c r="T35" s="13"/>
-      <c r="U35" s="8"/>
-      <c r="V35" s="5"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U35" s="23"/>
+      <c r="V35" s="8"/>
+      <c r="W35" s="5"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -8035,10 +8090,11 @@
       <c r="R36" s="13"/>
       <c r="S36" s="13"/>
       <c r="T36" s="13"/>
-      <c r="U36" s="8"/>
-      <c r="V36" s="5"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U36" s="23"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="5"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -8059,10 +8115,11 @@
       <c r="R37" s="13"/>
       <c r="S37" s="13"/>
       <c r="T37" s="13"/>
-      <c r="U37" s="8"/>
-      <c r="V37" s="5"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U37" s="23"/>
+      <c r="V37" s="8"/>
+      <c r="W37" s="5"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="11"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -8083,10 +8140,11 @@
       <c r="R38" s="13"/>
       <c r="S38" s="13"/>
       <c r="T38" s="13"/>
-      <c r="U38" s="8"/>
-      <c r="V38" s="5"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U38" s="23"/>
+      <c r="V38" s="8"/>
+      <c r="W38" s="5"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="11"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -8107,10 +8165,11 @@
       <c r="R39" s="13"/>
       <c r="S39" s="13"/>
       <c r="T39" s="13"/>
-      <c r="U39" s="8"/>
-      <c r="V39" s="5"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U39" s="23"/>
+      <c r="V39" s="8"/>
+      <c r="W39" s="5"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="11"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -8131,10 +8190,11 @@
       <c r="R40" s="13"/>
       <c r="S40" s="13"/>
       <c r="T40" s="13"/>
-      <c r="U40" s="8"/>
-      <c r="V40" s="5"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U40" s="23"/>
+      <c r="V40" s="8"/>
+      <c r="W40" s="5"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="11"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -8155,10 +8215,11 @@
       <c r="R41" s="13"/>
       <c r="S41" s="13"/>
       <c r="T41" s="13"/>
-      <c r="U41" s="8"/>
-      <c r="V41" s="5"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U41" s="23"/>
+      <c r="V41" s="8"/>
+      <c r="W41" s="5"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="11"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -8179,10 +8240,11 @@
       <c r="R42" s="13"/>
       <c r="S42" s="13"/>
       <c r="T42" s="13"/>
-      <c r="U42" s="8"/>
-      <c r="V42" s="5"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U42" s="23"/>
+      <c r="V42" s="8"/>
+      <c r="W42" s="5"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="11"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -8203,10 +8265,11 @@
       <c r="R43" s="13"/>
       <c r="S43" s="13"/>
       <c r="T43" s="13"/>
-      <c r="U43" s="8"/>
-      <c r="V43" s="5"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U43" s="23"/>
+      <c r="V43" s="8"/>
+      <c r="W43" s="5"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="11"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -8227,10 +8290,11 @@
       <c r="R44" s="13"/>
       <c r="S44" s="13"/>
       <c r="T44" s="13"/>
-      <c r="U44" s="8"/>
-      <c r="V44" s="5"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U44" s="23"/>
+      <c r="V44" s="8"/>
+      <c r="W44" s="5"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="11"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -8251,10 +8315,11 @@
       <c r="R45" s="13"/>
       <c r="S45" s="13"/>
       <c r="T45" s="13"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="5"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U45" s="23"/>
+      <c r="V45" s="8"/>
+      <c r="W45" s="5"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="11"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -8275,10 +8340,11 @@
       <c r="R46" s="13"/>
       <c r="S46" s="13"/>
       <c r="T46" s="13"/>
-      <c r="U46" s="8"/>
-      <c r="V46" s="5"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U46" s="23"/>
+      <c r="V46" s="8"/>
+      <c r="W46" s="5"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="11"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -8299,10 +8365,11 @@
       <c r="R47" s="13"/>
       <c r="S47" s="13"/>
       <c r="T47" s="13"/>
-      <c r="U47" s="8"/>
-      <c r="V47" s="5"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U47" s="23"/>
+      <c r="V47" s="8"/>
+      <c r="W47" s="5"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="11"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -8323,10 +8390,11 @@
       <c r="R48" s="13"/>
       <c r="S48" s="13"/>
       <c r="T48" s="13"/>
-      <c r="U48" s="8"/>
-      <c r="V48" s="5"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U48" s="23"/>
+      <c r="V48" s="8"/>
+      <c r="W48" s="5"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="11"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -8347,10 +8415,11 @@
       <c r="R49" s="13"/>
       <c r="S49" s="13"/>
       <c r="T49" s="13"/>
-      <c r="U49" s="8"/>
-      <c r="V49" s="5"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U49" s="23"/>
+      <c r="V49" s="8"/>
+      <c r="W49" s="5"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="11"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -8371,10 +8440,11 @@
       <c r="R50" s="13"/>
       <c r="S50" s="13"/>
       <c r="T50" s="13"/>
-      <c r="U50" s="8"/>
-      <c r="V50" s="5"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U50" s="23"/>
+      <c r="V50" s="8"/>
+      <c r="W50" s="5"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="11"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -8395,10 +8465,11 @@
       <c r="R51" s="13"/>
       <c r="S51" s="13"/>
       <c r="T51" s="13"/>
-      <c r="U51" s="8"/>
-      <c r="V51" s="5"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U51" s="23"/>
+      <c r="V51" s="8"/>
+      <c r="W51" s="5"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -8419,10 +8490,11 @@
       <c r="R52" s="13"/>
       <c r="S52" s="13"/>
       <c r="T52" s="13"/>
-      <c r="U52" s="8"/>
-      <c r="V52" s="5"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U52" s="23"/>
+      <c r="V52" s="8"/>
+      <c r="W52" s="5"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="11"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -8443,10 +8515,11 @@
       <c r="R53" s="13"/>
       <c r="S53" s="13"/>
       <c r="T53" s="13"/>
-      <c r="U53" s="8"/>
-      <c r="V53" s="5"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U53" s="23"/>
+      <c r="V53" s="8"/>
+      <c r="W53" s="5"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="11"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -8467,10 +8540,11 @@
       <c r="R54" s="13"/>
       <c r="S54" s="13"/>
       <c r="T54" s="13"/>
-      <c r="U54" s="8"/>
-      <c r="V54" s="5"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U54" s="23"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="5"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="11"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -8491,10 +8565,11 @@
       <c r="R55" s="13"/>
       <c r="S55" s="13"/>
       <c r="T55" s="13"/>
-      <c r="U55" s="8"/>
-      <c r="V55" s="5"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U55" s="23"/>
+      <c r="V55" s="8"/>
+      <c r="W55" s="5"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="11"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -8515,10 +8590,11 @@
       <c r="R56" s="13"/>
       <c r="S56" s="13"/>
       <c r="T56" s="13"/>
-      <c r="U56" s="8"/>
-      <c r="V56" s="5"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U56" s="23"/>
+      <c r="V56" s="8"/>
+      <c r="W56" s="5"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="11"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -8539,10 +8615,11 @@
       <c r="R57" s="13"/>
       <c r="S57" s="13"/>
       <c r="T57" s="13"/>
-      <c r="U57" s="8"/>
-      <c r="V57" s="5"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U57" s="23"/>
+      <c r="V57" s="8"/>
+      <c r="W57" s="5"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="11"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -8563,10 +8640,11 @@
       <c r="R58" s="13"/>
       <c r="S58" s="13"/>
       <c r="T58" s="13"/>
-      <c r="U58" s="8"/>
-      <c r="V58" s="5"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U58" s="23"/>
+      <c r="V58" s="8"/>
+      <c r="W58" s="5"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="11"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -8587,10 +8665,11 @@
       <c r="R59" s="13"/>
       <c r="S59" s="13"/>
       <c r="T59" s="13"/>
-      <c r="U59" s="8"/>
-      <c r="V59" s="5"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U59" s="23"/>
+      <c r="V59" s="8"/>
+      <c r="W59" s="5"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="11"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -8611,10 +8690,11 @@
       <c r="R60" s="13"/>
       <c r="S60" s="13"/>
       <c r="T60" s="13"/>
-      <c r="U60" s="8"/>
-      <c r="V60" s="5"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U60" s="23"/>
+      <c r="V60" s="8"/>
+      <c r="W60" s="5"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="11"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -8635,10 +8715,11 @@
       <c r="R61" s="13"/>
       <c r="S61" s="13"/>
       <c r="T61" s="13"/>
-      <c r="U61" s="8"/>
-      <c r="V61" s="5"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U61" s="23"/>
+      <c r="V61" s="8"/>
+      <c r="W61" s="5"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="11"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -8659,10 +8740,11 @@
       <c r="R62" s="13"/>
       <c r="S62" s="13"/>
       <c r="T62" s="13"/>
-      <c r="U62" s="8"/>
-      <c r="V62" s="5"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U62" s="23"/>
+      <c r="V62" s="8"/>
+      <c r="W62" s="5"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="11"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -8683,10 +8765,11 @@
       <c r="R63" s="13"/>
       <c r="S63" s="13"/>
       <c r="T63" s="13"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="5"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U63" s="23"/>
+      <c r="V63" s="8"/>
+      <c r="W63" s="5"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="11"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -8707,10 +8790,11 @@
       <c r="R64" s="13"/>
       <c r="S64" s="13"/>
       <c r="T64" s="13"/>
-      <c r="U64" s="8"/>
-      <c r="V64" s="5"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U64" s="23"/>
+      <c r="V64" s="8"/>
+      <c r="W64" s="5"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="11"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -8731,10 +8815,11 @@
       <c r="R65" s="13"/>
       <c r="S65" s="13"/>
       <c r="T65" s="13"/>
-      <c r="U65" s="8"/>
-      <c r="V65" s="5"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U65" s="23"/>
+      <c r="V65" s="8"/>
+      <c r="W65" s="5"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="11"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -8755,10 +8840,11 @@
       <c r="R66" s="13"/>
       <c r="S66" s="13"/>
       <c r="T66" s="13"/>
-      <c r="U66" s="8"/>
-      <c r="V66" s="5"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U66" s="23"/>
+      <c r="V66" s="8"/>
+      <c r="W66" s="5"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="11"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -8779,10 +8865,11 @@
       <c r="R67" s="13"/>
       <c r="S67" s="13"/>
       <c r="T67" s="13"/>
-      <c r="U67" s="8"/>
-      <c r="V67" s="5"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U67" s="23"/>
+      <c r="V67" s="8"/>
+      <c r="W67" s="5"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="11"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -8803,10 +8890,11 @@
       <c r="R68" s="13"/>
       <c r="S68" s="13"/>
       <c r="T68" s="13"/>
-      <c r="U68" s="8"/>
-      <c r="V68" s="5"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U68" s="23"/>
+      <c r="V68" s="8"/>
+      <c r="W68" s="5"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="11"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -8827,10 +8915,11 @@
       <c r="R69" s="13"/>
       <c r="S69" s="13"/>
       <c r="T69" s="13"/>
-      <c r="U69" s="8"/>
-      <c r="V69" s="5"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U69" s="23"/>
+      <c r="V69" s="8"/>
+      <c r="W69" s="5"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="11"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -8851,10 +8940,11 @@
       <c r="R70" s="13"/>
       <c r="S70" s="13"/>
       <c r="T70" s="13"/>
-      <c r="U70" s="8"/>
-      <c r="V70" s="5"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U70" s="23"/>
+      <c r="V70" s="8"/>
+      <c r="W70" s="5"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="11"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -8875,10 +8965,11 @@
       <c r="R71" s="13"/>
       <c r="S71" s="13"/>
       <c r="T71" s="13"/>
-      <c r="U71" s="8"/>
-      <c r="V71" s="5"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U71" s="23"/>
+      <c r="V71" s="8"/>
+      <c r="W71" s="5"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="11"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -8899,10 +8990,11 @@
       <c r="R72" s="13"/>
       <c r="S72" s="13"/>
       <c r="T72" s="13"/>
-      <c r="U72" s="8"/>
-      <c r="V72" s="5"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U72" s="23"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="5"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="11"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -8923,10 +9015,11 @@
       <c r="R73" s="13"/>
       <c r="S73" s="13"/>
       <c r="T73" s="13"/>
-      <c r="U73" s="8"/>
-      <c r="V73" s="5"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U73" s="23"/>
+      <c r="V73" s="8"/>
+      <c r="W73" s="5"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="11"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -8947,10 +9040,11 @@
       <c r="R74" s="13"/>
       <c r="S74" s="13"/>
       <c r="T74" s="13"/>
-      <c r="U74" s="8"/>
-      <c r="V74" s="5"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U74" s="23"/>
+      <c r="V74" s="8"/>
+      <c r="W74" s="5"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="11"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -8971,10 +9065,11 @@
       <c r="R75" s="13"/>
       <c r="S75" s="13"/>
       <c r="T75" s="13"/>
-      <c r="U75" s="8"/>
-      <c r="V75" s="5"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U75" s="23"/>
+      <c r="V75" s="8"/>
+      <c r="W75" s="5"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="11"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -8995,10 +9090,11 @@
       <c r="R76" s="13"/>
       <c r="S76" s="13"/>
       <c r="T76" s="13"/>
-      <c r="U76" s="8"/>
-      <c r="V76" s="5"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U76" s="23"/>
+      <c r="V76" s="8"/>
+      <c r="W76" s="5"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="11"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -9019,10 +9115,11 @@
       <c r="R77" s="13"/>
       <c r="S77" s="13"/>
       <c r="T77" s="13"/>
-      <c r="U77" s="8"/>
-      <c r="V77" s="5"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U77" s="23"/>
+      <c r="V77" s="8"/>
+      <c r="W77" s="5"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="11"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -9043,10 +9140,11 @@
       <c r="R78" s="13"/>
       <c r="S78" s="13"/>
       <c r="T78" s="13"/>
-      <c r="U78" s="8"/>
-      <c r="V78" s="5"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U78" s="23"/>
+      <c r="V78" s="8"/>
+      <c r="W78" s="5"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="11"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -9067,10 +9165,11 @@
       <c r="R79" s="13"/>
       <c r="S79" s="13"/>
       <c r="T79" s="13"/>
-      <c r="U79" s="8"/>
-      <c r="V79" s="5"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U79" s="23"/>
+      <c r="V79" s="8"/>
+      <c r="W79" s="5"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="11"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -9091,10 +9190,11 @@
       <c r="R80" s="13"/>
       <c r="S80" s="13"/>
       <c r="T80" s="13"/>
-      <c r="U80" s="8"/>
-      <c r="V80" s="5"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U80" s="23"/>
+      <c r="V80" s="8"/>
+      <c r="W80" s="5"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="11"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -9115,10 +9215,11 @@
       <c r="R81" s="13"/>
       <c r="S81" s="13"/>
       <c r="T81" s="13"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="5"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U81" s="23"/>
+      <c r="V81" s="8"/>
+      <c r="W81" s="5"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="11"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -9139,10 +9240,11 @@
       <c r="R82" s="13"/>
       <c r="S82" s="13"/>
       <c r="T82" s="13"/>
-      <c r="U82" s="8"/>
-      <c r="V82" s="5"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U82" s="23"/>
+      <c r="V82" s="8"/>
+      <c r="W82" s="5"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="11"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -9163,10 +9265,11 @@
       <c r="R83" s="13"/>
       <c r="S83" s="13"/>
       <c r="T83" s="13"/>
-      <c r="U83" s="8"/>
-      <c r="V83" s="5"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U83" s="23"/>
+      <c r="V83" s="8"/>
+      <c r="W83" s="5"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="11"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -9187,10 +9290,11 @@
       <c r="R84" s="13"/>
       <c r="S84" s="13"/>
       <c r="T84" s="13"/>
-      <c r="U84" s="8"/>
-      <c r="V84" s="5"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U84" s="23"/>
+      <c r="V84" s="8"/>
+      <c r="W84" s="5"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="11"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -9211,10 +9315,11 @@
       <c r="R85" s="13"/>
       <c r="S85" s="13"/>
       <c r="T85" s="13"/>
-      <c r="U85" s="8"/>
-      <c r="V85" s="5"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U85" s="23"/>
+      <c r="V85" s="8"/>
+      <c r="W85" s="5"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="11"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -9235,10 +9340,11 @@
       <c r="R86" s="13"/>
       <c r="S86" s="13"/>
       <c r="T86" s="13"/>
-      <c r="U86" s="8"/>
-      <c r="V86" s="5"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U86" s="23"/>
+      <c r="V86" s="8"/>
+      <c r="W86" s="5"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="11"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -9259,10 +9365,11 @@
       <c r="R87" s="13"/>
       <c r="S87" s="13"/>
       <c r="T87" s="13"/>
-      <c r="U87" s="8"/>
-      <c r="V87" s="5"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U87" s="23"/>
+      <c r="V87" s="8"/>
+      <c r="W87" s="5"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="11"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -9283,10 +9390,11 @@
       <c r="R88" s="13"/>
       <c r="S88" s="13"/>
       <c r="T88" s="13"/>
-      <c r="U88" s="8"/>
-      <c r="V88" s="5"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U88" s="23"/>
+      <c r="V88" s="8"/>
+      <c r="W88" s="5"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="11"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -9307,10 +9415,11 @@
       <c r="R89" s="13"/>
       <c r="S89" s="13"/>
       <c r="T89" s="13"/>
-      <c r="U89" s="8"/>
-      <c r="V89" s="5"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U89" s="23"/>
+      <c r="V89" s="8"/>
+      <c r="W89" s="5"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="11"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -9331,10 +9440,11 @@
       <c r="R90" s="13"/>
       <c r="S90" s="13"/>
       <c r="T90" s="13"/>
-      <c r="U90" s="8"/>
-      <c r="V90" s="5"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U90" s="23"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="5"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="11"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -9355,10 +9465,11 @@
       <c r="R91" s="13"/>
       <c r="S91" s="13"/>
       <c r="T91" s="13"/>
-      <c r="U91" s="8"/>
-      <c r="V91" s="5"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U91" s="23"/>
+      <c r="V91" s="8"/>
+      <c r="W91" s="5"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="11"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -9379,10 +9490,11 @@
       <c r="R92" s="13"/>
       <c r="S92" s="13"/>
       <c r="T92" s="13"/>
-      <c r="U92" s="8"/>
-      <c r="V92" s="5"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U92" s="23"/>
+      <c r="V92" s="8"/>
+      <c r="W92" s="5"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="11"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -9403,10 +9515,11 @@
       <c r="R93" s="13"/>
       <c r="S93" s="13"/>
       <c r="T93" s="13"/>
-      <c r="U93" s="8"/>
-      <c r="V93" s="5"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U93" s="23"/>
+      <c r="V93" s="8"/>
+      <c r="W93" s="5"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="11"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -9427,10 +9540,11 @@
       <c r="R94" s="13"/>
       <c r="S94" s="13"/>
       <c r="T94" s="13"/>
-      <c r="U94" s="8"/>
-      <c r="V94" s="5"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U94" s="23"/>
+      <c r="V94" s="8"/>
+      <c r="W94" s="5"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="11"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -9451,10 +9565,11 @@
       <c r="R95" s="13"/>
       <c r="S95" s="13"/>
       <c r="T95" s="13"/>
-      <c r="U95" s="8"/>
-      <c r="V95" s="5"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U95" s="23"/>
+      <c r="V95" s="8"/>
+      <c r="W95" s="5"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="11"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -9475,10 +9590,11 @@
       <c r="R96" s="13"/>
       <c r="S96" s="13"/>
       <c r="T96" s="13"/>
-      <c r="U96" s="8"/>
-      <c r="V96" s="5"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U96" s="23"/>
+      <c r="V96" s="8"/>
+      <c r="W96" s="5"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="11"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -9499,10 +9615,11 @@
       <c r="R97" s="13"/>
       <c r="S97" s="13"/>
       <c r="T97" s="13"/>
-      <c r="U97" s="8"/>
-      <c r="V97" s="5"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U97" s="23"/>
+      <c r="V97" s="8"/>
+      <c r="W97" s="5"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="11"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -9523,10 +9640,11 @@
       <c r="R98" s="13"/>
       <c r="S98" s="13"/>
       <c r="T98" s="13"/>
-      <c r="U98" s="8"/>
-      <c r="V98" s="5"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U98" s="23"/>
+      <c r="V98" s="8"/>
+      <c r="W98" s="5"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="11"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -9547,10 +9665,11 @@
       <c r="R99" s="13"/>
       <c r="S99" s="13"/>
       <c r="T99" s="13"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="5"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U99" s="23"/>
+      <c r="V99" s="8"/>
+      <c r="W99" s="5"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="11"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -9571,10 +9690,11 @@
       <c r="R100" s="13"/>
       <c r="S100" s="13"/>
       <c r="T100" s="13"/>
-      <c r="U100" s="8"/>
-      <c r="V100" s="5"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U100" s="23"/>
+      <c r="V100" s="8"/>
+      <c r="W100" s="5"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="11"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -9595,10 +9715,11 @@
       <c r="R101" s="13"/>
       <c r="S101" s="13"/>
       <c r="T101" s="13"/>
-      <c r="U101" s="8"/>
-      <c r="V101" s="5"/>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U101" s="23"/>
+      <c r="V101" s="8"/>
+      <c r="W101" s="5"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="11"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -9619,10 +9740,11 @@
       <c r="R102" s="13"/>
       <c r="S102" s="13"/>
       <c r="T102" s="13"/>
-      <c r="U102" s="8"/>
-      <c r="V102" s="5"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U102" s="23"/>
+      <c r="V102" s="8"/>
+      <c r="W102" s="5"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="11"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -9643,10 +9765,11 @@
       <c r="R103" s="13"/>
       <c r="S103" s="13"/>
       <c r="T103" s="13"/>
-      <c r="U103" s="8"/>
-      <c r="V103" s="5"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U103" s="23"/>
+      <c r="V103" s="8"/>
+      <c r="W103" s="5"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="11"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -9667,10 +9790,11 @@
       <c r="R104" s="13"/>
       <c r="S104" s="13"/>
       <c r="T104" s="13"/>
-      <c r="U104" s="8"/>
-      <c r="V104" s="5"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U104" s="23"/>
+      <c r="V104" s="8"/>
+      <c r="W104" s="5"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="11"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -9691,10 +9815,11 @@
       <c r="R105" s="13"/>
       <c r="S105" s="13"/>
       <c r="T105" s="13"/>
-      <c r="U105" s="8"/>
-      <c r="V105" s="5"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U105" s="23"/>
+      <c r="V105" s="8"/>
+      <c r="W105" s="5"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="11"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -9715,10 +9840,11 @@
       <c r="R106" s="13"/>
       <c r="S106" s="13"/>
       <c r="T106" s="13"/>
-      <c r="U106" s="8"/>
-      <c r="V106" s="5"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U106" s="23"/>
+      <c r="V106" s="8"/>
+      <c r="W106" s="5"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="11"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -9739,10 +9865,11 @@
       <c r="R107" s="13"/>
       <c r="S107" s="13"/>
       <c r="T107" s="13"/>
-      <c r="U107" s="8"/>
-      <c r="V107" s="5"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U107" s="23"/>
+      <c r="V107" s="8"/>
+      <c r="W107" s="5"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="11"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -9763,10 +9890,11 @@
       <c r="R108" s="13"/>
       <c r="S108" s="13"/>
       <c r="T108" s="13"/>
-      <c r="U108" s="8"/>
-      <c r="V108" s="5"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U108" s="23"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="5"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="11"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -9787,10 +9915,11 @@
       <c r="R109" s="13"/>
       <c r="S109" s="13"/>
       <c r="T109" s="13"/>
-      <c r="U109" s="8"/>
-      <c r="V109" s="5"/>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U109" s="23"/>
+      <c r="V109" s="8"/>
+      <c r="W109" s="5"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="11"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -9811,10 +9940,11 @@
       <c r="R110" s="13"/>
       <c r="S110" s="13"/>
       <c r="T110" s="13"/>
-      <c r="U110" s="8"/>
-      <c r="V110" s="5"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U110" s="23"/>
+      <c r="V110" s="8"/>
+      <c r="W110" s="5"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="11"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -9835,10 +9965,11 @@
       <c r="R111" s="13"/>
       <c r="S111" s="13"/>
       <c r="T111" s="13"/>
-      <c r="U111" s="8"/>
-      <c r="V111" s="5"/>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U111" s="23"/>
+      <c r="V111" s="8"/>
+      <c r="W111" s="5"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="11"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -9859,10 +9990,11 @@
       <c r="R112" s="13"/>
       <c r="S112" s="13"/>
       <c r="T112" s="13"/>
-      <c r="U112" s="8"/>
-      <c r="V112" s="5"/>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U112" s="23"/>
+      <c r="V112" s="8"/>
+      <c r="W112" s="5"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="11"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -9883,10 +10015,11 @@
       <c r="R113" s="13"/>
       <c r="S113" s="13"/>
       <c r="T113" s="13"/>
-      <c r="U113" s="8"/>
-      <c r="V113" s="5"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U113" s="23"/>
+      <c r="V113" s="8"/>
+      <c r="W113" s="5"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="11"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -9907,10 +10040,11 @@
       <c r="R114" s="13"/>
       <c r="S114" s="13"/>
       <c r="T114" s="13"/>
-      <c r="U114" s="8"/>
-      <c r="V114" s="5"/>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U114" s="23"/>
+      <c r="V114" s="8"/>
+      <c r="W114" s="5"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="11"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -9931,10 +10065,11 @@
       <c r="R115" s="13"/>
       <c r="S115" s="13"/>
       <c r="T115" s="13"/>
-      <c r="U115" s="8"/>
-      <c r="V115" s="5"/>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U115" s="23"/>
+      <c r="V115" s="8"/>
+      <c r="W115" s="5"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="11"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -9955,10 +10090,11 @@
       <c r="R116" s="13"/>
       <c r="S116" s="13"/>
       <c r="T116" s="13"/>
-      <c r="U116" s="8"/>
-      <c r="V116" s="5"/>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U116" s="23"/>
+      <c r="V116" s="8"/>
+      <c r="W116" s="5"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="11"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -9979,10 +10115,11 @@
       <c r="R117" s="13"/>
       <c r="S117" s="13"/>
       <c r="T117" s="13"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="5"/>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U117" s="23"/>
+      <c r="V117" s="8"/>
+      <c r="W117" s="5"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="11"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -10003,10 +10140,11 @@
       <c r="R118" s="13"/>
       <c r="S118" s="13"/>
       <c r="T118" s="13"/>
-      <c r="U118" s="8"/>
-      <c r="V118" s="5"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U118" s="23"/>
+      <c r="V118" s="8"/>
+      <c r="W118" s="5"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="11"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -10027,10 +10165,11 @@
       <c r="R119" s="13"/>
       <c r="S119" s="13"/>
       <c r="T119" s="13"/>
-      <c r="U119" s="8"/>
-      <c r="V119" s="5"/>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U119" s="23"/>
+      <c r="V119" s="8"/>
+      <c r="W119" s="5"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="11"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -10051,10 +10190,11 @@
       <c r="R120" s="13"/>
       <c r="S120" s="13"/>
       <c r="T120" s="13"/>
-      <c r="U120" s="8"/>
-      <c r="V120" s="5"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U120" s="23"/>
+      <c r="V120" s="8"/>
+      <c r="W120" s="5"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="11"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -10075,10 +10215,11 @@
       <c r="R121" s="13"/>
       <c r="S121" s="13"/>
       <c r="T121" s="13"/>
-      <c r="U121" s="8"/>
-      <c r="V121" s="5"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U121" s="23"/>
+      <c r="V121" s="8"/>
+      <c r="W121" s="5"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="11"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -10099,10 +10240,11 @@
       <c r="R122" s="13"/>
       <c r="S122" s="13"/>
       <c r="T122" s="13"/>
-      <c r="U122" s="8"/>
-      <c r="V122" s="5"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U122" s="23"/>
+      <c r="V122" s="8"/>
+      <c r="W122" s="5"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="11"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -10123,10 +10265,11 @@
       <c r="R123" s="13"/>
       <c r="S123" s="13"/>
       <c r="T123" s="13"/>
-      <c r="U123" s="8"/>
-      <c r="V123" s="5"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U123" s="23"/>
+      <c r="V123" s="8"/>
+      <c r="W123" s="5"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="11"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -10147,10 +10290,11 @@
       <c r="R124" s="13"/>
       <c r="S124" s="13"/>
       <c r="T124" s="13"/>
-      <c r="U124" s="8"/>
-      <c r="V124" s="5"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U124" s="23"/>
+      <c r="V124" s="8"/>
+      <c r="W124" s="5"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="11"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -10171,10 +10315,11 @@
       <c r="R125" s="13"/>
       <c r="S125" s="13"/>
       <c r="T125" s="13"/>
-      <c r="U125" s="8"/>
-      <c r="V125" s="5"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U125" s="23"/>
+      <c r="V125" s="8"/>
+      <c r="W125" s="5"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="11"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -10195,10 +10340,11 @@
       <c r="R126" s="13"/>
       <c r="S126" s="13"/>
       <c r="T126" s="13"/>
-      <c r="U126" s="8"/>
-      <c r="V126" s="5"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U126" s="23"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="5"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="11"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -10219,10 +10365,11 @@
       <c r="R127" s="13"/>
       <c r="S127" s="13"/>
       <c r="T127" s="13"/>
-      <c r="U127" s="8"/>
-      <c r="V127" s="5"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U127" s="23"/>
+      <c r="V127" s="8"/>
+      <c r="W127" s="5"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="11"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -10243,10 +10390,11 @@
       <c r="R128" s="13"/>
       <c r="S128" s="13"/>
       <c r="T128" s="13"/>
-      <c r="U128" s="8"/>
-      <c r="V128" s="5"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U128" s="23"/>
+      <c r="V128" s="8"/>
+      <c r="W128" s="5"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="11"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -10267,10 +10415,11 @@
       <c r="R129" s="13"/>
       <c r="S129" s="13"/>
       <c r="T129" s="13"/>
-      <c r="U129" s="8"/>
-      <c r="V129" s="5"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U129" s="23"/>
+      <c r="V129" s="8"/>
+      <c r="W129" s="5"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="11"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -10291,10 +10440,11 @@
       <c r="R130" s="13"/>
       <c r="S130" s="13"/>
       <c r="T130" s="13"/>
-      <c r="U130" s="8"/>
-      <c r="V130" s="5"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U130" s="23"/>
+      <c r="V130" s="8"/>
+      <c r="W130" s="5"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="11"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -10315,10 +10465,11 @@
       <c r="R131" s="13"/>
       <c r="S131" s="13"/>
       <c r="T131" s="13"/>
-      <c r="U131" s="8"/>
-      <c r="V131" s="5"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U131" s="23"/>
+      <c r="V131" s="8"/>
+      <c r="W131" s="5"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="11"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -10339,10 +10490,11 @@
       <c r="R132" s="13"/>
       <c r="S132" s="13"/>
       <c r="T132" s="13"/>
-      <c r="U132" s="8"/>
-      <c r="V132" s="5"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U132" s="23"/>
+      <c r="V132" s="8"/>
+      <c r="W132" s="5"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="11"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -10363,10 +10515,11 @@
       <c r="R133" s="13"/>
       <c r="S133" s="13"/>
       <c r="T133" s="13"/>
-      <c r="U133" s="8"/>
-      <c r="V133" s="5"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U133" s="23"/>
+      <c r="V133" s="8"/>
+      <c r="W133" s="5"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="11"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -10387,10 +10540,11 @@
       <c r="R134" s="13"/>
       <c r="S134" s="13"/>
       <c r="T134" s="13"/>
-      <c r="U134" s="8"/>
-      <c r="V134" s="5"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U134" s="23"/>
+      <c r="V134" s="8"/>
+      <c r="W134" s="5"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="11"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -10411,10 +10565,11 @@
       <c r="R135" s="13"/>
       <c r="S135" s="13"/>
       <c r="T135" s="13"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="5"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U135" s="23"/>
+      <c r="V135" s="8"/>
+      <c r="W135" s="5"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="11"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -10435,10 +10590,11 @@
       <c r="R136" s="13"/>
       <c r="S136" s="13"/>
       <c r="T136" s="13"/>
-      <c r="U136" s="8"/>
-      <c r="V136" s="5"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U136" s="23"/>
+      <c r="V136" s="8"/>
+      <c r="W136" s="5"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="11"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -10459,10 +10615,11 @@
       <c r="R137" s="13"/>
       <c r="S137" s="13"/>
       <c r="T137" s="13"/>
-      <c r="U137" s="8"/>
-      <c r="V137" s="5"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U137" s="23"/>
+      <c r="V137" s="8"/>
+      <c r="W137" s="5"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="11"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -10483,10 +10640,11 @@
       <c r="R138" s="13"/>
       <c r="S138" s="13"/>
       <c r="T138" s="13"/>
-      <c r="U138" s="8"/>
-      <c r="V138" s="5"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U138" s="23"/>
+      <c r="V138" s="8"/>
+      <c r="W138" s="5"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="11"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -10507,10 +10665,11 @@
       <c r="R139" s="13"/>
       <c r="S139" s="13"/>
       <c r="T139" s="13"/>
-      <c r="U139" s="8"/>
-      <c r="V139" s="5"/>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U139" s="23"/>
+      <c r="V139" s="8"/>
+      <c r="W139" s="5"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="11"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -10531,10 +10690,11 @@
       <c r="R140" s="13"/>
       <c r="S140" s="13"/>
       <c r="T140" s="13"/>
-      <c r="U140" s="8"/>
-      <c r="V140" s="5"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U140" s="23"/>
+      <c r="V140" s="8"/>
+      <c r="W140" s="5"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="11"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -10555,10 +10715,11 @@
       <c r="R141" s="13"/>
       <c r="S141" s="13"/>
       <c r="T141" s="13"/>
-      <c r="U141" s="8"/>
-      <c r="V141" s="5"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U141" s="23"/>
+      <c r="V141" s="8"/>
+      <c r="W141" s="5"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="11"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -10579,10 +10740,11 @@
       <c r="R142" s="13"/>
       <c r="S142" s="13"/>
       <c r="T142" s="13"/>
-      <c r="U142" s="8"/>
-      <c r="V142" s="5"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U142" s="23"/>
+      <c r="V142" s="8"/>
+      <c r="W142" s="5"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="11"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -10603,10 +10765,11 @@
       <c r="R143" s="13"/>
       <c r="S143" s="13"/>
       <c r="T143" s="13"/>
-      <c r="U143" s="8"/>
-      <c r="V143" s="5"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U143" s="23"/>
+      <c r="V143" s="8"/>
+      <c r="W143" s="5"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="11"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -10627,10 +10790,11 @@
       <c r="R144" s="13"/>
       <c r="S144" s="13"/>
       <c r="T144" s="13"/>
-      <c r="U144" s="8"/>
-      <c r="V144" s="5"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U144" s="23"/>
+      <c r="V144" s="8"/>
+      <c r="W144" s="5"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="11"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -10651,10 +10815,11 @@
       <c r="R145" s="13"/>
       <c r="S145" s="13"/>
       <c r="T145" s="13"/>
-      <c r="U145" s="8"/>
-      <c r="V145" s="5"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U145" s="23"/>
+      <c r="V145" s="8"/>
+      <c r="W145" s="5"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="11"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -10675,10 +10840,11 @@
       <c r="R146" s="13"/>
       <c r="S146" s="13"/>
       <c r="T146" s="13"/>
-      <c r="U146" s="8"/>
-      <c r="V146" s="5"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U146" s="23"/>
+      <c r="V146" s="8"/>
+      <c r="W146" s="5"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="11"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -10699,10 +10865,11 @@
       <c r="R147" s="13"/>
       <c r="S147" s="13"/>
       <c r="T147" s="13"/>
-      <c r="U147" s="8"/>
-      <c r="V147" s="5"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U147" s="23"/>
+      <c r="V147" s="8"/>
+      <c r="W147" s="5"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="11"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -10723,10 +10890,11 @@
       <c r="R148" s="13"/>
       <c r="S148" s="13"/>
       <c r="T148" s="13"/>
-      <c r="U148" s="8"/>
-      <c r="V148" s="5"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U148" s="23"/>
+      <c r="V148" s="8"/>
+      <c r="W148" s="5"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="11"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -10747,10 +10915,11 @@
       <c r="R149" s="13"/>
       <c r="S149" s="13"/>
       <c r="T149" s="13"/>
-      <c r="U149" s="8"/>
-      <c r="V149" s="5"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U149" s="23"/>
+      <c r="V149" s="8"/>
+      <c r="W149" s="5"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="11"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -10771,10 +10940,11 @@
       <c r="R150" s="13"/>
       <c r="S150" s="13"/>
       <c r="T150" s="13"/>
-      <c r="U150" s="8"/>
-      <c r="V150" s="5"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U150" s="23"/>
+      <c r="V150" s="8"/>
+      <c r="W150" s="5"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="11"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -10795,10 +10965,11 @@
       <c r="R151" s="13"/>
       <c r="S151" s="13"/>
       <c r="T151" s="13"/>
-      <c r="U151" s="8"/>
-      <c r="V151" s="5"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U151" s="23"/>
+      <c r="V151" s="8"/>
+      <c r="W151" s="5"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="11"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -10819,10 +10990,11 @@
       <c r="R152" s="13"/>
       <c r="S152" s="13"/>
       <c r="T152" s="13"/>
-      <c r="U152" s="8"/>
-      <c r="V152" s="5"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U152" s="23"/>
+      <c r="V152" s="8"/>
+      <c r="W152" s="5"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="11"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -10843,10 +11015,11 @@
       <c r="R153" s="13"/>
       <c r="S153" s="13"/>
       <c r="T153" s="13"/>
-      <c r="U153" s="8"/>
-      <c r="V153" s="5"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U153" s="23"/>
+      <c r="V153" s="8"/>
+      <c r="W153" s="5"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="11"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -10867,10 +11040,11 @@
       <c r="R154" s="13"/>
       <c r="S154" s="13"/>
       <c r="T154" s="13"/>
-      <c r="U154" s="8"/>
-      <c r="V154" s="5"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U154" s="23"/>
+      <c r="V154" s="8"/>
+      <c r="W154" s="5"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="11"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -10891,10 +11065,11 @@
       <c r="R155" s="13"/>
       <c r="S155" s="13"/>
       <c r="T155" s="13"/>
-      <c r="U155" s="8"/>
-      <c r="V155" s="5"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U155" s="23"/>
+      <c r="V155" s="8"/>
+      <c r="W155" s="5"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="11"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -10915,10 +11090,11 @@
       <c r="R156" s="13"/>
       <c r="S156" s="13"/>
       <c r="T156" s="13"/>
-      <c r="U156" s="8"/>
-      <c r="V156" s="5"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U156" s="23"/>
+      <c r="V156" s="8"/>
+      <c r="W156" s="5"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="11"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -10939,10 +11115,11 @@
       <c r="R157" s="13"/>
       <c r="S157" s="13"/>
       <c r="T157" s="13"/>
-      <c r="U157" s="8"/>
-      <c r="V157" s="5"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U157" s="23"/>
+      <c r="V157" s="8"/>
+      <c r="W157" s="5"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="11"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -10963,10 +11140,11 @@
       <c r="R158" s="13"/>
       <c r="S158" s="13"/>
       <c r="T158" s="13"/>
-      <c r="U158" s="8"/>
-      <c r="V158" s="5"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U158" s="23"/>
+      <c r="V158" s="8"/>
+      <c r="W158" s="5"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="11"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -10987,10 +11165,11 @@
       <c r="R159" s="13"/>
       <c r="S159" s="13"/>
       <c r="T159" s="13"/>
-      <c r="U159" s="8"/>
-      <c r="V159" s="5"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U159" s="23"/>
+      <c r="V159" s="8"/>
+      <c r="W159" s="5"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="11"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -11011,10 +11190,11 @@
       <c r="R160" s="13"/>
       <c r="S160" s="13"/>
       <c r="T160" s="13"/>
-      <c r="U160" s="8"/>
-      <c r="V160" s="5"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U160" s="23"/>
+      <c r="V160" s="8"/>
+      <c r="W160" s="5"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="11"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -11035,10 +11215,11 @@
       <c r="R161" s="13"/>
       <c r="S161" s="13"/>
       <c r="T161" s="13"/>
-      <c r="U161" s="8"/>
-      <c r="V161" s="5"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U161" s="23"/>
+      <c r="V161" s="8"/>
+      <c r="W161" s="5"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="11"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -11059,10 +11240,11 @@
       <c r="R162" s="13"/>
       <c r="S162" s="13"/>
       <c r="T162" s="13"/>
-      <c r="U162" s="8"/>
-      <c r="V162" s="5"/>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U162" s="23"/>
+      <c r="V162" s="8"/>
+      <c r="W162" s="5"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="11"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -11083,10 +11265,11 @@
       <c r="R163" s="13"/>
       <c r="S163" s="13"/>
       <c r="T163" s="13"/>
-      <c r="U163" s="8"/>
-      <c r="V163" s="5"/>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U163" s="23"/>
+      <c r="V163" s="8"/>
+      <c r="W163" s="5"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="11"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -11107,10 +11290,11 @@
       <c r="R164" s="13"/>
       <c r="S164" s="13"/>
       <c r="T164" s="13"/>
-      <c r="U164" s="8"/>
-      <c r="V164" s="5"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U164" s="23"/>
+      <c r="V164" s="8"/>
+      <c r="W164" s="5"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="11"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -11131,10 +11315,11 @@
       <c r="R165" s="13"/>
       <c r="S165" s="13"/>
       <c r="T165" s="13"/>
-      <c r="U165" s="8"/>
-      <c r="V165" s="5"/>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U165" s="23"/>
+      <c r="V165" s="8"/>
+      <c r="W165" s="5"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="11"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -11155,10 +11340,11 @@
       <c r="R166" s="13"/>
       <c r="S166" s="13"/>
       <c r="T166" s="13"/>
-      <c r="U166" s="8"/>
-      <c r="V166" s="5"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U166" s="23"/>
+      <c r="V166" s="8"/>
+      <c r="W166" s="5"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="11"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -11179,10 +11365,11 @@
       <c r="R167" s="13"/>
       <c r="S167" s="13"/>
       <c r="T167" s="13"/>
-      <c r="U167" s="8"/>
-      <c r="V167" s="5"/>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U167" s="23"/>
+      <c r="V167" s="8"/>
+      <c r="W167" s="5"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="11"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -11203,10 +11390,11 @@
       <c r="R168" s="13"/>
       <c r="S168" s="13"/>
       <c r="T168" s="13"/>
-      <c r="U168" s="8"/>
-      <c r="V168" s="5"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U168" s="23"/>
+      <c r="V168" s="8"/>
+      <c r="W168" s="5"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="11"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -11227,10 +11415,11 @@
       <c r="R169" s="13"/>
       <c r="S169" s="13"/>
       <c r="T169" s="13"/>
-      <c r="U169" s="8"/>
-      <c r="V169" s="5"/>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U169" s="23"/>
+      <c r="V169" s="8"/>
+      <c r="W169" s="5"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="11"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -11251,10 +11440,11 @@
       <c r="R170" s="13"/>
       <c r="S170" s="13"/>
       <c r="T170" s="13"/>
-      <c r="U170" s="8"/>
-      <c r="V170" s="5"/>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U170" s="23"/>
+      <c r="V170" s="8"/>
+      <c r="W170" s="5"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="11"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -11275,10 +11465,11 @@
       <c r="R171" s="13"/>
       <c r="S171" s="13"/>
       <c r="T171" s="13"/>
-      <c r="U171" s="8"/>
-      <c r="V171" s="5"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U171" s="23"/>
+      <c r="V171" s="8"/>
+      <c r="W171" s="5"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="11"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -11299,10 +11490,11 @@
       <c r="R172" s="13"/>
       <c r="S172" s="13"/>
       <c r="T172" s="13"/>
-      <c r="U172" s="8"/>
-      <c r="V172" s="5"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U172" s="23"/>
+      <c r="V172" s="8"/>
+      <c r="W172" s="5"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="11"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -11323,10 +11515,11 @@
       <c r="R173" s="13"/>
       <c r="S173" s="13"/>
       <c r="T173" s="13"/>
-      <c r="U173" s="8"/>
-      <c r="V173" s="5"/>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U173" s="23"/>
+      <c r="V173" s="8"/>
+      <c r="W173" s="5"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="11"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -11347,10 +11540,11 @@
       <c r="R174" s="13"/>
       <c r="S174" s="13"/>
       <c r="T174" s="13"/>
-      <c r="U174" s="8"/>
-      <c r="V174" s="5"/>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U174" s="23"/>
+      <c r="V174" s="8"/>
+      <c r="W174" s="5"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="11"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -11371,10 +11565,11 @@
       <c r="R175" s="13"/>
       <c r="S175" s="13"/>
       <c r="T175" s="13"/>
-      <c r="U175" s="8"/>
-      <c r="V175" s="5"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U175" s="23"/>
+      <c r="V175" s="8"/>
+      <c r="W175" s="5"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="11"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -11395,10 +11590,11 @@
       <c r="R176" s="13"/>
       <c r="S176" s="13"/>
       <c r="T176" s="13"/>
-      <c r="U176" s="8"/>
-      <c r="V176" s="5"/>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U176" s="23"/>
+      <c r="V176" s="8"/>
+      <c r="W176" s="5"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="11"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -11419,10 +11615,11 @@
       <c r="R177" s="13"/>
       <c r="S177" s="13"/>
       <c r="T177" s="13"/>
-      <c r="U177" s="8"/>
-      <c r="V177" s="5"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U177" s="23"/>
+      <c r="V177" s="8"/>
+      <c r="W177" s="5"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="11"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -11443,10 +11640,11 @@
       <c r="R178" s="13"/>
       <c r="S178" s="13"/>
       <c r="T178" s="13"/>
-      <c r="U178" s="8"/>
-      <c r="V178" s="5"/>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U178" s="23"/>
+      <c r="V178" s="8"/>
+      <c r="W178" s="5"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="11"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -11467,10 +11665,11 @@
       <c r="R179" s="13"/>
       <c r="S179" s="13"/>
       <c r="T179" s="13"/>
-      <c r="U179" s="8"/>
-      <c r="V179" s="5"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U179" s="23"/>
+      <c r="V179" s="8"/>
+      <c r="W179" s="5"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="11"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -11491,10 +11690,11 @@
       <c r="R180" s="13"/>
       <c r="S180" s="13"/>
       <c r="T180" s="13"/>
-      <c r="U180" s="8"/>
-      <c r="V180" s="5"/>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U180" s="23"/>
+      <c r="V180" s="8"/>
+      <c r="W180" s="5"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="11"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -11515,10 +11715,11 @@
       <c r="R181" s="13"/>
       <c r="S181" s="13"/>
       <c r="T181" s="13"/>
-      <c r="U181" s="8"/>
-      <c r="V181" s="5"/>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U181" s="23"/>
+      <c r="V181" s="8"/>
+      <c r="W181" s="5"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="11"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -11539,10 +11740,11 @@
       <c r="R182" s="13"/>
       <c r="S182" s="13"/>
       <c r="T182" s="13"/>
-      <c r="U182" s="8"/>
-      <c r="V182" s="5"/>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U182" s="23"/>
+      <c r="V182" s="8"/>
+      <c r="W182" s="5"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="11"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -11563,10 +11765,11 @@
       <c r="R183" s="13"/>
       <c r="S183" s="13"/>
       <c r="T183" s="13"/>
-      <c r="U183" s="8"/>
-      <c r="V183" s="5"/>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U183" s="23"/>
+      <c r="V183" s="8"/>
+      <c r="W183" s="5"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="11"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -11587,10 +11790,11 @@
       <c r="R184" s="13"/>
       <c r="S184" s="13"/>
       <c r="T184" s="13"/>
-      <c r="U184" s="8"/>
-      <c r="V184" s="5"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U184" s="23"/>
+      <c r="V184" s="8"/>
+      <c r="W184" s="5"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="11"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -11611,10 +11815,11 @@
       <c r="R185" s="13"/>
       <c r="S185" s="13"/>
       <c r="T185" s="13"/>
-      <c r="U185" s="8"/>
-      <c r="V185" s="5"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U185" s="23"/>
+      <c r="V185" s="8"/>
+      <c r="W185" s="5"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="11"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -11635,10 +11840,11 @@
       <c r="R186" s="13"/>
       <c r="S186" s="13"/>
       <c r="T186" s="13"/>
-      <c r="U186" s="8"/>
-      <c r="V186" s="5"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U186" s="23"/>
+      <c r="V186" s="8"/>
+      <c r="W186" s="5"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -11659,10 +11865,11 @@
       <c r="R187" s="13"/>
       <c r="S187" s="13"/>
       <c r="T187" s="13"/>
-      <c r="U187" s="8"/>
-      <c r="V187" s="5"/>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U187" s="23"/>
+      <c r="V187" s="8"/>
+      <c r="W187" s="5"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="11"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -11683,10 +11890,11 @@
       <c r="R188" s="13"/>
       <c r="S188" s="13"/>
       <c r="T188" s="13"/>
-      <c r="U188" s="8"/>
-      <c r="V188" s="5"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U188" s="23"/>
+      <c r="V188" s="8"/>
+      <c r="W188" s="5"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="11"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -11707,10 +11915,11 @@
       <c r="R189" s="13"/>
       <c r="S189" s="13"/>
       <c r="T189" s="13"/>
-      <c r="U189" s="8"/>
-      <c r="V189" s="5"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U189" s="23"/>
+      <c r="V189" s="8"/>
+      <c r="W189" s="5"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="11"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -11731,10 +11940,11 @@
       <c r="R190" s="13"/>
       <c r="S190" s="13"/>
       <c r="T190" s="13"/>
-      <c r="U190" s="8"/>
-      <c r="V190" s="5"/>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U190" s="23"/>
+      <c r="V190" s="8"/>
+      <c r="W190" s="5"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="11"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -11755,10 +11965,11 @@
       <c r="R191" s="13"/>
       <c r="S191" s="13"/>
       <c r="T191" s="13"/>
-      <c r="U191" s="8"/>
-      <c r="V191" s="5"/>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U191" s="23"/>
+      <c r="V191" s="8"/>
+      <c r="W191" s="5"/>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="11"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -11779,10 +11990,11 @@
       <c r="R192" s="13"/>
       <c r="S192" s="13"/>
       <c r="T192" s="13"/>
-      <c r="U192" s="8"/>
-      <c r="V192" s="5"/>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U192" s="23"/>
+      <c r="V192" s="8"/>
+      <c r="W192" s="5"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="11"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -11803,10 +12015,11 @@
       <c r="R193" s="13"/>
       <c r="S193" s="13"/>
       <c r="T193" s="13"/>
-      <c r="U193" s="8"/>
-      <c r="V193" s="5"/>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U193" s="23"/>
+      <c r="V193" s="8"/>
+      <c r="W193" s="5"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="11"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -11827,10 +12040,11 @@
       <c r="R194" s="13"/>
       <c r="S194" s="13"/>
       <c r="T194" s="13"/>
-      <c r="U194" s="8"/>
-      <c r="V194" s="5"/>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U194" s="23"/>
+      <c r="V194" s="8"/>
+      <c r="W194" s="5"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="11"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -11851,10 +12065,11 @@
       <c r="R195" s="13"/>
       <c r="S195" s="13"/>
       <c r="T195" s="13"/>
-      <c r="U195" s="8"/>
-      <c r="V195" s="5"/>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U195" s="23"/>
+      <c r="V195" s="8"/>
+      <c r="W195" s="5"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="11"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -11875,10 +12090,11 @@
       <c r="R196" s="13"/>
       <c r="S196" s="13"/>
       <c r="T196" s="13"/>
-      <c r="U196" s="8"/>
-      <c r="V196" s="5"/>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U196" s="23"/>
+      <c r="V196" s="8"/>
+      <c r="W196" s="5"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="11"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -11899,10 +12115,11 @@
       <c r="R197" s="13"/>
       <c r="S197" s="13"/>
       <c r="T197" s="13"/>
-      <c r="U197" s="8"/>
-      <c r="V197" s="5"/>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U197" s="23"/>
+      <c r="V197" s="8"/>
+      <c r="W197" s="5"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="11"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -11923,10 +12140,11 @@
       <c r="R198" s="13"/>
       <c r="S198" s="13"/>
       <c r="T198" s="13"/>
-      <c r="U198" s="8"/>
-      <c r="V198" s="5"/>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U198" s="23"/>
+      <c r="V198" s="8"/>
+      <c r="W198" s="5"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="11"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -11947,10 +12165,11 @@
       <c r="R199" s="13"/>
       <c r="S199" s="13"/>
       <c r="T199" s="13"/>
-      <c r="U199" s="8"/>
-      <c r="V199" s="5"/>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U199" s="23"/>
+      <c r="V199" s="8"/>
+      <c r="W199" s="5"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="11"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -11971,10 +12190,11 @@
       <c r="R200" s="13"/>
       <c r="S200" s="13"/>
       <c r="T200" s="13"/>
-      <c r="U200" s="8"/>
-      <c r="V200" s="5"/>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="U200" s="23"/>
+      <c r="V200" s="8"/>
+      <c r="W200" s="5"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="12"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -11995,13 +12215,14 @@
       <c r="R201" s="14"/>
       <c r="S201" s="14"/>
       <c r="T201" s="14"/>
-      <c r="U201" s="8"/>
-      <c r="V201" s="5"/>
+      <c r="U201" s="23"/>
+      <c r="V201" s="8"/>
+      <c r="W201" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <dataValidations count="3">
-    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="U2:U1048576" xr:uid="{833FFF82-EF89-473C-B621-746362CC677C}">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="V2:V1048576" xr:uid="{833FFF82-EF89-473C-B621-746362CC677C}">
       <formula1>0</formula1>
     </dataValidation>
     <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Enabled Option" error="Please select a supported Enabled option." sqref="C2:C1048576" xr:uid="{FD0F90A3-EA67-4EF1-8FA8-3E985A5E4965}">
@@ -12049,7 +12270,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC92F570-83BD-4269-898F-500439A2578E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A693A58D-EDCA-429B-846C-43D5A8C8F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <t>フォルダー ID</t>
     <phoneticPr fontId="2"/>
@@ -69,7 +69,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>開始方法</t>
+    <t>開始方法 (-1 すべてのロボット;0 特定のロボット;&gt;0 プロセスの実行回数)</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -122,6 +122,10 @@
   </si>
   <si>
     <t>ジョブの種類</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>指定されたロボット</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -485,7 +489,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="55">
+  <dxfs count="56">
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1659,6 +1663,31 @@
         <left style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
         <right style="thin">
           <color theme="0" tint="-0.34998626667073579"/>
         </right>
@@ -1855,31 +1884,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:V201" headerRowDxfId="54" dataDxfId="52" totalsRowDxfId="50" headerRowBorderDxfId="53" tableBorderDxfId="51">
-  <autoFilter ref="A1:V201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <tableColumns count="22">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="49"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="48"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="47"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="46"/>
-    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="45"/>
-    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="44"/>
-    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="43"/>
-    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="42"/>
-    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法" dataDxfId="41"/>
-    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="39"/>
-    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="38"/>
-    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="37"/>
-    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="36"/>
-    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="35"/>
-    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="34"/>
-    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="33"/>
-    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="32"/>
-    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="31"/>
-    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="30"/>
-    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="29"/>
-    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="28"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:W201" headerRowDxfId="55" dataDxfId="53" totalsRowDxfId="51" headerRowBorderDxfId="54" tableBorderDxfId="52">
+  <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
+  <tableColumns count="23">
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="49"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="48"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="47"/>
+    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="46"/>
+    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="45"/>
+    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="44"/>
+    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="43"/>
+    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法 (-1 すべてのロボット;0 特定のロボット;&gt;0 プロセスの実行回数)" dataDxfId="42"/>
+    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="41"/>
+    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="40"/>
+    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="39"/>
+    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="38"/>
+    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="37"/>
+    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="36"/>
+    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="35"/>
+    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="34"/>
+    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="33"/>
+    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="32"/>
+    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="31"/>
+    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="30"/>
+    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="29"/>
+    <tableColumn id="2" xr3:uid="{60143A08-4321-4F41-AD94-A28222A4F811}" name="指定されたロボット" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2195,9 +2225,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B90804-4CC2-4F3A-A5A0-B313E9BACDDF}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:V201"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView topLeftCell="K1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -2207,16 +2237,17 @@
     <col min="5" max="5" width="15.75" style="19" customWidth="1"/>
     <col min="6" max="6" width="25.75" customWidth="1"/>
     <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="15.75" customWidth="1"/>
+    <col min="8" max="8" width="15.75" customWidth="1"/>
+    <col min="9" max="9" width="64.58203125" customWidth="1"/>
     <col min="10" max="15" width="25.75" customWidth="1"/>
     <col min="16" max="16" width="15.75" customWidth="1"/>
     <col min="17" max="17" width="27.4140625" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.5" bestFit="1" customWidth="1"/>
-    <col min="20" max="22" width="25.75" customWidth="1"/>
+    <col min="20" max="23" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2283,8 +2314,11 @@
       <c r="V1" s="21" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W1" s="21" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2307,8 +2341,9 @@
       <c r="T2" s="18"/>
       <c r="U2" s="18"/>
       <c r="V2" s="18"/>
-    </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W2" s="18"/>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2331,8 +2366,9 @@
       <c r="T3" s="18"/>
       <c r="U3" s="18"/>
       <c r="V3" s="18"/>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W3" s="18"/>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2355,8 +2391,9 @@
       <c r="T4" s="18"/>
       <c r="U4" s="18"/>
       <c r="V4" s="18"/>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W4" s="18"/>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2379,8 +2416,9 @@
       <c r="T5" s="18"/>
       <c r="U5" s="18"/>
       <c r="V5" s="18"/>
-    </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W5" s="18"/>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2403,8 +2441,9 @@
       <c r="T6" s="18"/>
       <c r="U6" s="18"/>
       <c r="V6" s="18"/>
-    </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W6" s="18"/>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2427,8 +2466,9 @@
       <c r="T7" s="18"/>
       <c r="U7" s="18"/>
       <c r="V7" s="18"/>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W7" s="18"/>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2451,8 +2491,9 @@
       <c r="T8" s="18"/>
       <c r="U8" s="18"/>
       <c r="V8" s="18"/>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W8" s="18"/>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2475,8 +2516,9 @@
       <c r="T9" s="18"/>
       <c r="U9" s="18"/>
       <c r="V9" s="18"/>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W9" s="18"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2499,8 +2541,9 @@
       <c r="T10" s="18"/>
       <c r="U10" s="18"/>
       <c r="V10" s="18"/>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W10" s="18"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2523,8 +2566,9 @@
       <c r="T11" s="6"/>
       <c r="U11" s="6"/>
       <c r="V11" s="6"/>
-    </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W11" s="6"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2547,8 +2591,9 @@
       <c r="T12" s="6"/>
       <c r="U12" s="6"/>
       <c r="V12" s="6"/>
-    </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W12" s="6"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2571,8 +2616,9 @@
       <c r="T13" s="6"/>
       <c r="U13" s="6"/>
       <c r="V13" s="6"/>
-    </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W13" s="6"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2595,8 +2641,9 @@
       <c r="T14" s="6"/>
       <c r="U14" s="6"/>
       <c r="V14" s="6"/>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W14" s="6"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2619,8 +2666,9 @@
       <c r="T15" s="6"/>
       <c r="U15" s="6"/>
       <c r="V15" s="6"/>
-    </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W15" s="6"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2643,8 +2691,9 @@
       <c r="T16" s="6"/>
       <c r="U16" s="6"/>
       <c r="V16" s="6"/>
-    </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W16" s="6"/>
+    </row>
+    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2667,8 +2716,9 @@
       <c r="T17" s="6"/>
       <c r="U17" s="6"/>
       <c r="V17" s="6"/>
-    </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W17" s="6"/>
+    </row>
+    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2691,8 +2741,9 @@
       <c r="T18" s="6"/>
       <c r="U18" s="6"/>
       <c r="V18" s="6"/>
-    </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W18" s="6"/>
+    </row>
+    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2715,8 +2766,9 @@
       <c r="T19" s="6"/>
       <c r="U19" s="6"/>
       <c r="V19" s="6"/>
-    </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W19" s="6"/>
+    </row>
+    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2739,8 +2791,9 @@
       <c r="T20" s="6"/>
       <c r="U20" s="6"/>
       <c r="V20" s="6"/>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W20" s="6"/>
+    </row>
+    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -2763,8 +2816,9 @@
       <c r="T21" s="6"/>
       <c r="U21" s="6"/>
       <c r="V21" s="6"/>
-    </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W21" s="6"/>
+    </row>
+    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -2787,8 +2841,9 @@
       <c r="T22" s="6"/>
       <c r="U22" s="6"/>
       <c r="V22" s="6"/>
-    </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W22" s="6"/>
+    </row>
+    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -2811,8 +2866,9 @@
       <c r="T23" s="6"/>
       <c r="U23" s="6"/>
       <c r="V23" s="6"/>
-    </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W23" s="6"/>
+    </row>
+    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -2835,8 +2891,9 @@
       <c r="T24" s="6"/>
       <c r="U24" s="6"/>
       <c r="V24" s="6"/>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W24" s="6"/>
+    </row>
+    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -2859,8 +2916,9 @@
       <c r="T25" s="6"/>
       <c r="U25" s="6"/>
       <c r="V25" s="6"/>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W25" s="6"/>
+    </row>
+    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -2883,8 +2941,9 @@
       <c r="T26" s="6"/>
       <c r="U26" s="6"/>
       <c r="V26" s="6"/>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W26" s="6"/>
+    </row>
+    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -2907,8 +2966,9 @@
       <c r="T27" s="6"/>
       <c r="U27" s="6"/>
       <c r="V27" s="6"/>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W27" s="6"/>
+    </row>
+    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -2931,8 +2991,9 @@
       <c r="T28" s="6"/>
       <c r="U28" s="6"/>
       <c r="V28" s="6"/>
-    </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W28" s="6"/>
+    </row>
+    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -2955,8 +3016,9 @@
       <c r="T29" s="6"/>
       <c r="U29" s="6"/>
       <c r="V29" s="6"/>
-    </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W29" s="6"/>
+    </row>
+    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -2979,8 +3041,9 @@
       <c r="T30" s="6"/>
       <c r="U30" s="6"/>
       <c r="V30" s="6"/>
-    </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W30" s="6"/>
+    </row>
+    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3003,8 +3066,9 @@
       <c r="T31" s="6"/>
       <c r="U31" s="6"/>
       <c r="V31" s="6"/>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W31" s="6"/>
+    </row>
+    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3027,8 +3091,9 @@
       <c r="T32" s="6"/>
       <c r="U32" s="6"/>
       <c r="V32" s="6"/>
-    </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W32" s="6"/>
+    </row>
+    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3051,8 +3116,9 @@
       <c r="T33" s="6"/>
       <c r="U33" s="6"/>
       <c r="V33" s="6"/>
-    </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W33" s="6"/>
+    </row>
+    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3075,8 +3141,9 @@
       <c r="T34" s="6"/>
       <c r="U34" s="6"/>
       <c r="V34" s="6"/>
-    </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W34" s="6"/>
+    </row>
+    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3099,8 +3166,9 @@
       <c r="T35" s="6"/>
       <c r="U35" s="6"/>
       <c r="V35" s="6"/>
-    </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W35" s="6"/>
+    </row>
+    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3123,8 +3191,9 @@
       <c r="T36" s="6"/>
       <c r="U36" s="6"/>
       <c r="V36" s="6"/>
-    </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W36" s="6"/>
+    </row>
+    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3147,8 +3216,9 @@
       <c r="T37" s="6"/>
       <c r="U37" s="6"/>
       <c r="V37" s="6"/>
-    </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W37" s="6"/>
+    </row>
+    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3171,8 +3241,9 @@
       <c r="T38" s="6"/>
       <c r="U38" s="6"/>
       <c r="V38" s="6"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W38" s="6"/>
+    </row>
+    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3195,8 +3266,9 @@
       <c r="T39" s="6"/>
       <c r="U39" s="6"/>
       <c r="V39" s="6"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W39" s="6"/>
+    </row>
+    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3219,8 +3291,9 @@
       <c r="T40" s="6"/>
       <c r="U40" s="6"/>
       <c r="V40" s="6"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W40" s="6"/>
+    </row>
+    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3243,8 +3316,9 @@
       <c r="T41" s="6"/>
       <c r="U41" s="6"/>
       <c r="V41" s="6"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W41" s="6"/>
+    </row>
+    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3267,8 +3341,9 @@
       <c r="T42" s="6"/>
       <c r="U42" s="6"/>
       <c r="V42" s="6"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W42" s="6"/>
+    </row>
+    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3291,8 +3366,9 @@
       <c r="T43" s="6"/>
       <c r="U43" s="6"/>
       <c r="V43" s="6"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W43" s="6"/>
+    </row>
+    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3315,8 +3391,9 @@
       <c r="T44" s="6"/>
       <c r="U44" s="6"/>
       <c r="V44" s="6"/>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W44" s="6"/>
+    </row>
+    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3339,8 +3416,9 @@
       <c r="T45" s="6"/>
       <c r="U45" s="6"/>
       <c r="V45" s="6"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W45" s="6"/>
+    </row>
+    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3363,8 +3441,9 @@
       <c r="T46" s="6"/>
       <c r="U46" s="6"/>
       <c r="V46" s="6"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W46" s="6"/>
+    </row>
+    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3387,8 +3466,9 @@
       <c r="T47" s="6"/>
       <c r="U47" s="6"/>
       <c r="V47" s="6"/>
-    </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W47" s="6"/>
+    </row>
+    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3411,8 +3491,9 @@
       <c r="T48" s="6"/>
       <c r="U48" s="6"/>
       <c r="V48" s="6"/>
-    </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W48" s="6"/>
+    </row>
+    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3435,8 +3516,9 @@
       <c r="T49" s="6"/>
       <c r="U49" s="6"/>
       <c r="V49" s="6"/>
-    </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W49" s="6"/>
+    </row>
+    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3459,8 +3541,9 @@
       <c r="T50" s="6"/>
       <c r="U50" s="6"/>
       <c r="V50" s="6"/>
-    </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W50" s="6"/>
+    </row>
+    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3483,8 +3566,9 @@
       <c r="T51" s="6"/>
       <c r="U51" s="6"/>
       <c r="V51" s="6"/>
-    </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W51" s="6"/>
+    </row>
+    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3507,8 +3591,9 @@
       <c r="T52" s="6"/>
       <c r="U52" s="6"/>
       <c r="V52" s="6"/>
-    </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W52" s="6"/>
+    </row>
+    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3531,8 +3616,9 @@
       <c r="T53" s="6"/>
       <c r="U53" s="6"/>
       <c r="V53" s="6"/>
-    </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W53" s="6"/>
+    </row>
+    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3555,8 +3641,9 @@
       <c r="T54" s="6"/>
       <c r="U54" s="6"/>
       <c r="V54" s="6"/>
-    </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W54" s="6"/>
+    </row>
+    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3579,8 +3666,9 @@
       <c r="T55" s="6"/>
       <c r="U55" s="6"/>
       <c r="V55" s="6"/>
-    </row>
-    <row r="56" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W55" s="6"/>
+    </row>
+    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3603,8 +3691,9 @@
       <c r="T56" s="6"/>
       <c r="U56" s="6"/>
       <c r="V56" s="6"/>
-    </row>
-    <row r="57" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W56" s="6"/>
+    </row>
+    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3627,8 +3716,9 @@
       <c r="T57" s="6"/>
       <c r="U57" s="6"/>
       <c r="V57" s="6"/>
-    </row>
-    <row r="58" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W57" s="6"/>
+    </row>
+    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3651,8 +3741,9 @@
       <c r="T58" s="6"/>
       <c r="U58" s="6"/>
       <c r="V58" s="6"/>
-    </row>
-    <row r="59" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W58" s="6"/>
+    </row>
+    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3675,8 +3766,9 @@
       <c r="T59" s="6"/>
       <c r="U59" s="6"/>
       <c r="V59" s="6"/>
-    </row>
-    <row r="60" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W59" s="6"/>
+    </row>
+    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3699,8 +3791,9 @@
       <c r="T60" s="6"/>
       <c r="U60" s="6"/>
       <c r="V60" s="6"/>
-    </row>
-    <row r="61" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W60" s="6"/>
+    </row>
+    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -3723,8 +3816,9 @@
       <c r="T61" s="6"/>
       <c r="U61" s="6"/>
       <c r="V61" s="6"/>
-    </row>
-    <row r="62" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W61" s="6"/>
+    </row>
+    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -3747,8 +3841,9 @@
       <c r="T62" s="6"/>
       <c r="U62" s="6"/>
       <c r="V62" s="6"/>
-    </row>
-    <row r="63" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W62" s="6"/>
+    </row>
+    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -3771,8 +3866,9 @@
       <c r="T63" s="6"/>
       <c r="U63" s="6"/>
       <c r="V63" s="6"/>
-    </row>
-    <row r="64" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W63" s="6"/>
+    </row>
+    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -3795,8 +3891,9 @@
       <c r="T64" s="6"/>
       <c r="U64" s="6"/>
       <c r="V64" s="6"/>
-    </row>
-    <row r="65" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W64" s="6"/>
+    </row>
+    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -3819,8 +3916,9 @@
       <c r="T65" s="6"/>
       <c r="U65" s="6"/>
       <c r="V65" s="6"/>
-    </row>
-    <row r="66" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W65" s="6"/>
+    </row>
+    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -3843,8 +3941,9 @@
       <c r="T66" s="6"/>
       <c r="U66" s="6"/>
       <c r="V66" s="6"/>
-    </row>
-    <row r="67" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W66" s="6"/>
+    </row>
+    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -3867,8 +3966,9 @@
       <c r="T67" s="6"/>
       <c r="U67" s="6"/>
       <c r="V67" s="6"/>
-    </row>
-    <row r="68" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W67" s="6"/>
+    </row>
+    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -3891,8 +3991,9 @@
       <c r="T68" s="6"/>
       <c r="U68" s="6"/>
       <c r="V68" s="6"/>
-    </row>
-    <row r="69" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W68" s="6"/>
+    </row>
+    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -3915,8 +4016,9 @@
       <c r="T69" s="6"/>
       <c r="U69" s="6"/>
       <c r="V69" s="6"/>
-    </row>
-    <row r="70" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W69" s="6"/>
+    </row>
+    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -3939,8 +4041,9 @@
       <c r="T70" s="6"/>
       <c r="U70" s="6"/>
       <c r="V70" s="6"/>
-    </row>
-    <row r="71" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W70" s="6"/>
+    </row>
+    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -3963,8 +4066,9 @@
       <c r="T71" s="6"/>
       <c r="U71" s="6"/>
       <c r="V71" s="6"/>
-    </row>
-    <row r="72" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W71" s="6"/>
+    </row>
+    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -3987,8 +4091,9 @@
       <c r="T72" s="6"/>
       <c r="U72" s="6"/>
       <c r="V72" s="6"/>
-    </row>
-    <row r="73" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W72" s="6"/>
+    </row>
+    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4011,8 +4116,9 @@
       <c r="T73" s="6"/>
       <c r="U73" s="6"/>
       <c r="V73" s="6"/>
-    </row>
-    <row r="74" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W73" s="6"/>
+    </row>
+    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4035,8 +4141,9 @@
       <c r="T74" s="6"/>
       <c r="U74" s="6"/>
       <c r="V74" s="6"/>
-    </row>
-    <row r="75" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W74" s="6"/>
+    </row>
+    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4059,8 +4166,9 @@
       <c r="T75" s="6"/>
       <c r="U75" s="6"/>
       <c r="V75" s="6"/>
-    </row>
-    <row r="76" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W75" s="6"/>
+    </row>
+    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4083,8 +4191,9 @@
       <c r="T76" s="6"/>
       <c r="U76" s="6"/>
       <c r="V76" s="6"/>
-    </row>
-    <row r="77" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W76" s="6"/>
+    </row>
+    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4107,8 +4216,9 @@
       <c r="T77" s="6"/>
       <c r="U77" s="6"/>
       <c r="V77" s="6"/>
-    </row>
-    <row r="78" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W77" s="6"/>
+    </row>
+    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4131,8 +4241,9 @@
       <c r="T78" s="6"/>
       <c r="U78" s="6"/>
       <c r="V78" s="6"/>
-    </row>
-    <row r="79" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W78" s="6"/>
+    </row>
+    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4155,8 +4266,9 @@
       <c r="T79" s="6"/>
       <c r="U79" s="6"/>
       <c r="V79" s="6"/>
-    </row>
-    <row r="80" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W79" s="6"/>
+    </row>
+    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4179,8 +4291,9 @@
       <c r="T80" s="6"/>
       <c r="U80" s="6"/>
       <c r="V80" s="6"/>
-    </row>
-    <row r="81" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W80" s="6"/>
+    </row>
+    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4203,8 +4316,9 @@
       <c r="T81" s="6"/>
       <c r="U81" s="6"/>
       <c r="V81" s="6"/>
-    </row>
-    <row r="82" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W81" s="6"/>
+    </row>
+    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4227,8 +4341,9 @@
       <c r="T82" s="6"/>
       <c r="U82" s="6"/>
       <c r="V82" s="6"/>
-    </row>
-    <row r="83" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W82" s="6"/>
+    </row>
+    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4251,8 +4366,9 @@
       <c r="T83" s="6"/>
       <c r="U83" s="6"/>
       <c r="V83" s="6"/>
-    </row>
-    <row r="84" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W83" s="6"/>
+    </row>
+    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4275,8 +4391,9 @@
       <c r="T84" s="6"/>
       <c r="U84" s="6"/>
       <c r="V84" s="6"/>
-    </row>
-    <row r="85" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W84" s="6"/>
+    </row>
+    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4299,8 +4416,9 @@
       <c r="T85" s="6"/>
       <c r="U85" s="6"/>
       <c r="V85" s="6"/>
-    </row>
-    <row r="86" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W85" s="6"/>
+    </row>
+    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4323,8 +4441,9 @@
       <c r="T86" s="6"/>
       <c r="U86" s="6"/>
       <c r="V86" s="6"/>
-    </row>
-    <row r="87" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W86" s="6"/>
+    </row>
+    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4347,8 +4466,9 @@
       <c r="T87" s="6"/>
       <c r="U87" s="6"/>
       <c r="V87" s="6"/>
-    </row>
-    <row r="88" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W87" s="6"/>
+    </row>
+    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4371,8 +4491,9 @@
       <c r="T88" s="6"/>
       <c r="U88" s="6"/>
       <c r="V88" s="6"/>
-    </row>
-    <row r="89" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W88" s="6"/>
+    </row>
+    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4395,8 +4516,9 @@
       <c r="T89" s="6"/>
       <c r="U89" s="6"/>
       <c r="V89" s="6"/>
-    </row>
-    <row r="90" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W89" s="6"/>
+    </row>
+    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4419,8 +4541,9 @@
       <c r="T90" s="6"/>
       <c r="U90" s="6"/>
       <c r="V90" s="6"/>
-    </row>
-    <row r="91" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W90" s="6"/>
+    </row>
+    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4443,8 +4566,9 @@
       <c r="T91" s="6"/>
       <c r="U91" s="6"/>
       <c r="V91" s="6"/>
-    </row>
-    <row r="92" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W91" s="6"/>
+    </row>
+    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4467,8 +4591,9 @@
       <c r="T92" s="6"/>
       <c r="U92" s="6"/>
       <c r="V92" s="6"/>
-    </row>
-    <row r="93" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W92" s="6"/>
+    </row>
+    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4491,8 +4616,9 @@
       <c r="T93" s="6"/>
       <c r="U93" s="6"/>
       <c r="V93" s="6"/>
-    </row>
-    <row r="94" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W93" s="6"/>
+    </row>
+    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4515,8 +4641,9 @@
       <c r="T94" s="6"/>
       <c r="U94" s="6"/>
       <c r="V94" s="6"/>
-    </row>
-    <row r="95" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W94" s="6"/>
+    </row>
+    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4539,8 +4666,9 @@
       <c r="T95" s="6"/>
       <c r="U95" s="6"/>
       <c r="V95" s="6"/>
-    </row>
-    <row r="96" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W95" s="6"/>
+    </row>
+    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4563,8 +4691,9 @@
       <c r="T96" s="6"/>
       <c r="U96" s="6"/>
       <c r="V96" s="6"/>
-    </row>
-    <row r="97" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W96" s="6"/>
+    </row>
+    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4587,8 +4716,9 @@
       <c r="T97" s="6"/>
       <c r="U97" s="6"/>
       <c r="V97" s="6"/>
-    </row>
-    <row r="98" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W97" s="6"/>
+    </row>
+    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4611,8 +4741,9 @@
       <c r="T98" s="6"/>
       <c r="U98" s="6"/>
       <c r="V98" s="6"/>
-    </row>
-    <row r="99" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W98" s="6"/>
+    </row>
+    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4635,8 +4766,9 @@
       <c r="T99" s="6"/>
       <c r="U99" s="6"/>
       <c r="V99" s="6"/>
-    </row>
-    <row r="100" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W99" s="6"/>
+    </row>
+    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4659,8 +4791,9 @@
       <c r="T100" s="6"/>
       <c r="U100" s="6"/>
       <c r="V100" s="6"/>
-    </row>
-    <row r="101" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W100" s="6"/>
+    </row>
+    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -4683,8 +4816,9 @@
       <c r="T101" s="22"/>
       <c r="U101" s="22"/>
       <c r="V101" s="22"/>
-    </row>
-    <row r="102" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W101" s="22"/>
+    </row>
+    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -4707,8 +4841,9 @@
       <c r="T102" s="22"/>
       <c r="U102" s="22"/>
       <c r="V102" s="22"/>
-    </row>
-    <row r="103" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W102" s="22"/>
+    </row>
+    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -4731,8 +4866,9 @@
       <c r="T103" s="6"/>
       <c r="U103" s="6"/>
       <c r="V103" s="6"/>
-    </row>
-    <row r="104" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W103" s="6"/>
+    </row>
+    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -4755,8 +4891,9 @@
       <c r="T104" s="6"/>
       <c r="U104" s="6"/>
       <c r="V104" s="6"/>
-    </row>
-    <row r="105" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W104" s="6"/>
+    </row>
+    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -4779,8 +4916,9 @@
       <c r="T105" s="6"/>
       <c r="U105" s="6"/>
       <c r="V105" s="6"/>
-    </row>
-    <row r="106" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W105" s="6"/>
+    </row>
+    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -4803,8 +4941,9 @@
       <c r="T106" s="6"/>
       <c r="U106" s="6"/>
       <c r="V106" s="6"/>
-    </row>
-    <row r="107" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W106" s="6"/>
+    </row>
+    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -4827,8 +4966,9 @@
       <c r="T107" s="6"/>
       <c r="U107" s="6"/>
       <c r="V107" s="6"/>
-    </row>
-    <row r="108" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W107" s="6"/>
+    </row>
+    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -4851,8 +4991,9 @@
       <c r="T108" s="6"/>
       <c r="U108" s="6"/>
       <c r="V108" s="6"/>
-    </row>
-    <row r="109" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W108" s="6"/>
+    </row>
+    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -4875,8 +5016,9 @@
       <c r="T109" s="22"/>
       <c r="U109" s="22"/>
       <c r="V109" s="22"/>
-    </row>
-    <row r="110" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W109" s="22"/>
+    </row>
+    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -4899,8 +5041,9 @@
       <c r="T110" s="6"/>
       <c r="U110" s="6"/>
       <c r="V110" s="6"/>
-    </row>
-    <row r="111" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W110" s="6"/>
+    </row>
+    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -4923,8 +5066,9 @@
       <c r="T111" s="6"/>
       <c r="U111" s="6"/>
       <c r="V111" s="6"/>
-    </row>
-    <row r="112" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W111" s="6"/>
+    </row>
+    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -4947,8 +5091,9 @@
       <c r="T112" s="6"/>
       <c r="U112" s="6"/>
       <c r="V112" s="6"/>
-    </row>
-    <row r="113" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W112" s="6"/>
+    </row>
+    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -4971,8 +5116,9 @@
       <c r="T113" s="6"/>
       <c r="U113" s="6"/>
       <c r="V113" s="6"/>
-    </row>
-    <row r="114" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W113" s="6"/>
+    </row>
+    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -4995,8 +5141,9 @@
       <c r="T114" s="6"/>
       <c r="U114" s="6"/>
       <c r="V114" s="6"/>
-    </row>
-    <row r="115" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W114" s="6"/>
+    </row>
+    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5019,8 +5166,9 @@
       <c r="T115" s="6"/>
       <c r="U115" s="6"/>
       <c r="V115" s="6"/>
-    </row>
-    <row r="116" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W115" s="6"/>
+    </row>
+    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5043,8 +5191,9 @@
       <c r="T116" s="6"/>
       <c r="U116" s="6"/>
       <c r="V116" s="6"/>
-    </row>
-    <row r="117" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W116" s="6"/>
+    </row>
+    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5067,8 +5216,9 @@
       <c r="T117" s="6"/>
       <c r="U117" s="6"/>
       <c r="V117" s="6"/>
-    </row>
-    <row r="118" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W117" s="6"/>
+    </row>
+    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5091,8 +5241,9 @@
       <c r="T118" s="6"/>
       <c r="U118" s="6"/>
       <c r="V118" s="6"/>
-    </row>
-    <row r="119" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W118" s="6"/>
+    </row>
+    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5115,8 +5266,9 @@
       <c r="T119" s="6"/>
       <c r="U119" s="6"/>
       <c r="V119" s="6"/>
-    </row>
-    <row r="120" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W119" s="6"/>
+    </row>
+    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5139,8 +5291,9 @@
       <c r="T120" s="6"/>
       <c r="U120" s="6"/>
       <c r="V120" s="6"/>
-    </row>
-    <row r="121" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W120" s="6"/>
+    </row>
+    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5163,8 +5316,9 @@
       <c r="T121" s="6"/>
       <c r="U121" s="6"/>
       <c r="V121" s="6"/>
-    </row>
-    <row r="122" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W121" s="6"/>
+    </row>
+    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -5187,8 +5341,9 @@
       <c r="T122" s="6"/>
       <c r="U122" s="6"/>
       <c r="V122" s="6"/>
-    </row>
-    <row r="123" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W122" s="6"/>
+    </row>
+    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5211,8 +5366,9 @@
       <c r="T123" s="6"/>
       <c r="U123" s="6"/>
       <c r="V123" s="6"/>
-    </row>
-    <row r="124" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W123" s="6"/>
+    </row>
+    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -5235,8 +5391,9 @@
       <c r="T124" s="6"/>
       <c r="U124" s="6"/>
       <c r="V124" s="6"/>
-    </row>
-    <row r="125" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W124" s="6"/>
+    </row>
+    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -5259,8 +5416,9 @@
       <c r="T125" s="6"/>
       <c r="U125" s="6"/>
       <c r="V125" s="6"/>
-    </row>
-    <row r="126" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W125" s="6"/>
+    </row>
+    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -5283,8 +5441,9 @@
       <c r="T126" s="6"/>
       <c r="U126" s="6"/>
       <c r="V126" s="6"/>
-    </row>
-    <row r="127" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W126" s="6"/>
+    </row>
+    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5307,8 +5466,9 @@
       <c r="T127" s="6"/>
       <c r="U127" s="6"/>
       <c r="V127" s="6"/>
-    </row>
-    <row r="128" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W127" s="6"/>
+    </row>
+    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5331,8 +5491,9 @@
       <c r="T128" s="6"/>
       <c r="U128" s="6"/>
       <c r="V128" s="6"/>
-    </row>
-    <row r="129" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W128" s="6"/>
+    </row>
+    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5355,8 +5516,9 @@
       <c r="T129" s="6"/>
       <c r="U129" s="6"/>
       <c r="V129" s="6"/>
-    </row>
-    <row r="130" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W129" s="6"/>
+    </row>
+    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -5379,8 +5541,9 @@
       <c r="T130" s="6"/>
       <c r="U130" s="6"/>
       <c r="V130" s="6"/>
-    </row>
-    <row r="131" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W130" s="6"/>
+    </row>
+    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5403,8 +5566,9 @@
       <c r="T131" s="6"/>
       <c r="U131" s="6"/>
       <c r="V131" s="6"/>
-    </row>
-    <row r="132" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W131" s="6"/>
+    </row>
+    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5427,8 +5591,9 @@
       <c r="T132" s="6"/>
       <c r="U132" s="6"/>
       <c r="V132" s="6"/>
-    </row>
-    <row r="133" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W132" s="6"/>
+    </row>
+    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -5451,8 +5616,9 @@
       <c r="T133" s="6"/>
       <c r="U133" s="6"/>
       <c r="V133" s="6"/>
-    </row>
-    <row r="134" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W133" s="6"/>
+    </row>
+    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5475,8 +5641,9 @@
       <c r="T134" s="6"/>
       <c r="U134" s="6"/>
       <c r="V134" s="6"/>
-    </row>
-    <row r="135" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W134" s="6"/>
+    </row>
+    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -5499,8 +5666,9 @@
       <c r="T135" s="6"/>
       <c r="U135" s="6"/>
       <c r="V135" s="6"/>
-    </row>
-    <row r="136" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W135" s="6"/>
+    </row>
+    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5523,8 +5691,9 @@
       <c r="T136" s="6"/>
       <c r="U136" s="6"/>
       <c r="V136" s="6"/>
-    </row>
-    <row r="137" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W136" s="6"/>
+    </row>
+    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5547,8 +5716,9 @@
       <c r="T137" s="6"/>
       <c r="U137" s="6"/>
       <c r="V137" s="6"/>
-    </row>
-    <row r="138" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W137" s="6"/>
+    </row>
+    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -5571,8 +5741,9 @@
       <c r="T138" s="6"/>
       <c r="U138" s="6"/>
       <c r="V138" s="6"/>
-    </row>
-    <row r="139" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W138" s="6"/>
+    </row>
+    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5595,8 +5766,9 @@
       <c r="T139" s="6"/>
       <c r="U139" s="6"/>
       <c r="V139" s="6"/>
-    </row>
-    <row r="140" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W139" s="6"/>
+    </row>
+    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5619,8 +5791,9 @@
       <c r="T140" s="6"/>
       <c r="U140" s="6"/>
       <c r="V140" s="6"/>
-    </row>
-    <row r="141" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W140" s="6"/>
+    </row>
+    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -5643,8 +5816,9 @@
       <c r="T141" s="6"/>
       <c r="U141" s="6"/>
       <c r="V141" s="6"/>
-    </row>
-    <row r="142" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W141" s="6"/>
+    </row>
+    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -5667,8 +5841,9 @@
       <c r="T142" s="6"/>
       <c r="U142" s="6"/>
       <c r="V142" s="6"/>
-    </row>
-    <row r="143" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W142" s="6"/>
+    </row>
+    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -5691,8 +5866,9 @@
       <c r="T143" s="6"/>
       <c r="U143" s="6"/>
       <c r="V143" s="6"/>
-    </row>
-    <row r="144" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W143" s="6"/>
+    </row>
+    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -5715,8 +5891,9 @@
       <c r="T144" s="6"/>
       <c r="U144" s="6"/>
       <c r="V144" s="6"/>
-    </row>
-    <row r="145" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W144" s="6"/>
+    </row>
+    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -5739,8 +5916,9 @@
       <c r="T145" s="6"/>
       <c r="U145" s="6"/>
       <c r="V145" s="6"/>
-    </row>
-    <row r="146" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W145" s="6"/>
+    </row>
+    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -5763,8 +5941,9 @@
       <c r="T146" s="6"/>
       <c r="U146" s="6"/>
       <c r="V146" s="6"/>
-    </row>
-    <row r="147" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W146" s="6"/>
+    </row>
+    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -5787,8 +5966,9 @@
       <c r="T147" s="6"/>
       <c r="U147" s="6"/>
       <c r="V147" s="6"/>
-    </row>
-    <row r="148" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W147" s="6"/>
+    </row>
+    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -5811,8 +5991,9 @@
       <c r="T148" s="6"/>
       <c r="U148" s="6"/>
       <c r="V148" s="6"/>
-    </row>
-    <row r="149" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W148" s="6"/>
+    </row>
+    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -5835,8 +6016,9 @@
       <c r="T149" s="6"/>
       <c r="U149" s="6"/>
       <c r="V149" s="6"/>
-    </row>
-    <row r="150" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W149" s="6"/>
+    </row>
+    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -5859,8 +6041,9 @@
       <c r="T150" s="6"/>
       <c r="U150" s="6"/>
       <c r="V150" s="6"/>
-    </row>
-    <row r="151" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W150" s="6"/>
+    </row>
+    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -5883,8 +6066,9 @@
       <c r="T151" s="6"/>
       <c r="U151" s="6"/>
       <c r="V151" s="6"/>
-    </row>
-    <row r="152" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W151" s="6"/>
+    </row>
+    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -5907,8 +6091,9 @@
       <c r="T152" s="6"/>
       <c r="U152" s="6"/>
       <c r="V152" s="6"/>
-    </row>
-    <row r="153" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W152" s="6"/>
+    </row>
+    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -5931,8 +6116,9 @@
       <c r="T153" s="6"/>
       <c r="U153" s="6"/>
       <c r="V153" s="6"/>
-    </row>
-    <row r="154" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W153" s="6"/>
+    </row>
+    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -5955,8 +6141,9 @@
       <c r="T154" s="6"/>
       <c r="U154" s="6"/>
       <c r="V154" s="6"/>
-    </row>
-    <row r="155" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W154" s="6"/>
+    </row>
+    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -5979,8 +6166,9 @@
       <c r="T155" s="6"/>
       <c r="U155" s="6"/>
       <c r="V155" s="6"/>
-    </row>
-    <row r="156" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W155" s="6"/>
+    </row>
+    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -6003,8 +6191,9 @@
       <c r="T156" s="6"/>
       <c r="U156" s="6"/>
       <c r="V156" s="6"/>
-    </row>
-    <row r="157" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W156" s="6"/>
+    </row>
+    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -6027,8 +6216,9 @@
       <c r="T157" s="6"/>
       <c r="U157" s="6"/>
       <c r="V157" s="6"/>
-    </row>
-    <row r="158" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W157" s="6"/>
+    </row>
+    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -6051,8 +6241,9 @@
       <c r="T158" s="6"/>
       <c r="U158" s="6"/>
       <c r="V158" s="6"/>
-    </row>
-    <row r="159" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W158" s="6"/>
+    </row>
+    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -6075,8 +6266,9 @@
       <c r="T159" s="6"/>
       <c r="U159" s="6"/>
       <c r="V159" s="6"/>
-    </row>
-    <row r="160" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W159" s="6"/>
+    </row>
+    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -6099,8 +6291,9 @@
       <c r="T160" s="6"/>
       <c r="U160" s="6"/>
       <c r="V160" s="6"/>
-    </row>
-    <row r="161" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W160" s="6"/>
+    </row>
+    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -6123,8 +6316,9 @@
       <c r="T161" s="6"/>
       <c r="U161" s="6"/>
       <c r="V161" s="6"/>
-    </row>
-    <row r="162" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W161" s="6"/>
+    </row>
+    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -6147,8 +6341,9 @@
       <c r="T162" s="6"/>
       <c r="U162" s="6"/>
       <c r="V162" s="6"/>
-    </row>
-    <row r="163" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W162" s="6"/>
+    </row>
+    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -6171,8 +6366,9 @@
       <c r="T163" s="6"/>
       <c r="U163" s="6"/>
       <c r="V163" s="6"/>
-    </row>
-    <row r="164" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W163" s="6"/>
+    </row>
+    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -6195,8 +6391,9 @@
       <c r="T164" s="6"/>
       <c r="U164" s="6"/>
       <c r="V164" s="6"/>
-    </row>
-    <row r="165" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W164" s="6"/>
+    </row>
+    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -6219,8 +6416,9 @@
       <c r="T165" s="6"/>
       <c r="U165" s="6"/>
       <c r="V165" s="6"/>
-    </row>
-    <row r="166" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W165" s="6"/>
+    </row>
+    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -6243,8 +6441,9 @@
       <c r="T166" s="6"/>
       <c r="U166" s="6"/>
       <c r="V166" s="6"/>
-    </row>
-    <row r="167" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W166" s="6"/>
+    </row>
+    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -6267,8 +6466,9 @@
       <c r="T167" s="6"/>
       <c r="U167" s="6"/>
       <c r="V167" s="6"/>
-    </row>
-    <row r="168" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W167" s="6"/>
+    </row>
+    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -6291,8 +6491,9 @@
       <c r="T168" s="6"/>
       <c r="U168" s="6"/>
       <c r="V168" s="6"/>
-    </row>
-    <row r="169" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W168" s="6"/>
+    </row>
+    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -6315,8 +6516,9 @@
       <c r="T169" s="6"/>
       <c r="U169" s="6"/>
       <c r="V169" s="6"/>
-    </row>
-    <row r="170" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W169" s="6"/>
+    </row>
+    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -6339,8 +6541,9 @@
       <c r="T170" s="6"/>
       <c r="U170" s="6"/>
       <c r="V170" s="6"/>
-    </row>
-    <row r="171" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W170" s="6"/>
+    </row>
+    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -6363,8 +6566,9 @@
       <c r="T171" s="6"/>
       <c r="U171" s="6"/>
       <c r="V171" s="6"/>
-    </row>
-    <row r="172" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W171" s="6"/>
+    </row>
+    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -6387,8 +6591,9 @@
       <c r="T172" s="6"/>
       <c r="U172" s="6"/>
       <c r="V172" s="6"/>
-    </row>
-    <row r="173" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W172" s="6"/>
+    </row>
+    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -6411,8 +6616,9 @@
       <c r="T173" s="6"/>
       <c r="U173" s="6"/>
       <c r="V173" s="6"/>
-    </row>
-    <row r="174" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W173" s="6"/>
+    </row>
+    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -6435,8 +6641,9 @@
       <c r="T174" s="6"/>
       <c r="U174" s="6"/>
       <c r="V174" s="6"/>
-    </row>
-    <row r="175" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W174" s="6"/>
+    </row>
+    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -6459,8 +6666,9 @@
       <c r="T175" s="6"/>
       <c r="U175" s="6"/>
       <c r="V175" s="6"/>
-    </row>
-    <row r="176" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W175" s="6"/>
+    </row>
+    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -6483,8 +6691,9 @@
       <c r="T176" s="6"/>
       <c r="U176" s="6"/>
       <c r="V176" s="6"/>
-    </row>
-    <row r="177" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W176" s="6"/>
+    </row>
+    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -6507,8 +6716,9 @@
       <c r="T177" s="6"/>
       <c r="U177" s="6"/>
       <c r="V177" s="6"/>
-    </row>
-    <row r="178" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W177" s="6"/>
+    </row>
+    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -6531,8 +6741,9 @@
       <c r="T178" s="6"/>
       <c r="U178" s="6"/>
       <c r="V178" s="6"/>
-    </row>
-    <row r="179" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W178" s="6"/>
+    </row>
+    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -6555,8 +6766,9 @@
       <c r="T179" s="6"/>
       <c r="U179" s="6"/>
       <c r="V179" s="6"/>
-    </row>
-    <row r="180" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W179" s="6"/>
+    </row>
+    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -6579,8 +6791,9 @@
       <c r="T180" s="6"/>
       <c r="U180" s="6"/>
       <c r="V180" s="6"/>
-    </row>
-    <row r="181" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W180" s="6"/>
+    </row>
+    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -6603,8 +6816,9 @@
       <c r="T181" s="6"/>
       <c r="U181" s="6"/>
       <c r="V181" s="6"/>
-    </row>
-    <row r="182" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W181" s="6"/>
+    </row>
+    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -6627,8 +6841,9 @@
       <c r="T182" s="6"/>
       <c r="U182" s="6"/>
       <c r="V182" s="6"/>
-    </row>
-    <row r="183" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W182" s="6"/>
+    </row>
+    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -6651,8 +6866,9 @@
       <c r="T183" s="6"/>
       <c r="U183" s="6"/>
       <c r="V183" s="6"/>
-    </row>
-    <row r="184" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W183" s="6"/>
+    </row>
+    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -6675,8 +6891,9 @@
       <c r="T184" s="6"/>
       <c r="U184" s="6"/>
       <c r="V184" s="6"/>
-    </row>
-    <row r="185" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W184" s="6"/>
+    </row>
+    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -6699,8 +6916,9 @@
       <c r="T185" s="6"/>
       <c r="U185" s="6"/>
       <c r="V185" s="6"/>
-    </row>
-    <row r="186" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W185" s="6"/>
+    </row>
+    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -6723,8 +6941,9 @@
       <c r="T186" s="6"/>
       <c r="U186" s="6"/>
       <c r="V186" s="6"/>
-    </row>
-    <row r="187" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W186" s="6"/>
+    </row>
+    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -6747,8 +6966,9 @@
       <c r="T187" s="6"/>
       <c r="U187" s="6"/>
       <c r="V187" s="6"/>
-    </row>
-    <row r="188" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W187" s="6"/>
+    </row>
+    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -6771,8 +6991,9 @@
       <c r="T188" s="6"/>
       <c r="U188" s="6"/>
       <c r="V188" s="6"/>
-    </row>
-    <row r="189" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W188" s="6"/>
+    </row>
+    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -6795,8 +7016,9 @@
       <c r="T189" s="6"/>
       <c r="U189" s="6"/>
       <c r="V189" s="6"/>
-    </row>
-    <row r="190" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W189" s="6"/>
+    </row>
+    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -6819,8 +7041,9 @@
       <c r="T190" s="6"/>
       <c r="U190" s="6"/>
       <c r="V190" s="6"/>
-    </row>
-    <row r="191" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W190" s="6"/>
+    </row>
+    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -6843,8 +7066,9 @@
       <c r="T191" s="6"/>
       <c r="U191" s="6"/>
       <c r="V191" s="6"/>
-    </row>
-    <row r="192" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W191" s="6"/>
+    </row>
+    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -6867,8 +7091,9 @@
       <c r="T192" s="6"/>
       <c r="U192" s="6"/>
       <c r="V192" s="6"/>
-    </row>
-    <row r="193" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W192" s="6"/>
+    </row>
+    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -6891,8 +7116,9 @@
       <c r="T193" s="6"/>
       <c r="U193" s="6"/>
       <c r="V193" s="6"/>
-    </row>
-    <row r="194" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W193" s="6"/>
+    </row>
+    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -6915,8 +7141,9 @@
       <c r="T194" s="6"/>
       <c r="U194" s="6"/>
       <c r="V194" s="6"/>
-    </row>
-    <row r="195" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W194" s="6"/>
+    </row>
+    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -6939,8 +7166,9 @@
       <c r="T195" s="6"/>
       <c r="U195" s="6"/>
       <c r="V195" s="6"/>
-    </row>
-    <row r="196" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W195" s="6"/>
+    </row>
+    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -6963,8 +7191,9 @@
       <c r="T196" s="6"/>
       <c r="U196" s="6"/>
       <c r="V196" s="6"/>
-    </row>
-    <row r="197" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W196" s="6"/>
+    </row>
+    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -6987,8 +7216,9 @@
       <c r="T197" s="6"/>
       <c r="U197" s="6"/>
       <c r="V197" s="6"/>
-    </row>
-    <row r="198" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W197" s="6"/>
+    </row>
+    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -7011,8 +7241,9 @@
       <c r="T198" s="6"/>
       <c r="U198" s="6"/>
       <c r="V198" s="6"/>
-    </row>
-    <row r="199" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W198" s="6"/>
+    </row>
+    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -7035,8 +7266,9 @@
       <c r="T199" s="6"/>
       <c r="U199" s="6"/>
       <c r="V199" s="6"/>
-    </row>
-    <row r="200" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W199" s="6"/>
+    </row>
+    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -7059,8 +7291,9 @@
       <c r="T200" s="6"/>
       <c r="U200" s="6"/>
       <c r="V200" s="6"/>
-    </row>
-    <row r="201" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="W200" s="6"/>
+    </row>
+    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -7083,6 +7316,7 @@
       <c r="T201" s="22"/>
       <c r="U201" s="22"/>
       <c r="V201" s="22"/>
+      <c r="W201" s="22"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -7108,7 +7342,7 @@
     <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Max Jobs For Activation" error="Max Jobs For Activation must be an integer greater than 0." sqref="S2:S1048576" xr:uid="{0CEF292A-4807-4771-9136-4A38E9AB306A}">
       <formula1>0</formula1>
     </dataValidation>
-    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Runtime Type" error="Please select a supported Runtime Type." sqref="V2:V1048576" xr:uid="{BA3C1366-D2FC-46F2-A910-7055F34C9AC8}">
+    <dataValidation type="list" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Runtime Type" error="Please select a supported Runtime Type." sqref="W202:W1048576 V2:V201" xr:uid="{BA3C1366-D2FC-46F2-A910-7055F34C9AC8}">
       <formula1>"NonProduction,Attended,Unattended,Studio,Development,StudioX,Headless,StudioPro,TestAutomation"</formula1>
     </dataValidation>
   </dataValidations>
@@ -7126,7 +7360,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -7150,73 +7384,73 @@
   <sheetData>
     <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B1" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D1" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E1" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H1" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="I1" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J1" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="K1" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="L1" s="13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="M1" s="13" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N1" s="13" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="O1" s="13" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="P1" s="13" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="Q1" s="13" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="R1" s="13" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="S1" s="13" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="T1" s="13" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="U1" s="23" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V1" s="15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="W1" s="15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
@@ -12270,7 +12504,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A693A58D-EDCA-429B-846C-43D5A8C8F2AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA4CE6-FD7C-4E95-9948-FBE31F562EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60585" yWindow="1710" windowWidth="35190" windowHeight="12660" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
     <sheet name="作成" sheetId="1" r:id="rId2"/>
     <sheet name="削除" sheetId="2" r:id="rId3"/>
+    <sheet name="トリガーを有効化または無効化" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="48">
   <si>
     <t>フォルダー ID</t>
     <phoneticPr fontId="2"/>
@@ -222,6 +223,10 @@
   </si>
   <si>
     <t>結果</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>有効化</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -446,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
@@ -485,11 +490,174 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="56">
+  <dxfs count="62">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.34998626667073579"/>
+        </bottom>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="5"/>
+        </left>
+        <right style="thin">
+          <color theme="5"/>
+        </right>
+        <top style="thin">
+          <color theme="5"/>
+        </top>
+        <bottom style="thin">
+          <color theme="5"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="5"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="5"/>
+        </horizontal>
+      </border>
+      <protection locked="1" hidden="0"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
       <fill>
@@ -1884,32 +2052,32 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:W201" headerRowDxfId="55" dataDxfId="53" totalsRowDxfId="51" headerRowBorderDxfId="54" tableBorderDxfId="52">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="Table14" displayName="Table14" ref="A1:W201" headerRowDxfId="61" dataDxfId="59" totalsRowDxfId="57" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="23">
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="50"/>
-    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="49"/>
-    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="48"/>
-    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="47"/>
-    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="46"/>
-    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="45"/>
-    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="44"/>
-    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="43"/>
-    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法 (-1 すべてのロボット;0 特定のロボット;&gt;0 プロセスの実行回数)" dataDxfId="42"/>
-    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="41"/>
-    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="40"/>
-    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="39"/>
-    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="38"/>
-    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="37"/>
-    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="36"/>
-    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="35"/>
-    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="34"/>
-    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="33"/>
-    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="32"/>
-    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="31"/>
-    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="30"/>
-    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="29"/>
-    <tableColumn id="2" xr3:uid="{60143A08-4321-4F41-AD94-A28222A4F811}" name="指定されたロボット" dataDxfId="28"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="フォルダー ID" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{058B7C0E-F18D-4AA8-A7A4-2A2B65B79498}" name="フォルダー名" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{6FFDE20C-2159-4C8B-AE94-46A18EBF32E7}" name="トリガー ID" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{81F71C1A-632D-4A5F-BC94-CC97DF7A65EF}" name="トリガー名" dataDxfId="53"/>
+    <tableColumn id="17" xr3:uid="{E6C314EE-6A01-4E6A-AF88-E0387E29802E}" name="有効" dataDxfId="52"/>
+    <tableColumn id="15" xr3:uid="{2DEE6F64-66B8-46E2-8DED-978C18789A63}" name="プロセス名" dataDxfId="51"/>
+    <tableColumn id="14" xr3:uid="{6AFD31D0-7236-4B61-B6F7-B7E209179C91}" name="入力パラメーター" dataDxfId="50"/>
+    <tableColumn id="13" xr3:uid="{DB22136F-7CCB-43B3-B2F3-F64F00569B2B}" name="カレンダー使用" dataDxfId="49"/>
+    <tableColumn id="12" xr3:uid="{4B4F4CCE-4592-4435-91E9-4E3F0FE0353D}" name="開始方法 (-1 すべてのロボット;0 特定のロボット;&gt;0 プロセスの実行回数)" dataDxfId="48"/>
+    <tableColumn id="11" xr3:uid="{6382E3E3-5FAD-4667-9BD7-D16BEF5953FF}" name="開始 cron 式" dataDxfId="47"/>
+    <tableColumn id="10" xr3:uid="{7A8F0FC9-8380-4F42-9505-29FB8CBCB859}" name="開始 cron 式の詳細" dataDxfId="46"/>
+    <tableColumn id="9" xr3:uid="{AF0F06BF-7B1B-43E6-A374-D2A97BE7CA57}" name="停止方法" dataDxfId="45"/>
+    <tableColumn id="22" xr3:uid="{E47DF96B-8D93-4081-8137-B872BBA545F0}" name="停止日付" dataDxfId="44"/>
+    <tableColumn id="21" xr3:uid="{5505F1C6-570D-45E3-9390-0F6EFEE4654C}" name="停止 cron 式" dataDxfId="43"/>
+    <tableColumn id="20" xr3:uid="{5FBAB0A0-A21E-4CCD-980E-539376061F81}" name="タイムゾーン" dataDxfId="42"/>
+    <tableColumn id="18" xr3:uid="{1EB4D3C2-CE07-4EA7-B2C8-74185C6E2FEF}" name="ジョブの優先度" dataDxfId="41"/>
+    <tableColumn id="27" xr3:uid="{C533FEE6-8255-4711-A421-D6AB5A91A24C}" name="トリガーするアイテムの最小数" dataDxfId="40"/>
+    <tableColumn id="26" xr3:uid="{CC0987F9-E5EB-424C-BAC2-EC7C6CD6AE1A}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="39"/>
+    <tableColumn id="25" xr3:uid="{1AC94E67-3224-488F-8717-86F6A46274E7}" name="保留中および実行中のジョブの最大数" dataDxfId="38"/>
+    <tableColumn id="23" xr3:uid="{30D62244-4112-4278-BA03-7537ABE2F931}" name="キュー名" dataDxfId="37"/>
+    <tableColumn id="29" xr3:uid="{6F7B436B-C7DD-40F7-977E-79FB75EAFE78}" name="カレンダー名" dataDxfId="36"/>
+    <tableColumn id="28" xr3:uid="{E0816FFE-1BDE-49AC-A8E8-302C91411073}" name="ジョブの種類" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{60143A08-4321-4F41-AD94-A28222A4F811}" name="指定されたロボット" dataDxfId="34"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1919,29 +2087,29 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A1:W201" totalsRowShown="0">
   <autoFilter ref="A1:W201" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="23">
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="27"/>
-    <tableColumn id="9" xr3:uid="{3F114B58-2997-4D73-A80A-40D21B742757}" name="トリガー名" dataDxfId="26"/>
-    <tableColumn id="8" xr3:uid="{45B7C249-3DF1-450D-AA47-E72B0FE30A90}" name="有効" dataDxfId="25"/>
-    <tableColumn id="7" xr3:uid="{FD574CB7-FA08-4654-9CD7-86D60F34DB32}" name="プロセス名" dataDxfId="24"/>
-    <tableColumn id="6" xr3:uid="{7446F334-E6E0-4A0E-8EB5-68FB9D43F164}" name="入力パラメーター" dataDxfId="23"/>
-    <tableColumn id="3" xr3:uid="{9112BA16-F1A6-4B5B-9292-E1F862C46582}" name="カレンダー使用" dataDxfId="22"/>
-    <tableColumn id="17" xr3:uid="{EDBD2CF6-8937-4430-880E-CBC035D999B9}" name="開始方法（プロセスの実行回数）" dataDxfId="21"/>
-    <tableColumn id="16" xr3:uid="{17E46FA8-B1FA-4C01-B909-101B4EBE2771}" name="開始 cron 式" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{C32A3E10-03CD-4CDE-862C-B8BCCE543C7C}" name="開始 cron 式の詳細" dataDxfId="19"/>
-    <tableColumn id="14" xr3:uid="{DF244F76-D9C5-4B2A-A7FF-45B1E3C0C680}" name="停止方法" dataDxfId="18"/>
-    <tableColumn id="13" xr3:uid="{F8BF873D-C98E-4452-A769-1730BAA59018}" name="停止日付" dataDxfId="17"/>
-    <tableColumn id="12" xr3:uid="{F1B1C282-F479-4190-ADF0-BBDE31D5EFDB}" name="停止 cron 式" dataDxfId="16"/>
-    <tableColumn id="11" xr3:uid="{670C436B-1C2B-4D6A-86BB-6E37C846E72C}" name="タイムゾーン" dataDxfId="15"/>
-    <tableColumn id="21" xr3:uid="{95C00957-7AEE-4E5A-8494-3D628AFB4D6C}" name="ジョブの優先度" dataDxfId="14"/>
-    <tableColumn id="20" xr3:uid="{CDA69AC6-5479-479E-B18C-36DFF3254945}" name="トリガーするアイテムの最小数" dataDxfId="13"/>
-    <tableColumn id="19" xr3:uid="{8E859498-36EB-4FDD-AAD6-41CC93FE4779}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="12"/>
-    <tableColumn id="18" xr3:uid="{08F82746-079C-4356-9DB9-1968920B347F}" name="保留中および実行中のジョブの最大数" dataDxfId="11"/>
-    <tableColumn id="25" xr3:uid="{3EFAE5F4-8E3E-477D-95CB-475B3BAF404F}" name="キュー名" dataDxfId="10"/>
-    <tableColumn id="24" xr3:uid="{FE42FDBB-617A-49AC-9EEA-7F486125AE50}" name="カレンダー名" dataDxfId="9"/>
-    <tableColumn id="23" xr3:uid="{FF130F51-8B1A-4457-8500-568BE985E460}" name="ジョブの種類" dataDxfId="8"/>
-    <tableColumn id="1" xr3:uid="{4F583ADB-8987-4584-9B76-C3EFCC339400}" name="ユーザー名" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="トリガー ID" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="フォルダー名" dataDxfId="33"/>
+    <tableColumn id="9" xr3:uid="{3F114B58-2997-4D73-A80A-40D21B742757}" name="トリガー名" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{45B7C249-3DF1-450D-AA47-E72B0FE30A90}" name="有効" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{FD574CB7-FA08-4654-9CD7-86D60F34DB32}" name="プロセス名" dataDxfId="30"/>
+    <tableColumn id="6" xr3:uid="{7446F334-E6E0-4A0E-8EB5-68FB9D43F164}" name="入力パラメーター" dataDxfId="29"/>
+    <tableColumn id="3" xr3:uid="{9112BA16-F1A6-4B5B-9292-E1F862C46582}" name="カレンダー使用" dataDxfId="28"/>
+    <tableColumn id="17" xr3:uid="{EDBD2CF6-8937-4430-880E-CBC035D999B9}" name="開始方法（プロセスの実行回数）" dataDxfId="27"/>
+    <tableColumn id="16" xr3:uid="{17E46FA8-B1FA-4C01-B909-101B4EBE2771}" name="開始 cron 式" dataDxfId="26"/>
+    <tableColumn id="15" xr3:uid="{C32A3E10-03CD-4CDE-862C-B8BCCE543C7C}" name="開始 cron 式の詳細" dataDxfId="25"/>
+    <tableColumn id="14" xr3:uid="{DF244F76-D9C5-4B2A-A7FF-45B1E3C0C680}" name="停止方法" dataDxfId="24"/>
+    <tableColumn id="13" xr3:uid="{F8BF873D-C98E-4452-A769-1730BAA59018}" name="停止日付" dataDxfId="23"/>
+    <tableColumn id="12" xr3:uid="{F1B1C282-F479-4190-ADF0-BBDE31D5EFDB}" name="停止 cron 式" dataDxfId="22"/>
+    <tableColumn id="11" xr3:uid="{670C436B-1C2B-4D6A-86BB-6E37C846E72C}" name="タイムゾーン" dataDxfId="21"/>
+    <tableColumn id="21" xr3:uid="{95C00957-7AEE-4E5A-8494-3D628AFB4D6C}" name="ジョブの優先度" dataDxfId="20"/>
+    <tableColumn id="20" xr3:uid="{CDA69AC6-5479-479E-B18C-36DFF3254945}" name="トリガーするアイテムの最小数" dataDxfId="19"/>
+    <tableColumn id="19" xr3:uid="{8E859498-36EB-4FDD-AAD6-41CC93FE4779}" name="指定数のアイテムが追加されるごとに新しいジョブがトリガーされる" dataDxfId="18"/>
+    <tableColumn id="18" xr3:uid="{08F82746-079C-4356-9DB9-1968920B347F}" name="保留中および実行中のジョブの最大数" dataDxfId="17"/>
+    <tableColumn id="25" xr3:uid="{3EFAE5F4-8E3E-477D-95CB-475B3BAF404F}" name="キュー名" dataDxfId="16"/>
+    <tableColumn id="24" xr3:uid="{FE42FDBB-617A-49AC-9EEA-7F486125AE50}" name="カレンダー名" dataDxfId="15"/>
+    <tableColumn id="23" xr3:uid="{FF130F51-8B1A-4457-8500-568BE985E460}" name="ジョブの種類" dataDxfId="14"/>
+    <tableColumn id="1" xr3:uid="{4F583ADB-8987-4584-9B76-C3EFCC339400}" name="ユーザー名" dataDxfId="13"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="トリガー ID" dataDxfId="12"/>
+    <tableColumn id="5" xr3:uid="{D1E6EAA2-70C4-4033-9FEE-92C367F3E3E4}" name="結果" dataDxfId="11"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1951,11 +2119,26 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table13" displayName="Table13" ref="A1:E201" totalsRowShown="0">
   <autoFilter ref="A1:E201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダー ID" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="フォルダー名" dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="トリガー ID" dataDxfId="2"/>
-    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="トリガー名" dataDxfId="1"/>
-    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="フォルダー ID" dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{282C1FE1-B7D1-4787-943D-6839B4D2A495}" name="フォルダー名" dataDxfId="9"/>
+    <tableColumn id="4" xr3:uid="{708D46EC-46F9-46D3-89F1-FC1EA77B5A97}" name="トリガー ID" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{77482336-B9C3-42EA-B117-2D0B1D764C3A}" name="トリガー名" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{9F11D09F-EBB8-481F-9883-602BE1C1BEC7}" name="結果" dataDxfId="6"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{C3580A6A-14E1-4092-82D1-121B927E4E49}" name="Table135" displayName="Table135" ref="A1:F201" totalsRowShown="0">
+  <autoFilter ref="A1:F201" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A5F43B15-9E40-491F-B42D-C1B1719E9748}" name="フォルダー ID" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{40B27D82-75E9-4F85-8481-08EB5A0183AC}" name="フォルダー名" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{E2D6965B-9B00-4318-99A6-E3ED4BAF1A55}" name="トリガー ID" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{27D0ED0E-0055-46F5-9C83-09DDA7428D74}" name="トリガー名" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{F54FDE94-27E2-49AE-9656-0D7EF9959301}" name="有効化" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{41B743E0-D3DE-495A-98EF-EFB19CB8E5CA}" name="結果" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight10" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -12479,7 +12662,7 @@
   <sheetPr codeName="Sheet3"/>
   <dimension ref="A1:E201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
@@ -13923,4 +14106,1661 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FFECC00B-E5DB-4622-9D96-CF281EC479A0}">
+  <sheetPr codeName="Sheet4"/>
+  <dimension ref="A1:F201"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
+    <col min="4" max="5" width="25.75" customWidth="1"/>
+    <col min="6" max="6" width="45.75" style="20" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A2" s="16"/>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="17"/>
+      <c r="E3" s="24"/>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="16"/>
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="5"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" s="16"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="13"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" s="11"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="11"/>
+      <c r="D7" s="13"/>
+      <c r="E7" s="23"/>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" s="11"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11"/>
+      <c r="D8" s="13"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" s="11"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="13"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" s="11"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="11"/>
+      <c r="D10" s="13"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" s="11"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="13"/>
+      <c r="E11" s="23"/>
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A12" s="11"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="13"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A13" s="11"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="13"/>
+      <c r="E13" s="23"/>
+      <c r="F13" s="5"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="13"/>
+      <c r="E14" s="23"/>
+      <c r="F14" s="5"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="13"/>
+      <c r="E15" s="23"/>
+      <c r="F15" s="5"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="13"/>
+      <c r="E16" s="23"/>
+      <c r="F16" s="5"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="23"/>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="13"/>
+      <c r="E18" s="23"/>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="11"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="11"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="23"/>
+      <c r="F19" s="5"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A20" s="11"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="11"/>
+      <c r="D20" s="13"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="5"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="13"/>
+      <c r="E21" s="23"/>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A22" s="11"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="11"/>
+      <c r="D22" s="13"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="5"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A23" s="11"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="13"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A24" s="11"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="11"/>
+      <c r="D24" s="13"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A25" s="11"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="13"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A26" s="11"/>
+      <c r="B26" s="11"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="13"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="5"/>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A27" s="11"/>
+      <c r="B27" s="11"/>
+      <c r="C27" s="11"/>
+      <c r="D27" s="13"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="5"/>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A28" s="11"/>
+      <c r="B28" s="11"/>
+      <c r="C28" s="11"/>
+      <c r="D28" s="13"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="5"/>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A29" s="11"/>
+      <c r="B29" s="11"/>
+      <c r="C29" s="11"/>
+      <c r="D29" s="13"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="5"/>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A30" s="11"/>
+      <c r="B30" s="11"/>
+      <c r="C30" s="11"/>
+      <c r="D30" s="13"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="5"/>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A31" s="11"/>
+      <c r="B31" s="11"/>
+      <c r="C31" s="11"/>
+      <c r="D31" s="13"/>
+      <c r="E31" s="23"/>
+      <c r="F31" s="5"/>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A32" s="11"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="11"/>
+      <c r="D32" s="13"/>
+      <c r="E32" s="23"/>
+      <c r="F32" s="5"/>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A33" s="11"/>
+      <c r="B33" s="11"/>
+      <c r="C33" s="11"/>
+      <c r="D33" s="13"/>
+      <c r="E33" s="23"/>
+      <c r="F33" s="5"/>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A34" s="11"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="13"/>
+      <c r="E34" s="23"/>
+      <c r="F34" s="5"/>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A35" s="11"/>
+      <c r="B35" s="11"/>
+      <c r="C35" s="11"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="23"/>
+      <c r="F35" s="5"/>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A36" s="11"/>
+      <c r="B36" s="11"/>
+      <c r="C36" s="11"/>
+      <c r="D36" s="13"/>
+      <c r="E36" s="23"/>
+      <c r="F36" s="5"/>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A37" s="11"/>
+      <c r="B37" s="11"/>
+      <c r="C37" s="11"/>
+      <c r="D37" s="13"/>
+      <c r="E37" s="23"/>
+      <c r="F37" s="5"/>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A38" s="11"/>
+      <c r="B38" s="11"/>
+      <c r="C38" s="11"/>
+      <c r="D38" s="13"/>
+      <c r="E38" s="23"/>
+      <c r="F38" s="5"/>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A39" s="11"/>
+      <c r="B39" s="11"/>
+      <c r="C39" s="11"/>
+      <c r="D39" s="13"/>
+      <c r="E39" s="23"/>
+      <c r="F39" s="5"/>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" s="11"/>
+      <c r="B40" s="11"/>
+      <c r="C40" s="11"/>
+      <c r="D40" s="13"/>
+      <c r="E40" s="23"/>
+      <c r="F40" s="5"/>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" s="11"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="11"/>
+      <c r="D41" s="13"/>
+      <c r="E41" s="23"/>
+      <c r="F41" s="5"/>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" s="11"/>
+      <c r="B42" s="11"/>
+      <c r="C42" s="11"/>
+      <c r="D42" s="13"/>
+      <c r="E42" s="23"/>
+      <c r="F42" s="5"/>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" s="11"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="11"/>
+      <c r="D43" s="13"/>
+      <c r="E43" s="23"/>
+      <c r="F43" s="5"/>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A44" s="11"/>
+      <c r="B44" s="11"/>
+      <c r="C44" s="11"/>
+      <c r="D44" s="13"/>
+      <c r="E44" s="23"/>
+      <c r="F44" s="5"/>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A45" s="11"/>
+      <c r="B45" s="11"/>
+      <c r="C45" s="11"/>
+      <c r="D45" s="13"/>
+      <c r="E45" s="23"/>
+      <c r="F45" s="5"/>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" s="11"/>
+      <c r="B46" s="11"/>
+      <c r="C46" s="11"/>
+      <c r="D46" s="13"/>
+      <c r="E46" s="23"/>
+      <c r="F46" s="5"/>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" s="11"/>
+      <c r="B47" s="11"/>
+      <c r="C47" s="11"/>
+      <c r="D47" s="13"/>
+      <c r="E47" s="23"/>
+      <c r="F47" s="5"/>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" s="11"/>
+      <c r="B48" s="11"/>
+      <c r="C48" s="11"/>
+      <c r="D48" s="13"/>
+      <c r="E48" s="23"/>
+      <c r="F48" s="5"/>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" s="11"/>
+      <c r="B49" s="11"/>
+      <c r="C49" s="11"/>
+      <c r="D49" s="13"/>
+      <c r="E49" s="23"/>
+      <c r="F49" s="5"/>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11"/>
+      <c r="C50" s="11"/>
+      <c r="D50" s="13"/>
+      <c r="E50" s="23"/>
+      <c r="F50" s="5"/>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A51" s="11"/>
+      <c r="B51" s="11"/>
+      <c r="C51" s="11"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="23"/>
+      <c r="F51" s="5"/>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A52" s="11"/>
+      <c r="B52" s="11"/>
+      <c r="C52" s="11"/>
+      <c r="D52" s="13"/>
+      <c r="E52" s="23"/>
+      <c r="F52" s="5"/>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11"/>
+      <c r="C53" s="11"/>
+      <c r="D53" s="13"/>
+      <c r="E53" s="23"/>
+      <c r="F53" s="5"/>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A54" s="11"/>
+      <c r="B54" s="11"/>
+      <c r="C54" s="11"/>
+      <c r="D54" s="13"/>
+      <c r="E54" s="23"/>
+      <c r="F54" s="5"/>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A55" s="11"/>
+      <c r="B55" s="11"/>
+      <c r="C55" s="11"/>
+      <c r="D55" s="13"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="5"/>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A56" s="11"/>
+      <c r="B56" s="11"/>
+      <c r="C56" s="11"/>
+      <c r="D56" s="13"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="5"/>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A57" s="11"/>
+      <c r="B57" s="11"/>
+      <c r="C57" s="11"/>
+      <c r="D57" s="13"/>
+      <c r="E57" s="23"/>
+      <c r="F57" s="5"/>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A58" s="11"/>
+      <c r="B58" s="11"/>
+      <c r="C58" s="11"/>
+      <c r="D58" s="13"/>
+      <c r="E58" s="23"/>
+      <c r="F58" s="5"/>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A59" s="11"/>
+      <c r="B59" s="11"/>
+      <c r="C59" s="11"/>
+      <c r="D59" s="13"/>
+      <c r="E59" s="23"/>
+      <c r="F59" s="5"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A60" s="11"/>
+      <c r="B60" s="11"/>
+      <c r="C60" s="11"/>
+      <c r="D60" s="13"/>
+      <c r="E60" s="23"/>
+      <c r="F60" s="5"/>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A61" s="11"/>
+      <c r="B61" s="11"/>
+      <c r="C61" s="11"/>
+      <c r="D61" s="13"/>
+      <c r="E61" s="23"/>
+      <c r="F61" s="5"/>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A62" s="11"/>
+      <c r="B62" s="11"/>
+      <c r="C62" s="11"/>
+      <c r="D62" s="13"/>
+      <c r="E62" s="23"/>
+      <c r="F62" s="5"/>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A63" s="11"/>
+      <c r="B63" s="11"/>
+      <c r="C63" s="11"/>
+      <c r="D63" s="13"/>
+      <c r="E63" s="23"/>
+      <c r="F63" s="5"/>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A64" s="11"/>
+      <c r="B64" s="11"/>
+      <c r="C64" s="11"/>
+      <c r="D64" s="13"/>
+      <c r="E64" s="23"/>
+      <c r="F64" s="5"/>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A65" s="11"/>
+      <c r="B65" s="11"/>
+      <c r="C65" s="11"/>
+      <c r="D65" s="13"/>
+      <c r="E65" s="23"/>
+      <c r="F65" s="5"/>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A66" s="11"/>
+      <c r="B66" s="11"/>
+      <c r="C66" s="11"/>
+      <c r="D66" s="13"/>
+      <c r="E66" s="23"/>
+      <c r="F66" s="5"/>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A67" s="11"/>
+      <c r="B67" s="11"/>
+      <c r="C67" s="11"/>
+      <c r="D67" s="13"/>
+      <c r="E67" s="23"/>
+      <c r="F67" s="5"/>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A68" s="11"/>
+      <c r="B68" s="11"/>
+      <c r="C68" s="11"/>
+      <c r="D68" s="13"/>
+      <c r="E68" s="23"/>
+      <c r="F68" s="5"/>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A69" s="11"/>
+      <c r="B69" s="11"/>
+      <c r="C69" s="11"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="23"/>
+      <c r="F69" s="5"/>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A70" s="11"/>
+      <c r="B70" s="11"/>
+      <c r="C70" s="11"/>
+      <c r="D70" s="13"/>
+      <c r="E70" s="23"/>
+      <c r="F70" s="5"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A71" s="11"/>
+      <c r="B71" s="11"/>
+      <c r="C71" s="11"/>
+      <c r="D71" s="13"/>
+      <c r="E71" s="23"/>
+      <c r="F71" s="5"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A72" s="11"/>
+      <c r="B72" s="11"/>
+      <c r="C72" s="11"/>
+      <c r="D72" s="13"/>
+      <c r="E72" s="23"/>
+      <c r="F72" s="5"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A73" s="11"/>
+      <c r="B73" s="11"/>
+      <c r="C73" s="11"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="23"/>
+      <c r="F73" s="5"/>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A74" s="11"/>
+      <c r="B74" s="11"/>
+      <c r="C74" s="11"/>
+      <c r="D74" s="13"/>
+      <c r="E74" s="23"/>
+      <c r="F74" s="5"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A75" s="11"/>
+      <c r="B75" s="11"/>
+      <c r="C75" s="11"/>
+      <c r="D75" s="13"/>
+      <c r="E75" s="23"/>
+      <c r="F75" s="5"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A76" s="11"/>
+      <c r="B76" s="11"/>
+      <c r="C76" s="11"/>
+      <c r="D76" s="13"/>
+      <c r="E76" s="23"/>
+      <c r="F76" s="5"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A77" s="11"/>
+      <c r="B77" s="11"/>
+      <c r="C77" s="11"/>
+      <c r="D77" s="13"/>
+      <c r="E77" s="23"/>
+      <c r="F77" s="5"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A78" s="11"/>
+      <c r="B78" s="11"/>
+      <c r="C78" s="11"/>
+      <c r="D78" s="13"/>
+      <c r="E78" s="23"/>
+      <c r="F78" s="5"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A79" s="11"/>
+      <c r="B79" s="11"/>
+      <c r="C79" s="11"/>
+      <c r="D79" s="13"/>
+      <c r="E79" s="23"/>
+      <c r="F79" s="5"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A80" s="11"/>
+      <c r="B80" s="11"/>
+      <c r="C80" s="11"/>
+      <c r="D80" s="13"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="5"/>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A81" s="11"/>
+      <c r="B81" s="11"/>
+      <c r="C81" s="11"/>
+      <c r="D81" s="13"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="5"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A82" s="11"/>
+      <c r="B82" s="11"/>
+      <c r="C82" s="11"/>
+      <c r="D82" s="13"/>
+      <c r="E82" s="23"/>
+      <c r="F82" s="5"/>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A83" s="11"/>
+      <c r="B83" s="11"/>
+      <c r="C83" s="11"/>
+      <c r="D83" s="13"/>
+      <c r="E83" s="23"/>
+      <c r="F83" s="5"/>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A84" s="11"/>
+      <c r="B84" s="11"/>
+      <c r="C84" s="11"/>
+      <c r="D84" s="13"/>
+      <c r="E84" s="23"/>
+      <c r="F84" s="5"/>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A85" s="11"/>
+      <c r="B85" s="11"/>
+      <c r="C85" s="11"/>
+      <c r="D85" s="13"/>
+      <c r="E85" s="23"/>
+      <c r="F85" s="5"/>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A86" s="11"/>
+      <c r="B86" s="11"/>
+      <c r="C86" s="11"/>
+      <c r="D86" s="13"/>
+      <c r="E86" s="23"/>
+      <c r="F86" s="5"/>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A87" s="11"/>
+      <c r="B87" s="11"/>
+      <c r="C87" s="11"/>
+      <c r="D87" s="13"/>
+      <c r="E87" s="23"/>
+      <c r="F87" s="5"/>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A88" s="11"/>
+      <c r="B88" s="11"/>
+      <c r="C88" s="11"/>
+      <c r="D88" s="13"/>
+      <c r="E88" s="23"/>
+      <c r="F88" s="5"/>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A89" s="11"/>
+      <c r="B89" s="11"/>
+      <c r="C89" s="11"/>
+      <c r="D89" s="13"/>
+      <c r="E89" s="23"/>
+      <c r="F89" s="5"/>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A90" s="11"/>
+      <c r="B90" s="11"/>
+      <c r="C90" s="11"/>
+      <c r="D90" s="13"/>
+      <c r="E90" s="23"/>
+      <c r="F90" s="5"/>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A91" s="11"/>
+      <c r="B91" s="11"/>
+      <c r="C91" s="11"/>
+      <c r="D91" s="13"/>
+      <c r="E91" s="23"/>
+      <c r="F91" s="5"/>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A92" s="11"/>
+      <c r="B92" s="11"/>
+      <c r="C92" s="11"/>
+      <c r="D92" s="13"/>
+      <c r="E92" s="23"/>
+      <c r="F92" s="5"/>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A93" s="11"/>
+      <c r="B93" s="11"/>
+      <c r="C93" s="11"/>
+      <c r="D93" s="13"/>
+      <c r="E93" s="23"/>
+      <c r="F93" s="5"/>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A94" s="11"/>
+      <c r="B94" s="11"/>
+      <c r="C94" s="11"/>
+      <c r="D94" s="13"/>
+      <c r="E94" s="23"/>
+      <c r="F94" s="5"/>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A95" s="11"/>
+      <c r="B95" s="11"/>
+      <c r="C95" s="11"/>
+      <c r="D95" s="13"/>
+      <c r="E95" s="23"/>
+      <c r="F95" s="5"/>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A96" s="11"/>
+      <c r="B96" s="11"/>
+      <c r="C96" s="11"/>
+      <c r="D96" s="13"/>
+      <c r="E96" s="23"/>
+      <c r="F96" s="5"/>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A97" s="11"/>
+      <c r="B97" s="11"/>
+      <c r="C97" s="11"/>
+      <c r="D97" s="13"/>
+      <c r="E97" s="23"/>
+      <c r="F97" s="5"/>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A98" s="11"/>
+      <c r="B98" s="11"/>
+      <c r="C98" s="11"/>
+      <c r="D98" s="13"/>
+      <c r="E98" s="23"/>
+      <c r="F98" s="5"/>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A99" s="11"/>
+      <c r="B99" s="11"/>
+      <c r="C99" s="11"/>
+      <c r="D99" s="13"/>
+      <c r="E99" s="23"/>
+      <c r="F99" s="5"/>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A100" s="11"/>
+      <c r="B100" s="11"/>
+      <c r="C100" s="11"/>
+      <c r="D100" s="13"/>
+      <c r="E100" s="23"/>
+      <c r="F100" s="5"/>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A101" s="11"/>
+      <c r="B101" s="11"/>
+      <c r="C101" s="11"/>
+      <c r="D101" s="13"/>
+      <c r="E101" s="23"/>
+      <c r="F101" s="5"/>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A102" s="11"/>
+      <c r="B102" s="11"/>
+      <c r="C102" s="11"/>
+      <c r="D102" s="13"/>
+      <c r="E102" s="23"/>
+      <c r="F102" s="5"/>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A103" s="11"/>
+      <c r="B103" s="11"/>
+      <c r="C103" s="11"/>
+      <c r="D103" s="13"/>
+      <c r="E103" s="23"/>
+      <c r="F103" s="5"/>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A104" s="11"/>
+      <c r="B104" s="11"/>
+      <c r="C104" s="11"/>
+      <c r="D104" s="13"/>
+      <c r="E104" s="23"/>
+      <c r="F104" s="5"/>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A105" s="11"/>
+      <c r="B105" s="11"/>
+      <c r="C105" s="11"/>
+      <c r="D105" s="13"/>
+      <c r="E105" s="23"/>
+      <c r="F105" s="5"/>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A106" s="11"/>
+      <c r="B106" s="11"/>
+      <c r="C106" s="11"/>
+      <c r="D106" s="13"/>
+      <c r="E106" s="23"/>
+      <c r="F106" s="5"/>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A107" s="11"/>
+      <c r="B107" s="11"/>
+      <c r="C107" s="11"/>
+      <c r="D107" s="13"/>
+      <c r="E107" s="23"/>
+      <c r="F107" s="5"/>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A108" s="11"/>
+      <c r="B108" s="11"/>
+      <c r="C108" s="11"/>
+      <c r="D108" s="13"/>
+      <c r="E108" s="23"/>
+      <c r="F108" s="5"/>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A109" s="11"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="23"/>
+      <c r="F109" s="5"/>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A110" s="11"/>
+      <c r="B110" s="11"/>
+      <c r="C110" s="11"/>
+      <c r="D110" s="13"/>
+      <c r="E110" s="23"/>
+      <c r="F110" s="5"/>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A111" s="11"/>
+      <c r="B111" s="11"/>
+      <c r="C111" s="11"/>
+      <c r="D111" s="13"/>
+      <c r="E111" s="23"/>
+      <c r="F111" s="5"/>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A112" s="11"/>
+      <c r="B112" s="11"/>
+      <c r="C112" s="11"/>
+      <c r="D112" s="13"/>
+      <c r="E112" s="23"/>
+      <c r="F112" s="5"/>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A113" s="11"/>
+      <c r="B113" s="11"/>
+      <c r="C113" s="11"/>
+      <c r="D113" s="13"/>
+      <c r="E113" s="23"/>
+      <c r="F113" s="5"/>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A114" s="11"/>
+      <c r="B114" s="11"/>
+      <c r="C114" s="11"/>
+      <c r="D114" s="13"/>
+      <c r="E114" s="23"/>
+      <c r="F114" s="5"/>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A115" s="11"/>
+      <c r="B115" s="11"/>
+      <c r="C115" s="11"/>
+      <c r="D115" s="13"/>
+      <c r="E115" s="23"/>
+      <c r="F115" s="5"/>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A116" s="11"/>
+      <c r="B116" s="11"/>
+      <c r="C116" s="11"/>
+      <c r="D116" s="13"/>
+      <c r="E116" s="23"/>
+      <c r="F116" s="5"/>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A117" s="11"/>
+      <c r="B117" s="11"/>
+      <c r="C117" s="11"/>
+      <c r="D117" s="13"/>
+      <c r="E117" s="23"/>
+      <c r="F117" s="5"/>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A118" s="11"/>
+      <c r="B118" s="11"/>
+      <c r="C118" s="11"/>
+      <c r="D118" s="13"/>
+      <c r="E118" s="23"/>
+      <c r="F118" s="5"/>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A119" s="11"/>
+      <c r="B119" s="11"/>
+      <c r="C119" s="11"/>
+      <c r="D119" s="13"/>
+      <c r="E119" s="23"/>
+      <c r="F119" s="5"/>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A120" s="11"/>
+      <c r="B120" s="11"/>
+      <c r="C120" s="11"/>
+      <c r="D120" s="13"/>
+      <c r="E120" s="23"/>
+      <c r="F120" s="5"/>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A121" s="11"/>
+      <c r="B121" s="11"/>
+      <c r="C121" s="11"/>
+      <c r="D121" s="13"/>
+      <c r="E121" s="23"/>
+      <c r="F121" s="5"/>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A122" s="11"/>
+      <c r="B122" s="11"/>
+      <c r="C122" s="11"/>
+      <c r="D122" s="13"/>
+      <c r="E122" s="23"/>
+      <c r="F122" s="5"/>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A123" s="11"/>
+      <c r="B123" s="11"/>
+      <c r="C123" s="11"/>
+      <c r="D123" s="13"/>
+      <c r="E123" s="23"/>
+      <c r="F123" s="5"/>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A124" s="11"/>
+      <c r="B124" s="11"/>
+      <c r="C124" s="11"/>
+      <c r="D124" s="13"/>
+      <c r="E124" s="23"/>
+      <c r="F124" s="5"/>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A125" s="11"/>
+      <c r="B125" s="11"/>
+      <c r="C125" s="11"/>
+      <c r="D125" s="13"/>
+      <c r="E125" s="23"/>
+      <c r="F125" s="5"/>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A126" s="11"/>
+      <c r="B126" s="11"/>
+      <c r="C126" s="11"/>
+      <c r="D126" s="13"/>
+      <c r="E126" s="23"/>
+      <c r="F126" s="5"/>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A127" s="11"/>
+      <c r="B127" s="11"/>
+      <c r="C127" s="11"/>
+      <c r="D127" s="13"/>
+      <c r="E127" s="23"/>
+      <c r="F127" s="5"/>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A128" s="11"/>
+      <c r="B128" s="11"/>
+      <c r="C128" s="11"/>
+      <c r="D128" s="13"/>
+      <c r="E128" s="23"/>
+      <c r="F128" s="5"/>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A129" s="11"/>
+      <c r="B129" s="11"/>
+      <c r="C129" s="11"/>
+      <c r="D129" s="13"/>
+      <c r="E129" s="23"/>
+      <c r="F129" s="5"/>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A130" s="11"/>
+      <c r="B130" s="11"/>
+      <c r="C130" s="11"/>
+      <c r="D130" s="13"/>
+      <c r="E130" s="23"/>
+      <c r="F130" s="5"/>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A131" s="11"/>
+      <c r="B131" s="11"/>
+      <c r="C131" s="11"/>
+      <c r="D131" s="13"/>
+      <c r="E131" s="23"/>
+      <c r="F131" s="5"/>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A132" s="11"/>
+      <c r="B132" s="11"/>
+      <c r="C132" s="11"/>
+      <c r="D132" s="13"/>
+      <c r="E132" s="23"/>
+      <c r="F132" s="5"/>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A133" s="11"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="13"/>
+      <c r="E133" s="23"/>
+      <c r="F133" s="5"/>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A134" s="11"/>
+      <c r="B134" s="11"/>
+      <c r="C134" s="11"/>
+      <c r="D134" s="13"/>
+      <c r="E134" s="23"/>
+      <c r="F134" s="5"/>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A135" s="11"/>
+      <c r="B135" s="11"/>
+      <c r="C135" s="11"/>
+      <c r="D135" s="13"/>
+      <c r="E135" s="23"/>
+      <c r="F135" s="5"/>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A136" s="11"/>
+      <c r="B136" s="11"/>
+      <c r="C136" s="11"/>
+      <c r="D136" s="13"/>
+      <c r="E136" s="23"/>
+      <c r="F136" s="5"/>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A137" s="11"/>
+      <c r="B137" s="11"/>
+      <c r="C137" s="11"/>
+      <c r="D137" s="13"/>
+      <c r="E137" s="23"/>
+      <c r="F137" s="5"/>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A138" s="11"/>
+      <c r="B138" s="11"/>
+      <c r="C138" s="11"/>
+      <c r="D138" s="13"/>
+      <c r="E138" s="23"/>
+      <c r="F138" s="5"/>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A139" s="11"/>
+      <c r="B139" s="11"/>
+      <c r="C139" s="11"/>
+      <c r="D139" s="13"/>
+      <c r="E139" s="23"/>
+      <c r="F139" s="5"/>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A140" s="11"/>
+      <c r="B140" s="11"/>
+      <c r="C140" s="11"/>
+      <c r="D140" s="13"/>
+      <c r="E140" s="23"/>
+      <c r="F140" s="5"/>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A141" s="11"/>
+      <c r="B141" s="11"/>
+      <c r="C141" s="11"/>
+      <c r="D141" s="13"/>
+      <c r="E141" s="23"/>
+      <c r="F141" s="5"/>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A142" s="11"/>
+      <c r="B142" s="11"/>
+      <c r="C142" s="11"/>
+      <c r="D142" s="13"/>
+      <c r="E142" s="23"/>
+      <c r="F142" s="5"/>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A143" s="11"/>
+      <c r="B143" s="11"/>
+      <c r="C143" s="11"/>
+      <c r="D143" s="13"/>
+      <c r="E143" s="23"/>
+      <c r="F143" s="5"/>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A144" s="11"/>
+      <c r="B144" s="11"/>
+      <c r="C144" s="11"/>
+      <c r="D144" s="13"/>
+      <c r="E144" s="23"/>
+      <c r="F144" s="5"/>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A145" s="11"/>
+      <c r="B145" s="11"/>
+      <c r="C145" s="11"/>
+      <c r="D145" s="13"/>
+      <c r="E145" s="23"/>
+      <c r="F145" s="5"/>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A146" s="11"/>
+      <c r="B146" s="11"/>
+      <c r="C146" s="11"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="23"/>
+      <c r="F146" s="5"/>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A147" s="11"/>
+      <c r="B147" s="11"/>
+      <c r="C147" s="11"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="23"/>
+      <c r="F147" s="5"/>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A148" s="11"/>
+      <c r="B148" s="11"/>
+      <c r="C148" s="11"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="23"/>
+      <c r="F148" s="5"/>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A149" s="11"/>
+      <c r="B149" s="11"/>
+      <c r="C149" s="11"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="23"/>
+      <c r="F149" s="5"/>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A150" s="11"/>
+      <c r="B150" s="11"/>
+      <c r="C150" s="11"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="23"/>
+      <c r="F150" s="5"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A151" s="11"/>
+      <c r="B151" s="11"/>
+      <c r="C151" s="11"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="23"/>
+      <c r="F151" s="5"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A152" s="11"/>
+      <c r="B152" s="11"/>
+      <c r="C152" s="11"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="23"/>
+      <c r="F152" s="5"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A153" s="11"/>
+      <c r="B153" s="11"/>
+      <c r="C153" s="11"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="23"/>
+      <c r="F153" s="5"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A154" s="11"/>
+      <c r="B154" s="11"/>
+      <c r="C154" s="11"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="23"/>
+      <c r="F154" s="5"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A155" s="11"/>
+      <c r="B155" s="11"/>
+      <c r="C155" s="11"/>
+      <c r="D155" s="13"/>
+      <c r="E155" s="23"/>
+      <c r="F155" s="5"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A156" s="11"/>
+      <c r="B156" s="11"/>
+      <c r="C156" s="11"/>
+      <c r="D156" s="13"/>
+      <c r="E156" s="23"/>
+      <c r="F156" s="5"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A157" s="11"/>
+      <c r="B157" s="11"/>
+      <c r="C157" s="11"/>
+      <c r="D157" s="13"/>
+      <c r="E157" s="23"/>
+      <c r="F157" s="5"/>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A158" s="11"/>
+      <c r="B158" s="11"/>
+      <c r="C158" s="11"/>
+      <c r="D158" s="13"/>
+      <c r="E158" s="23"/>
+      <c r="F158" s="5"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A159" s="11"/>
+      <c r="B159" s="11"/>
+      <c r="C159" s="11"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="23"/>
+      <c r="F159" s="5"/>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A160" s="11"/>
+      <c r="B160" s="11"/>
+      <c r="C160" s="11"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="23"/>
+      <c r="F160" s="5"/>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A161" s="11"/>
+      <c r="B161" s="11"/>
+      <c r="C161" s="11"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="23"/>
+      <c r="F161" s="5"/>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A162" s="11"/>
+      <c r="B162" s="11"/>
+      <c r="C162" s="11"/>
+      <c r="D162" s="13"/>
+      <c r="E162" s="23"/>
+      <c r="F162" s="5"/>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A163" s="11"/>
+      <c r="B163" s="11"/>
+      <c r="C163" s="11"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="23"/>
+      <c r="F163" s="5"/>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A164" s="11"/>
+      <c r="B164" s="11"/>
+      <c r="C164" s="11"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="23"/>
+      <c r="F164" s="5"/>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A165" s="11"/>
+      <c r="B165" s="11"/>
+      <c r="C165" s="11"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="23"/>
+      <c r="F165" s="5"/>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A166" s="11"/>
+      <c r="B166" s="11"/>
+      <c r="C166" s="11"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="23"/>
+      <c r="F166" s="5"/>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A167" s="11"/>
+      <c r="B167" s="11"/>
+      <c r="C167" s="11"/>
+      <c r="D167" s="13"/>
+      <c r="E167" s="23"/>
+      <c r="F167" s="5"/>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A168" s="11"/>
+      <c r="B168" s="11"/>
+      <c r="C168" s="11"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="23"/>
+      <c r="F168" s="5"/>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A169" s="11"/>
+      <c r="B169" s="11"/>
+      <c r="C169" s="11"/>
+      <c r="D169" s="13"/>
+      <c r="E169" s="23"/>
+      <c r="F169" s="5"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A170" s="11"/>
+      <c r="B170" s="11"/>
+      <c r="C170" s="11"/>
+      <c r="D170" s="13"/>
+      <c r="E170" s="23"/>
+      <c r="F170" s="5"/>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A171" s="11"/>
+      <c r="B171" s="11"/>
+      <c r="C171" s="11"/>
+      <c r="D171" s="13"/>
+      <c r="E171" s="23"/>
+      <c r="F171" s="5"/>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A172" s="11"/>
+      <c r="B172" s="11"/>
+      <c r="C172" s="11"/>
+      <c r="D172" s="13"/>
+      <c r="E172" s="23"/>
+      <c r="F172" s="5"/>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A173" s="11"/>
+      <c r="B173" s="11"/>
+      <c r="C173" s="11"/>
+      <c r="D173" s="13"/>
+      <c r="E173" s="23"/>
+      <c r="F173" s="5"/>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A174" s="11"/>
+      <c r="B174" s="11"/>
+      <c r="C174" s="11"/>
+      <c r="D174" s="13"/>
+      <c r="E174" s="23"/>
+      <c r="F174" s="5"/>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A175" s="11"/>
+      <c r="B175" s="11"/>
+      <c r="C175" s="11"/>
+      <c r="D175" s="13"/>
+      <c r="E175" s="23"/>
+      <c r="F175" s="5"/>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A176" s="11"/>
+      <c r="B176" s="11"/>
+      <c r="C176" s="11"/>
+      <c r="D176" s="13"/>
+      <c r="E176" s="23"/>
+      <c r="F176" s="5"/>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A177" s="11"/>
+      <c r="B177" s="11"/>
+      <c r="C177" s="11"/>
+      <c r="D177" s="13"/>
+      <c r="E177" s="23"/>
+      <c r="F177" s="5"/>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A178" s="11"/>
+      <c r="B178" s="11"/>
+      <c r="C178" s="11"/>
+      <c r="D178" s="13"/>
+      <c r="E178" s="23"/>
+      <c r="F178" s="5"/>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A179" s="11"/>
+      <c r="B179" s="11"/>
+      <c r="C179" s="11"/>
+      <c r="D179" s="13"/>
+      <c r="E179" s="23"/>
+      <c r="F179" s="5"/>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A180" s="11"/>
+      <c r="B180" s="11"/>
+      <c r="C180" s="11"/>
+      <c r="D180" s="13"/>
+      <c r="E180" s="23"/>
+      <c r="F180" s="5"/>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A181" s="11"/>
+      <c r="B181" s="11"/>
+      <c r="C181" s="11"/>
+      <c r="D181" s="13"/>
+      <c r="E181" s="23"/>
+      <c r="F181" s="5"/>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A182" s="11"/>
+      <c r="B182" s="11"/>
+      <c r="C182" s="11"/>
+      <c r="D182" s="13"/>
+      <c r="E182" s="23"/>
+      <c r="F182" s="5"/>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A183" s="11"/>
+      <c r="B183" s="11"/>
+      <c r="C183" s="11"/>
+      <c r="D183" s="13"/>
+      <c r="E183" s="23"/>
+      <c r="F183" s="5"/>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A184" s="11"/>
+      <c r="B184" s="11"/>
+      <c r="C184" s="11"/>
+      <c r="D184" s="13"/>
+      <c r="E184" s="23"/>
+      <c r="F184" s="5"/>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A185" s="11"/>
+      <c r="B185" s="11"/>
+      <c r="C185" s="11"/>
+      <c r="D185" s="13"/>
+      <c r="E185" s="23"/>
+      <c r="F185" s="5"/>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A186" s="11"/>
+      <c r="B186" s="11"/>
+      <c r="C186" s="11"/>
+      <c r="D186" s="13"/>
+      <c r="E186" s="23"/>
+      <c r="F186" s="5"/>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A187" s="11"/>
+      <c r="B187" s="11"/>
+      <c r="C187" s="11"/>
+      <c r="D187" s="13"/>
+      <c r="E187" s="23"/>
+      <c r="F187" s="5"/>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A188" s="11"/>
+      <c r="B188" s="11"/>
+      <c r="C188" s="11"/>
+      <c r="D188" s="13"/>
+      <c r="E188" s="23"/>
+      <c r="F188" s="5"/>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A189" s="11"/>
+      <c r="B189" s="11"/>
+      <c r="C189" s="11"/>
+      <c r="D189" s="13"/>
+      <c r="E189" s="23"/>
+      <c r="F189" s="5"/>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A190" s="11"/>
+      <c r="B190" s="11"/>
+      <c r="C190" s="11"/>
+      <c r="D190" s="13"/>
+      <c r="E190" s="23"/>
+      <c r="F190" s="5"/>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A191" s="11"/>
+      <c r="B191" s="11"/>
+      <c r="C191" s="11"/>
+      <c r="D191" s="13"/>
+      <c r="E191" s="23"/>
+      <c r="F191" s="5"/>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A192" s="11"/>
+      <c r="B192" s="11"/>
+      <c r="C192" s="11"/>
+      <c r="D192" s="13"/>
+      <c r="E192" s="23"/>
+      <c r="F192" s="5"/>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A193" s="11"/>
+      <c r="B193" s="11"/>
+      <c r="C193" s="11"/>
+      <c r="D193" s="13"/>
+      <c r="E193" s="23"/>
+      <c r="F193" s="5"/>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A194" s="11"/>
+      <c r="B194" s="11"/>
+      <c r="C194" s="11"/>
+      <c r="D194" s="13"/>
+      <c r="E194" s="23"/>
+      <c r="F194" s="5"/>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A195" s="11"/>
+      <c r="B195" s="11"/>
+      <c r="C195" s="11"/>
+      <c r="D195" s="13"/>
+      <c r="E195" s="23"/>
+      <c r="F195" s="5"/>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A196" s="11"/>
+      <c r="B196" s="11"/>
+      <c r="C196" s="11"/>
+      <c r="D196" s="13"/>
+      <c r="E196" s="23"/>
+      <c r="F196" s="5"/>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A197" s="11"/>
+      <c r="B197" s="11"/>
+      <c r="C197" s="11"/>
+      <c r="D197" s="13"/>
+      <c r="E197" s="23"/>
+      <c r="F197" s="5"/>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A198" s="11"/>
+      <c r="B198" s="11"/>
+      <c r="C198" s="11"/>
+      <c r="D198" s="13"/>
+      <c r="E198" s="23"/>
+      <c r="F198" s="5"/>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A199" s="11"/>
+      <c r="B199" s="11"/>
+      <c r="C199" s="11"/>
+      <c r="D199" s="13"/>
+      <c r="E199" s="23"/>
+      <c r="F199" s="5"/>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A200" s="11"/>
+      <c r="B200" s="11"/>
+      <c r="C200" s="11"/>
+      <c r="D200" s="13"/>
+      <c r="E200" s="23"/>
+      <c r="F200" s="5"/>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+      <c r="A201" s="11"/>
+      <c r="B201" s="11"/>
+      <c r="C201" s="11"/>
+      <c r="D201" s="13"/>
+      <c r="E201" s="23"/>
+      <c r="F201" s="5"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2"/>
+  <dataValidations count="3">
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Trigger ID" error="Trigger ID must be an integer greater than 0." sqref="C2:C1048576" xr:uid="{EAE72E05-164B-49CF-8B38-870EF125B963}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="whole" operator="greaterThan" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Invalid Folder ID" error="Folder ID must be an integer greater than 0." sqref="A2:A1048576" xr:uid="{CF71CE1F-70B8-4E89-B55B-0247611B3E4A}">
+      <formula1>0</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E1048576" xr:uid="{88AC16E9-4C9D-48EC-887B-6FA51B18A793}">
+      <formula1>"TRUE, FALSE"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCBA4CE6-FD7C-4E95-9948-FBE31F562EC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB1C827-EA5A-40B7-BCC1-8F6F43CB3E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60075" yWindow="1200" windowWidth="35190" windowHeight="12660" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3EB1C827-EA5A-40B7-BCC1-8F6F43CB3E22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3567C4-6228-4014-A943-3271841254AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57480" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24131"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D3567C4-6228-4014-A943-3271841254AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A464E3-3D42-4A98-886C-012AE94C1947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2940" yWindow="10690" windowWidth="19420" windowHeight="10420" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
@@ -2414,23 +2414,23 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="4" width="25.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="15.75" style="19" customWidth="1"/>
     <col min="6" max="6" width="25.75" customWidth="1"/>
-    <col min="7" max="7" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="28.125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="15.75" customWidth="1"/>
-    <col min="9" max="9" width="64.58203125" customWidth="1"/>
+    <col min="9" max="9" width="64.625" customWidth="1"/>
     <col min="10" max="15" width="25.75" customWidth="1"/>
     <col min="16" max="16" width="15.75" customWidth="1"/>
-    <col min="17" max="17" width="27.4140625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.375" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="25" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="24.5" bestFit="1" customWidth="1"/>
     <col min="20" max="23" width="25.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -2501,7 +2501,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="4"/>
       <c r="B2" s="5"/>
       <c r="C2" s="5"/>
@@ -2526,7 +2526,7 @@
       <c r="V2" s="18"/>
       <c r="W2" s="18"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="4"/>
       <c r="B3" s="5"/>
       <c r="C3" s="5"/>
@@ -2551,7 +2551,7 @@
       <c r="V3" s="18"/>
       <c r="W3" s="18"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="4"/>
       <c r="B4" s="5"/>
       <c r="C4" s="5"/>
@@ -2576,7 +2576,7 @@
       <c r="V4" s="18"/>
       <c r="W4" s="18"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="4"/>
       <c r="B5" s="5"/>
       <c r="C5" s="5"/>
@@ -2601,7 +2601,7 @@
       <c r="V5" s="18"/>
       <c r="W5" s="18"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="4"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
@@ -2626,7 +2626,7 @@
       <c r="V6" s="18"/>
       <c r="W6" s="18"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="4"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
@@ -2651,7 +2651,7 @@
       <c r="V7" s="18"/>
       <c r="W7" s="18"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="4"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
@@ -2676,7 +2676,7 @@
       <c r="V8" s="18"/>
       <c r="W8" s="18"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="4"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
@@ -2701,7 +2701,7 @@
       <c r="V9" s="18"/>
       <c r="W9" s="18"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="4"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
@@ -2726,7 +2726,7 @@
       <c r="V10" s="18"/>
       <c r="W10" s="18"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="8"/>
@@ -2751,7 +2751,7 @@
       <c r="V11" s="6"/>
       <c r="W11" s="6"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="8"/>
@@ -2776,7 +2776,7 @@
       <c r="V12" s="6"/>
       <c r="W12" s="6"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="8"/>
@@ -2801,7 +2801,7 @@
       <c r="V13" s="6"/>
       <c r="W13" s="6"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="8"/>
@@ -2826,7 +2826,7 @@
       <c r="V14" s="6"/>
       <c r="W14" s="6"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="8"/>
@@ -2851,7 +2851,7 @@
       <c r="V15" s="6"/>
       <c r="W15" s="6"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="8"/>
@@ -2876,7 +2876,7 @@
       <c r="V16" s="6"/>
       <c r="W16" s="6"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -2901,7 +2901,7 @@
       <c r="V17" s="6"/>
       <c r="W17" s="6"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="8"/>
@@ -2926,7 +2926,7 @@
       <c r="V18" s="6"/>
       <c r="W18" s="6"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="8"/>
@@ -2951,7 +2951,7 @@
       <c r="V19" s="6"/>
       <c r="W19" s="6"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="8"/>
@@ -2976,7 +2976,7 @@
       <c r="V20" s="6"/>
       <c r="W20" s="6"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="8"/>
@@ -3001,7 +3001,7 @@
       <c r="V21" s="6"/>
       <c r="W21" s="6"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="7"/>
       <c r="B22" s="8"/>
       <c r="C22" s="8"/>
@@ -3026,7 +3026,7 @@
       <c r="V22" s="6"/>
       <c r="W22" s="6"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="7"/>
       <c r="B23" s="8"/>
       <c r="C23" s="8"/>
@@ -3051,7 +3051,7 @@
       <c r="V23" s="6"/>
       <c r="W23" s="6"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="7"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
@@ -3076,7 +3076,7 @@
       <c r="V24" s="6"/>
       <c r="W24" s="6"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="7"/>
       <c r="B25" s="8"/>
       <c r="C25" s="8"/>
@@ -3101,7 +3101,7 @@
       <c r="V25" s="6"/>
       <c r="W25" s="6"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="7"/>
       <c r="B26" s="8"/>
       <c r="C26" s="8"/>
@@ -3126,7 +3126,7 @@
       <c r="V26" s="6"/>
       <c r="W26" s="6"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="7"/>
       <c r="B27" s="8"/>
       <c r="C27" s="8"/>
@@ -3151,7 +3151,7 @@
       <c r="V27" s="6"/>
       <c r="W27" s="6"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="7"/>
       <c r="B28" s="8"/>
       <c r="C28" s="8"/>
@@ -3176,7 +3176,7 @@
       <c r="V28" s="6"/>
       <c r="W28" s="6"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="7"/>
       <c r="B29" s="8"/>
       <c r="C29" s="8"/>
@@ -3201,7 +3201,7 @@
       <c r="V29" s="6"/>
       <c r="W29" s="6"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="7"/>
       <c r="B30" s="8"/>
       <c r="C30" s="8"/>
@@ -3226,7 +3226,7 @@
       <c r="V30" s="6"/>
       <c r="W30" s="6"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="7"/>
       <c r="B31" s="8"/>
       <c r="C31" s="8"/>
@@ -3251,7 +3251,7 @@
       <c r="V31" s="6"/>
       <c r="W31" s="6"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="7"/>
       <c r="B32" s="8"/>
       <c r="C32" s="8"/>
@@ -3276,7 +3276,7 @@
       <c r="V32" s="6"/>
       <c r="W32" s="6"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="7"/>
       <c r="B33" s="8"/>
       <c r="C33" s="8"/>
@@ -3301,7 +3301,7 @@
       <c r="V33" s="6"/>
       <c r="W33" s="6"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="7"/>
       <c r="B34" s="8"/>
       <c r="C34" s="8"/>
@@ -3326,7 +3326,7 @@
       <c r="V34" s="6"/>
       <c r="W34" s="6"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="7"/>
       <c r="B35" s="8"/>
       <c r="C35" s="8"/>
@@ -3351,7 +3351,7 @@
       <c r="V35" s="6"/>
       <c r="W35" s="6"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="7"/>
       <c r="B36" s="8"/>
       <c r="C36" s="8"/>
@@ -3376,7 +3376,7 @@
       <c r="V36" s="6"/>
       <c r="W36" s="6"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="7"/>
       <c r="B37" s="8"/>
       <c r="C37" s="8"/>
@@ -3401,7 +3401,7 @@
       <c r="V37" s="6"/>
       <c r="W37" s="6"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="7"/>
       <c r="B38" s="8"/>
       <c r="C38" s="8"/>
@@ -3426,7 +3426,7 @@
       <c r="V38" s="6"/>
       <c r="W38" s="6"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="7"/>
       <c r="B39" s="8"/>
       <c r="C39" s="8"/>
@@ -3451,7 +3451,7 @@
       <c r="V39" s="6"/>
       <c r="W39" s="6"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="7"/>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
@@ -3476,7 +3476,7 @@
       <c r="V40" s="6"/>
       <c r="W40" s="6"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="7"/>
       <c r="B41" s="8"/>
       <c r="C41" s="8"/>
@@ -3501,7 +3501,7 @@
       <c r="V41" s="6"/>
       <c r="W41" s="6"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="7"/>
       <c r="B42" s="8"/>
       <c r="C42" s="8"/>
@@ -3526,7 +3526,7 @@
       <c r="V42" s="6"/>
       <c r="W42" s="6"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="7"/>
       <c r="B43" s="8"/>
       <c r="C43" s="8"/>
@@ -3551,7 +3551,7 @@
       <c r="V43" s="6"/>
       <c r="W43" s="6"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" s="7"/>
       <c r="B44" s="8"/>
       <c r="C44" s="8"/>
@@ -3576,7 +3576,7 @@
       <c r="V44" s="6"/>
       <c r="W44" s="6"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" s="7"/>
       <c r="B45" s="8"/>
       <c r="C45" s="8"/>
@@ -3601,7 +3601,7 @@
       <c r="V45" s="6"/>
       <c r="W45" s="6"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" s="7"/>
       <c r="B46" s="8"/>
       <c r="C46" s="8"/>
@@ -3626,7 +3626,7 @@
       <c r="V46" s="6"/>
       <c r="W46" s="6"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" s="7"/>
       <c r="B47" s="8"/>
       <c r="C47" s="8"/>
@@ -3651,7 +3651,7 @@
       <c r="V47" s="6"/>
       <c r="W47" s="6"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" s="7"/>
       <c r="B48" s="8"/>
       <c r="C48" s="8"/>
@@ -3676,7 +3676,7 @@
       <c r="V48" s="6"/>
       <c r="W48" s="6"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" s="7"/>
       <c r="B49" s="8"/>
       <c r="C49" s="8"/>
@@ -3701,7 +3701,7 @@
       <c r="V49" s="6"/>
       <c r="W49" s="6"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" s="7"/>
       <c r="B50" s="8"/>
       <c r="C50" s="8"/>
@@ -3726,7 +3726,7 @@
       <c r="V50" s="6"/>
       <c r="W50" s="6"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" s="7"/>
       <c r="B51" s="8"/>
       <c r="C51" s="8"/>
@@ -3751,7 +3751,7 @@
       <c r="V51" s="6"/>
       <c r="W51" s="6"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" s="7"/>
       <c r="B52" s="8"/>
       <c r="C52" s="8"/>
@@ -3776,7 +3776,7 @@
       <c r="V52" s="6"/>
       <c r="W52" s="6"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" s="7"/>
       <c r="B53" s="8"/>
       <c r="C53" s="8"/>
@@ -3801,7 +3801,7 @@
       <c r="V53" s="6"/>
       <c r="W53" s="6"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" s="7"/>
       <c r="B54" s="8"/>
       <c r="C54" s="8"/>
@@ -3826,7 +3826,7 @@
       <c r="V54" s="6"/>
       <c r="W54" s="6"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" s="7"/>
       <c r="B55" s="8"/>
       <c r="C55" s="8"/>
@@ -3851,7 +3851,7 @@
       <c r="V55" s="6"/>
       <c r="W55" s="6"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" s="7"/>
       <c r="B56" s="8"/>
       <c r="C56" s="8"/>
@@ -3876,7 +3876,7 @@
       <c r="V56" s="6"/>
       <c r="W56" s="6"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="7"/>
       <c r="B57" s="8"/>
       <c r="C57" s="8"/>
@@ -3901,7 +3901,7 @@
       <c r="V57" s="6"/>
       <c r="W57" s="6"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" s="7"/>
       <c r="B58" s="8"/>
       <c r="C58" s="8"/>
@@ -3926,7 +3926,7 @@
       <c r="V58" s="6"/>
       <c r="W58" s="6"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" s="7"/>
       <c r="B59" s="8"/>
       <c r="C59" s="8"/>
@@ -3951,7 +3951,7 @@
       <c r="V59" s="6"/>
       <c r="W59" s="6"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A60" s="7"/>
       <c r="B60" s="8"/>
       <c r="C60" s="8"/>
@@ -3976,7 +3976,7 @@
       <c r="V60" s="6"/>
       <c r="W60" s="6"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A61" s="7"/>
       <c r="B61" s="8"/>
       <c r="C61" s="8"/>
@@ -4001,7 +4001,7 @@
       <c r="V61" s="6"/>
       <c r="W61" s="6"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A62" s="7"/>
       <c r="B62" s="8"/>
       <c r="C62" s="8"/>
@@ -4026,7 +4026,7 @@
       <c r="V62" s="6"/>
       <c r="W62" s="6"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A63" s="7"/>
       <c r="B63" s="8"/>
       <c r="C63" s="8"/>
@@ -4051,7 +4051,7 @@
       <c r="V63" s="6"/>
       <c r="W63" s="6"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A64" s="7"/>
       <c r="B64" s="8"/>
       <c r="C64" s="8"/>
@@ -4076,7 +4076,7 @@
       <c r="V64" s="6"/>
       <c r="W64" s="6"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A65" s="7"/>
       <c r="B65" s="8"/>
       <c r="C65" s="8"/>
@@ -4101,7 +4101,7 @@
       <c r="V65" s="6"/>
       <c r="W65" s="6"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A66" s="7"/>
       <c r="B66" s="8"/>
       <c r="C66" s="8"/>
@@ -4126,7 +4126,7 @@
       <c r="V66" s="6"/>
       <c r="W66" s="6"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A67" s="7"/>
       <c r="B67" s="8"/>
       <c r="C67" s="8"/>
@@ -4151,7 +4151,7 @@
       <c r="V67" s="6"/>
       <c r="W67" s="6"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68" s="7"/>
       <c r="B68" s="8"/>
       <c r="C68" s="8"/>
@@ -4176,7 +4176,7 @@
       <c r="V68" s="6"/>
       <c r="W68" s="6"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A69" s="7"/>
       <c r="B69" s="8"/>
       <c r="C69" s="8"/>
@@ -4201,7 +4201,7 @@
       <c r="V69" s="6"/>
       <c r="W69" s="6"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A70" s="7"/>
       <c r="B70" s="8"/>
       <c r="C70" s="8"/>
@@ -4226,7 +4226,7 @@
       <c r="V70" s="6"/>
       <c r="W70" s="6"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A71" s="7"/>
       <c r="B71" s="8"/>
       <c r="C71" s="8"/>
@@ -4251,7 +4251,7 @@
       <c r="V71" s="6"/>
       <c r="W71" s="6"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A72" s="7"/>
       <c r="B72" s="8"/>
       <c r="C72" s="8"/>
@@ -4276,7 +4276,7 @@
       <c r="V72" s="6"/>
       <c r="W72" s="6"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A73" s="7"/>
       <c r="B73" s="8"/>
       <c r="C73" s="8"/>
@@ -4301,7 +4301,7 @@
       <c r="V73" s="6"/>
       <c r="W73" s="6"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A74" s="7"/>
       <c r="B74" s="8"/>
       <c r="C74" s="8"/>
@@ -4326,7 +4326,7 @@
       <c r="V74" s="6"/>
       <c r="W74" s="6"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A75" s="7"/>
       <c r="B75" s="8"/>
       <c r="C75" s="8"/>
@@ -4351,7 +4351,7 @@
       <c r="V75" s="6"/>
       <c r="W75" s="6"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A76" s="7"/>
       <c r="B76" s="8"/>
       <c r="C76" s="8"/>
@@ -4376,7 +4376,7 @@
       <c r="V76" s="6"/>
       <c r="W76" s="6"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A77" s="7"/>
       <c r="B77" s="8"/>
       <c r="C77" s="8"/>
@@ -4401,7 +4401,7 @@
       <c r="V77" s="6"/>
       <c r="W77" s="6"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A78" s="7"/>
       <c r="B78" s="8"/>
       <c r="C78" s="8"/>
@@ -4426,7 +4426,7 @@
       <c r="V78" s="6"/>
       <c r="W78" s="6"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A79" s="7"/>
       <c r="B79" s="8"/>
       <c r="C79" s="8"/>
@@ -4451,7 +4451,7 @@
       <c r="V79" s="6"/>
       <c r="W79" s="6"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A80" s="7"/>
       <c r="B80" s="8"/>
       <c r="C80" s="8"/>
@@ -4476,7 +4476,7 @@
       <c r="V80" s="6"/>
       <c r="W80" s="6"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A81" s="7"/>
       <c r="B81" s="8"/>
       <c r="C81" s="8"/>
@@ -4501,7 +4501,7 @@
       <c r="V81" s="6"/>
       <c r="W81" s="6"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A82" s="7"/>
       <c r="B82" s="8"/>
       <c r="C82" s="8"/>
@@ -4526,7 +4526,7 @@
       <c r="V82" s="6"/>
       <c r="W82" s="6"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A83" s="7"/>
       <c r="B83" s="8"/>
       <c r="C83" s="8"/>
@@ -4551,7 +4551,7 @@
       <c r="V83" s="6"/>
       <c r="W83" s="6"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A84" s="7"/>
       <c r="B84" s="8"/>
       <c r="C84" s="8"/>
@@ -4576,7 +4576,7 @@
       <c r="V84" s="6"/>
       <c r="W84" s="6"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A85" s="7"/>
       <c r="B85" s="8"/>
       <c r="C85" s="8"/>
@@ -4601,7 +4601,7 @@
       <c r="V85" s="6"/>
       <c r="W85" s="6"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A86" s="7"/>
       <c r="B86" s="8"/>
       <c r="C86" s="8"/>
@@ -4626,7 +4626,7 @@
       <c r="V86" s="6"/>
       <c r="W86" s="6"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A87" s="7"/>
       <c r="B87" s="8"/>
       <c r="C87" s="8"/>
@@ -4651,7 +4651,7 @@
       <c r="V87" s="6"/>
       <c r="W87" s="6"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A88" s="7"/>
       <c r="B88" s="8"/>
       <c r="C88" s="8"/>
@@ -4676,7 +4676,7 @@
       <c r="V88" s="6"/>
       <c r="W88" s="6"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A89" s="7"/>
       <c r="B89" s="8"/>
       <c r="C89" s="8"/>
@@ -4701,7 +4701,7 @@
       <c r="V89" s="6"/>
       <c r="W89" s="6"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A90" s="7"/>
       <c r="B90" s="8"/>
       <c r="C90" s="8"/>
@@ -4726,7 +4726,7 @@
       <c r="V90" s="6"/>
       <c r="W90" s="6"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A91" s="7"/>
       <c r="B91" s="8"/>
       <c r="C91" s="8"/>
@@ -4751,7 +4751,7 @@
       <c r="V91" s="6"/>
       <c r="W91" s="6"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A92" s="7"/>
       <c r="B92" s="8"/>
       <c r="C92" s="8"/>
@@ -4776,7 +4776,7 @@
       <c r="V92" s="6"/>
       <c r="W92" s="6"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A93" s="7"/>
       <c r="B93" s="8"/>
       <c r="C93" s="8"/>
@@ -4801,7 +4801,7 @@
       <c r="V93" s="6"/>
       <c r="W93" s="6"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A94" s="7"/>
       <c r="B94" s="8"/>
       <c r="C94" s="8"/>
@@ -4826,7 +4826,7 @@
       <c r="V94" s="6"/>
       <c r="W94" s="6"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A95" s="7"/>
       <c r="B95" s="8"/>
       <c r="C95" s="8"/>
@@ -4851,7 +4851,7 @@
       <c r="V95" s="6"/>
       <c r="W95" s="6"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A96" s="7"/>
       <c r="B96" s="8"/>
       <c r="C96" s="8"/>
@@ -4876,7 +4876,7 @@
       <c r="V96" s="6"/>
       <c r="W96" s="6"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A97" s="7"/>
       <c r="B97" s="8"/>
       <c r="C97" s="8"/>
@@ -4901,7 +4901,7 @@
       <c r="V97" s="6"/>
       <c r="W97" s="6"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A98" s="7"/>
       <c r="B98" s="8"/>
       <c r="C98" s="8"/>
@@ -4926,7 +4926,7 @@
       <c r="V98" s="6"/>
       <c r="W98" s="6"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A99" s="7"/>
       <c r="B99" s="8"/>
       <c r="C99" s="8"/>
@@ -4951,7 +4951,7 @@
       <c r="V99" s="6"/>
       <c r="W99" s="6"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A100" s="7"/>
       <c r="B100" s="8"/>
       <c r="C100" s="8"/>
@@ -4976,7 +4976,7 @@
       <c r="V100" s="6"/>
       <c r="W100" s="6"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A101" s="9"/>
       <c r="B101" s="10"/>
       <c r="C101" s="10"/>
@@ -5001,7 +5001,7 @@
       <c r="V101" s="22"/>
       <c r="W101" s="22"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A102" s="9"/>
       <c r="B102" s="10"/>
       <c r="C102" s="10"/>
@@ -5026,7 +5026,7 @@
       <c r="V102" s="22"/>
       <c r="W102" s="22"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A103" s="7"/>
       <c r="B103" s="8"/>
       <c r="C103" s="8"/>
@@ -5051,7 +5051,7 @@
       <c r="V103" s="6"/>
       <c r="W103" s="6"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A104" s="7"/>
       <c r="B104" s="8"/>
       <c r="C104" s="8"/>
@@ -5076,7 +5076,7 @@
       <c r="V104" s="6"/>
       <c r="W104" s="6"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A105" s="7"/>
       <c r="B105" s="8"/>
       <c r="C105" s="8"/>
@@ -5101,7 +5101,7 @@
       <c r="V105" s="6"/>
       <c r="W105" s="6"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A106" s="7"/>
       <c r="B106" s="8"/>
       <c r="C106" s="8"/>
@@ -5126,7 +5126,7 @@
       <c r="V106" s="6"/>
       <c r="W106" s="6"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A107" s="7"/>
       <c r="B107" s="8"/>
       <c r="C107" s="8"/>
@@ -5151,7 +5151,7 @@
       <c r="V107" s="6"/>
       <c r="W107" s="6"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A108" s="7"/>
       <c r="B108" s="8"/>
       <c r="C108" s="8"/>
@@ -5176,7 +5176,7 @@
       <c r="V108" s="6"/>
       <c r="W108" s="6"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A109" s="9"/>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
@@ -5201,7 +5201,7 @@
       <c r="V109" s="22"/>
       <c r="W109" s="22"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A110" s="7"/>
       <c r="B110" s="8"/>
       <c r="C110" s="8"/>
@@ -5226,7 +5226,7 @@
       <c r="V110" s="6"/>
       <c r="W110" s="6"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A111" s="7"/>
       <c r="B111" s="8"/>
       <c r="C111" s="8"/>
@@ -5251,7 +5251,7 @@
       <c r="V111" s="6"/>
       <c r="W111" s="6"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A112" s="7"/>
       <c r="B112" s="8"/>
       <c r="C112" s="8"/>
@@ -5276,7 +5276,7 @@
       <c r="V112" s="6"/>
       <c r="W112" s="6"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A113" s="7"/>
       <c r="B113" s="8"/>
       <c r="C113" s="8"/>
@@ -5301,7 +5301,7 @@
       <c r="V113" s="6"/>
       <c r="W113" s="6"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A114" s="7"/>
       <c r="B114" s="8"/>
       <c r="C114" s="8"/>
@@ -5326,7 +5326,7 @@
       <c r="V114" s="6"/>
       <c r="W114" s="6"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A115" s="7"/>
       <c r="B115" s="8"/>
       <c r="C115" s="8"/>
@@ -5351,7 +5351,7 @@
       <c r="V115" s="6"/>
       <c r="W115" s="6"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A116" s="7"/>
       <c r="B116" s="8"/>
       <c r="C116" s="8"/>
@@ -5376,7 +5376,7 @@
       <c r="V116" s="6"/>
       <c r="W116" s="6"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A117" s="7"/>
       <c r="B117" s="8"/>
       <c r="C117" s="8"/>
@@ -5401,7 +5401,7 @@
       <c r="V117" s="6"/>
       <c r="W117" s="6"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A118" s="7"/>
       <c r="B118" s="8"/>
       <c r="C118" s="8"/>
@@ -5426,7 +5426,7 @@
       <c r="V118" s="6"/>
       <c r="W118" s="6"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A119" s="7"/>
       <c r="B119" s="8"/>
       <c r="C119" s="8"/>
@@ -5451,7 +5451,7 @@
       <c r="V119" s="6"/>
       <c r="W119" s="6"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A120" s="7"/>
       <c r="B120" s="8"/>
       <c r="C120" s="8"/>
@@ -5476,7 +5476,7 @@
       <c r="V120" s="6"/>
       <c r="W120" s="6"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A121" s="7"/>
       <c r="B121" s="8"/>
       <c r="C121" s="8"/>
@@ -5501,7 +5501,7 @@
       <c r="V121" s="6"/>
       <c r="W121" s="6"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A122" s="7"/>
       <c r="B122" s="8"/>
       <c r="C122" s="8"/>
@@ -5526,7 +5526,7 @@
       <c r="V122" s="6"/>
       <c r="W122" s="6"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A123" s="7"/>
       <c r="B123" s="8"/>
       <c r="C123" s="8"/>
@@ -5551,7 +5551,7 @@
       <c r="V123" s="6"/>
       <c r="W123" s="6"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A124" s="7"/>
       <c r="B124" s="8"/>
       <c r="C124" s="8"/>
@@ -5576,7 +5576,7 @@
       <c r="V124" s="6"/>
       <c r="W124" s="6"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A125" s="7"/>
       <c r="B125" s="8"/>
       <c r="C125" s="8"/>
@@ -5601,7 +5601,7 @@
       <c r="V125" s="6"/>
       <c r="W125" s="6"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A126" s="7"/>
       <c r="B126" s="8"/>
       <c r="C126" s="8"/>
@@ -5626,7 +5626,7 @@
       <c r="V126" s="6"/>
       <c r="W126" s="6"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A127" s="7"/>
       <c r="B127" s="8"/>
       <c r="C127" s="8"/>
@@ -5651,7 +5651,7 @@
       <c r="V127" s="6"/>
       <c r="W127" s="6"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A128" s="7"/>
       <c r="B128" s="8"/>
       <c r="C128" s="8"/>
@@ -5676,7 +5676,7 @@
       <c r="V128" s="6"/>
       <c r="W128" s="6"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A129" s="7"/>
       <c r="B129" s="8"/>
       <c r="C129" s="8"/>
@@ -5701,7 +5701,7 @@
       <c r="V129" s="6"/>
       <c r="W129" s="6"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A130" s="7"/>
       <c r="B130" s="8"/>
       <c r="C130" s="8"/>
@@ -5726,7 +5726,7 @@
       <c r="V130" s="6"/>
       <c r="W130" s="6"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A131" s="7"/>
       <c r="B131" s="8"/>
       <c r="C131" s="8"/>
@@ -5751,7 +5751,7 @@
       <c r="V131" s="6"/>
       <c r="W131" s="6"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A132" s="7"/>
       <c r="B132" s="8"/>
       <c r="C132" s="8"/>
@@ -5776,7 +5776,7 @@
       <c r="V132" s="6"/>
       <c r="W132" s="6"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A133" s="7"/>
       <c r="B133" s="8"/>
       <c r="C133" s="8"/>
@@ -5801,7 +5801,7 @@
       <c r="V133" s="6"/>
       <c r="W133" s="6"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A134" s="7"/>
       <c r="B134" s="8"/>
       <c r="C134" s="8"/>
@@ -5826,7 +5826,7 @@
       <c r="V134" s="6"/>
       <c r="W134" s="6"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A135" s="7"/>
       <c r="B135" s="8"/>
       <c r="C135" s="8"/>
@@ -5851,7 +5851,7 @@
       <c r="V135" s="6"/>
       <c r="W135" s="6"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A136" s="7"/>
       <c r="B136" s="8"/>
       <c r="C136" s="8"/>
@@ -5876,7 +5876,7 @@
       <c r="V136" s="6"/>
       <c r="W136" s="6"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A137" s="7"/>
       <c r="B137" s="8"/>
       <c r="C137" s="8"/>
@@ -5901,7 +5901,7 @@
       <c r="V137" s="6"/>
       <c r="W137" s="6"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A138" s="7"/>
       <c r="B138" s="8"/>
       <c r="C138" s="8"/>
@@ -5926,7 +5926,7 @@
       <c r="V138" s="6"/>
       <c r="W138" s="6"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A139" s="7"/>
       <c r="B139" s="8"/>
       <c r="C139" s="8"/>
@@ -5951,7 +5951,7 @@
       <c r="V139" s="6"/>
       <c r="W139" s="6"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A140" s="7"/>
       <c r="B140" s="8"/>
       <c r="C140" s="8"/>
@@ -5976,7 +5976,7 @@
       <c r="V140" s="6"/>
       <c r="W140" s="6"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A141" s="7"/>
       <c r="B141" s="8"/>
       <c r="C141" s="8"/>
@@ -6001,7 +6001,7 @@
       <c r="V141" s="6"/>
       <c r="W141" s="6"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A142" s="7"/>
       <c r="B142" s="8"/>
       <c r="C142" s="8"/>
@@ -6026,7 +6026,7 @@
       <c r="V142" s="6"/>
       <c r="W142" s="6"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A143" s="7"/>
       <c r="B143" s="8"/>
       <c r="C143" s="8"/>
@@ -6051,7 +6051,7 @@
       <c r="V143" s="6"/>
       <c r="W143" s="6"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A144" s="7"/>
       <c r="B144" s="8"/>
       <c r="C144" s="8"/>
@@ -6076,7 +6076,7 @@
       <c r="V144" s="6"/>
       <c r="W144" s="6"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A145" s="7"/>
       <c r="B145" s="8"/>
       <c r="C145" s="8"/>
@@ -6101,7 +6101,7 @@
       <c r="V145" s="6"/>
       <c r="W145" s="6"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A146" s="7"/>
       <c r="B146" s="8"/>
       <c r="C146" s="8"/>
@@ -6126,7 +6126,7 @@
       <c r="V146" s="6"/>
       <c r="W146" s="6"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A147" s="7"/>
       <c r="B147" s="8"/>
       <c r="C147" s="8"/>
@@ -6151,7 +6151,7 @@
       <c r="V147" s="6"/>
       <c r="W147" s="6"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A148" s="7"/>
       <c r="B148" s="8"/>
       <c r="C148" s="8"/>
@@ -6176,7 +6176,7 @@
       <c r="V148" s="6"/>
       <c r="W148" s="6"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A149" s="7"/>
       <c r="B149" s="8"/>
       <c r="C149" s="8"/>
@@ -6201,7 +6201,7 @@
       <c r="V149" s="6"/>
       <c r="W149" s="6"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A150" s="7"/>
       <c r="B150" s="8"/>
       <c r="C150" s="8"/>
@@ -6226,7 +6226,7 @@
       <c r="V150" s="6"/>
       <c r="W150" s="6"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A151" s="7"/>
       <c r="B151" s="8"/>
       <c r="C151" s="8"/>
@@ -6251,7 +6251,7 @@
       <c r="V151" s="6"/>
       <c r="W151" s="6"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A152" s="7"/>
       <c r="B152" s="8"/>
       <c r="C152" s="8"/>
@@ -6276,7 +6276,7 @@
       <c r="V152" s="6"/>
       <c r="W152" s="6"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A153" s="7"/>
       <c r="B153" s="8"/>
       <c r="C153" s="8"/>
@@ -6301,7 +6301,7 @@
       <c r="V153" s="6"/>
       <c r="W153" s="6"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A154" s="7"/>
       <c r="B154" s="8"/>
       <c r="C154" s="8"/>
@@ -6326,7 +6326,7 @@
       <c r="V154" s="6"/>
       <c r="W154" s="6"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A155" s="7"/>
       <c r="B155" s="8"/>
       <c r="C155" s="8"/>
@@ -6351,7 +6351,7 @@
       <c r="V155" s="6"/>
       <c r="W155" s="6"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A156" s="7"/>
       <c r="B156" s="8"/>
       <c r="C156" s="8"/>
@@ -6376,7 +6376,7 @@
       <c r="V156" s="6"/>
       <c r="W156" s="6"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A157" s="7"/>
       <c r="B157" s="8"/>
       <c r="C157" s="8"/>
@@ -6401,7 +6401,7 @@
       <c r="V157" s="6"/>
       <c r="W157" s="6"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A158" s="7"/>
       <c r="B158" s="8"/>
       <c r="C158" s="8"/>
@@ -6426,7 +6426,7 @@
       <c r="V158" s="6"/>
       <c r="W158" s="6"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A159" s="7"/>
       <c r="B159" s="8"/>
       <c r="C159" s="8"/>
@@ -6451,7 +6451,7 @@
       <c r="V159" s="6"/>
       <c r="W159" s="6"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A160" s="7"/>
       <c r="B160" s="8"/>
       <c r="C160" s="8"/>
@@ -6476,7 +6476,7 @@
       <c r="V160" s="6"/>
       <c r="W160" s="6"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A161" s="7"/>
       <c r="B161" s="8"/>
       <c r="C161" s="8"/>
@@ -6501,7 +6501,7 @@
       <c r="V161" s="6"/>
       <c r="W161" s="6"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A162" s="7"/>
       <c r="B162" s="8"/>
       <c r="C162" s="8"/>
@@ -6526,7 +6526,7 @@
       <c r="V162" s="6"/>
       <c r="W162" s="6"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A163" s="7"/>
       <c r="B163" s="8"/>
       <c r="C163" s="8"/>
@@ -6551,7 +6551,7 @@
       <c r="V163" s="6"/>
       <c r="W163" s="6"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A164" s="7"/>
       <c r="B164" s="8"/>
       <c r="C164" s="8"/>
@@ -6576,7 +6576,7 @@
       <c r="V164" s="6"/>
       <c r="W164" s="6"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A165" s="7"/>
       <c r="B165" s="8"/>
       <c r="C165" s="8"/>
@@ -6601,7 +6601,7 @@
       <c r="V165" s="6"/>
       <c r="W165" s="6"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A166" s="7"/>
       <c r="B166" s="8"/>
       <c r="C166" s="8"/>
@@ -6626,7 +6626,7 @@
       <c r="V166" s="6"/>
       <c r="W166" s="6"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A167" s="7"/>
       <c r="B167" s="8"/>
       <c r="C167" s="8"/>
@@ -6651,7 +6651,7 @@
       <c r="V167" s="6"/>
       <c r="W167" s="6"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A168" s="7"/>
       <c r="B168" s="8"/>
       <c r="C168" s="8"/>
@@ -6676,7 +6676,7 @@
       <c r="V168" s="6"/>
       <c r="W168" s="6"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A169" s="7"/>
       <c r="B169" s="8"/>
       <c r="C169" s="8"/>
@@ -6701,7 +6701,7 @@
       <c r="V169" s="6"/>
       <c r="W169" s="6"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A170" s="7"/>
       <c r="B170" s="8"/>
       <c r="C170" s="8"/>
@@ -6726,7 +6726,7 @@
       <c r="V170" s="6"/>
       <c r="W170" s="6"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A171" s="7"/>
       <c r="B171" s="8"/>
       <c r="C171" s="8"/>
@@ -6751,7 +6751,7 @@
       <c r="V171" s="6"/>
       <c r="W171" s="6"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A172" s="7"/>
       <c r="B172" s="8"/>
       <c r="C172" s="8"/>
@@ -6776,7 +6776,7 @@
       <c r="V172" s="6"/>
       <c r="W172" s="6"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A173" s="7"/>
       <c r="B173" s="8"/>
       <c r="C173" s="8"/>
@@ -6801,7 +6801,7 @@
       <c r="V173" s="6"/>
       <c r="W173" s="6"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A174" s="7"/>
       <c r="B174" s="8"/>
       <c r="C174" s="8"/>
@@ -6826,7 +6826,7 @@
       <c r="V174" s="6"/>
       <c r="W174" s="6"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A175" s="7"/>
       <c r="B175" s="8"/>
       <c r="C175" s="8"/>
@@ -6851,7 +6851,7 @@
       <c r="V175" s="6"/>
       <c r="W175" s="6"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A176" s="7"/>
       <c r="B176" s="8"/>
       <c r="C176" s="8"/>
@@ -6876,7 +6876,7 @@
       <c r="V176" s="6"/>
       <c r="W176" s="6"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A177" s="7"/>
       <c r="B177" s="8"/>
       <c r="C177" s="8"/>
@@ -6901,7 +6901,7 @@
       <c r="V177" s="6"/>
       <c r="W177" s="6"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A178" s="7"/>
       <c r="B178" s="8"/>
       <c r="C178" s="8"/>
@@ -6926,7 +6926,7 @@
       <c r="V178" s="6"/>
       <c r="W178" s="6"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A179" s="7"/>
       <c r="B179" s="8"/>
       <c r="C179" s="8"/>
@@ -6951,7 +6951,7 @@
       <c r="V179" s="6"/>
       <c r="W179" s="6"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A180" s="7"/>
       <c r="B180" s="8"/>
       <c r="C180" s="8"/>
@@ -6976,7 +6976,7 @@
       <c r="V180" s="6"/>
       <c r="W180" s="6"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A181" s="7"/>
       <c r="B181" s="8"/>
       <c r="C181" s="8"/>
@@ -7001,7 +7001,7 @@
       <c r="V181" s="6"/>
       <c r="W181" s="6"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A182" s="7"/>
       <c r="B182" s="8"/>
       <c r="C182" s="8"/>
@@ -7026,7 +7026,7 @@
       <c r="V182" s="6"/>
       <c r="W182" s="6"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A183" s="7"/>
       <c r="B183" s="8"/>
       <c r="C183" s="8"/>
@@ -7051,7 +7051,7 @@
       <c r="V183" s="6"/>
       <c r="W183" s="6"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A184" s="7"/>
       <c r="B184" s="8"/>
       <c r="C184" s="8"/>
@@ -7076,7 +7076,7 @@
       <c r="V184" s="6"/>
       <c r="W184" s="6"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A185" s="7"/>
       <c r="B185" s="8"/>
       <c r="C185" s="8"/>
@@ -7101,7 +7101,7 @@
       <c r="V185" s="6"/>
       <c r="W185" s="6"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A186" s="7"/>
       <c r="B186" s="8"/>
       <c r="C186" s="8"/>
@@ -7126,7 +7126,7 @@
       <c r="V186" s="6"/>
       <c r="W186" s="6"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A187" s="7"/>
       <c r="B187" s="8"/>
       <c r="C187" s="8"/>
@@ -7151,7 +7151,7 @@
       <c r="V187" s="6"/>
       <c r="W187" s="6"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A188" s="7"/>
       <c r="B188" s="8"/>
       <c r="C188" s="8"/>
@@ -7176,7 +7176,7 @@
       <c r="V188" s="6"/>
       <c r="W188" s="6"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A189" s="7"/>
       <c r="B189" s="8"/>
       <c r="C189" s="8"/>
@@ -7201,7 +7201,7 @@
       <c r="V189" s="6"/>
       <c r="W189" s="6"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A190" s="7"/>
       <c r="B190" s="8"/>
       <c r="C190" s="8"/>
@@ -7226,7 +7226,7 @@
       <c r="V190" s="6"/>
       <c r="W190" s="6"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A191" s="7"/>
       <c r="B191" s="8"/>
       <c r="C191" s="8"/>
@@ -7251,7 +7251,7 @@
       <c r="V191" s="6"/>
       <c r="W191" s="6"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A192" s="7"/>
       <c r="B192" s="8"/>
       <c r="C192" s="8"/>
@@ -7276,7 +7276,7 @@
       <c r="V192" s="6"/>
       <c r="W192" s="6"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A193" s="7"/>
       <c r="B193" s="8"/>
       <c r="C193" s="8"/>
@@ -7301,7 +7301,7 @@
       <c r="V193" s="6"/>
       <c r="W193" s="6"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A194" s="7"/>
       <c r="B194" s="8"/>
       <c r="C194" s="8"/>
@@ -7326,7 +7326,7 @@
       <c r="V194" s="6"/>
       <c r="W194" s="6"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A195" s="7"/>
       <c r="B195" s="8"/>
       <c r="C195" s="8"/>
@@ -7351,7 +7351,7 @@
       <c r="V195" s="6"/>
       <c r="W195" s="6"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A196" s="7"/>
       <c r="B196" s="8"/>
       <c r="C196" s="8"/>
@@ -7376,7 +7376,7 @@
       <c r="V196" s="6"/>
       <c r="W196" s="6"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A197" s="7"/>
       <c r="B197" s="8"/>
       <c r="C197" s="8"/>
@@ -7401,7 +7401,7 @@
       <c r="V197" s="6"/>
       <c r="W197" s="6"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A198" s="7"/>
       <c r="B198" s="8"/>
       <c r="C198" s="8"/>
@@ -7426,7 +7426,7 @@
       <c r="V198" s="6"/>
       <c r="W198" s="6"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A199" s="7"/>
       <c r="B199" s="8"/>
       <c r="C199" s="8"/>
@@ -7451,7 +7451,7 @@
       <c r="V199" s="6"/>
       <c r="W199" s="6"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A200" s="7"/>
       <c r="B200" s="8"/>
       <c r="C200" s="8"/>
@@ -7476,7 +7476,7 @@
       <c r="V200" s="6"/>
       <c r="W200" s="6"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A201" s="9"/>
       <c r="B201" s="10"/>
       <c r="C201" s="10"/>
@@ -7546,26 +7546,26 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="2" width="25.75" style="1" customWidth="1"/>
     <col min="3" max="3" width="15.5" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.5" style="20" customWidth="1"/>
-    <col min="5" max="5" width="28.1640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="28.125" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.5" customWidth="1"/>
     <col min="7" max="7" width="36.25" customWidth="1"/>
     <col min="8" max="8" width="25.5" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
     <col min="10" max="13" width="25.5" customWidth="1"/>
     <col min="14" max="14" width="15.5" customWidth="1"/>
-    <col min="15" max="15" width="27.4140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="31.1640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="27.375" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="31.125" bestFit="1" customWidth="1"/>
     <col min="17" max="21" width="25.5" customWidth="1"/>
     <col min="22" max="22" width="15.5" customWidth="1"/>
     <col min="23" max="23" width="45.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>23</v>
       </c>
@@ -7636,7 +7636,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A2" s="11"/>
       <c r="B2" s="13"/>
       <c r="C2" s="13"/>
@@ -7661,7 +7661,7 @@
       <c r="V2" s="8"/>
       <c r="W2" s="5"/>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A3" s="11"/>
       <c r="B3" s="13"/>
       <c r="C3" s="13"/>
@@ -7686,7 +7686,7 @@
       <c r="V3" s="8"/>
       <c r="W3" s="5"/>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A4" s="11"/>
       <c r="B4" s="13"/>
       <c r="C4" s="13"/>
@@ -7711,7 +7711,7 @@
       <c r="V4" s="5"/>
       <c r="W4" s="5"/>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A5" s="11"/>
       <c r="B5" s="13"/>
       <c r="C5" s="13"/>
@@ -7736,7 +7736,7 @@
       <c r="V5" s="5"/>
       <c r="W5" s="5"/>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A6" s="11"/>
       <c r="B6" s="13"/>
       <c r="C6" s="13"/>
@@ -7761,7 +7761,7 @@
       <c r="V6" s="8"/>
       <c r="W6" s="5"/>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="13"/>
       <c r="C7" s="13"/>
@@ -7786,7 +7786,7 @@
       <c r="V7" s="8"/>
       <c r="W7" s="5"/>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="13"/>
       <c r="C8" s="13"/>
@@ -7811,7 +7811,7 @@
       <c r="V8" s="8"/>
       <c r="W8" s="5"/>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="13"/>
       <c r="C9" s="13"/>
@@ -7836,7 +7836,7 @@
       <c r="V9" s="8"/>
       <c r="W9" s="5"/>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="13"/>
       <c r="C10" s="13"/>
@@ -7861,7 +7861,7 @@
       <c r="V10" s="8"/>
       <c r="W10" s="5"/>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="13"/>
       <c r="C11" s="13"/>
@@ -7886,7 +7886,7 @@
       <c r="V11" s="8"/>
       <c r="W11" s="5"/>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="13"/>
       <c r="C12" s="13"/>
@@ -7911,7 +7911,7 @@
       <c r="V12" s="8"/>
       <c r="W12" s="5"/>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="13"/>
       <c r="C13" s="13"/>
@@ -7936,7 +7936,7 @@
       <c r="V13" s="8"/>
       <c r="W13" s="5"/>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="13"/>
       <c r="C14" s="13"/>
@@ -7961,7 +7961,7 @@
       <c r="V14" s="8"/>
       <c r="W14" s="5"/>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="13"/>
       <c r="C15" s="13"/>
@@ -7986,7 +7986,7 @@
       <c r="V15" s="8"/>
       <c r="W15" s="5"/>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="13"/>
       <c r="C16" s="13"/>
@@ -8011,7 +8011,7 @@
       <c r="V16" s="8"/>
       <c r="W16" s="5"/>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="13"/>
       <c r="C17" s="13"/>
@@ -8036,7 +8036,7 @@
       <c r="V17" s="8"/>
       <c r="W17" s="5"/>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="13"/>
       <c r="C18" s="13"/>
@@ -8061,7 +8061,7 @@
       <c r="V18" s="8"/>
       <c r="W18" s="5"/>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="13"/>
       <c r="C19" s="13"/>
@@ -8086,7 +8086,7 @@
       <c r="V19" s="8"/>
       <c r="W19" s="5"/>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="13"/>
       <c r="C20" s="13"/>
@@ -8111,7 +8111,7 @@
       <c r="V20" s="8"/>
       <c r="W20" s="5"/>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A21" s="11"/>
       <c r="B21" s="13"/>
       <c r="C21" s="13"/>
@@ -8136,7 +8136,7 @@
       <c r="V21" s="8"/>
       <c r="W21" s="5"/>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="13"/>
       <c r="C22" s="13"/>
@@ -8161,7 +8161,7 @@
       <c r="V22" s="8"/>
       <c r="W22" s="5"/>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
@@ -8186,7 +8186,7 @@
       <c r="V23" s="8"/>
       <c r="W23" s="5"/>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>
@@ -8211,7 +8211,7 @@
       <c r="V24" s="8"/>
       <c r="W24" s="5"/>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="13"/>
       <c r="C25" s="13"/>
@@ -8236,7 +8236,7 @@
       <c r="V25" s="8"/>
       <c r="W25" s="5"/>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="13"/>
       <c r="C26" s="13"/>
@@ -8261,7 +8261,7 @@
       <c r="V26" s="8"/>
       <c r="W26" s="5"/>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="13"/>
       <c r="C27" s="13"/>
@@ -8286,7 +8286,7 @@
       <c r="V27" s="8"/>
       <c r="W27" s="5"/>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="13"/>
       <c r="C28" s="13"/>
@@ -8311,7 +8311,7 @@
       <c r="V28" s="8"/>
       <c r="W28" s="5"/>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="13"/>
       <c r="C29" s="13"/>
@@ -8336,7 +8336,7 @@
       <c r="V29" s="8"/>
       <c r="W29" s="5"/>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="13"/>
       <c r="C30" s="13"/>
@@ -8361,7 +8361,7 @@
       <c r="V30" s="8"/>
       <c r="W30" s="5"/>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="13"/>
       <c r="C31" s="13"/>
@@ -8386,7 +8386,7 @@
       <c r="V31" s="8"/>
       <c r="W31" s="5"/>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="13"/>
       <c r="C32" s="13"/>
@@ -8411,7 +8411,7 @@
       <c r="V32" s="8"/>
       <c r="W32" s="5"/>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
@@ -8436,7 +8436,7 @@
       <c r="V33" s="8"/>
       <c r="W33" s="5"/>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="13"/>
       <c r="C34" s="13"/>
@@ -8461,7 +8461,7 @@
       <c r="V34" s="8"/>
       <c r="W34" s="5"/>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="13"/>
       <c r="C35" s="13"/>
@@ -8486,7 +8486,7 @@
       <c r="V35" s="8"/>
       <c r="W35" s="5"/>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="13"/>
       <c r="C36" s="13"/>
@@ -8511,7 +8511,7 @@
       <c r="V36" s="8"/>
       <c r="W36" s="5"/>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="13"/>
       <c r="C37" s="13"/>
@@ -8536,7 +8536,7 @@
       <c r="V37" s="8"/>
       <c r="W37" s="5"/>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="13"/>
       <c r="C38" s="13"/>
@@ -8561,7 +8561,7 @@
       <c r="V38" s="8"/>
       <c r="W38" s="5"/>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="13"/>
       <c r="C39" s="13"/>
@@ -8586,7 +8586,7 @@
       <c r="V39" s="8"/>
       <c r="W39" s="5"/>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="13"/>
       <c r="C40" s="13"/>
@@ -8611,7 +8611,7 @@
       <c r="V40" s="8"/>
       <c r="W40" s="5"/>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="13"/>
       <c r="C41" s="13"/>
@@ -8636,7 +8636,7 @@
       <c r="V41" s="8"/>
       <c r="W41" s="5"/>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="13"/>
       <c r="C42" s="13"/>
@@ -8661,7 +8661,7 @@
       <c r="V42" s="8"/>
       <c r="W42" s="5"/>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="13"/>
       <c r="C43" s="13"/>
@@ -8686,7 +8686,7 @@
       <c r="V43" s="8"/>
       <c r="W43" s="5"/>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="13"/>
       <c r="C44" s="13"/>
@@ -8711,7 +8711,7 @@
       <c r="V44" s="8"/>
       <c r="W44" s="5"/>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="13"/>
       <c r="C45" s="13"/>
@@ -8736,7 +8736,7 @@
       <c r="V45" s="8"/>
       <c r="W45" s="5"/>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="13"/>
       <c r="C46" s="13"/>
@@ -8761,7 +8761,7 @@
       <c r="V46" s="8"/>
       <c r="W46" s="5"/>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="13"/>
       <c r="C47" s="13"/>
@@ -8786,7 +8786,7 @@
       <c r="V47" s="8"/>
       <c r="W47" s="5"/>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="13"/>
       <c r="C48" s="13"/>
@@ -8811,7 +8811,7 @@
       <c r="V48" s="8"/>
       <c r="W48" s="5"/>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="13"/>
       <c r="C49" s="13"/>
@@ -8836,7 +8836,7 @@
       <c r="V49" s="8"/>
       <c r="W49" s="5"/>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="13"/>
       <c r="C50" s="13"/>
@@ -8861,7 +8861,7 @@
       <c r="V50" s="8"/>
       <c r="W50" s="5"/>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="13"/>
       <c r="C51" s="13"/>
@@ -8886,7 +8886,7 @@
       <c r="V51" s="8"/>
       <c r="W51" s="5"/>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="13"/>
       <c r="C52" s="13"/>
@@ -8911,7 +8911,7 @@
       <c r="V52" s="8"/>
       <c r="W52" s="5"/>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="13"/>
       <c r="C53" s="13"/>
@@ -8936,7 +8936,7 @@
       <c r="V53" s="8"/>
       <c r="W53" s="5"/>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="13"/>
       <c r="C54" s="13"/>
@@ -8961,7 +8961,7 @@
       <c r="V54" s="8"/>
       <c r="W54" s="5"/>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="13"/>
       <c r="C55" s="13"/>
@@ -8986,7 +8986,7 @@
       <c r="V55" s="8"/>
       <c r="W55" s="5"/>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="13"/>
       <c r="C56" s="13"/>
@@ -9011,7 +9011,7 @@
       <c r="V56" s="8"/>
       <c r="W56" s="5"/>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="13"/>
       <c r="C57" s="13"/>
@@ -9036,7 +9036,7 @@
       <c r="V57" s="8"/>
       <c r="W57" s="5"/>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="13"/>
       <c r="C58" s="13"/>
@@ -9061,7 +9061,7 @@
       <c r="V58" s="8"/>
       <c r="W58" s="5"/>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="13"/>
       <c r="C59" s="13"/>
@@ -9086,7 +9086,7 @@
       <c r="V59" s="8"/>
       <c r="W59" s="5"/>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="13"/>
       <c r="C60" s="13"/>
@@ -9111,7 +9111,7 @@
       <c r="V60" s="8"/>
       <c r="W60" s="5"/>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="13"/>
       <c r="C61" s="13"/>
@@ -9136,7 +9136,7 @@
       <c r="V61" s="8"/>
       <c r="W61" s="5"/>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="13"/>
       <c r="C62" s="13"/>
@@ -9161,7 +9161,7 @@
       <c r="V62" s="8"/>
       <c r="W62" s="5"/>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="13"/>
       <c r="C63" s="13"/>
@@ -9186,7 +9186,7 @@
       <c r="V63" s="8"/>
       <c r="W63" s="5"/>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="13"/>
       <c r="C64" s="13"/>
@@ -9211,7 +9211,7 @@
       <c r="V64" s="8"/>
       <c r="W64" s="5"/>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="13"/>
       <c r="C65" s="13"/>
@@ -9236,7 +9236,7 @@
       <c r="V65" s="8"/>
       <c r="W65" s="5"/>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="13"/>
       <c r="C66" s="13"/>
@@ -9261,7 +9261,7 @@
       <c r="V66" s="8"/>
       <c r="W66" s="5"/>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="13"/>
       <c r="C67" s="13"/>
@@ -9286,7 +9286,7 @@
       <c r="V67" s="8"/>
       <c r="W67" s="5"/>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="13"/>
       <c r="C68" s="13"/>
@@ -9311,7 +9311,7 @@
       <c r="V68" s="8"/>
       <c r="W68" s="5"/>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="13"/>
       <c r="C69" s="13"/>
@@ -9336,7 +9336,7 @@
       <c r="V69" s="8"/>
       <c r="W69" s="5"/>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="13"/>
       <c r="C70" s="13"/>
@@ -9361,7 +9361,7 @@
       <c r="V70" s="8"/>
       <c r="W70" s="5"/>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="13"/>
       <c r="C71" s="13"/>
@@ -9386,7 +9386,7 @@
       <c r="V71" s="8"/>
       <c r="W71" s="5"/>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="13"/>
       <c r="C72" s="13"/>
@@ -9411,7 +9411,7 @@
       <c r="V72" s="8"/>
       <c r="W72" s="5"/>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="13"/>
       <c r="C73" s="13"/>
@@ -9436,7 +9436,7 @@
       <c r="V73" s="8"/>
       <c r="W73" s="5"/>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="13"/>
       <c r="C74" s="13"/>
@@ -9461,7 +9461,7 @@
       <c r="V74" s="8"/>
       <c r="W74" s="5"/>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="13"/>
       <c r="C75" s="13"/>
@@ -9486,7 +9486,7 @@
       <c r="V75" s="8"/>
       <c r="W75" s="5"/>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="13"/>
       <c r="C76" s="13"/>
@@ -9511,7 +9511,7 @@
       <c r="V76" s="8"/>
       <c r="W76" s="5"/>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="13"/>
       <c r="C77" s="13"/>
@@ -9536,7 +9536,7 @@
       <c r="V77" s="8"/>
       <c r="W77" s="5"/>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="13"/>
       <c r="C78" s="13"/>
@@ -9561,7 +9561,7 @@
       <c r="V78" s="8"/>
       <c r="W78" s="5"/>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="13"/>
       <c r="C79" s="13"/>
@@ -9586,7 +9586,7 @@
       <c r="V79" s="8"/>
       <c r="W79" s="5"/>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="13"/>
       <c r="C80" s="13"/>
@@ -9611,7 +9611,7 @@
       <c r="V80" s="8"/>
       <c r="W80" s="5"/>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="13"/>
       <c r="C81" s="13"/>
@@ -9636,7 +9636,7 @@
       <c r="V81" s="8"/>
       <c r="W81" s="5"/>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="13"/>
       <c r="C82" s="13"/>
@@ -9661,7 +9661,7 @@
       <c r="V82" s="8"/>
       <c r="W82" s="5"/>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="13"/>
       <c r="C83" s="13"/>
@@ -9686,7 +9686,7 @@
       <c r="V83" s="8"/>
       <c r="W83" s="5"/>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="13"/>
       <c r="C84" s="13"/>
@@ -9711,7 +9711,7 @@
       <c r="V84" s="8"/>
       <c r="W84" s="5"/>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="13"/>
       <c r="C85" s="13"/>
@@ -9736,7 +9736,7 @@
       <c r="V85" s="8"/>
       <c r="W85" s="5"/>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="13"/>
       <c r="C86" s="13"/>
@@ -9761,7 +9761,7 @@
       <c r="V86" s="8"/>
       <c r="W86" s="5"/>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="13"/>
       <c r="C87" s="13"/>
@@ -9786,7 +9786,7 @@
       <c r="V87" s="8"/>
       <c r="W87" s="5"/>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="13"/>
       <c r="C88" s="13"/>
@@ -9811,7 +9811,7 @@
       <c r="V88" s="8"/>
       <c r="W88" s="5"/>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="13"/>
       <c r="C89" s="13"/>
@@ -9836,7 +9836,7 @@
       <c r="V89" s="8"/>
       <c r="W89" s="5"/>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="13"/>
       <c r="C90" s="13"/>
@@ -9861,7 +9861,7 @@
       <c r="V90" s="8"/>
       <c r="W90" s="5"/>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="13"/>
       <c r="C91" s="13"/>
@@ -9886,7 +9886,7 @@
       <c r="V91" s="8"/>
       <c r="W91" s="5"/>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="13"/>
       <c r="C92" s="13"/>
@@ -9911,7 +9911,7 @@
       <c r="V92" s="8"/>
       <c r="W92" s="5"/>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="13"/>
       <c r="C93" s="13"/>
@@ -9936,7 +9936,7 @@
       <c r="V93" s="8"/>
       <c r="W93" s="5"/>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="13"/>
       <c r="C94" s="13"/>
@@ -9961,7 +9961,7 @@
       <c r="V94" s="8"/>
       <c r="W94" s="5"/>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="13"/>
       <c r="C95" s="13"/>
@@ -9986,7 +9986,7 @@
       <c r="V95" s="8"/>
       <c r="W95" s="5"/>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="13"/>
       <c r="C96" s="13"/>
@@ -10011,7 +10011,7 @@
       <c r="V96" s="8"/>
       <c r="W96" s="5"/>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="13"/>
       <c r="C97" s="13"/>
@@ -10036,7 +10036,7 @@
       <c r="V97" s="8"/>
       <c r="W97" s="5"/>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="13"/>
       <c r="C98" s="13"/>
@@ -10061,7 +10061,7 @@
       <c r="V98" s="8"/>
       <c r="W98" s="5"/>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="13"/>
       <c r="C99" s="13"/>
@@ -10086,7 +10086,7 @@
       <c r="V99" s="8"/>
       <c r="W99" s="5"/>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="13"/>
       <c r="C100" s="13"/>
@@ -10111,7 +10111,7 @@
       <c r="V100" s="8"/>
       <c r="W100" s="5"/>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="13"/>
       <c r="C101" s="13"/>
@@ -10136,7 +10136,7 @@
       <c r="V101" s="8"/>
       <c r="W101" s="5"/>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="13"/>
       <c r="C102" s="13"/>
@@ -10161,7 +10161,7 @@
       <c r="V102" s="8"/>
       <c r="W102" s="5"/>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="13"/>
       <c r="C103" s="13"/>
@@ -10186,7 +10186,7 @@
       <c r="V103" s="8"/>
       <c r="W103" s="5"/>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="13"/>
       <c r="C104" s="13"/>
@@ -10211,7 +10211,7 @@
       <c r="V104" s="8"/>
       <c r="W104" s="5"/>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="13"/>
       <c r="C105" s="13"/>
@@ -10236,7 +10236,7 @@
       <c r="V105" s="8"/>
       <c r="W105" s="5"/>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="13"/>
       <c r="C106" s="13"/>
@@ -10261,7 +10261,7 @@
       <c r="V106" s="8"/>
       <c r="W106" s="5"/>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="13"/>
       <c r="C107" s="13"/>
@@ -10286,7 +10286,7 @@
       <c r="V107" s="8"/>
       <c r="W107" s="5"/>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="13"/>
       <c r="C108" s="13"/>
@@ -10311,7 +10311,7 @@
       <c r="V108" s="8"/>
       <c r="W108" s="5"/>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="13"/>
       <c r="C109" s="13"/>
@@ -10336,7 +10336,7 @@
       <c r="V109" s="8"/>
       <c r="W109" s="5"/>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="13"/>
       <c r="C110" s="13"/>
@@ -10361,7 +10361,7 @@
       <c r="V110" s="8"/>
       <c r="W110" s="5"/>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="13"/>
       <c r="C111" s="13"/>
@@ -10386,7 +10386,7 @@
       <c r="V111" s="8"/>
       <c r="W111" s="5"/>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="13"/>
       <c r="C112" s="13"/>
@@ -10411,7 +10411,7 @@
       <c r="V112" s="8"/>
       <c r="W112" s="5"/>
     </row>
-    <row r="113" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="13"/>
       <c r="C113" s="13"/>
@@ -10436,7 +10436,7 @@
       <c r="V113" s="8"/>
       <c r="W113" s="5"/>
     </row>
-    <row r="114" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="13"/>
       <c r="C114" s="13"/>
@@ -10461,7 +10461,7 @@
       <c r="V114" s="8"/>
       <c r="W114" s="5"/>
     </row>
-    <row r="115" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="13"/>
       <c r="C115" s="13"/>
@@ -10486,7 +10486,7 @@
       <c r="V115" s="8"/>
       <c r="W115" s="5"/>
     </row>
-    <row r="116" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="13"/>
       <c r="C116" s="13"/>
@@ -10511,7 +10511,7 @@
       <c r="V116" s="8"/>
       <c r="W116" s="5"/>
     </row>
-    <row r="117" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="13"/>
       <c r="C117" s="13"/>
@@ -10536,7 +10536,7 @@
       <c r="V117" s="8"/>
       <c r="W117" s="5"/>
     </row>
-    <row r="118" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="13"/>
       <c r="C118" s="13"/>
@@ -10561,7 +10561,7 @@
       <c r="V118" s="8"/>
       <c r="W118" s="5"/>
     </row>
-    <row r="119" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="13"/>
       <c r="C119" s="13"/>
@@ -10586,7 +10586,7 @@
       <c r="V119" s="8"/>
       <c r="W119" s="5"/>
     </row>
-    <row r="120" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="13"/>
       <c r="C120" s="13"/>
@@ -10611,7 +10611,7 @@
       <c r="V120" s="8"/>
       <c r="W120" s="5"/>
     </row>
-    <row r="121" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="13"/>
       <c r="C121" s="13"/>
@@ -10636,7 +10636,7 @@
       <c r="V121" s="8"/>
       <c r="W121" s="5"/>
     </row>
-    <row r="122" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="13"/>
       <c r="C122" s="13"/>
@@ -10661,7 +10661,7 @@
       <c r="V122" s="8"/>
       <c r="W122" s="5"/>
     </row>
-    <row r="123" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="13"/>
       <c r="C123" s="13"/>
@@ -10686,7 +10686,7 @@
       <c r="V123" s="8"/>
       <c r="W123" s="5"/>
     </row>
-    <row r="124" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="13"/>
       <c r="C124" s="13"/>
@@ -10711,7 +10711,7 @@
       <c r="V124" s="8"/>
       <c r="W124" s="5"/>
     </row>
-    <row r="125" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="13"/>
       <c r="C125" s="13"/>
@@ -10736,7 +10736,7 @@
       <c r="V125" s="8"/>
       <c r="W125" s="5"/>
     </row>
-    <row r="126" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="13"/>
       <c r="C126" s="13"/>
@@ -10761,7 +10761,7 @@
       <c r="V126" s="8"/>
       <c r="W126" s="5"/>
     </row>
-    <row r="127" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="13"/>
       <c r="C127" s="13"/>
@@ -10786,7 +10786,7 @@
       <c r="V127" s="8"/>
       <c r="W127" s="5"/>
     </row>
-    <row r="128" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="13"/>
       <c r="C128" s="13"/>
@@ -10811,7 +10811,7 @@
       <c r="V128" s="8"/>
       <c r="W128" s="5"/>
     </row>
-    <row r="129" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="13"/>
       <c r="C129" s="13"/>
@@ -10836,7 +10836,7 @@
       <c r="V129" s="8"/>
       <c r="W129" s="5"/>
     </row>
-    <row r="130" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="13"/>
       <c r="C130" s="13"/>
@@ -10861,7 +10861,7 @@
       <c r="V130" s="8"/>
       <c r="W130" s="5"/>
     </row>
-    <row r="131" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="13"/>
       <c r="C131" s="13"/>
@@ -10886,7 +10886,7 @@
       <c r="V131" s="8"/>
       <c r="W131" s="5"/>
     </row>
-    <row r="132" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="13"/>
       <c r="C132" s="13"/>
@@ -10911,7 +10911,7 @@
       <c r="V132" s="8"/>
       <c r="W132" s="5"/>
     </row>
-    <row r="133" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="13"/>
       <c r="C133" s="13"/>
@@ -10936,7 +10936,7 @@
       <c r="V133" s="8"/>
       <c r="W133" s="5"/>
     </row>
-    <row r="134" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="13"/>
       <c r="C134" s="13"/>
@@ -10961,7 +10961,7 @@
       <c r="V134" s="8"/>
       <c r="W134" s="5"/>
     </row>
-    <row r="135" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="13"/>
       <c r="C135" s="13"/>
@@ -10986,7 +10986,7 @@
       <c r="V135" s="8"/>
       <c r="W135" s="5"/>
     </row>
-    <row r="136" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="13"/>
       <c r="C136" s="13"/>
@@ -11011,7 +11011,7 @@
       <c r="V136" s="8"/>
       <c r="W136" s="5"/>
     </row>
-    <row r="137" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="13"/>
       <c r="C137" s="13"/>
@@ -11036,7 +11036,7 @@
       <c r="V137" s="8"/>
       <c r="W137" s="5"/>
     </row>
-    <row r="138" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="13"/>
       <c r="C138" s="13"/>
@@ -11061,7 +11061,7 @@
       <c r="V138" s="8"/>
       <c r="W138" s="5"/>
     </row>
-    <row r="139" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="13"/>
       <c r="C139" s="13"/>
@@ -11086,7 +11086,7 @@
       <c r="V139" s="8"/>
       <c r="W139" s="5"/>
     </row>
-    <row r="140" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="13"/>
       <c r="C140" s="13"/>
@@ -11111,7 +11111,7 @@
       <c r="V140" s="8"/>
       <c r="W140" s="5"/>
     </row>
-    <row r="141" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="13"/>
       <c r="C141" s="13"/>
@@ -11136,7 +11136,7 @@
       <c r="V141" s="8"/>
       <c r="W141" s="5"/>
     </row>
-    <row r="142" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="13"/>
       <c r="C142" s="13"/>
@@ -11161,7 +11161,7 @@
       <c r="V142" s="8"/>
       <c r="W142" s="5"/>
     </row>
-    <row r="143" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="13"/>
       <c r="C143" s="13"/>
@@ -11186,7 +11186,7 @@
       <c r="V143" s="8"/>
       <c r="W143" s="5"/>
     </row>
-    <row r="144" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="13"/>
       <c r="C144" s="13"/>
@@ -11211,7 +11211,7 @@
       <c r="V144" s="8"/>
       <c r="W144" s="5"/>
     </row>
-    <row r="145" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="13"/>
       <c r="C145" s="13"/>
@@ -11236,7 +11236,7 @@
       <c r="V145" s="8"/>
       <c r="W145" s="5"/>
     </row>
-    <row r="146" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="13"/>
       <c r="C146" s="13"/>
@@ -11261,7 +11261,7 @@
       <c r="V146" s="8"/>
       <c r="W146" s="5"/>
     </row>
-    <row r="147" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="13"/>
       <c r="C147" s="13"/>
@@ -11286,7 +11286,7 @@
       <c r="V147" s="8"/>
       <c r="W147" s="5"/>
     </row>
-    <row r="148" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="13"/>
       <c r="C148" s="13"/>
@@ -11311,7 +11311,7 @@
       <c r="V148" s="8"/>
       <c r="W148" s="5"/>
     </row>
-    <row r="149" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="13"/>
       <c r="C149" s="13"/>
@@ -11336,7 +11336,7 @@
       <c r="V149" s="8"/>
       <c r="W149" s="5"/>
     </row>
-    <row r="150" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="13"/>
       <c r="C150" s="13"/>
@@ -11361,7 +11361,7 @@
       <c r="V150" s="8"/>
       <c r="W150" s="5"/>
     </row>
-    <row r="151" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="13"/>
       <c r="C151" s="13"/>
@@ -11386,7 +11386,7 @@
       <c r="V151" s="8"/>
       <c r="W151" s="5"/>
     </row>
-    <row r="152" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="13"/>
       <c r="C152" s="13"/>
@@ -11411,7 +11411,7 @@
       <c r="V152" s="8"/>
       <c r="W152" s="5"/>
     </row>
-    <row r="153" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="13"/>
       <c r="C153" s="13"/>
@@ -11436,7 +11436,7 @@
       <c r="V153" s="8"/>
       <c r="W153" s="5"/>
     </row>
-    <row r="154" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="13"/>
       <c r="C154" s="13"/>
@@ -11461,7 +11461,7 @@
       <c r="V154" s="8"/>
       <c r="W154" s="5"/>
     </row>
-    <row r="155" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="13"/>
       <c r="C155" s="13"/>
@@ -11486,7 +11486,7 @@
       <c r="V155" s="8"/>
       <c r="W155" s="5"/>
     </row>
-    <row r="156" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="13"/>
       <c r="C156" s="13"/>
@@ -11511,7 +11511,7 @@
       <c r="V156" s="8"/>
       <c r="W156" s="5"/>
     </row>
-    <row r="157" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="13"/>
       <c r="C157" s="13"/>
@@ -11536,7 +11536,7 @@
       <c r="V157" s="8"/>
       <c r="W157" s="5"/>
     </row>
-    <row r="158" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="13"/>
       <c r="C158" s="13"/>
@@ -11561,7 +11561,7 @@
       <c r="V158" s="8"/>
       <c r="W158" s="5"/>
     </row>
-    <row r="159" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="13"/>
       <c r="C159" s="13"/>
@@ -11586,7 +11586,7 @@
       <c r="V159" s="8"/>
       <c r="W159" s="5"/>
     </row>
-    <row r="160" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="13"/>
       <c r="C160" s="13"/>
@@ -11611,7 +11611,7 @@
       <c r="V160" s="8"/>
       <c r="W160" s="5"/>
     </row>
-    <row r="161" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="13"/>
       <c r="C161" s="13"/>
@@ -11636,7 +11636,7 @@
       <c r="V161" s="8"/>
       <c r="W161" s="5"/>
     </row>
-    <row r="162" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="13"/>
       <c r="C162" s="13"/>
@@ -11661,7 +11661,7 @@
       <c r="V162" s="8"/>
       <c r="W162" s="5"/>
     </row>
-    <row r="163" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="13"/>
       <c r="C163" s="13"/>
@@ -11686,7 +11686,7 @@
       <c r="V163" s="8"/>
       <c r="W163" s="5"/>
     </row>
-    <row r="164" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="13"/>
       <c r="C164" s="13"/>
@@ -11711,7 +11711,7 @@
       <c r="V164" s="8"/>
       <c r="W164" s="5"/>
     </row>
-    <row r="165" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="13"/>
       <c r="C165" s="13"/>
@@ -11736,7 +11736,7 @@
       <c r="V165" s="8"/>
       <c r="W165" s="5"/>
     </row>
-    <row r="166" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="13"/>
       <c r="C166" s="13"/>
@@ -11761,7 +11761,7 @@
       <c r="V166" s="8"/>
       <c r="W166" s="5"/>
     </row>
-    <row r="167" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="13"/>
       <c r="C167" s="13"/>
@@ -11786,7 +11786,7 @@
       <c r="V167" s="8"/>
       <c r="W167" s="5"/>
     </row>
-    <row r="168" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="13"/>
       <c r="C168" s="13"/>
@@ -11811,7 +11811,7 @@
       <c r="V168" s="8"/>
       <c r="W168" s="5"/>
     </row>
-    <row r="169" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="13"/>
       <c r="C169" s="13"/>
@@ -11836,7 +11836,7 @@
       <c r="V169" s="8"/>
       <c r="W169" s="5"/>
     </row>
-    <row r="170" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="13"/>
       <c r="C170" s="13"/>
@@ -11861,7 +11861,7 @@
       <c r="V170" s="8"/>
       <c r="W170" s="5"/>
     </row>
-    <row r="171" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="13"/>
       <c r="C171" s="13"/>
@@ -11886,7 +11886,7 @@
       <c r="V171" s="8"/>
       <c r="W171" s="5"/>
     </row>
-    <row r="172" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="13"/>
       <c r="C172" s="13"/>
@@ -11911,7 +11911,7 @@
       <c r="V172" s="8"/>
       <c r="W172" s="5"/>
     </row>
-    <row r="173" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="13"/>
       <c r="C173" s="13"/>
@@ -11936,7 +11936,7 @@
       <c r="V173" s="8"/>
       <c r="W173" s="5"/>
     </row>
-    <row r="174" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="13"/>
       <c r="C174" s="13"/>
@@ -11961,7 +11961,7 @@
       <c r="V174" s="8"/>
       <c r="W174" s="5"/>
     </row>
-    <row r="175" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="13"/>
       <c r="C175" s="13"/>
@@ -11986,7 +11986,7 @@
       <c r="V175" s="8"/>
       <c r="W175" s="5"/>
     </row>
-    <row r="176" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="13"/>
       <c r="C176" s="13"/>
@@ -12011,7 +12011,7 @@
       <c r="V176" s="8"/>
       <c r="W176" s="5"/>
     </row>
-    <row r="177" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="13"/>
       <c r="C177" s="13"/>
@@ -12036,7 +12036,7 @@
       <c r="V177" s="8"/>
       <c r="W177" s="5"/>
     </row>
-    <row r="178" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="13"/>
       <c r="C178" s="13"/>
@@ -12061,7 +12061,7 @@
       <c r="V178" s="8"/>
       <c r="W178" s="5"/>
     </row>
-    <row r="179" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="13"/>
       <c r="C179" s="13"/>
@@ -12086,7 +12086,7 @@
       <c r="V179" s="8"/>
       <c r="W179" s="5"/>
     </row>
-    <row r="180" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="13"/>
       <c r="C180" s="13"/>
@@ -12111,7 +12111,7 @@
       <c r="V180" s="8"/>
       <c r="W180" s="5"/>
     </row>
-    <row r="181" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="13"/>
       <c r="C181" s="13"/>
@@ -12136,7 +12136,7 @@
       <c r="V181" s="8"/>
       <c r="W181" s="5"/>
     </row>
-    <row r="182" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="13"/>
       <c r="C182" s="13"/>
@@ -12161,7 +12161,7 @@
       <c r="V182" s="8"/>
       <c r="W182" s="5"/>
     </row>
-    <row r="183" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="13"/>
       <c r="C183" s="13"/>
@@ -12186,7 +12186,7 @@
       <c r="V183" s="8"/>
       <c r="W183" s="5"/>
     </row>
-    <row r="184" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="13"/>
       <c r="C184" s="13"/>
@@ -12211,7 +12211,7 @@
       <c r="V184" s="8"/>
       <c r="W184" s="5"/>
     </row>
-    <row r="185" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="13"/>
       <c r="C185" s="13"/>
@@ -12236,7 +12236,7 @@
       <c r="V185" s="8"/>
       <c r="W185" s="5"/>
     </row>
-    <row r="186" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="13"/>
       <c r="C186" s="13"/>
@@ -12261,7 +12261,7 @@
       <c r="V186" s="8"/>
       <c r="W186" s="5"/>
     </row>
-    <row r="187" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="13"/>
       <c r="C187" s="13"/>
@@ -12286,7 +12286,7 @@
       <c r="V187" s="8"/>
       <c r="W187" s="5"/>
     </row>
-    <row r="188" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="13"/>
       <c r="C188" s="13"/>
@@ -12311,7 +12311,7 @@
       <c r="V188" s="8"/>
       <c r="W188" s="5"/>
     </row>
-    <row r="189" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="13"/>
       <c r="C189" s="13"/>
@@ -12336,7 +12336,7 @@
       <c r="V189" s="8"/>
       <c r="W189" s="5"/>
     </row>
-    <row r="190" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="13"/>
       <c r="C190" s="13"/>
@@ -12361,7 +12361,7 @@
       <c r="V190" s="8"/>
       <c r="W190" s="5"/>
     </row>
-    <row r="191" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="13"/>
       <c r="C191" s="13"/>
@@ -12386,7 +12386,7 @@
       <c r="V191" s="8"/>
       <c r="W191" s="5"/>
     </row>
-    <row r="192" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="13"/>
       <c r="C192" s="13"/>
@@ -12411,7 +12411,7 @@
       <c r="V192" s="8"/>
       <c r="W192" s="5"/>
     </row>
-    <row r="193" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="13"/>
       <c r="C193" s="13"/>
@@ -12436,7 +12436,7 @@
       <c r="V193" s="8"/>
       <c r="W193" s="5"/>
     </row>
-    <row r="194" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="13"/>
       <c r="C194" s="13"/>
@@ -12461,7 +12461,7 @@
       <c r="V194" s="8"/>
       <c r="W194" s="5"/>
     </row>
-    <row r="195" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="13"/>
       <c r="C195" s="13"/>
@@ -12486,7 +12486,7 @@
       <c r="V195" s="8"/>
       <c r="W195" s="5"/>
     </row>
-    <row r="196" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="13"/>
       <c r="C196" s="13"/>
@@ -12511,7 +12511,7 @@
       <c r="V196" s="8"/>
       <c r="W196" s="5"/>
     </row>
-    <row r="197" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="13"/>
       <c r="C197" s="13"/>
@@ -12536,7 +12536,7 @@
       <c r="V197" s="8"/>
       <c r="W197" s="5"/>
     </row>
-    <row r="198" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="13"/>
       <c r="C198" s="13"/>
@@ -12561,7 +12561,7 @@
       <c r="V198" s="8"/>
       <c r="W198" s="5"/>
     </row>
-    <row r="199" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="13"/>
       <c r="C199" s="13"/>
@@ -12586,7 +12586,7 @@
       <c r="V199" s="8"/>
       <c r="W199" s="5"/>
     </row>
-    <row r="200" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="13"/>
       <c r="C200" s="13"/>
@@ -12611,7 +12611,7 @@
       <c r="V200" s="8"/>
       <c r="W200" s="5"/>
     </row>
-    <row r="201" spans="1:23" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:23" x14ac:dyDescent="0.4">
       <c r="A201" s="12"/>
       <c r="B201" s="14"/>
       <c r="C201" s="14"/>
@@ -12666,14 +12666,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="4" width="25.75" customWidth="1"/>
     <col min="5" max="5" width="45.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -12690,1400 +12690,1400 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
       <c r="D2" s="17"/>
       <c r="E2" s="5"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
       <c r="D3" s="17"/>
       <c r="E3" s="5"/>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
       <c r="D4" s="13"/>
       <c r="E4" s="5"/>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
       <c r="D5" s="13"/>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
       <c r="D6" s="13"/>
       <c r="E6" s="5"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
       <c r="D7" s="13"/>
       <c r="E7" s="5"/>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
       <c r="D8" s="13"/>
       <c r="E8" s="5"/>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
       <c r="D9" s="13"/>
       <c r="E9" s="5"/>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
       <c r="D10" s="13"/>
       <c r="E10" s="5"/>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
       <c r="D11" s="13"/>
       <c r="E11" s="5"/>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
       <c r="D12" s="13"/>
       <c r="E12" s="5"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
       <c r="D13" s="13"/>
       <c r="E13" s="5"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
       <c r="D14" s="13"/>
       <c r="E14" s="5"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
       <c r="D15" s="13"/>
       <c r="E15" s="5"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
       <c r="D16" s="13"/>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
       <c r="D17" s="13"/>
       <c r="E17" s="5"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
       <c r="D18" s="13"/>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
       <c r="D19" s="13"/>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
       <c r="D20" s="13"/>
       <c r="E20" s="5"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
       <c r="D21" s="13"/>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
       <c r="D22" s="13"/>
       <c r="E22" s="5"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
       <c r="D23" s="13"/>
       <c r="E23" s="5"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
       <c r="D24" s="13"/>
       <c r="E24" s="5"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
       <c r="D25" s="13"/>
       <c r="E25" s="5"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
       <c r="D26" s="13"/>
       <c r="E26" s="5"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
       <c r="D27" s="13"/>
       <c r="E27" s="5"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
       <c r="D28" s="13"/>
       <c r="E28" s="5"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
       <c r="D29" s="13"/>
       <c r="E29" s="5"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
       <c r="D30" s="13"/>
       <c r="E30" s="5"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
       <c r="D31" s="13"/>
       <c r="E31" s="5"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
       <c r="D32" s="13"/>
       <c r="E32" s="5"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
       <c r="D33" s="13"/>
       <c r="E33" s="5"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
       <c r="D34" s="13"/>
       <c r="E34" s="5"/>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
       <c r="D35" s="13"/>
       <c r="E35" s="5"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
       <c r="D36" s="13"/>
       <c r="E36" s="5"/>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
       <c r="D37" s="13"/>
       <c r="E37" s="5"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
       <c r="D38" s="13"/>
       <c r="E38" s="5"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
       <c r="D39" s="13"/>
       <c r="E39" s="5"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
       <c r="D40" s="13"/>
       <c r="E40" s="5"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
       <c r="D41" s="13"/>
       <c r="E41" s="5"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
       <c r="D42" s="13"/>
       <c r="E42" s="5"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
       <c r="D43" s="13"/>
       <c r="E43" s="5"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
       <c r="D44" s="13"/>
       <c r="E44" s="5"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
       <c r="D45" s="13"/>
       <c r="E45" s="5"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
       <c r="D46" s="13"/>
       <c r="E46" s="5"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
       <c r="D47" s="13"/>
       <c r="E47" s="5"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
       <c r="D48" s="13"/>
       <c r="E48" s="5"/>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
       <c r="D49" s="13"/>
       <c r="E49" s="5"/>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
       <c r="D50" s="13"/>
       <c r="E50" s="5"/>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
       <c r="D51" s="13"/>
       <c r="E51" s="5"/>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
       <c r="D52" s="13"/>
       <c r="E52" s="5"/>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
       <c r="D53" s="13"/>
       <c r="E53" s="5"/>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
       <c r="D54" s="13"/>
       <c r="E54" s="5"/>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
       <c r="D55" s="13"/>
       <c r="E55" s="5"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
       <c r="D56" s="13"/>
       <c r="E56" s="5"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
       <c r="D57" s="13"/>
       <c r="E57" s="5"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
       <c r="D58" s="13"/>
       <c r="E58" s="5"/>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
       <c r="D59" s="13"/>
       <c r="E59" s="5"/>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
       <c r="D60" s="13"/>
       <c r="E60" s="5"/>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
       <c r="D61" s="13"/>
       <c r="E61" s="5"/>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
       <c r="D62" s="13"/>
       <c r="E62" s="5"/>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
       <c r="D63" s="13"/>
       <c r="E63" s="5"/>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
       <c r="D64" s="13"/>
       <c r="E64" s="5"/>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
       <c r="D65" s="13"/>
       <c r="E65" s="5"/>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
       <c r="D66" s="13"/>
       <c r="E66" s="5"/>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
       <c r="D67" s="13"/>
       <c r="E67" s="5"/>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
       <c r="D68" s="13"/>
       <c r="E68" s="5"/>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
       <c r="D69" s="13"/>
       <c r="E69" s="5"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
       <c r="D70" s="13"/>
       <c r="E70" s="5"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
       <c r="D71" s="13"/>
       <c r="E71" s="5"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
       <c r="D72" s="13"/>
       <c r="E72" s="5"/>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
       <c r="D73" s="13"/>
       <c r="E73" s="5"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
       <c r="D74" s="13"/>
       <c r="E74" s="5"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
       <c r="D75" s="13"/>
       <c r="E75" s="5"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
       <c r="D76" s="13"/>
       <c r="E76" s="5"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
       <c r="D77" s="13"/>
       <c r="E77" s="5"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
       <c r="D78" s="13"/>
       <c r="E78" s="5"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
       <c r="D79" s="13"/>
       <c r="E79" s="5"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
       <c r="D80" s="13"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
       <c r="D81" s="13"/>
       <c r="E81" s="5"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
       <c r="D82" s="13"/>
       <c r="E82" s="5"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
       <c r="D83" s="13"/>
       <c r="E83" s="5"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
       <c r="D84" s="13"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
       <c r="D85" s="13"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
       <c r="D86" s="13"/>
       <c r="E86" s="5"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
       <c r="D87" s="13"/>
       <c r="E87" s="5"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
       <c r="D88" s="13"/>
       <c r="E88" s="5"/>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
       <c r="D89" s="13"/>
       <c r="E89" s="5"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
       <c r="D90" s="13"/>
       <c r="E90" s="5"/>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
       <c r="D91" s="13"/>
       <c r="E91" s="5"/>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
       <c r="D92" s="13"/>
       <c r="E92" s="5"/>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
       <c r="D93" s="13"/>
       <c r="E93" s="5"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
       <c r="D94" s="13"/>
       <c r="E94" s="5"/>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
       <c r="D95" s="13"/>
       <c r="E95" s="5"/>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
       <c r="D96" s="13"/>
       <c r="E96" s="5"/>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
       <c r="D97" s="13"/>
       <c r="E97" s="5"/>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
       <c r="D98" s="13"/>
       <c r="E98" s="5"/>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
       <c r="D99" s="13"/>
       <c r="E99" s="5"/>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
       <c r="D100" s="13"/>
       <c r="E100" s="5"/>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
       <c r="D101" s="13"/>
       <c r="E101" s="5"/>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
       <c r="D102" s="13"/>
       <c r="E102" s="5"/>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
       <c r="D103" s="13"/>
       <c r="E103" s="5"/>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
       <c r="D104" s="13"/>
       <c r="E104" s="5"/>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
       <c r="D105" s="13"/>
       <c r="E105" s="5"/>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
       <c r="D106" s="13"/>
       <c r="E106" s="5"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
       <c r="D107" s="13"/>
       <c r="E107" s="5"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
       <c r="D108" s="13"/>
       <c r="E108" s="5"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
       <c r="D109" s="13"/>
       <c r="E109" s="5"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
       <c r="D110" s="13"/>
       <c r="E110" s="5"/>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
       <c r="D111" s="13"/>
       <c r="E111" s="5"/>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
       <c r="D112" s="13"/>
       <c r="E112" s="5"/>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
       <c r="D113" s="13"/>
       <c r="E113" s="5"/>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
       <c r="D114" s="13"/>
       <c r="E114" s="5"/>
     </row>
-    <row r="115" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
       <c r="D115" s="13"/>
       <c r="E115" s="5"/>
     </row>
-    <row r="116" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
       <c r="D116" s="13"/>
       <c r="E116" s="5"/>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
       <c r="D117" s="13"/>
       <c r="E117" s="5"/>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
       <c r="D118" s="13"/>
       <c r="E118" s="5"/>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
       <c r="D119" s="13"/>
       <c r="E119" s="5"/>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
       <c r="D120" s="13"/>
       <c r="E120" s="5"/>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
       <c r="D121" s="13"/>
       <c r="E121" s="5"/>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
       <c r="D122" s="13"/>
       <c r="E122" s="5"/>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
       <c r="D123" s="13"/>
       <c r="E123" s="5"/>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
       <c r="D124" s="13"/>
       <c r="E124" s="5"/>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
       <c r="D125" s="13"/>
       <c r="E125" s="5"/>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
       <c r="D126" s="13"/>
       <c r="E126" s="5"/>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
       <c r="D127" s="13"/>
       <c r="E127" s="5"/>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
       <c r="D128" s="13"/>
       <c r="E128" s="5"/>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
       <c r="D129" s="13"/>
       <c r="E129" s="5"/>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
       <c r="D130" s="13"/>
       <c r="E130" s="5"/>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
       <c r="D131" s="13"/>
       <c r="E131" s="5"/>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
       <c r="D132" s="13"/>
       <c r="E132" s="5"/>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
       <c r="D133" s="13"/>
       <c r="E133" s="5"/>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
       <c r="D134" s="13"/>
       <c r="E134" s="5"/>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
       <c r="D135" s="13"/>
       <c r="E135" s="5"/>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
       <c r="D136" s="13"/>
       <c r="E136" s="5"/>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
       <c r="D137" s="13"/>
       <c r="E137" s="5"/>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
       <c r="D138" s="13"/>
       <c r="E138" s="5"/>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
       <c r="D139" s="13"/>
       <c r="E139" s="5"/>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
       <c r="D140" s="13"/>
       <c r="E140" s="5"/>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
       <c r="D141" s="13"/>
       <c r="E141" s="5"/>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
       <c r="D142" s="13"/>
       <c r="E142" s="5"/>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
       <c r="D143" s="13"/>
       <c r="E143" s="5"/>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
       <c r="D144" s="13"/>
       <c r="E144" s="5"/>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
       <c r="D145" s="13"/>
       <c r="E145" s="5"/>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
       <c r="D146" s="13"/>
       <c r="E146" s="5"/>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
       <c r="D147" s="13"/>
       <c r="E147" s="5"/>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
       <c r="D148" s="13"/>
       <c r="E148" s="5"/>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
       <c r="D149" s="13"/>
       <c r="E149" s="5"/>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
       <c r="D150" s="13"/>
       <c r="E150" s="5"/>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
       <c r="D151" s="13"/>
       <c r="E151" s="5"/>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
       <c r="D152" s="13"/>
       <c r="E152" s="5"/>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
       <c r="D153" s="13"/>
       <c r="E153" s="5"/>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
       <c r="D154" s="13"/>
       <c r="E154" s="5"/>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
       <c r="D155" s="13"/>
       <c r="E155" s="5"/>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
       <c r="D156" s="13"/>
       <c r="E156" s="5"/>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
       <c r="D157" s="13"/>
       <c r="E157" s="5"/>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
       <c r="D158" s="13"/>
       <c r="E158" s="5"/>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
       <c r="D159" s="13"/>
       <c r="E159" s="5"/>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
       <c r="D160" s="13"/>
       <c r="E160" s="5"/>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
       <c r="D161" s="13"/>
       <c r="E161" s="5"/>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
       <c r="D162" s="13"/>
       <c r="E162" s="5"/>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
       <c r="D163" s="13"/>
       <c r="E163" s="5"/>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
       <c r="D164" s="13"/>
       <c r="E164" s="5"/>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
       <c r="D165" s="13"/>
       <c r="E165" s="5"/>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
       <c r="D166" s="13"/>
       <c r="E166" s="5"/>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
       <c r="D167" s="13"/>
       <c r="E167" s="5"/>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
       <c r="D168" s="13"/>
       <c r="E168" s="5"/>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
       <c r="D169" s="13"/>
       <c r="E169" s="5"/>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
       <c r="D170" s="13"/>
       <c r="E170" s="5"/>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
       <c r="D171" s="13"/>
       <c r="E171" s="5"/>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
       <c r="D172" s="13"/>
       <c r="E172" s="5"/>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
       <c r="D173" s="13"/>
       <c r="E173" s="5"/>
     </row>
-    <row r="174" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
       <c r="D174" s="13"/>
       <c r="E174" s="5"/>
     </row>
-    <row r="175" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
       <c r="D175" s="13"/>
       <c r="E175" s="5"/>
     </row>
-    <row r="176" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
       <c r="D176" s="13"/>
       <c r="E176" s="5"/>
     </row>
-    <row r="177" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
       <c r="D177" s="13"/>
       <c r="E177" s="5"/>
     </row>
-    <row r="178" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
       <c r="D178" s="13"/>
       <c r="E178" s="5"/>
     </row>
-    <row r="179" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
       <c r="D179" s="13"/>
       <c r="E179" s="5"/>
     </row>
-    <row r="180" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
       <c r="D180" s="13"/>
       <c r="E180" s="5"/>
     </row>
-    <row r="181" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
       <c r="D181" s="13"/>
       <c r="E181" s="5"/>
     </row>
-    <row r="182" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
       <c r="D182" s="13"/>
       <c r="E182" s="5"/>
     </row>
-    <row r="183" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
       <c r="D183" s="13"/>
       <c r="E183" s="5"/>
     </row>
-    <row r="184" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
       <c r="D184" s="13"/>
       <c r="E184" s="5"/>
     </row>
-    <row r="185" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
       <c r="D185" s="13"/>
       <c r="E185" s="5"/>
     </row>
-    <row r="186" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
       <c r="D186" s="13"/>
       <c r="E186" s="5"/>
     </row>
-    <row r="187" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
       <c r="D187" s="13"/>
       <c r="E187" s="5"/>
     </row>
-    <row r="188" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
       <c r="D188" s="13"/>
       <c r="E188" s="5"/>
     </row>
-    <row r="189" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
       <c r="D189" s="13"/>
       <c r="E189" s="5"/>
     </row>
-    <row r="190" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
       <c r="D190" s="13"/>
       <c r="E190" s="5"/>
     </row>
-    <row r="191" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
       <c r="D191" s="13"/>
       <c r="E191" s="5"/>
     </row>
-    <row r="192" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
       <c r="D192" s="13"/>
       <c r="E192" s="5"/>
     </row>
-    <row r="193" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
       <c r="D193" s="13"/>
       <c r="E193" s="5"/>
     </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
       <c r="D194" s="13"/>
       <c r="E194" s="5"/>
     </row>
-    <row r="195" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
       <c r="D195" s="13"/>
       <c r="E195" s="5"/>
     </row>
-    <row r="196" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
       <c r="D196" s="13"/>
       <c r="E196" s="5"/>
     </row>
-    <row r="197" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
       <c r="D197" s="13"/>
       <c r="E197" s="5"/>
     </row>
-    <row r="198" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
       <c r="D198" s="13"/>
       <c r="E198" s="5"/>
     </row>
-    <row r="199" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
       <c r="D199" s="13"/>
       <c r="E199" s="5"/>
     </row>
-    <row r="200" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
       <c r="D200" s="13"/>
       <c r="E200" s="5"/>
     </row>
-    <row r="201" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>
@@ -14117,14 +14117,14 @@
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="3" width="25.75" style="1" customWidth="1"/>
     <col min="4" max="5" width="25.75" customWidth="1"/>
     <col min="6" max="6" width="45.75" style="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -14144,7 +14144,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="16"/>
       <c r="B2" s="16"/>
       <c r="C2" s="16"/>
@@ -14152,7 +14152,7 @@
       <c r="E2" s="24"/>
       <c r="F2" s="5"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="16"/>
       <c r="B3" s="16"/>
       <c r="C3" s="16"/>
@@ -14160,7 +14160,7 @@
       <c r="E3" s="24"/>
       <c r="F3" s="5"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="16"/>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -14168,7 +14168,7 @@
       <c r="E4" s="23"/>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="16"/>
       <c r="B5" s="16"/>
       <c r="C5" s="16"/>
@@ -14176,7 +14176,7 @@
       <c r="E5" s="23"/>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="16"/>
       <c r="B6" s="16"/>
       <c r="C6" s="16"/>
@@ -14184,7 +14184,7 @@
       <c r="E6" s="23"/>
       <c r="F6" s="5"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="11"/>
       <c r="B7" s="11"/>
       <c r="C7" s="11"/>
@@ -14192,7 +14192,7 @@
       <c r="E7" s="23"/>
       <c r="F7" s="5"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="11"/>
       <c r="B8" s="11"/>
       <c r="C8" s="11"/>
@@ -14200,7 +14200,7 @@
       <c r="E8" s="23"/>
       <c r="F8" s="5"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="11"/>
       <c r="B9" s="11"/>
       <c r="C9" s="11"/>
@@ -14208,7 +14208,7 @@
       <c r="E9" s="23"/>
       <c r="F9" s="5"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="11"/>
       <c r="B10" s="11"/>
       <c r="C10" s="11"/>
@@ -14216,7 +14216,7 @@
       <c r="E10" s="23"/>
       <c r="F10" s="5"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="11"/>
       <c r="B11" s="11"/>
       <c r="C11" s="11"/>
@@ -14224,7 +14224,7 @@
       <c r="E11" s="23"/>
       <c r="F11" s="5"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="11"/>
       <c r="B12" s="11"/>
       <c r="C12" s="11"/>
@@ -14232,7 +14232,7 @@
       <c r="E12" s="23"/>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="11"/>
       <c r="B13" s="11"/>
       <c r="C13" s="11"/>
@@ -14240,7 +14240,7 @@
       <c r="E13" s="23"/>
       <c r="F13" s="5"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -14248,7 +14248,7 @@
       <c r="E14" s="23"/>
       <c r="F14" s="5"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -14256,7 +14256,7 @@
       <c r="E15" s="23"/>
       <c r="F15" s="5"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -14264,7 +14264,7 @@
       <c r="E16" s="23"/>
       <c r="F16" s="5"/>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -14272,7 +14272,7 @@
       <c r="E17" s="23"/>
       <c r="F17" s="5"/>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -14280,7 +14280,7 @@
       <c r="E18" s="23"/>
       <c r="F18" s="5"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A19" s="11"/>
       <c r="B19" s="11"/>
       <c r="C19" s="11"/>
@@ -14288,7 +14288,7 @@
       <c r="E19" s="23"/>
       <c r="F19" s="5"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A20" s="11"/>
       <c r="B20" s="11"/>
       <c r="C20" s="11"/>
@@ -14296,7 +14296,7 @@
       <c r="E20" s="23"/>
       <c r="F20" s="5"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A21" s="16"/>
       <c r="B21" s="16"/>
       <c r="C21" s="16"/>
@@ -14304,7 +14304,7 @@
       <c r="E21" s="23"/>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A22" s="11"/>
       <c r="B22" s="11"/>
       <c r="C22" s="11"/>
@@ -14312,7 +14312,7 @@
       <c r="E22" s="23"/>
       <c r="F22" s="5"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A23" s="11"/>
       <c r="B23" s="11"/>
       <c r="C23" s="11"/>
@@ -14320,7 +14320,7 @@
       <c r="E23" s="23"/>
       <c r="F23" s="5"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A24" s="11"/>
       <c r="B24" s="11"/>
       <c r="C24" s="11"/>
@@ -14328,7 +14328,7 @@
       <c r="E24" s="23"/>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A25" s="11"/>
       <c r="B25" s="11"/>
       <c r="C25" s="11"/>
@@ -14336,7 +14336,7 @@
       <c r="E25" s="23"/>
       <c r="F25" s="5"/>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A26" s="11"/>
       <c r="B26" s="11"/>
       <c r="C26" s="11"/>
@@ -14344,7 +14344,7 @@
       <c r="E26" s="23"/>
       <c r="F26" s="5"/>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A27" s="11"/>
       <c r="B27" s="11"/>
       <c r="C27" s="11"/>
@@ -14352,7 +14352,7 @@
       <c r="E27" s="23"/>
       <c r="F27" s="5"/>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A28" s="11"/>
       <c r="B28" s="11"/>
       <c r="C28" s="11"/>
@@ -14360,7 +14360,7 @@
       <c r="E28" s="23"/>
       <c r="F28" s="5"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A29" s="11"/>
       <c r="B29" s="11"/>
       <c r="C29" s="11"/>
@@ -14368,7 +14368,7 @@
       <c r="E29" s="23"/>
       <c r="F29" s="5"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A30" s="11"/>
       <c r="B30" s="11"/>
       <c r="C30" s="11"/>
@@ -14376,7 +14376,7 @@
       <c r="E30" s="23"/>
       <c r="F30" s="5"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A31" s="11"/>
       <c r="B31" s="11"/>
       <c r="C31" s="11"/>
@@ -14384,7 +14384,7 @@
       <c r="E31" s="23"/>
       <c r="F31" s="5"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A32" s="11"/>
       <c r="B32" s="11"/>
       <c r="C32" s="11"/>
@@ -14392,7 +14392,7 @@
       <c r="E32" s="23"/>
       <c r="F32" s="5"/>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A33" s="11"/>
       <c r="B33" s="11"/>
       <c r="C33" s="11"/>
@@ -14400,7 +14400,7 @@
       <c r="E33" s="23"/>
       <c r="F33" s="5"/>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A34" s="11"/>
       <c r="B34" s="11"/>
       <c r="C34" s="11"/>
@@ -14408,7 +14408,7 @@
       <c r="E34" s="23"/>
       <c r="F34" s="5"/>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A35" s="11"/>
       <c r="B35" s="11"/>
       <c r="C35" s="11"/>
@@ -14416,7 +14416,7 @@
       <c r="E35" s="23"/>
       <c r="F35" s="5"/>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A36" s="11"/>
       <c r="B36" s="11"/>
       <c r="C36" s="11"/>
@@ -14424,7 +14424,7 @@
       <c r="E36" s="23"/>
       <c r="F36" s="5"/>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A37" s="11"/>
       <c r="B37" s="11"/>
       <c r="C37" s="11"/>
@@ -14432,7 +14432,7 @@
       <c r="E37" s="23"/>
       <c r="F37" s="5"/>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A38" s="11"/>
       <c r="B38" s="11"/>
       <c r="C38" s="11"/>
@@ -14440,7 +14440,7 @@
       <c r="E38" s="23"/>
       <c r="F38" s="5"/>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A39" s="11"/>
       <c r="B39" s="11"/>
       <c r="C39" s="11"/>
@@ -14448,7 +14448,7 @@
       <c r="E39" s="23"/>
       <c r="F39" s="5"/>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A40" s="11"/>
       <c r="B40" s="11"/>
       <c r="C40" s="11"/>
@@ -14456,7 +14456,7 @@
       <c r="E40" s="23"/>
       <c r="F40" s="5"/>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A41" s="11"/>
       <c r="B41" s="11"/>
       <c r="C41" s="11"/>
@@ -14464,7 +14464,7 @@
       <c r="E41" s="23"/>
       <c r="F41" s="5"/>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A42" s="11"/>
       <c r="B42" s="11"/>
       <c r="C42" s="11"/>
@@ -14472,7 +14472,7 @@
       <c r="E42" s="23"/>
       <c r="F42" s="5"/>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A43" s="11"/>
       <c r="B43" s="11"/>
       <c r="C43" s="11"/>
@@ -14480,7 +14480,7 @@
       <c r="E43" s="23"/>
       <c r="F43" s="5"/>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A44" s="11"/>
       <c r="B44" s="11"/>
       <c r="C44" s="11"/>
@@ -14488,7 +14488,7 @@
       <c r="E44" s="23"/>
       <c r="F44" s="5"/>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A45" s="11"/>
       <c r="B45" s="11"/>
       <c r="C45" s="11"/>
@@ -14496,7 +14496,7 @@
       <c r="E45" s="23"/>
       <c r="F45" s="5"/>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A46" s="11"/>
       <c r="B46" s="11"/>
       <c r="C46" s="11"/>
@@ -14504,7 +14504,7 @@
       <c r="E46" s="23"/>
       <c r="F46" s="5"/>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A47" s="11"/>
       <c r="B47" s="11"/>
       <c r="C47" s="11"/>
@@ -14512,7 +14512,7 @@
       <c r="E47" s="23"/>
       <c r="F47" s="5"/>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A48" s="11"/>
       <c r="B48" s="11"/>
       <c r="C48" s="11"/>
@@ -14520,7 +14520,7 @@
       <c r="E48" s="23"/>
       <c r="F48" s="5"/>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A49" s="11"/>
       <c r="B49" s="11"/>
       <c r="C49" s="11"/>
@@ -14528,7 +14528,7 @@
       <c r="E49" s="23"/>
       <c r="F49" s="5"/>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A50" s="11"/>
       <c r="B50" s="11"/>
       <c r="C50" s="11"/>
@@ -14536,7 +14536,7 @@
       <c r="E50" s="23"/>
       <c r="F50" s="5"/>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A51" s="11"/>
       <c r="B51" s="11"/>
       <c r="C51" s="11"/>
@@ -14544,7 +14544,7 @@
       <c r="E51" s="23"/>
       <c r="F51" s="5"/>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A52" s="11"/>
       <c r="B52" s="11"/>
       <c r="C52" s="11"/>
@@ -14552,7 +14552,7 @@
       <c r="E52" s="23"/>
       <c r="F52" s="5"/>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A53" s="11"/>
       <c r="B53" s="11"/>
       <c r="C53" s="11"/>
@@ -14560,7 +14560,7 @@
       <c r="E53" s="23"/>
       <c r="F53" s="5"/>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A54" s="11"/>
       <c r="B54" s="11"/>
       <c r="C54" s="11"/>
@@ -14568,7 +14568,7 @@
       <c r="E54" s="23"/>
       <c r="F54" s="5"/>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A55" s="11"/>
       <c r="B55" s="11"/>
       <c r="C55" s="11"/>
@@ -14576,7 +14576,7 @@
       <c r="E55" s="23"/>
       <c r="F55" s="5"/>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A56" s="11"/>
       <c r="B56" s="11"/>
       <c r="C56" s="11"/>
@@ -14584,7 +14584,7 @@
       <c r="E56" s="23"/>
       <c r="F56" s="5"/>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A57" s="11"/>
       <c r="B57" s="11"/>
       <c r="C57" s="11"/>
@@ -14592,7 +14592,7 @@
       <c r="E57" s="23"/>
       <c r="F57" s="5"/>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A58" s="11"/>
       <c r="B58" s="11"/>
       <c r="C58" s="11"/>
@@ -14600,7 +14600,7 @@
       <c r="E58" s="23"/>
       <c r="F58" s="5"/>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A59" s="11"/>
       <c r="B59" s="11"/>
       <c r="C59" s="11"/>
@@ -14608,7 +14608,7 @@
       <c r="E59" s="23"/>
       <c r="F59" s="5"/>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A60" s="11"/>
       <c r="B60" s="11"/>
       <c r="C60" s="11"/>
@@ -14616,7 +14616,7 @@
       <c r="E60" s="23"/>
       <c r="F60" s="5"/>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A61" s="11"/>
       <c r="B61" s="11"/>
       <c r="C61" s="11"/>
@@ -14624,7 +14624,7 @@
       <c r="E61" s="23"/>
       <c r="F61" s="5"/>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A62" s="11"/>
       <c r="B62" s="11"/>
       <c r="C62" s="11"/>
@@ -14632,7 +14632,7 @@
       <c r="E62" s="23"/>
       <c r="F62" s="5"/>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A63" s="11"/>
       <c r="B63" s="11"/>
       <c r="C63" s="11"/>
@@ -14640,7 +14640,7 @@
       <c r="E63" s="23"/>
       <c r="F63" s="5"/>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A64" s="11"/>
       <c r="B64" s="11"/>
       <c r="C64" s="11"/>
@@ -14648,7 +14648,7 @@
       <c r="E64" s="23"/>
       <c r="F64" s="5"/>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A65" s="11"/>
       <c r="B65" s="11"/>
       <c r="C65" s="11"/>
@@ -14656,7 +14656,7 @@
       <c r="E65" s="23"/>
       <c r="F65" s="5"/>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A66" s="11"/>
       <c r="B66" s="11"/>
       <c r="C66" s="11"/>
@@ -14664,7 +14664,7 @@
       <c r="E66" s="23"/>
       <c r="F66" s="5"/>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A67" s="11"/>
       <c r="B67" s="11"/>
       <c r="C67" s="11"/>
@@ -14672,7 +14672,7 @@
       <c r="E67" s="23"/>
       <c r="F67" s="5"/>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A68" s="11"/>
       <c r="B68" s="11"/>
       <c r="C68" s="11"/>
@@ -14680,7 +14680,7 @@
       <c r="E68" s="23"/>
       <c r="F68" s="5"/>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A69" s="11"/>
       <c r="B69" s="11"/>
       <c r="C69" s="11"/>
@@ -14688,7 +14688,7 @@
       <c r="E69" s="23"/>
       <c r="F69" s="5"/>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A70" s="11"/>
       <c r="B70" s="11"/>
       <c r="C70" s="11"/>
@@ -14696,7 +14696,7 @@
       <c r="E70" s="23"/>
       <c r="F70" s="5"/>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A71" s="11"/>
       <c r="B71" s="11"/>
       <c r="C71" s="11"/>
@@ -14704,7 +14704,7 @@
       <c r="E71" s="23"/>
       <c r="F71" s="5"/>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A72" s="11"/>
       <c r="B72" s="11"/>
       <c r="C72" s="11"/>
@@ -14712,7 +14712,7 @@
       <c r="E72" s="23"/>
       <c r="F72" s="5"/>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A73" s="11"/>
       <c r="B73" s="11"/>
       <c r="C73" s="11"/>
@@ -14720,7 +14720,7 @@
       <c r="E73" s="23"/>
       <c r="F73" s="5"/>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A74" s="11"/>
       <c r="B74" s="11"/>
       <c r="C74" s="11"/>
@@ -14728,7 +14728,7 @@
       <c r="E74" s="23"/>
       <c r="F74" s="5"/>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A75" s="11"/>
       <c r="B75" s="11"/>
       <c r="C75" s="11"/>
@@ -14736,7 +14736,7 @@
       <c r="E75" s="23"/>
       <c r="F75" s="5"/>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A76" s="11"/>
       <c r="B76" s="11"/>
       <c r="C76" s="11"/>
@@ -14744,7 +14744,7 @@
       <c r="E76" s="23"/>
       <c r="F76" s="5"/>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A77" s="11"/>
       <c r="B77" s="11"/>
       <c r="C77" s="11"/>
@@ -14752,7 +14752,7 @@
       <c r="E77" s="23"/>
       <c r="F77" s="5"/>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A78" s="11"/>
       <c r="B78" s="11"/>
       <c r="C78" s="11"/>
@@ -14760,7 +14760,7 @@
       <c r="E78" s="23"/>
       <c r="F78" s="5"/>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A79" s="11"/>
       <c r="B79" s="11"/>
       <c r="C79" s="11"/>
@@ -14768,7 +14768,7 @@
       <c r="E79" s="23"/>
       <c r="F79" s="5"/>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A80" s="11"/>
       <c r="B80" s="11"/>
       <c r="C80" s="11"/>
@@ -14776,7 +14776,7 @@
       <c r="E80" s="23"/>
       <c r="F80" s="5"/>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="11"/>
@@ -14784,7 +14784,7 @@
       <c r="E81" s="23"/>
       <c r="F81" s="5"/>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A82" s="11"/>
       <c r="B82" s="11"/>
       <c r="C82" s="11"/>
@@ -14792,7 +14792,7 @@
       <c r="E82" s="23"/>
       <c r="F82" s="5"/>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A83" s="11"/>
       <c r="B83" s="11"/>
       <c r="C83" s="11"/>
@@ -14800,7 +14800,7 @@
       <c r="E83" s="23"/>
       <c r="F83" s="5"/>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A84" s="11"/>
       <c r="B84" s="11"/>
       <c r="C84" s="11"/>
@@ -14808,7 +14808,7 @@
       <c r="E84" s="23"/>
       <c r="F84" s="5"/>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A85" s="11"/>
       <c r="B85" s="11"/>
       <c r="C85" s="11"/>
@@ -14816,7 +14816,7 @@
       <c r="E85" s="23"/>
       <c r="F85" s="5"/>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="11"/>
@@ -14824,7 +14824,7 @@
       <c r="E86" s="23"/>
       <c r="F86" s="5"/>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A87" s="11"/>
       <c r="B87" s="11"/>
       <c r="C87" s="11"/>
@@ -14832,7 +14832,7 @@
       <c r="E87" s="23"/>
       <c r="F87" s="5"/>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A88" s="11"/>
       <c r="B88" s="11"/>
       <c r="C88" s="11"/>
@@ -14840,7 +14840,7 @@
       <c r="E88" s="23"/>
       <c r="F88" s="5"/>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A89" s="11"/>
       <c r="B89" s="11"/>
       <c r="C89" s="11"/>
@@ -14848,7 +14848,7 @@
       <c r="E89" s="23"/>
       <c r="F89" s="5"/>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A90" s="11"/>
       <c r="B90" s="11"/>
       <c r="C90" s="11"/>
@@ -14856,7 +14856,7 @@
       <c r="E90" s="23"/>
       <c r="F90" s="5"/>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A91" s="11"/>
       <c r="B91" s="11"/>
       <c r="C91" s="11"/>
@@ -14864,7 +14864,7 @@
       <c r="E91" s="23"/>
       <c r="F91" s="5"/>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A92" s="11"/>
       <c r="B92" s="11"/>
       <c r="C92" s="11"/>
@@ -14872,7 +14872,7 @@
       <c r="E92" s="23"/>
       <c r="F92" s="5"/>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A93" s="11"/>
       <c r="B93" s="11"/>
       <c r="C93" s="11"/>
@@ -14880,7 +14880,7 @@
       <c r="E93" s="23"/>
       <c r="F93" s="5"/>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A94" s="11"/>
       <c r="B94" s="11"/>
       <c r="C94" s="11"/>
@@ -14888,7 +14888,7 @@
       <c r="E94" s="23"/>
       <c r="F94" s="5"/>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A95" s="11"/>
       <c r="B95" s="11"/>
       <c r="C95" s="11"/>
@@ -14896,7 +14896,7 @@
       <c r="E95" s="23"/>
       <c r="F95" s="5"/>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A96" s="11"/>
       <c r="B96" s="11"/>
       <c r="C96" s="11"/>
@@ -14904,7 +14904,7 @@
       <c r="E96" s="23"/>
       <c r="F96" s="5"/>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A97" s="11"/>
       <c r="B97" s="11"/>
       <c r="C97" s="11"/>
@@ -14912,7 +14912,7 @@
       <c r="E97" s="23"/>
       <c r="F97" s="5"/>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A98" s="11"/>
       <c r="B98" s="11"/>
       <c r="C98" s="11"/>
@@ -14920,7 +14920,7 @@
       <c r="E98" s="23"/>
       <c r="F98" s="5"/>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A99" s="11"/>
       <c r="B99" s="11"/>
       <c r="C99" s="11"/>
@@ -14928,7 +14928,7 @@
       <c r="E99" s="23"/>
       <c r="F99" s="5"/>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A100" s="11"/>
       <c r="B100" s="11"/>
       <c r="C100" s="11"/>
@@ -14936,7 +14936,7 @@
       <c r="E100" s="23"/>
       <c r="F100" s="5"/>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A101" s="11"/>
       <c r="B101" s="11"/>
       <c r="C101" s="11"/>
@@ -14944,7 +14944,7 @@
       <c r="E101" s="23"/>
       <c r="F101" s="5"/>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A102" s="11"/>
       <c r="B102" s="11"/>
       <c r="C102" s="11"/>
@@ -14952,7 +14952,7 @@
       <c r="E102" s="23"/>
       <c r="F102" s="5"/>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A103" s="11"/>
       <c r="B103" s="11"/>
       <c r="C103" s="11"/>
@@ -14960,7 +14960,7 @@
       <c r="E103" s="23"/>
       <c r="F103" s="5"/>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A104" s="11"/>
       <c r="B104" s="11"/>
       <c r="C104" s="11"/>
@@ -14968,7 +14968,7 @@
       <c r="E104" s="23"/>
       <c r="F104" s="5"/>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A105" s="11"/>
       <c r="B105" s="11"/>
       <c r="C105" s="11"/>
@@ -14976,7 +14976,7 @@
       <c r="E105" s="23"/>
       <c r="F105" s="5"/>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A106" s="11"/>
       <c r="B106" s="11"/>
       <c r="C106" s="11"/>
@@ -14984,7 +14984,7 @@
       <c r="E106" s="23"/>
       <c r="F106" s="5"/>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A107" s="11"/>
       <c r="B107" s="11"/>
       <c r="C107" s="11"/>
@@ -14992,7 +14992,7 @@
       <c r="E107" s="23"/>
       <c r="F107" s="5"/>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A108" s="11"/>
       <c r="B108" s="11"/>
       <c r="C108" s="11"/>
@@ -15000,7 +15000,7 @@
       <c r="E108" s="23"/>
       <c r="F108" s="5"/>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A109" s="11"/>
       <c r="B109" s="11"/>
       <c r="C109" s="11"/>
@@ -15008,7 +15008,7 @@
       <c r="E109" s="23"/>
       <c r="F109" s="5"/>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A110" s="11"/>
       <c r="B110" s="11"/>
       <c r="C110" s="11"/>
@@ -15016,7 +15016,7 @@
       <c r="E110" s="23"/>
       <c r="F110" s="5"/>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A111" s="11"/>
       <c r="B111" s="11"/>
       <c r="C111" s="11"/>
@@ -15024,7 +15024,7 @@
       <c r="E111" s="23"/>
       <c r="F111" s="5"/>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A112" s="11"/>
       <c r="B112" s="11"/>
       <c r="C112" s="11"/>
@@ -15032,7 +15032,7 @@
       <c r="E112" s="23"/>
       <c r="F112" s="5"/>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A113" s="11"/>
       <c r="B113" s="11"/>
       <c r="C113" s="11"/>
@@ -15040,7 +15040,7 @@
       <c r="E113" s="23"/>
       <c r="F113" s="5"/>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A114" s="11"/>
       <c r="B114" s="11"/>
       <c r="C114" s="11"/>
@@ -15048,7 +15048,7 @@
       <c r="E114" s="23"/>
       <c r="F114" s="5"/>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A115" s="11"/>
       <c r="B115" s="11"/>
       <c r="C115" s="11"/>
@@ -15056,7 +15056,7 @@
       <c r="E115" s="23"/>
       <c r="F115" s="5"/>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A116" s="11"/>
       <c r="B116" s="11"/>
       <c r="C116" s="11"/>
@@ -15064,7 +15064,7 @@
       <c r="E116" s="23"/>
       <c r="F116" s="5"/>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A117" s="11"/>
       <c r="B117" s="11"/>
       <c r="C117" s="11"/>
@@ -15072,7 +15072,7 @@
       <c r="E117" s="23"/>
       <c r="F117" s="5"/>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A118" s="11"/>
       <c r="B118" s="11"/>
       <c r="C118" s="11"/>
@@ -15080,7 +15080,7 @@
       <c r="E118" s="23"/>
       <c r="F118" s="5"/>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A119" s="11"/>
       <c r="B119" s="11"/>
       <c r="C119" s="11"/>
@@ -15088,7 +15088,7 @@
       <c r="E119" s="23"/>
       <c r="F119" s="5"/>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A120" s="11"/>
       <c r="B120" s="11"/>
       <c r="C120" s="11"/>
@@ -15096,7 +15096,7 @@
       <c r="E120" s="23"/>
       <c r="F120" s="5"/>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A121" s="11"/>
       <c r="B121" s="11"/>
       <c r="C121" s="11"/>
@@ -15104,7 +15104,7 @@
       <c r="E121" s="23"/>
       <c r="F121" s="5"/>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A122" s="11"/>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -15112,7 +15112,7 @@
       <c r="E122" s="23"/>
       <c r="F122" s="5"/>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A123" s="11"/>
       <c r="B123" s="11"/>
       <c r="C123" s="11"/>
@@ -15120,7 +15120,7 @@
       <c r="E123" s="23"/>
       <c r="F123" s="5"/>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A124" s="11"/>
       <c r="B124" s="11"/>
       <c r="C124" s="11"/>
@@ -15128,7 +15128,7 @@
       <c r="E124" s="23"/>
       <c r="F124" s="5"/>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A125" s="11"/>
       <c r="B125" s="11"/>
       <c r="C125" s="11"/>
@@ -15136,7 +15136,7 @@
       <c r="E125" s="23"/>
       <c r="F125" s="5"/>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A126" s="11"/>
       <c r="B126" s="11"/>
       <c r="C126" s="11"/>
@@ -15144,7 +15144,7 @@
       <c r="E126" s="23"/>
       <c r="F126" s="5"/>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A127" s="11"/>
       <c r="B127" s="11"/>
       <c r="C127" s="11"/>
@@ -15152,7 +15152,7 @@
       <c r="E127" s="23"/>
       <c r="F127" s="5"/>
     </row>
-    <row r="128" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="128" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A128" s="11"/>
       <c r="B128" s="11"/>
       <c r="C128" s="11"/>
@@ -15160,7 +15160,7 @@
       <c r="E128" s="23"/>
       <c r="F128" s="5"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="129" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A129" s="11"/>
       <c r="B129" s="11"/>
       <c r="C129" s="11"/>
@@ -15168,7 +15168,7 @@
       <c r="E129" s="23"/>
       <c r="F129" s="5"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="130" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A130" s="11"/>
       <c r="B130" s="11"/>
       <c r="C130" s="11"/>
@@ -15176,7 +15176,7 @@
       <c r="E130" s="23"/>
       <c r="F130" s="5"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="131" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A131" s="11"/>
       <c r="B131" s="11"/>
       <c r="C131" s="11"/>
@@ -15184,7 +15184,7 @@
       <c r="E131" s="23"/>
       <c r="F131" s="5"/>
     </row>
-    <row r="132" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="132" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A132" s="11"/>
       <c r="B132" s="11"/>
       <c r="C132" s="11"/>
@@ -15192,7 +15192,7 @@
       <c r="E132" s="23"/>
       <c r="F132" s="5"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="133" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A133" s="11"/>
       <c r="B133" s="11"/>
       <c r="C133" s="11"/>
@@ -15200,7 +15200,7 @@
       <c r="E133" s="23"/>
       <c r="F133" s="5"/>
     </row>
-    <row r="134" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="134" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A134" s="11"/>
       <c r="B134" s="11"/>
       <c r="C134" s="11"/>
@@ -15208,7 +15208,7 @@
       <c r="E134" s="23"/>
       <c r="F134" s="5"/>
     </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="135" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A135" s="11"/>
       <c r="B135" s="11"/>
       <c r="C135" s="11"/>
@@ -15216,7 +15216,7 @@
       <c r="E135" s="23"/>
       <c r="F135" s="5"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="136" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A136" s="11"/>
       <c r="B136" s="11"/>
       <c r="C136" s="11"/>
@@ -15224,7 +15224,7 @@
       <c r="E136" s="23"/>
       <c r="F136" s="5"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="137" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A137" s="11"/>
       <c r="B137" s="11"/>
       <c r="C137" s="11"/>
@@ -15232,7 +15232,7 @@
       <c r="E137" s="23"/>
       <c r="F137" s="5"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="138" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A138" s="11"/>
       <c r="B138" s="11"/>
       <c r="C138" s="11"/>
@@ -15240,7 +15240,7 @@
       <c r="E138" s="23"/>
       <c r="F138" s="5"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="139" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A139" s="11"/>
       <c r="B139" s="11"/>
       <c r="C139" s="11"/>
@@ -15248,7 +15248,7 @@
       <c r="E139" s="23"/>
       <c r="F139" s="5"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="140" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A140" s="11"/>
       <c r="B140" s="11"/>
       <c r="C140" s="11"/>
@@ -15256,7 +15256,7 @@
       <c r="E140" s="23"/>
       <c r="F140" s="5"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="141" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A141" s="11"/>
       <c r="B141" s="11"/>
       <c r="C141" s="11"/>
@@ -15264,7 +15264,7 @@
       <c r="E141" s="23"/>
       <c r="F141" s="5"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="142" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A142" s="11"/>
       <c r="B142" s="11"/>
       <c r="C142" s="11"/>
@@ -15272,7 +15272,7 @@
       <c r="E142" s="23"/>
       <c r="F142" s="5"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="143" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A143" s="11"/>
       <c r="B143" s="11"/>
       <c r="C143" s="11"/>
@@ -15280,7 +15280,7 @@
       <c r="E143" s="23"/>
       <c r="F143" s="5"/>
     </row>
-    <row r="144" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="144" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A144" s="11"/>
       <c r="B144" s="11"/>
       <c r="C144" s="11"/>
@@ -15288,7 +15288,7 @@
       <c r="E144" s="23"/>
       <c r="F144" s="5"/>
     </row>
-    <row r="145" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="145" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A145" s="11"/>
       <c r="B145" s="11"/>
       <c r="C145" s="11"/>
@@ -15296,7 +15296,7 @@
       <c r="E145" s="23"/>
       <c r="F145" s="5"/>
     </row>
-    <row r="146" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="146" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A146" s="11"/>
       <c r="B146" s="11"/>
       <c r="C146" s="11"/>
@@ -15304,7 +15304,7 @@
       <c r="E146" s="23"/>
       <c r="F146" s="5"/>
     </row>
-    <row r="147" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="147" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A147" s="11"/>
       <c r="B147" s="11"/>
       <c r="C147" s="11"/>
@@ -15312,7 +15312,7 @@
       <c r="E147" s="23"/>
       <c r="F147" s="5"/>
     </row>
-    <row r="148" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="148" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A148" s="11"/>
       <c r="B148" s="11"/>
       <c r="C148" s="11"/>
@@ -15320,7 +15320,7 @@
       <c r="E148" s="23"/>
       <c r="F148" s="5"/>
     </row>
-    <row r="149" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="149" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A149" s="11"/>
       <c r="B149" s="11"/>
       <c r="C149" s="11"/>
@@ -15328,7 +15328,7 @@
       <c r="E149" s="23"/>
       <c r="F149" s="5"/>
     </row>
-    <row r="150" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="150" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A150" s="11"/>
       <c r="B150" s="11"/>
       <c r="C150" s="11"/>
@@ -15336,7 +15336,7 @@
       <c r="E150" s="23"/>
       <c r="F150" s="5"/>
     </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="151" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A151" s="11"/>
       <c r="B151" s="11"/>
       <c r="C151" s="11"/>
@@ -15344,7 +15344,7 @@
       <c r="E151" s="23"/>
       <c r="F151" s="5"/>
     </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="152" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A152" s="11"/>
       <c r="B152" s="11"/>
       <c r="C152" s="11"/>
@@ -15352,7 +15352,7 @@
       <c r="E152" s="23"/>
       <c r="F152" s="5"/>
     </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="153" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A153" s="11"/>
       <c r="B153" s="11"/>
       <c r="C153" s="11"/>
@@ -15360,7 +15360,7 @@
       <c r="E153" s="23"/>
       <c r="F153" s="5"/>
     </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="154" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A154" s="11"/>
       <c r="B154" s="11"/>
       <c r="C154" s="11"/>
@@ -15368,7 +15368,7 @@
       <c r="E154" s="23"/>
       <c r="F154" s="5"/>
     </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="155" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A155" s="11"/>
       <c r="B155" s="11"/>
       <c r="C155" s="11"/>
@@ -15376,7 +15376,7 @@
       <c r="E155" s="23"/>
       <c r="F155" s="5"/>
     </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="156" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A156" s="11"/>
       <c r="B156" s="11"/>
       <c r="C156" s="11"/>
@@ -15384,7 +15384,7 @@
       <c r="E156" s="23"/>
       <c r="F156" s="5"/>
     </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="157" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A157" s="11"/>
       <c r="B157" s="11"/>
       <c r="C157" s="11"/>
@@ -15392,7 +15392,7 @@
       <c r="E157" s="23"/>
       <c r="F157" s="5"/>
     </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="158" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A158" s="11"/>
       <c r="B158" s="11"/>
       <c r="C158" s="11"/>
@@ -15400,7 +15400,7 @@
       <c r="E158" s="23"/>
       <c r="F158" s="5"/>
     </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="159" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A159" s="11"/>
       <c r="B159" s="11"/>
       <c r="C159" s="11"/>
@@ -15408,7 +15408,7 @@
       <c r="E159" s="23"/>
       <c r="F159" s="5"/>
     </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="160" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A160" s="11"/>
       <c r="B160" s="11"/>
       <c r="C160" s="11"/>
@@ -15416,7 +15416,7 @@
       <c r="E160" s="23"/>
       <c r="F160" s="5"/>
     </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="161" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A161" s="11"/>
       <c r="B161" s="11"/>
       <c r="C161" s="11"/>
@@ -15424,7 +15424,7 @@
       <c r="E161" s="23"/>
       <c r="F161" s="5"/>
     </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="162" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A162" s="11"/>
       <c r="B162" s="11"/>
       <c r="C162" s="11"/>
@@ -15432,7 +15432,7 @@
       <c r="E162" s="23"/>
       <c r="F162" s="5"/>
     </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="163" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A163" s="11"/>
       <c r="B163" s="11"/>
       <c r="C163" s="11"/>
@@ -15440,7 +15440,7 @@
       <c r="E163" s="23"/>
       <c r="F163" s="5"/>
     </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="164" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A164" s="11"/>
       <c r="B164" s="11"/>
       <c r="C164" s="11"/>
@@ -15448,7 +15448,7 @@
       <c r="E164" s="23"/>
       <c r="F164" s="5"/>
     </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="165" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A165" s="11"/>
       <c r="B165" s="11"/>
       <c r="C165" s="11"/>
@@ -15456,7 +15456,7 @@
       <c r="E165" s="23"/>
       <c r="F165" s="5"/>
     </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="166" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A166" s="11"/>
       <c r="B166" s="11"/>
       <c r="C166" s="11"/>
@@ -15464,7 +15464,7 @@
       <c r="E166" s="23"/>
       <c r="F166" s="5"/>
     </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="167" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A167" s="11"/>
       <c r="B167" s="11"/>
       <c r="C167" s="11"/>
@@ -15472,7 +15472,7 @@
       <c r="E167" s="23"/>
       <c r="F167" s="5"/>
     </row>
-    <row r="168" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="168" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A168" s="11"/>
       <c r="B168" s="11"/>
       <c r="C168" s="11"/>
@@ -15480,7 +15480,7 @@
       <c r="E168" s="23"/>
       <c r="F168" s="5"/>
     </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="169" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A169" s="11"/>
       <c r="B169" s="11"/>
       <c r="C169" s="11"/>
@@ -15488,7 +15488,7 @@
       <c r="E169" s="23"/>
       <c r="F169" s="5"/>
     </row>
-    <row r="170" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="170" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A170" s="11"/>
       <c r="B170" s="11"/>
       <c r="C170" s="11"/>
@@ -15496,7 +15496,7 @@
       <c r="E170" s="23"/>
       <c r="F170" s="5"/>
     </row>
-    <row r="171" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="171" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A171" s="11"/>
       <c r="B171" s="11"/>
       <c r="C171" s="11"/>
@@ -15504,7 +15504,7 @@
       <c r="E171" s="23"/>
       <c r="F171" s="5"/>
     </row>
-    <row r="172" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="172" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A172" s="11"/>
       <c r="B172" s="11"/>
       <c r="C172" s="11"/>
@@ -15512,7 +15512,7 @@
       <c r="E172" s="23"/>
       <c r="F172" s="5"/>
     </row>
-    <row r="173" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="173" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A173" s="11"/>
       <c r="B173" s="11"/>
       <c r="C173" s="11"/>
@@ -15520,7 +15520,7 @@
       <c r="E173" s="23"/>
       <c r="F173" s="5"/>
     </row>
-    <row r="174" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="174" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A174" s="11"/>
       <c r="B174" s="11"/>
       <c r="C174" s="11"/>
@@ -15528,7 +15528,7 @@
       <c r="E174" s="23"/>
       <c r="F174" s="5"/>
     </row>
-    <row r="175" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="175" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A175" s="11"/>
       <c r="B175" s="11"/>
       <c r="C175" s="11"/>
@@ -15536,7 +15536,7 @@
       <c r="E175" s="23"/>
       <c r="F175" s="5"/>
     </row>
-    <row r="176" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="176" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A176" s="11"/>
       <c r="B176" s="11"/>
       <c r="C176" s="11"/>
@@ -15544,7 +15544,7 @@
       <c r="E176" s="23"/>
       <c r="F176" s="5"/>
     </row>
-    <row r="177" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="177" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A177" s="11"/>
       <c r="B177" s="11"/>
       <c r="C177" s="11"/>
@@ -15552,7 +15552,7 @@
       <c r="E177" s="23"/>
       <c r="F177" s="5"/>
     </row>
-    <row r="178" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="178" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A178" s="11"/>
       <c r="B178" s="11"/>
       <c r="C178" s="11"/>
@@ -15560,7 +15560,7 @@
       <c r="E178" s="23"/>
       <c r="F178" s="5"/>
     </row>
-    <row r="179" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="179" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A179" s="11"/>
       <c r="B179" s="11"/>
       <c r="C179" s="11"/>
@@ -15568,7 +15568,7 @@
       <c r="E179" s="23"/>
       <c r="F179" s="5"/>
     </row>
-    <row r="180" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="180" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A180" s="11"/>
       <c r="B180" s="11"/>
       <c r="C180" s="11"/>
@@ -15576,7 +15576,7 @@
       <c r="E180" s="23"/>
       <c r="F180" s="5"/>
     </row>
-    <row r="181" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="181" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A181" s="11"/>
       <c r="B181" s="11"/>
       <c r="C181" s="11"/>
@@ -15584,7 +15584,7 @@
       <c r="E181" s="23"/>
       <c r="F181" s="5"/>
     </row>
-    <row r="182" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="182" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A182" s="11"/>
       <c r="B182" s="11"/>
       <c r="C182" s="11"/>
@@ -15592,7 +15592,7 @@
       <c r="E182" s="23"/>
       <c r="F182" s="5"/>
     </row>
-    <row r="183" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="183" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A183" s="11"/>
       <c r="B183" s="11"/>
       <c r="C183" s="11"/>
@@ -15600,7 +15600,7 @@
       <c r="E183" s="23"/>
       <c r="F183" s="5"/>
     </row>
-    <row r="184" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="184" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A184" s="11"/>
       <c r="B184" s="11"/>
       <c r="C184" s="11"/>
@@ -15608,7 +15608,7 @@
       <c r="E184" s="23"/>
       <c r="F184" s="5"/>
     </row>
-    <row r="185" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="185" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A185" s="11"/>
       <c r="B185" s="11"/>
       <c r="C185" s="11"/>
@@ -15616,7 +15616,7 @@
       <c r="E185" s="23"/>
       <c r="F185" s="5"/>
     </row>
-    <row r="186" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="186" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A186" s="11"/>
       <c r="B186" s="11"/>
       <c r="C186" s="11"/>
@@ -15624,7 +15624,7 @@
       <c r="E186" s="23"/>
       <c r="F186" s="5"/>
     </row>
-    <row r="187" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="187" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A187" s="11"/>
       <c r="B187" s="11"/>
       <c r="C187" s="11"/>
@@ -15632,7 +15632,7 @@
       <c r="E187" s="23"/>
       <c r="F187" s="5"/>
     </row>
-    <row r="188" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="188" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A188" s="11"/>
       <c r="B188" s="11"/>
       <c r="C188" s="11"/>
@@ -15640,7 +15640,7 @@
       <c r="E188" s="23"/>
       <c r="F188" s="5"/>
     </row>
-    <row r="189" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="189" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A189" s="11"/>
       <c r="B189" s="11"/>
       <c r="C189" s="11"/>
@@ -15648,7 +15648,7 @@
       <c r="E189" s="23"/>
       <c r="F189" s="5"/>
     </row>
-    <row r="190" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="190" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A190" s="11"/>
       <c r="B190" s="11"/>
       <c r="C190" s="11"/>
@@ -15656,7 +15656,7 @@
       <c r="E190" s="23"/>
       <c r="F190" s="5"/>
     </row>
-    <row r="191" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="191" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A191" s="11"/>
       <c r="B191" s="11"/>
       <c r="C191" s="11"/>
@@ -15664,7 +15664,7 @@
       <c r="E191" s="23"/>
       <c r="F191" s="5"/>
     </row>
-    <row r="192" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="192" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A192" s="11"/>
       <c r="B192" s="11"/>
       <c r="C192" s="11"/>
@@ -15672,7 +15672,7 @@
       <c r="E192" s="23"/>
       <c r="F192" s="5"/>
     </row>
-    <row r="193" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="193" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A193" s="11"/>
       <c r="B193" s="11"/>
       <c r="C193" s="11"/>
@@ -15680,7 +15680,7 @@
       <c r="E193" s="23"/>
       <c r="F193" s="5"/>
     </row>
-    <row r="194" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="194" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A194" s="11"/>
       <c r="B194" s="11"/>
       <c r="C194" s="11"/>
@@ -15688,7 +15688,7 @@
       <c r="E194" s="23"/>
       <c r="F194" s="5"/>
     </row>
-    <row r="195" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="195" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A195" s="11"/>
       <c r="B195" s="11"/>
       <c r="C195" s="11"/>
@@ -15696,7 +15696,7 @@
       <c r="E195" s="23"/>
       <c r="F195" s="5"/>
     </row>
-    <row r="196" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="196" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A196" s="11"/>
       <c r="B196" s="11"/>
       <c r="C196" s="11"/>
@@ -15704,7 +15704,7 @@
       <c r="E196" s="23"/>
       <c r="F196" s="5"/>
     </row>
-    <row r="197" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="197" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A197" s="11"/>
       <c r="B197" s="11"/>
       <c r="C197" s="11"/>
@@ -15712,7 +15712,7 @@
       <c r="E197" s="23"/>
       <c r="F197" s="5"/>
     </row>
-    <row r="198" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="198" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A198" s="11"/>
       <c r="B198" s="11"/>
       <c r="C198" s="11"/>
@@ -15720,7 +15720,7 @@
       <c r="E198" s="23"/>
       <c r="F198" s="5"/>
     </row>
-    <row r="199" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="199" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A199" s="11"/>
       <c r="B199" s="11"/>
       <c r="C199" s="11"/>
@@ -15728,7 +15728,7 @@
       <c r="E199" s="23"/>
       <c r="F199" s="5"/>
     </row>
-    <row r="200" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="200" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A200" s="11"/>
       <c r="B200" s="11"/>
       <c r="C200" s="11"/>
@@ -15736,7 +15736,7 @@
       <c r="E200" s="23"/>
       <c r="F200" s="5"/>
     </row>
-    <row r="201" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="201" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A201" s="11"/>
       <c r="B201" s="11"/>
       <c r="C201" s="11"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88A464E3-3D42-4A98-886C-012AE94C1947}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117CC4A8-A564-4669-AAC5-E2FB69F3B515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="2430" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{117CC4A8-A564-4669-AAC5-E2FB69F3B515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E4C083-69FF-46BB-8FA9-90C1D542DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5925" yWindow="1335" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1E4C083-69FF-46BB-8FA9-90C1D542DF76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC473A-7041-4E09-9E84-FC1C121700BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9375" yWindow="1275" windowWidth="30510" windowHeight="10200" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEBC473A-7041-4E09-9E84-FC1C121700BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B47A7-0A9A-4580-87DB-2D5041A7244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="1335" windowWidth="28800" windowHeight="11385" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D9B47A7-0A9A-4580-87DB-2D5041A7244B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB2FFC6-A3A0-4E2B-86EA-275E362477A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23780" yWindow="9920" windowWidth="19200" windowHeight="4750" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CB2FFC6-A3A0-4E2B-86EA-275E362477A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA558AAE-E014-4530-8DEF-26D2320B60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1905" yWindow="1905" windowWidth="29745" windowHeight="12540" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>

--- a/Workbooks/JA/トリガー.xlsx
+++ b/Workbooks/JA/トリガー.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ryota.okuji\Documents\UiPath\OrchestratorManager\Workbooks\JA\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA558AAE-E014-4530-8DEF-26D2320B60FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BAA3FD1-8C6C-4716-9A4C-14C9D0AE8C63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8100" yWindow="885" windowWidth="27225" windowHeight="11940" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7185" yWindow="3600" windowWidth="21375" windowHeight="9990" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="取得" sheetId="4" r:id="rId1"/>
